--- a/AAII_Financials/Quarterly/UXIN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/UXIN_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,218 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>66200</v>
+        <v>41900</v>
       </c>
       <c r="E8" s="3">
-        <v>63000</v>
+        <v>64600</v>
       </c>
       <c r="F8" s="3">
-        <v>55700</v>
+        <v>61500</v>
       </c>
       <c r="G8" s="3">
-        <v>163100</v>
+        <v>54300</v>
       </c>
       <c r="H8" s="3">
-        <v>49600</v>
+        <v>92200</v>
       </c>
       <c r="I8" s="3">
-        <v>39800</v>
+        <v>48400</v>
       </c>
       <c r="J8" s="3">
+        <v>38800</v>
+      </c>
+      <c r="K8" s="3">
         <v>28800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>104400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>80300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>55000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>48900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>51000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>34800</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>29600</v>
+        <v>13100</v>
       </c>
       <c r="E9" s="3">
-        <v>29400</v>
+        <v>28900</v>
       </c>
       <c r="F9" s="3">
-        <v>69000</v>
+        <v>28700</v>
       </c>
       <c r="G9" s="3">
-        <v>50700</v>
+        <v>67300</v>
       </c>
       <c r="H9" s="3">
-        <v>70600</v>
+        <v>58600</v>
       </c>
       <c r="I9" s="3">
-        <v>60200</v>
+        <v>68900</v>
       </c>
       <c r="J9" s="3">
+        <v>58800</v>
+      </c>
+      <c r="K9" s="3">
         <v>51100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>36700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>29000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>24300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>20600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>23500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>19700</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>36600</v>
+        <v>28800</v>
       </c>
       <c r="E10" s="3">
+        <v>35700</v>
+      </c>
+      <c r="F10" s="3">
+        <v>32800</v>
+      </c>
+      <c r="G10" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="H10" s="3">
         <v>33600</v>
       </c>
-      <c r="F10" s="3">
-        <v>-13300</v>
-      </c>
-      <c r="G10" s="3">
-        <v>112400</v>
-      </c>
-      <c r="H10" s="3">
-        <v>-21000</v>
-      </c>
       <c r="I10" s="3">
-        <v>-20400</v>
+        <v>-20500</v>
       </c>
       <c r="J10" s="3">
+        <v>-19900</v>
+      </c>
+      <c r="K10" s="3">
         <v>-22300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>67700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>51300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>30700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>28300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>27500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>15100</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,52 +893,56 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3">
-        <v>7700</v>
+      <c r="D12" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="E12" s="3">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="F12" s="3">
-        <v>18100</v>
+        <v>7900</v>
       </c>
       <c r="G12" s="3">
-        <v>13900</v>
+        <v>17700</v>
       </c>
       <c r="H12" s="3">
-        <v>16700</v>
+        <v>17400</v>
       </c>
       <c r="I12" s="3">
-        <v>18100</v>
+        <v>16300</v>
       </c>
       <c r="J12" s="3">
+        <v>17600</v>
+      </c>
+      <c r="K12" s="3">
         <v>13300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>11600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>7300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>7500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>7000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>7200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -969,8 +985,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -978,13 +997,13 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>5400</v>
+        <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>16</v>
+        <v>5300</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
@@ -1013,8 +1032,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1057,8 +1079,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1097,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>102500</v>
+        <v>86000</v>
       </c>
       <c r="E17" s="3">
-        <v>117600</v>
+        <v>100000</v>
       </c>
       <c r="F17" s="3">
-        <v>110400</v>
+        <v>114700</v>
       </c>
       <c r="G17" s="3">
-        <v>201300</v>
+        <v>107700</v>
       </c>
       <c r="H17" s="3">
-        <v>119900</v>
+        <v>440500</v>
       </c>
       <c r="I17" s="3">
-        <v>220300</v>
+        <v>117000</v>
       </c>
       <c r="J17" s="3">
+        <v>214800</v>
+      </c>
+      <c r="K17" s="3">
         <v>91800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>176100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>157900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>112600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>111300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>78500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>64500</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-36300</v>
+        <v>-44100</v>
       </c>
       <c r="E18" s="3">
-        <v>-54500</v>
+        <v>-35400</v>
       </c>
       <c r="F18" s="3">
-        <v>-54700</v>
+        <v>-53200</v>
       </c>
       <c r="G18" s="3">
-        <v>-38200</v>
+        <v>-53400</v>
       </c>
       <c r="H18" s="3">
-        <v>-70300</v>
+        <v>-348300</v>
       </c>
       <c r="I18" s="3">
-        <v>-180400</v>
+        <v>-68600</v>
       </c>
       <c r="J18" s="3">
+        <v>-176000</v>
+      </c>
+      <c r="K18" s="3">
         <v>-63000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-71700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-77600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-57600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-62400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-27500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-29700</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1178,52 +1210,56 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-3500</v>
+        <v>-600</v>
       </c>
       <c r="E20" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="F20" s="3">
         <v>900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1200</v>
       </c>
-      <c r="G20" s="3">
-        <v>-6700</v>
-      </c>
       <c r="H20" s="3">
-        <v>-3800</v>
+        <v>158900</v>
       </c>
       <c r="I20" s="3">
-        <v>221300</v>
+        <v>-3700</v>
       </c>
       <c r="J20" s="3">
+        <v>215900</v>
+      </c>
+      <c r="K20" s="3">
         <v>-50900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-62400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-35900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-27700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-11400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-12400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1239,35 +1275,38 @@
       <c r="G21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>16</v>
+      <c r="H21" s="3">
+        <v>-176100</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K21" s="3">
         <v>-111100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-130900</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O21" s="3">
         <v>-71500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-32200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-25700</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,96 +1349,105 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-44700</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-38800</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-52300</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-54600</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-189300</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-72200</v>
+      </c>
+      <c r="J23" s="3">
+        <v>39900</v>
+      </c>
+      <c r="K23" s="3">
+        <v>-113900</v>
+      </c>
+      <c r="L23" s="3">
+        <v>-134100</v>
+      </c>
+      <c r="M23" s="3">
+        <v>-113500</v>
+      </c>
+      <c r="N23" s="3">
+        <v>-85300</v>
+      </c>
+      <c r="O23" s="3">
+        <v>-73900</v>
+      </c>
+      <c r="P23" s="3">
         <v>-39800</v>
       </c>
-      <c r="E23" s="3">
-        <v>-53600</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-56000</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-44900</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-74000</v>
-      </c>
-      <c r="I23" s="3">
-        <v>40900</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-113900</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-134100</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-113500</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-85300</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-73900</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-39800</v>
-      </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-31500</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>300</v>
+      </c>
+      <c r="E24" s="3">
         <v>-100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>200</v>
       </c>
-      <c r="G24" s="3">
-        <v>600</v>
-      </c>
       <c r="H24" s="3">
+        <v>200</v>
+      </c>
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>300</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
         <v>0</v>
       </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>300</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1490,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-39800</v>
+        <v>-44900</v>
       </c>
       <c r="E26" s="3">
-        <v>-52800</v>
+        <v>-38800</v>
       </c>
       <c r="F26" s="3">
-        <v>-56200</v>
+        <v>-51500</v>
       </c>
       <c r="G26" s="3">
-        <v>-45500</v>
+        <v>-54800</v>
       </c>
       <c r="H26" s="3">
-        <v>-74200</v>
+        <v>-189600</v>
       </c>
       <c r="I26" s="3">
-        <v>40900</v>
+        <v>-72300</v>
       </c>
       <c r="J26" s="3">
+        <v>39900</v>
+      </c>
+      <c r="K26" s="3">
         <v>-114000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-133800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-113900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-85300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-73900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-40100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-31500</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-38300</v>
+        <v>-44000</v>
       </c>
       <c r="E27" s="3">
-        <v>-51600</v>
+        <v>-37300</v>
       </c>
       <c r="F27" s="3">
+        <v>-50300</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-53900</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-307900</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-72100</v>
+      </c>
+      <c r="J27" s="3">
+        <v>18100</v>
+      </c>
+      <c r="K27" s="3">
+        <v>-213700</v>
+      </c>
+      <c r="L27" s="3">
+        <v>-201000</v>
+      </c>
+      <c r="M27" s="3">
+        <v>-167600</v>
+      </c>
+      <c r="N27" s="3">
+        <v>-103700</v>
+      </c>
+      <c r="O27" s="3">
+        <v>-85900</v>
+      </c>
+      <c r="P27" s="3">
         <v>-55300</v>
       </c>
-      <c r="G27" s="3">
-        <v>-45100</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-73900</v>
-      </c>
-      <c r="I27" s="3">
-        <v>18600</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-213700</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-201000</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-167600</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-103700</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-85900</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-55300</v>
-      </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-46300</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,35 +1631,38 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
+        <v>-105900</v>
       </c>
       <c r="E29" s="3">
-        <v>-900</v>
+        <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>14400</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>16</v>
+        <v>-800</v>
+      </c>
+      <c r="G29" s="3">
+        <v>14100</v>
       </c>
       <c r="H29" s="3">
-        <v>-11100</v>
+        <v>-26100</v>
       </c>
       <c r="I29" s="3">
         <v>-10800</v>
       </c>
       <c r="J29" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="K29" s="3">
         <v>-6400</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
       <c r="L29" s="3">
         <v>0</v>
       </c>
@@ -1618,8 +1678,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1725,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1772,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>3500</v>
+        <v>600</v>
       </c>
       <c r="E32" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F32" s="3">
         <v>-900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1200</v>
       </c>
-      <c r="G32" s="3">
-        <v>6700</v>
-      </c>
       <c r="H32" s="3">
-        <v>3800</v>
+        <v>-158900</v>
       </c>
       <c r="I32" s="3">
-        <v>-221300</v>
+        <v>3700</v>
       </c>
       <c r="J32" s="3">
+        <v>-215900</v>
+      </c>
+      <c r="K32" s="3">
         <v>50900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>62400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>35900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>27700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>11400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>12400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-38300</v>
+        <v>-150000</v>
       </c>
       <c r="E33" s="3">
-        <v>-52500</v>
+        <v>-37300</v>
       </c>
       <c r="F33" s="3">
-        <v>-40800</v>
+        <v>-51200</v>
       </c>
       <c r="G33" s="3">
-        <v>-45100</v>
+        <v>-39800</v>
       </c>
       <c r="H33" s="3">
-        <v>-85000</v>
+        <v>-334000</v>
       </c>
       <c r="I33" s="3">
-        <v>7800</v>
+        <v>-82900</v>
       </c>
       <c r="J33" s="3">
+        <v>7600</v>
+      </c>
+      <c r="K33" s="3">
         <v>-220100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-201000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-167600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-103700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-85900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-55300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-46300</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1913,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-38300</v>
+        <v>-150000</v>
       </c>
       <c r="E35" s="3">
-        <v>-52500</v>
+        <v>-37300</v>
       </c>
       <c r="F35" s="3">
-        <v>-40800</v>
+        <v>-51200</v>
       </c>
       <c r="G35" s="3">
-        <v>-45100</v>
+        <v>-39800</v>
       </c>
       <c r="H35" s="3">
-        <v>-85000</v>
+        <v>-334000</v>
       </c>
       <c r="I35" s="3">
-        <v>7800</v>
+        <v>-82900</v>
       </c>
       <c r="J35" s="3">
+        <v>7600</v>
+      </c>
+      <c r="K35" s="3">
         <v>-220100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-201000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-167600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-103700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-85900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-55300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-46300</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2033,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,41 +2052,42 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>90000</v>
+        <v>66900</v>
       </c>
       <c r="E41" s="3">
-        <v>112300</v>
+        <v>87800</v>
       </c>
       <c r="F41" s="3">
-        <v>65300</v>
+        <v>109600</v>
       </c>
       <c r="G41" s="3">
-        <v>114900</v>
+        <v>63700</v>
       </c>
       <c r="H41" s="3">
-        <v>97200</v>
+        <v>112100</v>
       </c>
       <c r="I41" s="3">
-        <v>119000</v>
+        <v>94800</v>
       </c>
       <c r="J41" s="3">
+        <v>116100</v>
+      </c>
+      <c r="K41" s="3">
         <v>175000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>43300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>90300</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>16</v>
       </c>
@@ -2011,41 +2097,44 @@
       <c r="P41" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="E42" s="3">
-        <v>27300</v>
+        <v>19500</v>
       </c>
       <c r="F42" s="3">
-        <v>109700</v>
+        <v>26600</v>
       </c>
       <c r="G42" s="3">
-        <v>93700</v>
+        <v>107000</v>
       </c>
       <c r="H42" s="3">
-        <v>151100</v>
+        <v>91400</v>
       </c>
       <c r="I42" s="3">
-        <v>55800</v>
+        <v>147400</v>
       </c>
       <c r="J42" s="3">
+        <v>54500</v>
+      </c>
+      <c r="K42" s="3">
         <v>50500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>65300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>59400</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N42" s="3" t="s">
         <v>16</v>
       </c>
@@ -2055,41 +2144,44 @@
       <c r="P42" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>69100</v>
+        <v>296300</v>
       </c>
       <c r="E43" s="3">
-        <v>37000</v>
+        <v>67400</v>
       </c>
       <c r="F43" s="3">
-        <v>224600</v>
+        <v>36100</v>
       </c>
       <c r="G43" s="3">
-        <v>217700</v>
+        <v>219100</v>
       </c>
       <c r="H43" s="3">
-        <v>177300</v>
+        <v>212300</v>
       </c>
       <c r="I43" s="3">
-        <v>364000</v>
+        <v>172900</v>
       </c>
       <c r="J43" s="3">
+        <v>355100</v>
+      </c>
+      <c r="K43" s="3">
         <v>206500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>171000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>125600</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>16</v>
       </c>
@@ -2099,8 +2191,11 @@
       <c r="P43" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2108,32 +2203,32 @@
         <v>1900</v>
       </c>
       <c r="E44" s="3">
-        <v>2300</v>
+        <v>1900</v>
       </c>
       <c r="F44" s="3">
         <v>2300</v>
       </c>
       <c r="G44" s="3">
-        <v>2800</v>
+        <v>2200</v>
       </c>
       <c r="H44" s="3">
+        <v>2700</v>
+      </c>
+      <c r="I44" s="3">
+        <v>2500</v>
+      </c>
+      <c r="J44" s="3">
         <v>2600</v>
       </c>
-      <c r="I44" s="3">
-        <v>2600</v>
-      </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>6400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>11600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>18200</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N44" s="3" t="s">
         <v>16</v>
       </c>
@@ -2143,41 +2238,44 @@
       <c r="P44" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>714900</v>
+        <v>309900</v>
       </c>
       <c r="E45" s="3">
-        <v>699400</v>
+        <v>697400</v>
       </c>
       <c r="F45" s="3">
-        <v>482900</v>
+        <v>682300</v>
       </c>
       <c r="G45" s="3">
-        <v>843500</v>
+        <v>471000</v>
       </c>
       <c r="H45" s="3">
-        <v>531900</v>
+        <v>822800</v>
       </c>
       <c r="I45" s="3">
-        <v>448800</v>
+        <v>518800</v>
       </c>
       <c r="J45" s="3">
+        <v>437800</v>
+      </c>
+      <c r="K45" s="3">
         <v>443800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>436500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>309300</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>16</v>
       </c>
@@ -2187,41 +2285,44 @@
       <c r="P45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>895900</v>
+        <v>692100</v>
       </c>
       <c r="E46" s="3">
-        <v>878400</v>
+        <v>873900</v>
       </c>
       <c r="F46" s="3">
-        <v>884700</v>
+        <v>856900</v>
       </c>
       <c r="G46" s="3">
-        <v>956800</v>
+        <v>863000</v>
       </c>
       <c r="H46" s="3">
-        <v>960000</v>
+        <v>933300</v>
       </c>
       <c r="I46" s="3">
-        <v>990300</v>
+        <v>936400</v>
       </c>
       <c r="J46" s="3">
+        <v>966000</v>
+      </c>
+      <c r="K46" s="3">
         <v>882200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>727600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>602800</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>16</v>
       </c>
@@ -2231,41 +2332,44 @@
       <c r="P46" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>38300</v>
+        <v>38200</v>
       </c>
       <c r="E47" s="3">
-        <v>37500</v>
+        <v>37300</v>
       </c>
       <c r="F47" s="3">
-        <v>50900</v>
+        <v>36600</v>
       </c>
       <c r="G47" s="3">
-        <v>100400</v>
+        <v>49600</v>
       </c>
       <c r="H47" s="3">
-        <v>49900</v>
+        <v>97900</v>
       </c>
       <c r="I47" s="3">
-        <v>7900</v>
+        <v>48600</v>
       </c>
       <c r="J47" s="3">
+        <v>7700</v>
+      </c>
+      <c r="K47" s="3">
         <v>5600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>6000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>6100</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N47" s="3" t="s">
         <v>16</v>
       </c>
@@ -2275,41 +2379,44 @@
       <c r="P47" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>47100</v>
+        <v>21800</v>
       </c>
       <c r="E48" s="3">
-        <v>54400</v>
+        <v>45900</v>
       </c>
       <c r="F48" s="3">
-        <v>64500</v>
+        <v>53100</v>
       </c>
       <c r="G48" s="3">
-        <v>57200</v>
+        <v>62900</v>
       </c>
       <c r="H48" s="3">
-        <v>29100</v>
+        <v>55800</v>
       </c>
       <c r="I48" s="3">
-        <v>27700</v>
+        <v>28400</v>
       </c>
       <c r="J48" s="3">
+        <v>27000</v>
+      </c>
+      <c r="K48" s="3">
         <v>25400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>23200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>22600</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>16</v>
       </c>
@@ -2319,41 +2426,44 @@
       <c r="P48" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>17900</v>
+        <v>1400</v>
       </c>
       <c r="E49" s="3">
-        <v>18300</v>
+        <v>17400</v>
       </c>
       <c r="F49" s="3">
-        <v>18600</v>
+        <v>17800</v>
       </c>
       <c r="G49" s="3">
-        <v>21900</v>
+        <v>18100</v>
       </c>
       <c r="H49" s="3">
-        <v>19700</v>
+        <v>21400</v>
       </c>
       <c r="I49" s="3">
-        <v>19900</v>
+        <v>19200</v>
       </c>
       <c r="J49" s="3">
+        <v>19400</v>
+      </c>
+      <c r="K49" s="3">
         <v>12200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>12700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>12900</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N49" s="3" t="s">
         <v>16</v>
       </c>
@@ -2363,8 +2473,11 @@
       <c r="P49" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2520,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2567,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2465,26 +2584,26 @@
       <c r="F52" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G52" s="3">
-        <v>0</v>
+      <c r="G52" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="H52" s="3">
         <v>0</v>
       </c>
       <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
+        <v>15800</v>
+      </c>
+      <c r="K52" s="3">
         <v>16200</v>
-      </c>
-      <c r="J52" s="3">
-        <v>16200</v>
-      </c>
-      <c r="K52" s="3">
-        <v>16800</v>
       </c>
       <c r="L52" s="3">
         <v>16800</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>16</v>
+      <c r="M52" s="3">
+        <v>16800</v>
       </c>
       <c r="N52" s="3" t="s">
         <v>16</v>
@@ -2495,8 +2614,11 @@
       <c r="P52" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,41 +2661,44 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>999100</v>
+        <v>753400</v>
       </c>
       <c r="E54" s="3">
-        <v>988600</v>
+        <v>974600</v>
       </c>
       <c r="F54" s="3">
-        <v>1018600</v>
+        <v>964400</v>
       </c>
       <c r="G54" s="3">
-        <v>1054500</v>
+        <v>993600</v>
       </c>
       <c r="H54" s="3">
-        <v>1058600</v>
+        <v>1028600</v>
       </c>
       <c r="I54" s="3">
-        <v>1062000</v>
+        <v>1032600</v>
       </c>
       <c r="J54" s="3">
+        <v>1036000</v>
+      </c>
+      <c r="K54" s="3">
         <v>941600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>786400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>661100</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>16</v>
       </c>
@@ -2583,8 +2708,11 @@
       <c r="P54" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2729,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,41 +2748,42 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>220400</v>
+        <v>86900</v>
       </c>
       <c r="E57" s="3">
-        <v>214100</v>
+        <v>215000</v>
       </c>
       <c r="F57" s="3">
-        <v>222800</v>
+        <v>208900</v>
       </c>
       <c r="G57" s="3">
-        <v>209200</v>
+        <v>217400</v>
       </c>
       <c r="H57" s="3">
-        <v>172200</v>
+        <v>204000</v>
       </c>
       <c r="I57" s="3">
-        <v>156900</v>
+        <v>168000</v>
       </c>
       <c r="J57" s="3">
+        <v>153100</v>
+      </c>
+      <c r="K57" s="3">
         <v>15800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>18900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>15700</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>16</v>
       </c>
@@ -2663,41 +2793,44 @@
       <c r="P57" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>17400</v>
+        <v>82300</v>
       </c>
       <c r="E58" s="3">
-        <v>263200</v>
+        <v>17000</v>
       </c>
       <c r="F58" s="3">
-        <v>241200</v>
+        <v>256800</v>
       </c>
       <c r="G58" s="3">
-        <v>280600</v>
+        <v>235300</v>
       </c>
       <c r="H58" s="3">
-        <v>257600</v>
+        <v>273700</v>
       </c>
       <c r="I58" s="3">
-        <v>164400</v>
+        <v>251300</v>
       </c>
       <c r="J58" s="3">
+        <v>160400</v>
+      </c>
+      <c r="K58" s="3">
         <v>71500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>63300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>70800</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>16</v>
       </c>
@@ -2707,41 +2840,44 @@
       <c r="P58" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>242800</v>
+        <v>249800</v>
       </c>
       <c r="E59" s="3">
-        <v>202200</v>
+        <v>236900</v>
       </c>
       <c r="F59" s="3">
-        <v>151600</v>
+        <v>197200</v>
       </c>
       <c r="G59" s="3">
-        <v>548700</v>
+        <v>147900</v>
       </c>
       <c r="H59" s="3">
-        <v>151800</v>
+        <v>535300</v>
       </c>
       <c r="I59" s="3">
-        <v>165300</v>
+        <v>148100</v>
       </c>
       <c r="J59" s="3">
+        <v>161200</v>
+      </c>
+      <c r="K59" s="3">
         <v>587300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>561900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>447600</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>16</v>
       </c>
@@ -2751,41 +2887,44 @@
       <c r="P59" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>480700</v>
+        <v>419000</v>
       </c>
       <c r="E60" s="3">
-        <v>679600</v>
+        <v>468900</v>
       </c>
       <c r="F60" s="3">
-        <v>615600</v>
+        <v>662900</v>
       </c>
       <c r="G60" s="3">
-        <v>661700</v>
+        <v>600500</v>
       </c>
       <c r="H60" s="3">
-        <v>581600</v>
+        <v>645500</v>
       </c>
       <c r="I60" s="3">
-        <v>486600</v>
+        <v>567400</v>
       </c>
       <c r="J60" s="3">
+        <v>474700</v>
+      </c>
+      <c r="K60" s="3">
         <v>674700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>644100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>534100</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>16</v>
       </c>
@@ -2795,38 +2934,41 @@
       <c r="P60" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>292400</v>
+        <v>267900</v>
       </c>
       <c r="E61" s="3">
-        <v>42000</v>
+        <v>285200</v>
       </c>
       <c r="F61" s="3">
-        <v>64900</v>
+        <v>41000</v>
       </c>
       <c r="G61" s="3">
-        <v>51800</v>
+        <v>63300</v>
       </c>
       <c r="H61" s="3">
-        <v>89000</v>
+        <v>50500</v>
       </c>
       <c r="I61" s="3">
-        <v>97600</v>
+        <v>86800</v>
       </c>
       <c r="J61" s="3">
+        <v>95200</v>
+      </c>
+      <c r="K61" s="3">
         <v>74400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>55500</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -2839,41 +2981,44 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>11300</v>
+        <v>1400</v>
       </c>
       <c r="E62" s="3">
-        <v>9200</v>
+        <v>11000</v>
       </c>
       <c r="F62" s="3">
-        <v>30100</v>
+        <v>9000</v>
       </c>
       <c r="G62" s="3">
-        <v>5000</v>
+        <v>29400</v>
       </c>
       <c r="H62" s="3">
-        <v>15300</v>
+        <v>4800</v>
       </c>
       <c r="I62" s="3">
-        <v>33000</v>
+        <v>15000</v>
       </c>
       <c r="J62" s="3">
+        <v>32200</v>
+      </c>
+      <c r="K62" s="3">
         <v>58300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>51300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>49400</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>16</v>
       </c>
@@ -2883,8 +3028,11 @@
       <c r="P62" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3075,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3122,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,41 +3169,44 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>783900</v>
+        <v>687800</v>
       </c>
       <c r="E66" s="3">
-        <v>730300</v>
+        <v>764600</v>
       </c>
       <c r="F66" s="3">
-        <v>710200</v>
+        <v>712400</v>
       </c>
       <c r="G66" s="3">
-        <v>713800</v>
+        <v>692800</v>
       </c>
       <c r="H66" s="3">
-        <v>686500</v>
+        <v>696300</v>
       </c>
       <c r="I66" s="3">
-        <v>618100</v>
+        <v>669700</v>
       </c>
       <c r="J66" s="3">
+        <v>602900</v>
+      </c>
+      <c r="K66" s="3">
         <v>804700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>749300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>582400</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>16</v>
       </c>
@@ -3059,8 +3216,11 @@
       <c r="P66" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3237,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3282,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3329,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3189,17 +3356,17 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
+        <v>0</v>
+      </c>
+      <c r="K70" s="3">
         <v>1521600</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>1243800</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>1086400</v>
       </c>
-      <c r="M70" s="3">
-        <v>0</v>
-      </c>
       <c r="N70" s="3">
         <v>0</v>
       </c>
@@ -3209,8 +3376,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,41 +3423,44 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1664000</v>
+        <v>-1773200</v>
       </c>
       <c r="E72" s="3">
-        <v>-1625700</v>
+        <v>-1623200</v>
       </c>
       <c r="F72" s="3">
-        <v>-1573300</v>
+        <v>-1585800</v>
       </c>
       <c r="G72" s="3">
-        <v>-1532400</v>
+        <v>-1534700</v>
       </c>
       <c r="H72" s="3">
-        <v>-1487400</v>
+        <v>-1494800</v>
       </c>
       <c r="I72" s="3">
-        <v>-1402400</v>
+        <v>-1450900</v>
       </c>
       <c r="J72" s="3">
+        <v>-1368000</v>
+      </c>
+      <c r="K72" s="3">
         <v>-1397400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1218100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1016300</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>16</v>
       </c>
@@ -3297,8 +3470,11 @@
       <c r="P72" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3517,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3564,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,41 +3611,44 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>215200</v>
+        <v>65700</v>
       </c>
       <c r="E76" s="3">
-        <v>258300</v>
+        <v>210000</v>
       </c>
       <c r="F76" s="3">
-        <v>308400</v>
+        <v>252000</v>
       </c>
       <c r="G76" s="3">
-        <v>340600</v>
+        <v>300800</v>
       </c>
       <c r="H76" s="3">
-        <v>372000</v>
+        <v>332300</v>
       </c>
       <c r="I76" s="3">
-        <v>443900</v>
+        <v>362900</v>
       </c>
       <c r="J76" s="3">
+        <v>433100</v>
+      </c>
+      <c r="K76" s="3">
         <v>-1384700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1206700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1007600</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>16</v>
       </c>
@@ -3473,8 +3658,11 @@
       <c r="P76" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3705,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-38300</v>
+        <v>-150000</v>
       </c>
       <c r="E81" s="3">
-        <v>-52500</v>
+        <v>-37300</v>
       </c>
       <c r="F81" s="3">
-        <v>-40800</v>
+        <v>-51200</v>
       </c>
       <c r="G81" s="3">
-        <v>-45100</v>
+        <v>-39800</v>
       </c>
       <c r="H81" s="3">
-        <v>-85000</v>
+        <v>-334000</v>
       </c>
       <c r="I81" s="3">
-        <v>7800</v>
+        <v>-82900</v>
       </c>
       <c r="J81" s="3">
+        <v>7600</v>
+      </c>
+      <c r="K81" s="3">
         <v>-220100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-201000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-167600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-103700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-85900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-55300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-46300</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +3825,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3645,35 +3843,38 @@
       <c r="G83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>16</v>
+      <c r="H83" s="3">
+        <v>13200</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J83" s="3">
+      <c r="J83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K83" s="3">
         <v>2800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>3200</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N83" s="3">
+      <c r="N83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O83" s="3">
         <v>2400</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P83" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3917,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3964,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4011,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4058,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,8 +4105,11 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3909,35 +4125,38 @@
       <c r="G89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>16</v>
+      <c r="H89" s="3">
+        <v>-319300</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J89" s="3">
+      <c r="J89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K89" s="3">
         <v>-53400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-121700</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N89" s="3">
+      <c r="N89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O89" s="3">
         <v>-70300</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P89" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4173,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3971,35 +4191,38 @@
       <c r="G91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>16</v>
+      <c r="H91" s="3">
+        <v>-18700</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J91" s="3">
+      <c r="J91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K91" s="3">
         <v>-5900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3400</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N91" s="3">
+      <c r="N91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O91" s="3">
         <v>-3300</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P91" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4265,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4312,11 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4103,35 +4332,38 @@
       <c r="G94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>16</v>
+      <c r="H94" s="3">
+        <v>-151000</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J94" s="3">
+      <c r="J94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K94" s="3">
         <v>-43800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-36000</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N94" s="3">
+      <c r="N94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O94" s="3">
         <v>-88700</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P94" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4380,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4425,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4472,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4519,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,8 +4566,11 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4341,35 +4586,38 @@
       <c r="G100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>16</v>
+      <c r="H100" s="3">
+        <v>598200</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J100" s="3">
+      <c r="J100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K100" s="3">
         <v>230400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>110900</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N100" s="3">
+      <c r="N100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O100" s="3">
         <v>181900</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P100" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4385,35 +4633,38 @@
       <c r="G101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>16</v>
+      <c r="H101" s="3">
+        <v>-1300</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J101" s="3">
+      <c r="J101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K101" s="3">
         <v>-100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-200</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N101" s="3">
+      <c r="N101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O101" s="3">
         <v>200</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P101" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4429,31 +4680,34 @@
       <c r="G102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>16</v>
+      <c r="H102" s="3">
+        <v>126600</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J102" s="3">
+      <c r="J102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K102" s="3">
         <v>133100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-47000</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N102" s="3">
+      <c r="N102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O102" s="3">
         <v>23200</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>16</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/UXIN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/UXIN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="92">
   <si>
     <t>UXIN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,218 +665,231 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>41900</v>
+        <v>15100</v>
       </c>
       <c r="E8" s="3">
-        <v>64600</v>
+        <v>43500</v>
       </c>
       <c r="F8" s="3">
-        <v>61500</v>
+        <v>67000</v>
       </c>
       <c r="G8" s="3">
-        <v>54300</v>
+        <v>63800</v>
       </c>
       <c r="H8" s="3">
-        <v>92200</v>
+        <v>48800</v>
       </c>
       <c r="I8" s="3">
-        <v>48400</v>
+        <v>95700</v>
       </c>
       <c r="J8" s="3">
+        <v>50200</v>
+      </c>
+      <c r="K8" s="3">
         <v>38800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>28800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>104400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>80300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>55000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>48900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>51000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>34800</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>13100</v>
+        <v>16100</v>
       </c>
       <c r="E9" s="3">
-        <v>28900</v>
+        <v>13600</v>
       </c>
       <c r="F9" s="3">
-        <v>28700</v>
+        <v>30000</v>
       </c>
       <c r="G9" s="3">
-        <v>67300</v>
+        <v>29800</v>
       </c>
       <c r="H9" s="3">
-        <v>58600</v>
+        <v>49500</v>
       </c>
       <c r="I9" s="3">
-        <v>68900</v>
+        <v>60800</v>
       </c>
       <c r="J9" s="3">
+        <v>71500</v>
+      </c>
+      <c r="K9" s="3">
         <v>58800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>51100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>36700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>29000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>24300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>20600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>23500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>19700</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>28800</v>
+        <v>-1000</v>
       </c>
       <c r="E10" s="3">
-        <v>35700</v>
+        <v>29900</v>
       </c>
       <c r="F10" s="3">
-        <v>32800</v>
+        <v>37000</v>
       </c>
       <c r="G10" s="3">
-        <v>-13000</v>
+        <v>34000</v>
       </c>
       <c r="H10" s="3">
-        <v>33600</v>
+        <v>-700</v>
       </c>
       <c r="I10" s="3">
-        <v>-20500</v>
+        <v>34900</v>
       </c>
       <c r="J10" s="3">
+        <v>-21200</v>
+      </c>
+      <c r="K10" s="3">
         <v>-19900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-22300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>67700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>51300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>30700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>28300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>27500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>15100</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -894,55 +907,59 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="3">
+      <c r="D12" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="3">
+        <v>7800</v>
+      </c>
+      <c r="G12" s="3">
+        <v>8100</v>
+      </c>
+      <c r="H12" s="3">
+        <v>16400</v>
+      </c>
+      <c r="I12" s="3">
+        <v>18100</v>
+      </c>
+      <c r="J12" s="3">
+        <v>16900</v>
+      </c>
+      <c r="K12" s="3">
+        <v>17600</v>
+      </c>
+      <c r="L12" s="3">
+        <v>13300</v>
+      </c>
+      <c r="M12" s="3">
+        <v>11600</v>
+      </c>
+      <c r="N12" s="3">
+        <v>7300</v>
+      </c>
+      <c r="O12" s="3">
         <v>7500</v>
       </c>
-      <c r="F12" s="3">
-        <v>7900</v>
-      </c>
-      <c r="G12" s="3">
-        <v>17700</v>
-      </c>
-      <c r="H12" s="3">
-        <v>17400</v>
-      </c>
-      <c r="I12" s="3">
-        <v>16300</v>
-      </c>
-      <c r="J12" s="3">
-        <v>17600</v>
-      </c>
-      <c r="K12" s="3">
-        <v>13300</v>
-      </c>
-      <c r="L12" s="3">
-        <v>11600</v>
-      </c>
-      <c r="M12" s="3">
-        <v>7300</v>
-      </c>
-      <c r="N12" s="3">
-        <v>7500</v>
-      </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>7000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>7200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -988,25 +1005,28 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>-26000</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>5300</v>
+        <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>0</v>
+        <v>5500</v>
       </c>
       <c r="H14" s="3">
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
@@ -1035,8 +1055,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1082,8 +1105,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,102 +1124,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>86000</v>
+        <v>306600</v>
       </c>
       <c r="E17" s="3">
-        <v>100000</v>
+        <v>89200</v>
       </c>
       <c r="F17" s="3">
-        <v>114700</v>
+        <v>103800</v>
       </c>
       <c r="G17" s="3">
-        <v>107700</v>
+        <v>119000</v>
       </c>
       <c r="H17" s="3">
-        <v>440500</v>
+        <v>91600</v>
       </c>
       <c r="I17" s="3">
-        <v>117000</v>
+        <v>457100</v>
       </c>
       <c r="J17" s="3">
+        <v>121400</v>
+      </c>
+      <c r="K17" s="3">
         <v>214800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>91800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>176100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>157900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>112600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>111300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>78500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>64500</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-44100</v>
+        <v>-291500</v>
       </c>
       <c r="E18" s="3">
-        <v>-35400</v>
+        <v>-45800</v>
       </c>
       <c r="F18" s="3">
-        <v>-53200</v>
+        <v>-36800</v>
       </c>
       <c r="G18" s="3">
-        <v>-53400</v>
+        <v>-55200</v>
       </c>
       <c r="H18" s="3">
-        <v>-348300</v>
+        <v>-42800</v>
       </c>
       <c r="I18" s="3">
-        <v>-68600</v>
+        <v>-361400</v>
       </c>
       <c r="J18" s="3">
+        <v>-71100</v>
+      </c>
+      <c r="K18" s="3">
         <v>-176000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-63000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-71700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-77600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-57600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-62400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-27500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-29700</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1211,55 +1244,59 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="E20" s="3">
         <v>-600</v>
       </c>
-      <c r="E20" s="3">
-        <v>-3400</v>
-      </c>
       <c r="F20" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="G20" s="3">
         <v>900</v>
       </c>
-      <c r="G20" s="3">
-        <v>-1200</v>
-      </c>
       <c r="H20" s="3">
-        <v>158900</v>
+        <v>-700</v>
       </c>
       <c r="I20" s="3">
-        <v>-3700</v>
+        <v>164900</v>
       </c>
       <c r="J20" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="K20" s="3">
         <v>215900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-50900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-62400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-35900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-27700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-11400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-12400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1275,38 +1312,41 @@
       <c r="G21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H21" s="3">
-        <v>-176100</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>16</v>
+      <c r="H21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-182700</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L21" s="3">
         <v>-111100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-130900</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P21" s="3">
         <v>-71500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-32200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-25700</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1352,102 +1392,111 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-44700</v>
+        <v>-296400</v>
       </c>
       <c r="E23" s="3">
-        <v>-38800</v>
+        <v>-46400</v>
       </c>
       <c r="F23" s="3">
-        <v>-52300</v>
+        <v>-40300</v>
       </c>
       <c r="G23" s="3">
-        <v>-54600</v>
+        <v>-54300</v>
       </c>
       <c r="H23" s="3">
-        <v>-189300</v>
+        <v>-43600</v>
       </c>
       <c r="I23" s="3">
-        <v>-72200</v>
+        <v>-196500</v>
       </c>
       <c r="J23" s="3">
+        <v>-74900</v>
+      </c>
+      <c r="K23" s="3">
         <v>39900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-113900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-134100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-113500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-85300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-73900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-39800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-31500</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I24" s="3">
         <v>200</v>
       </c>
-      <c r="H24" s="3">
-        <v>200</v>
-      </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>100</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>300</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
         <v>0</v>
       </c>
       <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>300</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1542,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-44900</v>
+        <v>-296500</v>
       </c>
       <c r="E26" s="3">
-        <v>-38800</v>
+        <v>-46600</v>
       </c>
       <c r="F26" s="3">
-        <v>-51500</v>
+        <v>-40200</v>
       </c>
       <c r="G26" s="3">
-        <v>-54800</v>
+        <v>-53500</v>
       </c>
       <c r="H26" s="3">
-        <v>-189600</v>
+        <v>-43300</v>
       </c>
       <c r="I26" s="3">
-        <v>-72300</v>
+        <v>-196700</v>
       </c>
       <c r="J26" s="3">
+        <v>-75100</v>
+      </c>
+      <c r="K26" s="3">
         <v>39900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-114000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-133800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-113900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-85300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-73900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-40100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-31500</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-44000</v>
+        <v>-294700</v>
       </c>
       <c r="E27" s="3">
-        <v>-37300</v>
+        <v>-45700</v>
       </c>
       <c r="F27" s="3">
-        <v>-50300</v>
+        <v>-38800</v>
       </c>
       <c r="G27" s="3">
-        <v>-53900</v>
+        <v>-52200</v>
       </c>
       <c r="H27" s="3">
-        <v>-307900</v>
+        <v>-42900</v>
       </c>
       <c r="I27" s="3">
-        <v>-72100</v>
+        <v>-319500</v>
       </c>
       <c r="J27" s="3">
+        <v>-74800</v>
+      </c>
+      <c r="K27" s="3">
         <v>18100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-213700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-201000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-167600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-103700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-85900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-55300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-46300</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,38 +1692,41 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-105900</v>
+        <v>-66100</v>
       </c>
       <c r="E29" s="3">
-        <v>0</v>
+        <v>-109900</v>
       </c>
       <c r="F29" s="3">
-        <v>-800</v>
+        <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>14100</v>
+        <v>-900</v>
       </c>
       <c r="H29" s="3">
-        <v>-26100</v>
+        <v>1500</v>
       </c>
       <c r="I29" s="3">
-        <v>-10800</v>
+        <v>-27100</v>
       </c>
       <c r="J29" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="K29" s="3">
         <v>-10500</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-6400</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
       <c r="M29" s="3">
         <v>0</v>
       </c>
@@ -1681,8 +1742,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,102 +1842,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E32" s="3">
         <v>600</v>
       </c>
-      <c r="E32" s="3">
-        <v>3400</v>
-      </c>
       <c r="F32" s="3">
+        <v>3500</v>
+      </c>
+      <c r="G32" s="3">
         <v>-900</v>
       </c>
-      <c r="G32" s="3">
-        <v>1200</v>
-      </c>
       <c r="H32" s="3">
-        <v>-158900</v>
+        <v>700</v>
       </c>
       <c r="I32" s="3">
-        <v>3700</v>
+        <v>-164900</v>
       </c>
       <c r="J32" s="3">
+        <v>3800</v>
+      </c>
+      <c r="K32" s="3">
         <v>-215900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>50900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>62400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>35900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>27700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>11400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>12400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-150000</v>
+        <v>-360800</v>
       </c>
       <c r="E33" s="3">
-        <v>-37300</v>
+        <v>-155600</v>
       </c>
       <c r="F33" s="3">
-        <v>-51200</v>
+        <v>-38800</v>
       </c>
       <c r="G33" s="3">
-        <v>-39800</v>
+        <v>-53100</v>
       </c>
       <c r="H33" s="3">
-        <v>-334000</v>
+        <v>-41300</v>
       </c>
       <c r="I33" s="3">
-        <v>-82900</v>
+        <v>-346600</v>
       </c>
       <c r="J33" s="3">
+        <v>-86100</v>
+      </c>
+      <c r="K33" s="3">
         <v>7600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-220100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-201000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-167600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-103700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-85900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-55300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-46300</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +1992,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-150000</v>
+        <v>-360800</v>
       </c>
       <c r="E35" s="3">
-        <v>-37300</v>
+        <v>-155600</v>
       </c>
       <c r="F35" s="3">
-        <v>-51200</v>
+        <v>-38800</v>
       </c>
       <c r="G35" s="3">
-        <v>-39800</v>
+        <v>-53100</v>
       </c>
       <c r="H35" s="3">
-        <v>-334000</v>
+        <v>-41300</v>
       </c>
       <c r="I35" s="3">
-        <v>-82900</v>
+        <v>-346600</v>
       </c>
       <c r="J35" s="3">
+        <v>-86100</v>
+      </c>
+      <c r="K35" s="3">
         <v>7600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-220100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-201000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-167600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-103700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-85900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-55300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-46300</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,44 +2139,45 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>66900</v>
+        <v>49700</v>
       </c>
       <c r="E41" s="3">
-        <v>87800</v>
+        <v>69400</v>
       </c>
       <c r="F41" s="3">
-        <v>109600</v>
+        <v>91100</v>
       </c>
       <c r="G41" s="3">
-        <v>63700</v>
+        <v>113700</v>
       </c>
       <c r="H41" s="3">
-        <v>112100</v>
+        <v>66100</v>
       </c>
       <c r="I41" s="3">
-        <v>94800</v>
+        <v>116300</v>
       </c>
       <c r="J41" s="3">
+        <v>98300</v>
+      </c>
+      <c r="K41" s="3">
         <v>116100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>175000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>43300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>90300</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>16</v>
       </c>
@@ -2100,44 +2187,47 @@
       <c r="Q41" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>17000</v>
+        <v>2200</v>
       </c>
       <c r="E42" s="3">
-        <v>19500</v>
+        <v>17700</v>
       </c>
       <c r="F42" s="3">
-        <v>26600</v>
+        <v>20200</v>
       </c>
       <c r="G42" s="3">
-        <v>107000</v>
+        <v>27600</v>
       </c>
       <c r="H42" s="3">
-        <v>91400</v>
+        <v>111000</v>
       </c>
       <c r="I42" s="3">
-        <v>147400</v>
+        <v>94800</v>
       </c>
       <c r="J42" s="3">
+        <v>152900</v>
+      </c>
+      <c r="K42" s="3">
         <v>54500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>50500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>65300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>59400</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O42" s="3" t="s">
         <v>16</v>
       </c>
@@ -2147,44 +2237,47 @@
       <c r="Q42" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>296300</v>
+        <v>105500</v>
       </c>
       <c r="E43" s="3">
-        <v>67400</v>
+        <v>307400</v>
       </c>
       <c r="F43" s="3">
-        <v>36100</v>
+        <v>70000</v>
       </c>
       <c r="G43" s="3">
-        <v>219100</v>
+        <v>37500</v>
       </c>
       <c r="H43" s="3">
-        <v>212300</v>
+        <v>227400</v>
       </c>
       <c r="I43" s="3">
-        <v>172900</v>
+        <v>220300</v>
       </c>
       <c r="J43" s="3">
+        <v>179400</v>
+      </c>
+      <c r="K43" s="3">
         <v>355100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>206500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>171000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>125600</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>16</v>
       </c>
@@ -2194,44 +2287,47 @@
       <c r="Q43" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E44" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F44" s="3">
         <v>1900</v>
       </c>
-      <c r="E44" s="3">
-        <v>1900</v>
-      </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>2300</v>
       </c>
-      <c r="G44" s="3">
-        <v>2200</v>
-      </c>
       <c r="H44" s="3">
-        <v>2700</v>
+        <v>2300</v>
       </c>
       <c r="I44" s="3">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="J44" s="3">
         <v>2600</v>
       </c>
       <c r="K44" s="3">
+        <v>2600</v>
+      </c>
+      <c r="L44" s="3">
         <v>6400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>11600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>18200</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O44" s="3" t="s">
         <v>16</v>
       </c>
@@ -2241,44 +2337,47 @@
       <c r="Q44" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>309900</v>
+        <v>166200</v>
       </c>
       <c r="E45" s="3">
-        <v>697400</v>
+        <v>321600</v>
       </c>
       <c r="F45" s="3">
-        <v>682300</v>
+        <v>723600</v>
       </c>
       <c r="G45" s="3">
-        <v>471000</v>
+        <v>708000</v>
       </c>
       <c r="H45" s="3">
-        <v>822800</v>
+        <v>488700</v>
       </c>
       <c r="I45" s="3">
-        <v>518800</v>
+        <v>853700</v>
       </c>
       <c r="J45" s="3">
+        <v>538400</v>
+      </c>
+      <c r="K45" s="3">
         <v>437800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>443800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>436500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>309300</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>16</v>
       </c>
@@ -2288,44 +2387,47 @@
       <c r="Q45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>692100</v>
+        <v>325200</v>
       </c>
       <c r="E46" s="3">
-        <v>873900</v>
+        <v>718100</v>
       </c>
       <c r="F46" s="3">
-        <v>856900</v>
+        <v>906800</v>
       </c>
       <c r="G46" s="3">
-        <v>863000</v>
+        <v>889100</v>
       </c>
       <c r="H46" s="3">
-        <v>933300</v>
+        <v>895500</v>
       </c>
       <c r="I46" s="3">
-        <v>936400</v>
+        <v>968500</v>
       </c>
       <c r="J46" s="3">
+        <v>971700</v>
+      </c>
+      <c r="K46" s="3">
         <v>966000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>882200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>727600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>602800</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>16</v>
       </c>
@@ -2335,44 +2437,47 @@
       <c r="Q46" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>38200</v>
+        <v>40200</v>
       </c>
       <c r="E47" s="3">
-        <v>37300</v>
+        <v>39600</v>
       </c>
       <c r="F47" s="3">
-        <v>36600</v>
+        <v>38800</v>
       </c>
       <c r="G47" s="3">
-        <v>49600</v>
+        <v>37900</v>
       </c>
       <c r="H47" s="3">
-        <v>97900</v>
+        <v>51500</v>
       </c>
       <c r="I47" s="3">
-        <v>48600</v>
+        <v>101600</v>
       </c>
       <c r="J47" s="3">
+        <v>50500</v>
+      </c>
+      <c r="K47" s="3">
         <v>7700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>5600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>6000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>6100</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O47" s="3" t="s">
         <v>16</v>
       </c>
@@ -2382,44 +2487,47 @@
       <c r="Q47" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>21800</v>
+        <v>17700</v>
       </c>
       <c r="E48" s="3">
-        <v>45900</v>
+        <v>22600</v>
       </c>
       <c r="F48" s="3">
-        <v>53100</v>
+        <v>47600</v>
       </c>
       <c r="G48" s="3">
-        <v>62900</v>
+        <v>55100</v>
       </c>
       <c r="H48" s="3">
-        <v>55800</v>
+        <v>65300</v>
       </c>
       <c r="I48" s="3">
-        <v>28400</v>
+        <v>57900</v>
       </c>
       <c r="J48" s="3">
+        <v>29400</v>
+      </c>
+      <c r="K48" s="3">
         <v>27000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>25400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>23200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>22600</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>16</v>
       </c>
@@ -2429,8 +2537,11 @@
       <c r="Q48" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2438,35 +2549,35 @@
         <v>1400</v>
       </c>
       <c r="E49" s="3">
-        <v>17400</v>
+        <v>1400</v>
       </c>
       <c r="F49" s="3">
-        <v>17800</v>
+        <v>18100</v>
       </c>
       <c r="G49" s="3">
-        <v>18100</v>
+        <v>18500</v>
       </c>
       <c r="H49" s="3">
-        <v>21400</v>
+        <v>18800</v>
       </c>
       <c r="I49" s="3">
-        <v>19200</v>
+        <v>22200</v>
       </c>
       <c r="J49" s="3">
+        <v>19900</v>
+      </c>
+      <c r="K49" s="3">
         <v>19400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>12200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>12700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>12900</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O49" s="3" t="s">
         <v>16</v>
       </c>
@@ -2476,8 +2587,11 @@
       <c r="Q49" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,8 +2687,11 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2587,26 +2707,26 @@
       <c r="G52" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H52" s="3">
-        <v>0</v>
+      <c r="H52" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="I52" s="3">
         <v>0</v>
       </c>
       <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3">
         <v>15800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>16200</v>
-      </c>
-      <c r="L52" s="3">
-        <v>16800</v>
       </c>
       <c r="M52" s="3">
         <v>16800</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>16</v>
+      <c r="N52" s="3">
+        <v>16800</v>
       </c>
       <c r="O52" s="3" t="s">
         <v>16</v>
@@ -2617,8 +2737,11 @@
       <c r="Q52" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,44 +2787,47 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>753400</v>
+        <v>384500</v>
       </c>
       <c r="E54" s="3">
-        <v>974600</v>
+        <v>781800</v>
       </c>
       <c r="F54" s="3">
-        <v>964400</v>
+        <v>1011300</v>
       </c>
       <c r="G54" s="3">
-        <v>993600</v>
+        <v>1000700</v>
       </c>
       <c r="H54" s="3">
-        <v>1028600</v>
+        <v>1031000</v>
       </c>
       <c r="I54" s="3">
-        <v>1032600</v>
+        <v>1067400</v>
       </c>
       <c r="J54" s="3">
+        <v>1071500</v>
+      </c>
+      <c r="K54" s="3">
         <v>1036000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>941600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>786400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>661100</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>16</v>
       </c>
@@ -2711,8 +2837,11 @@
       <c r="Q54" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,44 +2879,45 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>86900</v>
+        <v>190000</v>
       </c>
       <c r="E57" s="3">
-        <v>215000</v>
+        <v>90100</v>
       </c>
       <c r="F57" s="3">
-        <v>208900</v>
+        <v>223100</v>
       </c>
       <c r="G57" s="3">
-        <v>217400</v>
+        <v>216700</v>
       </c>
       <c r="H57" s="3">
-        <v>204000</v>
+        <v>225600</v>
       </c>
       <c r="I57" s="3">
-        <v>168000</v>
+        <v>211700</v>
       </c>
       <c r="J57" s="3">
+        <v>174300</v>
+      </c>
+      <c r="K57" s="3">
         <v>153100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>15800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>18900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>15700</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>16</v>
       </c>
@@ -2796,44 +2927,47 @@
       <c r="Q57" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>82300</v>
+        <v>71800</v>
       </c>
       <c r="E58" s="3">
-        <v>17000</v>
+        <v>85400</v>
       </c>
       <c r="F58" s="3">
-        <v>256800</v>
+        <v>17600</v>
       </c>
       <c r="G58" s="3">
-        <v>235300</v>
+        <v>266500</v>
       </c>
       <c r="H58" s="3">
-        <v>273700</v>
+        <v>244100</v>
       </c>
       <c r="I58" s="3">
-        <v>251300</v>
+        <v>284000</v>
       </c>
       <c r="J58" s="3">
+        <v>260800</v>
+      </c>
+      <c r="K58" s="3">
         <v>160400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>71500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>63300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>70800</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>16</v>
       </c>
@@ -2843,44 +2977,47 @@
       <c r="Q58" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>249800</v>
+        <v>185000</v>
       </c>
       <c r="E59" s="3">
-        <v>236900</v>
+        <v>259200</v>
       </c>
       <c r="F59" s="3">
-        <v>197200</v>
+        <v>245800</v>
       </c>
       <c r="G59" s="3">
-        <v>147900</v>
+        <v>204700</v>
       </c>
       <c r="H59" s="3">
-        <v>535300</v>
+        <v>153500</v>
       </c>
       <c r="I59" s="3">
-        <v>148100</v>
+        <v>555400</v>
       </c>
       <c r="J59" s="3">
+        <v>153600</v>
+      </c>
+      <c r="K59" s="3">
         <v>161200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>587300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>561900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>447600</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>16</v>
       </c>
@@ -2890,44 +3027,47 @@
       <c r="Q59" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>419000</v>
+        <v>446800</v>
       </c>
       <c r="E60" s="3">
-        <v>468900</v>
+        <v>434800</v>
       </c>
       <c r="F60" s="3">
-        <v>662900</v>
+        <v>486600</v>
       </c>
       <c r="G60" s="3">
-        <v>600500</v>
+        <v>687900</v>
       </c>
       <c r="H60" s="3">
-        <v>645500</v>
+        <v>623100</v>
       </c>
       <c r="I60" s="3">
-        <v>567400</v>
+        <v>669800</v>
       </c>
       <c r="J60" s="3">
+        <v>588700</v>
+      </c>
+      <c r="K60" s="3">
         <v>474700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>674700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>644100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>534100</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>16</v>
       </c>
@@ -2937,41 +3077,44 @@
       <c r="Q60" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>267900</v>
+        <v>277900</v>
       </c>
       <c r="E61" s="3">
-        <v>285200</v>
+        <v>277900</v>
       </c>
       <c r="F61" s="3">
-        <v>41000</v>
+        <v>296000</v>
       </c>
       <c r="G61" s="3">
-        <v>63300</v>
+        <v>42600</v>
       </c>
       <c r="H61" s="3">
-        <v>50500</v>
+        <v>65700</v>
       </c>
       <c r="I61" s="3">
-        <v>86800</v>
+        <v>52400</v>
       </c>
       <c r="J61" s="3">
+        <v>90000</v>
+      </c>
+      <c r="K61" s="3">
         <v>95200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>74400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>55500</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -2984,44 +3127,47 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1400</v>
+        <v>300</v>
       </c>
       <c r="E62" s="3">
-        <v>11000</v>
+        <v>1500</v>
       </c>
       <c r="F62" s="3">
-        <v>9000</v>
+        <v>11400</v>
       </c>
       <c r="G62" s="3">
-        <v>29400</v>
+        <v>9300</v>
       </c>
       <c r="H62" s="3">
-        <v>4800</v>
+        <v>30500</v>
       </c>
       <c r="I62" s="3">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="J62" s="3">
+        <v>15500</v>
+      </c>
+      <c r="K62" s="3">
         <v>32200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>58300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>51300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>49400</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>16</v>
       </c>
@@ -3031,8 +3177,11 @@
       <c r="Q62" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,44 +3327,47 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>687800</v>
+        <v>725000</v>
       </c>
       <c r="E66" s="3">
-        <v>764600</v>
+        <v>713600</v>
       </c>
       <c r="F66" s="3">
-        <v>712400</v>
+        <v>793400</v>
       </c>
       <c r="G66" s="3">
-        <v>692800</v>
+        <v>739200</v>
       </c>
       <c r="H66" s="3">
-        <v>696300</v>
+        <v>718900</v>
       </c>
       <c r="I66" s="3">
-        <v>669700</v>
+        <v>722600</v>
       </c>
       <c r="J66" s="3">
+        <v>694900</v>
+      </c>
+      <c r="K66" s="3">
         <v>602900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>804700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>749300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>582400</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>16</v>
       </c>
@@ -3219,8 +3377,11 @@
       <c r="Q66" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3359,17 +3527,17 @@
         <v>0</v>
       </c>
       <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3">
         <v>1521600</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>1243800</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>1086400</v>
       </c>
-      <c r="N70" s="3">
-        <v>0</v>
-      </c>
       <c r="O70" s="3">
         <v>0</v>
       </c>
@@ -3379,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,44 +3597,47 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1773200</v>
+        <v>-2249400</v>
       </c>
       <c r="E72" s="3">
-        <v>-1623200</v>
+        <v>-1839900</v>
       </c>
       <c r="F72" s="3">
-        <v>-1585800</v>
+        <v>-1684300</v>
       </c>
       <c r="G72" s="3">
-        <v>-1534700</v>
+        <v>-1645600</v>
       </c>
       <c r="H72" s="3">
-        <v>-1494800</v>
+        <v>-1592500</v>
       </c>
       <c r="I72" s="3">
-        <v>-1450900</v>
+        <v>-1551100</v>
       </c>
       <c r="J72" s="3">
+        <v>-1505500</v>
+      </c>
+      <c r="K72" s="3">
         <v>-1368000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1397400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1218100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1016300</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>16</v>
       </c>
@@ -3473,8 +3647,11 @@
       <c r="Q72" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,44 +3797,47 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>65700</v>
+        <v>-340500</v>
       </c>
       <c r="E76" s="3">
-        <v>210000</v>
+        <v>68100</v>
       </c>
       <c r="F76" s="3">
-        <v>252000</v>
+        <v>217900</v>
       </c>
       <c r="G76" s="3">
-        <v>300800</v>
+        <v>261500</v>
       </c>
       <c r="H76" s="3">
-        <v>332300</v>
+        <v>312200</v>
       </c>
       <c r="I76" s="3">
-        <v>362900</v>
+        <v>344800</v>
       </c>
       <c r="J76" s="3">
+        <v>376600</v>
+      </c>
+      <c r="K76" s="3">
         <v>433100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1384700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1206700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1007600</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>16</v>
       </c>
@@ -3661,8 +3847,11 @@
       <c r="Q76" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +3897,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-150000</v>
+        <v>-360800</v>
       </c>
       <c r="E81" s="3">
-        <v>-37300</v>
+        <v>-155600</v>
       </c>
       <c r="F81" s="3">
-        <v>-51200</v>
+        <v>-38800</v>
       </c>
       <c r="G81" s="3">
-        <v>-39800</v>
+        <v>-53100</v>
       </c>
       <c r="H81" s="3">
-        <v>-334000</v>
+        <v>-41300</v>
       </c>
       <c r="I81" s="3">
-        <v>-82900</v>
+        <v>-346600</v>
       </c>
       <c r="J81" s="3">
+        <v>-86100</v>
+      </c>
+      <c r="K81" s="3">
         <v>7600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-220100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-201000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-167600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-103700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-85900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-55300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-46300</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,8 +4024,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3843,38 +4042,41 @@
       <c r="G83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H83" s="3">
-        <v>13200</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>16</v>
+      <c r="H83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I83" s="3">
+        <v>13700</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K83" s="3">
+      <c r="K83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L83" s="3">
         <v>2800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>3200</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O83" s="3">
+      <c r="O83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P83" s="3">
         <v>2400</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q83" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,8 +4322,11 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4125,38 +4342,41 @@
       <c r="G89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H89" s="3">
-        <v>-319300</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>16</v>
+      <c r="H89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-331300</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K89" s="3">
+      <c r="K89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L89" s="3">
         <v>-53400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-121700</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O89" s="3">
+      <c r="O89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P89" s="3">
         <v>-70300</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q89" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,8 +4394,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4191,38 +4412,41 @@
       <c r="G91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H91" s="3">
-        <v>-18700</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>16</v>
+      <c r="H91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-19400</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K91" s="3">
+      <c r="K91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L91" s="3">
         <v>-5900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3400</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O91" s="3">
+      <c r="O91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P91" s="3">
         <v>-3300</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q91" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,8 +4542,11 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4332,38 +4562,41 @@
       <c r="G94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H94" s="3">
-        <v>-151000</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>16</v>
+      <c r="H94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-156600</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K94" s="3">
+      <c r="K94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L94" s="3">
         <v>-43800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-36000</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O94" s="3">
+      <c r="O94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P94" s="3">
         <v>-88700</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q94" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4614,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4662,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,8 +4812,11 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4586,38 +4832,41 @@
       <c r="G100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H100" s="3">
-        <v>598200</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>16</v>
+      <c r="H100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I100" s="3">
+        <v>620700</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K100" s="3">
+      <c r="K100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L100" s="3">
         <v>230400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>110900</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O100" s="3">
+      <c r="O100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P100" s="3">
         <v>181900</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q100" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4633,38 +4882,41 @@
       <c r="G101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H101" s="3">
+      <c r="H101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I101" s="3">
         <v>-1300</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K101" s="3">
+      <c r="K101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L101" s="3">
         <v>-100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-200</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O101" s="3">
+      <c r="O101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P101" s="3">
         <v>200</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q101" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4680,34 +4932,37 @@
       <c r="G102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H102" s="3">
-        <v>126600</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>16</v>
+      <c r="H102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I102" s="3">
+        <v>131400</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K102" s="3">
+      <c r="K102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L102" s="3">
         <v>133100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-47000</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O102" s="3">
+      <c r="O102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P102" s="3">
         <v>23200</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>16</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/UXIN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/UXIN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="92">
   <si>
     <t>UXIN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,244 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>15100</v>
+        <v>9500</v>
       </c>
       <c r="E8" s="3">
-        <v>43500</v>
+        <v>15800</v>
       </c>
       <c r="F8" s="3">
-        <v>67000</v>
+        <v>45500</v>
       </c>
       <c r="G8" s="3">
-        <v>63800</v>
+        <v>70200</v>
       </c>
       <c r="H8" s="3">
-        <v>48800</v>
+        <v>59200</v>
       </c>
       <c r="I8" s="3">
-        <v>95700</v>
+        <v>51100</v>
       </c>
       <c r="J8" s="3">
+        <v>100300</v>
+      </c>
+      <c r="K8" s="3">
         <v>50200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>38800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>28800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>104400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>80300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>55000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>48900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>51000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>34800</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>16100</v>
+        <v>12200</v>
       </c>
       <c r="E9" s="3">
-        <v>13600</v>
+        <v>16800</v>
       </c>
       <c r="F9" s="3">
-        <v>30000</v>
+        <v>14200</v>
       </c>
       <c r="G9" s="3">
-        <v>29800</v>
+        <v>31400</v>
       </c>
       <c r="H9" s="3">
-        <v>49500</v>
+        <v>57300</v>
       </c>
       <c r="I9" s="3">
-        <v>60800</v>
+        <v>51800</v>
       </c>
       <c r="J9" s="3">
+        <v>63700</v>
+      </c>
+      <c r="K9" s="3">
         <v>71500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>58800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>51100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>36700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>29000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>24300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>20600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>23500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>19700</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E10" s="3">
         <v>-1000</v>
       </c>
-      <c r="E10" s="3">
-        <v>29900</v>
-      </c>
       <c r="F10" s="3">
-        <v>37000</v>
+        <v>31300</v>
       </c>
       <c r="G10" s="3">
-        <v>34000</v>
+        <v>38800</v>
       </c>
       <c r="H10" s="3">
-        <v>-700</v>
+        <v>1900</v>
       </c>
       <c r="I10" s="3">
-        <v>34900</v>
+        <v>-800</v>
       </c>
       <c r="J10" s="3">
+        <v>36500</v>
+      </c>
+      <c r="K10" s="3">
         <v>-21200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-19900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-22300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>67700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>51300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>30700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>28300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>27500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>15100</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,58 +921,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>4500</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="3">
-        <v>7800</v>
+        <v>3500</v>
+      </c>
+      <c r="E12" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="G12" s="3">
-        <v>8100</v>
+        <v>8200</v>
       </c>
       <c r="H12" s="3">
-        <v>16400</v>
+        <v>4900</v>
       </c>
       <c r="I12" s="3">
-        <v>18100</v>
+        <v>17100</v>
       </c>
       <c r="J12" s="3">
+        <v>18900</v>
+      </c>
+      <c r="K12" s="3">
         <v>16900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>17600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>13300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>11600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>7300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>7500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>7000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>7200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1008,28 +1025,31 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-26000</v>
+        <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>-27200</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>5500</v>
+        <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>1300</v>
+        <v>5700</v>
       </c>
       <c r="I14" s="3">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -1058,8 +1078,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>306600</v>
+        <v>29000</v>
       </c>
       <c r="E17" s="3">
-        <v>89200</v>
+        <v>321100</v>
       </c>
       <c r="F17" s="3">
-        <v>103800</v>
+        <v>93500</v>
       </c>
       <c r="G17" s="3">
-        <v>119000</v>
+        <v>108700</v>
       </c>
       <c r="H17" s="3">
-        <v>91600</v>
+        <v>98900</v>
       </c>
       <c r="I17" s="3">
-        <v>457100</v>
+        <v>96000</v>
       </c>
       <c r="J17" s="3">
+        <v>478800</v>
+      </c>
+      <c r="K17" s="3">
         <v>121400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>214800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>91800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>176100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>157900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>112600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>111300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>78500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>64500</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-291500</v>
+        <v>-19500</v>
       </c>
       <c r="E18" s="3">
-        <v>-45800</v>
+        <v>-305300</v>
       </c>
       <c r="F18" s="3">
-        <v>-36800</v>
+        <v>-47900</v>
       </c>
       <c r="G18" s="3">
-        <v>-55200</v>
+        <v>-38500</v>
       </c>
       <c r="H18" s="3">
-        <v>-42800</v>
+        <v>-39700</v>
       </c>
       <c r="I18" s="3">
-        <v>-361400</v>
+        <v>-44900</v>
       </c>
       <c r="J18" s="3">
+        <v>-378500</v>
+      </c>
+      <c r="K18" s="3">
         <v>-71100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-176000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-63000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-71700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-77600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-57600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-62400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-27500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-29700</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1245,58 +1278,62 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-4900</v>
+        <v>-4500</v>
       </c>
       <c r="E20" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="F20" s="3">
         <v>-600</v>
       </c>
-      <c r="F20" s="3">
-        <v>-3500</v>
-      </c>
       <c r="G20" s="3">
-        <v>900</v>
+        <v>-3700</v>
       </c>
       <c r="H20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I20" s="3">
         <v>-700</v>
       </c>
-      <c r="I20" s="3">
-        <v>164900</v>
-      </c>
       <c r="J20" s="3">
+        <v>172800</v>
+      </c>
+      <c r="K20" s="3">
         <v>-3800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>215900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-50900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-62400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-35900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-27700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-11400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-12400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1315,38 +1352,41 @@
       <c r="H21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I21" s="3">
-        <v>-182700</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>16</v>
+      <c r="I21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-191400</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M21" s="3">
         <v>-111100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-130900</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-71500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-32200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-25700</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1395,58 +1435,64 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-296400</v>
+        <v>-24100</v>
       </c>
       <c r="E23" s="3">
-        <v>-46400</v>
+        <v>-310500</v>
       </c>
       <c r="F23" s="3">
-        <v>-40300</v>
+        <v>-48600</v>
       </c>
       <c r="G23" s="3">
-        <v>-54300</v>
+        <v>-42200</v>
       </c>
       <c r="H23" s="3">
-        <v>-43600</v>
+        <v>-38700</v>
       </c>
       <c r="I23" s="3">
-        <v>-196500</v>
+        <v>-45600</v>
       </c>
       <c r="J23" s="3">
+        <v>-205800</v>
+      </c>
+      <c r="K23" s="3">
         <v>-74900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>39900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-113900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-134100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-113500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-85300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-73900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-39800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-31500</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1454,49 +1500,52 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-100</v>
       </c>
-      <c r="G24" s="3">
-        <v>-800</v>
-      </c>
       <c r="H24" s="3">
-        <v>-200</v>
+        <v>-900</v>
       </c>
       <c r="I24" s="3">
         <v>200</v>
       </c>
       <c r="J24" s="3">
+        <v>300</v>
+      </c>
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>300</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
         <v>0</v>
       </c>
       <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
         <v>300</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-296500</v>
+        <v>-24100</v>
       </c>
       <c r="E26" s="3">
-        <v>-46600</v>
+        <v>-310500</v>
       </c>
       <c r="F26" s="3">
-        <v>-40200</v>
+        <v>-48800</v>
       </c>
       <c r="G26" s="3">
-        <v>-53500</v>
+        <v>-42200</v>
       </c>
       <c r="H26" s="3">
-        <v>-43300</v>
+        <v>-37900</v>
       </c>
       <c r="I26" s="3">
-        <v>-196700</v>
+        <v>-45900</v>
       </c>
       <c r="J26" s="3">
+        <v>-206000</v>
+      </c>
+      <c r="K26" s="3">
         <v>-75100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>39900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-114000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-133800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-113900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-85300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-73900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-40100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-31500</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-294700</v>
+        <v>-23200</v>
       </c>
       <c r="E27" s="3">
-        <v>-45700</v>
+        <v>-308700</v>
       </c>
       <c r="F27" s="3">
-        <v>-38800</v>
+        <v>-47900</v>
       </c>
       <c r="G27" s="3">
-        <v>-52200</v>
+        <v>-40600</v>
       </c>
       <c r="H27" s="3">
-        <v>-42900</v>
+        <v>-36600</v>
       </c>
       <c r="I27" s="3">
-        <v>-319500</v>
+        <v>-44900</v>
       </c>
       <c r="J27" s="3">
+        <v>-334600</v>
+      </c>
+      <c r="K27" s="3">
         <v>-74800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>18100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-213700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-201000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-167600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-103700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-85900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-55300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-46300</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,41 +1753,44 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-66100</v>
+        <v>45000</v>
       </c>
       <c r="E29" s="3">
-        <v>-109900</v>
+        <v>-69200</v>
       </c>
       <c r="F29" s="3">
-        <v>0</v>
+        <v>-115200</v>
       </c>
       <c r="G29" s="3">
-        <v>-900</v>
+        <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>1500</v>
+        <v>-19000</v>
       </c>
       <c r="I29" s="3">
-        <v>-27100</v>
+        <v>1600</v>
       </c>
       <c r="J29" s="3">
+        <v>-28400</v>
+      </c>
+      <c r="K29" s="3">
         <v>-11200</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-10500</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-6400</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
       <c r="N29" s="3">
         <v>0</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>4900</v>
+        <v>4500</v>
       </c>
       <c r="E32" s="3">
+        <v>5200</v>
+      </c>
+      <c r="F32" s="3">
         <v>600</v>
       </c>
-      <c r="F32" s="3">
-        <v>3500</v>
-      </c>
       <c r="G32" s="3">
-        <v>-900</v>
+        <v>3700</v>
       </c>
       <c r="H32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="I32" s="3">
         <v>700</v>
       </c>
-      <c r="I32" s="3">
-        <v>-164900</v>
-      </c>
       <c r="J32" s="3">
+        <v>-172800</v>
+      </c>
+      <c r="K32" s="3">
         <v>3800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-215900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>50900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>62400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>35900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>27700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>11400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>12400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-360800</v>
+        <v>21800</v>
       </c>
       <c r="E33" s="3">
-        <v>-155600</v>
+        <v>-377900</v>
       </c>
       <c r="F33" s="3">
-        <v>-38800</v>
+        <v>-163000</v>
       </c>
       <c r="G33" s="3">
-        <v>-53100</v>
+        <v>-40600</v>
       </c>
       <c r="H33" s="3">
-        <v>-41300</v>
+        <v>-55600</v>
       </c>
       <c r="I33" s="3">
-        <v>-346600</v>
+        <v>-43300</v>
       </c>
       <c r="J33" s="3">
+        <v>-363000</v>
+      </c>
+      <c r="K33" s="3">
         <v>-86100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>7600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-220100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-201000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-167600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-103700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-85900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-55300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-46300</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-360800</v>
+        <v>21800</v>
       </c>
       <c r="E35" s="3">
-        <v>-155600</v>
+        <v>-377900</v>
       </c>
       <c r="F35" s="3">
-        <v>-38800</v>
+        <v>-163000</v>
       </c>
       <c r="G35" s="3">
-        <v>-53100</v>
+        <v>-40600</v>
       </c>
       <c r="H35" s="3">
-        <v>-41300</v>
+        <v>-55600</v>
       </c>
       <c r="I35" s="3">
-        <v>-346600</v>
+        <v>-43300</v>
       </c>
       <c r="J35" s="3">
+        <v>-363000</v>
+      </c>
+      <c r="K35" s="3">
         <v>-86100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>7600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-220100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-201000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-167600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-103700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-85900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-55300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-46300</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,47 +2226,48 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>49700</v>
+        <v>36600</v>
       </c>
       <c r="E41" s="3">
-        <v>69400</v>
+        <v>52100</v>
       </c>
       <c r="F41" s="3">
-        <v>91100</v>
+        <v>72700</v>
       </c>
       <c r="G41" s="3">
-        <v>113700</v>
+        <v>95400</v>
       </c>
       <c r="H41" s="3">
-        <v>66100</v>
+        <v>119100</v>
       </c>
       <c r="I41" s="3">
-        <v>116300</v>
+        <v>69200</v>
       </c>
       <c r="J41" s="3">
+        <v>121800</v>
+      </c>
+      <c r="K41" s="3">
         <v>98300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>116100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>175000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>43300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>90300</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>16</v>
       </c>
@@ -2190,47 +2277,50 @@
       <c r="R41" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2200</v>
+        <v>1200</v>
       </c>
       <c r="E42" s="3">
-        <v>17700</v>
+        <v>2300</v>
       </c>
       <c r="F42" s="3">
-        <v>20200</v>
+        <v>18500</v>
       </c>
       <c r="G42" s="3">
-        <v>27600</v>
+        <v>21200</v>
       </c>
       <c r="H42" s="3">
-        <v>111000</v>
+        <v>29000</v>
       </c>
       <c r="I42" s="3">
-        <v>94800</v>
+        <v>116300</v>
       </c>
       <c r="J42" s="3">
+        <v>99300</v>
+      </c>
+      <c r="K42" s="3">
         <v>152900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>54500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>50500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>65300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>59400</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P42" s="3" t="s">
         <v>16</v>
       </c>
@@ -2240,47 +2330,50 @@
       <c r="R42" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>105500</v>
+        <v>124500</v>
       </c>
       <c r="E43" s="3">
-        <v>307400</v>
+        <v>110500</v>
       </c>
       <c r="F43" s="3">
-        <v>70000</v>
+        <v>322000</v>
       </c>
       <c r="G43" s="3">
-        <v>37500</v>
+        <v>73300</v>
       </c>
       <c r="H43" s="3">
-        <v>227400</v>
+        <v>39200</v>
       </c>
       <c r="I43" s="3">
-        <v>220300</v>
+        <v>238200</v>
       </c>
       <c r="J43" s="3">
+        <v>230800</v>
+      </c>
+      <c r="K43" s="3">
         <v>179400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>355100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>206500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>171000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>125600</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P43" s="3" t="s">
         <v>16</v>
       </c>
@@ -2290,47 +2383,50 @@
       <c r="R43" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="E44" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F44" s="3">
+        <v>2100</v>
+      </c>
+      <c r="G44" s="3">
         <v>2000</v>
       </c>
-      <c r="F44" s="3">
-        <v>1900</v>
-      </c>
-      <c r="G44" s="3">
-        <v>2300</v>
-      </c>
       <c r="H44" s="3">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="I44" s="3">
-        <v>2800</v>
+        <v>2400</v>
       </c>
       <c r="J44" s="3">
-        <v>2600</v>
+        <v>2900</v>
       </c>
       <c r="K44" s="3">
         <v>2600</v>
       </c>
       <c r="L44" s="3">
+        <v>2600</v>
+      </c>
+      <c r="M44" s="3">
         <v>6400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>11600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>18200</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P44" s="3" t="s">
         <v>16</v>
       </c>
@@ -2340,47 +2436,50 @@
       <c r="R44" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>166200</v>
+        <v>84600</v>
       </c>
       <c r="E45" s="3">
-        <v>321600</v>
+        <v>174100</v>
       </c>
       <c r="F45" s="3">
-        <v>723600</v>
+        <v>336800</v>
       </c>
       <c r="G45" s="3">
-        <v>708000</v>
+        <v>758000</v>
       </c>
       <c r="H45" s="3">
-        <v>488700</v>
+        <v>741600</v>
       </c>
       <c r="I45" s="3">
-        <v>853700</v>
+        <v>511900</v>
       </c>
       <c r="J45" s="3">
+        <v>894200</v>
+      </c>
+      <c r="K45" s="3">
         <v>538400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>437800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>443800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>436500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>309300</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P45" s="3" t="s">
         <v>16</v>
       </c>
@@ -2390,47 +2489,50 @@
       <c r="R45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>325200</v>
+        <v>248700</v>
       </c>
       <c r="E46" s="3">
-        <v>718100</v>
+        <v>340600</v>
       </c>
       <c r="F46" s="3">
-        <v>906800</v>
+        <v>752200</v>
       </c>
       <c r="G46" s="3">
-        <v>889100</v>
+        <v>949900</v>
       </c>
       <c r="H46" s="3">
-        <v>895500</v>
+        <v>931300</v>
       </c>
       <c r="I46" s="3">
-        <v>968500</v>
+        <v>937900</v>
       </c>
       <c r="J46" s="3">
+        <v>1014400</v>
+      </c>
+      <c r="K46" s="3">
         <v>971700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>966000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>882200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>727600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>602800</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P46" s="3" t="s">
         <v>16</v>
       </c>
@@ -2440,47 +2542,50 @@
       <c r="R46" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>40200</v>
+        <v>42400</v>
       </c>
       <c r="E47" s="3">
-        <v>39600</v>
+        <v>42100</v>
       </c>
       <c r="F47" s="3">
-        <v>38800</v>
+        <v>41500</v>
       </c>
       <c r="G47" s="3">
-        <v>37900</v>
+        <v>40600</v>
       </c>
       <c r="H47" s="3">
-        <v>51500</v>
+        <v>39700</v>
       </c>
       <c r="I47" s="3">
-        <v>101600</v>
+        <v>53900</v>
       </c>
       <c r="J47" s="3">
+        <v>106400</v>
+      </c>
+      <c r="K47" s="3">
         <v>50500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>7700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>5600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>6000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>6100</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P47" s="3" t="s">
         <v>16</v>
       </c>
@@ -2490,47 +2595,50 @@
       <c r="R47" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>17700</v>
+        <v>18800</v>
       </c>
       <c r="E48" s="3">
+        <v>18600</v>
+      </c>
+      <c r="F48" s="3">
+        <v>23700</v>
+      </c>
+      <c r="G48" s="3">
+        <v>49900</v>
+      </c>
+      <c r="H48" s="3">
+        <v>57700</v>
+      </c>
+      <c r="I48" s="3">
+        <v>68400</v>
+      </c>
+      <c r="J48" s="3">
+        <v>60600</v>
+      </c>
+      <c r="K48" s="3">
+        <v>29400</v>
+      </c>
+      <c r="L48" s="3">
+        <v>27000</v>
+      </c>
+      <c r="M48" s="3">
+        <v>25400</v>
+      </c>
+      <c r="N48" s="3">
+        <v>23200</v>
+      </c>
+      <c r="O48" s="3">
         <v>22600</v>
       </c>
-      <c r="F48" s="3">
-        <v>47600</v>
-      </c>
-      <c r="G48" s="3">
-        <v>55100</v>
-      </c>
-      <c r="H48" s="3">
-        <v>65300</v>
-      </c>
-      <c r="I48" s="3">
-        <v>57900</v>
-      </c>
-      <c r="J48" s="3">
-        <v>29400</v>
-      </c>
-      <c r="K48" s="3">
-        <v>27000</v>
-      </c>
-      <c r="L48" s="3">
-        <v>25400</v>
-      </c>
-      <c r="M48" s="3">
-        <v>23200</v>
-      </c>
-      <c r="N48" s="3">
-        <v>22600</v>
-      </c>
-      <c r="O48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>16</v>
       </c>
@@ -2540,47 +2648,50 @@
       <c r="R48" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="E49" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="F49" s="3">
-        <v>18100</v>
+        <v>1500</v>
       </c>
       <c r="G49" s="3">
-        <v>18500</v>
+        <v>18900</v>
       </c>
       <c r="H49" s="3">
-        <v>18800</v>
+        <v>19400</v>
       </c>
       <c r="I49" s="3">
-        <v>22200</v>
+        <v>19700</v>
       </c>
       <c r="J49" s="3">
+        <v>23200</v>
+      </c>
+      <c r="K49" s="3">
         <v>19900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>19400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>12200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>12700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>12900</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P49" s="3" t="s">
         <v>16</v>
       </c>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,13 +2807,16 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>16</v>
+      <c r="D52" s="3">
+        <v>6800</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>16</v>
@@ -2710,26 +2830,26 @@
       <c r="H52" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I52" s="3">
-        <v>0</v>
+      <c r="I52" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="J52" s="3">
         <v>0</v>
       </c>
       <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3">
         <v>15800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>16200</v>
-      </c>
-      <c r="M52" s="3">
-        <v>16800</v>
       </c>
       <c r="N52" s="3">
         <v>16800</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>16</v>
+      <c r="O52" s="3">
+        <v>16800</v>
       </c>
       <c r="P52" s="3" t="s">
         <v>16</v>
@@ -2740,8 +2860,11 @@
       <c r="R52" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,47 +2913,50 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>384500</v>
+        <v>316700</v>
       </c>
       <c r="E54" s="3">
-        <v>781800</v>
+        <v>402700</v>
       </c>
       <c r="F54" s="3">
-        <v>1011300</v>
+        <v>818900</v>
       </c>
       <c r="G54" s="3">
-        <v>1000700</v>
+        <v>1059300</v>
       </c>
       <c r="H54" s="3">
-        <v>1031000</v>
+        <v>1048200</v>
       </c>
       <c r="I54" s="3">
-        <v>1067400</v>
+        <v>1079900</v>
       </c>
       <c r="J54" s="3">
+        <v>1118000</v>
+      </c>
+      <c r="K54" s="3">
         <v>1071500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1036000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>941600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>786400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>661100</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>16</v>
       </c>
@@ -2840,8 +2966,11 @@
       <c r="R54" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,47 +3010,48 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>190000</v>
+        <v>151100</v>
       </c>
       <c r="E57" s="3">
-        <v>90100</v>
+        <v>199000</v>
       </c>
       <c r="F57" s="3">
-        <v>223100</v>
+        <v>94400</v>
       </c>
       <c r="G57" s="3">
-        <v>216700</v>
+        <v>233700</v>
       </c>
       <c r="H57" s="3">
-        <v>225600</v>
+        <v>227000</v>
       </c>
       <c r="I57" s="3">
-        <v>211700</v>
+        <v>236300</v>
       </c>
       <c r="J57" s="3">
+        <v>221700</v>
+      </c>
+      <c r="K57" s="3">
         <v>174300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>153100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>15800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>18900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>15700</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P57" s="3" t="s">
         <v>16</v>
       </c>
@@ -2930,47 +3061,50 @@
       <c r="R57" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>71800</v>
+        <v>66500</v>
       </c>
       <c r="E58" s="3">
-        <v>85400</v>
+        <v>75200</v>
       </c>
       <c r="F58" s="3">
-        <v>17600</v>
+        <v>89500</v>
       </c>
       <c r="G58" s="3">
-        <v>266500</v>
+        <v>18500</v>
       </c>
       <c r="H58" s="3">
-        <v>244100</v>
+        <v>279100</v>
       </c>
       <c r="I58" s="3">
-        <v>284000</v>
+        <v>255700</v>
       </c>
       <c r="J58" s="3">
+        <v>297500</v>
+      </c>
+      <c r="K58" s="3">
         <v>260800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>160400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>71500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>63300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>70800</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P58" s="3" t="s">
         <v>16</v>
       </c>
@@ -2980,47 +3114,50 @@
       <c r="R58" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>185000</v>
+        <v>97900</v>
       </c>
       <c r="E59" s="3">
-        <v>259200</v>
+        <v>193700</v>
       </c>
       <c r="F59" s="3">
-        <v>245800</v>
+        <v>271500</v>
       </c>
       <c r="G59" s="3">
-        <v>204700</v>
+        <v>257500</v>
       </c>
       <c r="H59" s="3">
-        <v>153500</v>
+        <v>214400</v>
       </c>
       <c r="I59" s="3">
-        <v>555400</v>
+        <v>160700</v>
       </c>
       <c r="J59" s="3">
+        <v>581800</v>
+      </c>
+      <c r="K59" s="3">
         <v>153600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>161200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>587300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>561900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>447600</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>16</v>
       </c>
@@ -3030,47 +3167,50 @@
       <c r="R59" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>446800</v>
+        <v>315500</v>
       </c>
       <c r="E60" s="3">
-        <v>434800</v>
+        <v>468000</v>
       </c>
       <c r="F60" s="3">
-        <v>486600</v>
+        <v>455400</v>
       </c>
       <c r="G60" s="3">
-        <v>687900</v>
+        <v>509600</v>
       </c>
       <c r="H60" s="3">
-        <v>623100</v>
+        <v>720500</v>
       </c>
       <c r="I60" s="3">
-        <v>669800</v>
+        <v>652700</v>
       </c>
       <c r="J60" s="3">
+        <v>701600</v>
+      </c>
+      <c r="K60" s="3">
         <v>588700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>474700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>674700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>644100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>534100</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P60" s="3" t="s">
         <v>16</v>
       </c>
@@ -3080,44 +3220,47 @@
       <c r="R60" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>277900</v>
+        <v>293000</v>
       </c>
       <c r="E61" s="3">
-        <v>277900</v>
+        <v>291100</v>
       </c>
       <c r="F61" s="3">
-        <v>296000</v>
+        <v>291100</v>
       </c>
       <c r="G61" s="3">
-        <v>42600</v>
+        <v>310000</v>
       </c>
       <c r="H61" s="3">
-        <v>65700</v>
+        <v>44600</v>
       </c>
       <c r="I61" s="3">
-        <v>52400</v>
+        <v>68800</v>
       </c>
       <c r="J61" s="3">
+        <v>54900</v>
+      </c>
+      <c r="K61" s="3">
         <v>90000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>95200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>74400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>55500</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -3130,47 +3273,50 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>43500</v>
+      </c>
+      <c r="E62" s="3">
         <v>300</v>
       </c>
-      <c r="E62" s="3">
-        <v>1500</v>
-      </c>
       <c r="F62" s="3">
-        <v>11400</v>
+        <v>1600</v>
       </c>
       <c r="G62" s="3">
-        <v>9300</v>
+        <v>12000</v>
       </c>
       <c r="H62" s="3">
-        <v>30500</v>
+        <v>9800</v>
       </c>
       <c r="I62" s="3">
-        <v>5000</v>
+        <v>31900</v>
       </c>
       <c r="J62" s="3">
+        <v>5200</v>
+      </c>
+      <c r="K62" s="3">
         <v>15500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>32200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>58300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>51300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>49400</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>16</v>
       </c>
@@ -3180,8 +3326,11 @@
       <c r="R62" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,47 +3485,50 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>725000</v>
+        <v>652000</v>
       </c>
       <c r="E66" s="3">
-        <v>713600</v>
+        <v>759400</v>
       </c>
       <c r="F66" s="3">
-        <v>793400</v>
+        <v>747500</v>
       </c>
       <c r="G66" s="3">
-        <v>739200</v>
+        <v>831100</v>
       </c>
       <c r="H66" s="3">
-        <v>718900</v>
+        <v>774300</v>
       </c>
       <c r="I66" s="3">
-        <v>722600</v>
+        <v>753000</v>
       </c>
       <c r="J66" s="3">
+        <v>756800</v>
+      </c>
+      <c r="K66" s="3">
         <v>694900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>602900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>804700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>749300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>582400</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>16</v>
       </c>
@@ -3380,8 +3538,11 @@
       <c r="R66" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3530,17 +3698,17 @@
         <v>0</v>
       </c>
       <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
         <v>1521600</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>1243800</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>1086400</v>
       </c>
-      <c r="O70" s="3">
-        <v>0</v>
-      </c>
       <c r="P70" s="3">
         <v>0</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,47 +3771,50 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-2249400</v>
+        <v>-2334400</v>
       </c>
       <c r="E72" s="3">
-        <v>-1839900</v>
+        <v>-2356200</v>
       </c>
       <c r="F72" s="3">
-        <v>-1684300</v>
+        <v>-1927200</v>
       </c>
       <c r="G72" s="3">
-        <v>-1645600</v>
+        <v>-1764200</v>
       </c>
       <c r="H72" s="3">
-        <v>-1592500</v>
+        <v>-1723600</v>
       </c>
       <c r="I72" s="3">
-        <v>-1551100</v>
+        <v>-1668000</v>
       </c>
       <c r="J72" s="3">
+        <v>-1624700</v>
+      </c>
+      <c r="K72" s="3">
         <v>-1505500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1368000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1397400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1218100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-1016300</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>16</v>
       </c>
@@ -3650,8 +3824,11 @@
       <c r="R72" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,47 +3983,50 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-340500</v>
+        <v>-335300</v>
       </c>
       <c r="E76" s="3">
-        <v>68100</v>
+        <v>-356600</v>
       </c>
       <c r="F76" s="3">
-        <v>217900</v>
+        <v>71400</v>
       </c>
       <c r="G76" s="3">
-        <v>261500</v>
+        <v>228200</v>
       </c>
       <c r="H76" s="3">
-        <v>312200</v>
+        <v>273900</v>
       </c>
       <c r="I76" s="3">
-        <v>344800</v>
+        <v>327000</v>
       </c>
       <c r="J76" s="3">
+        <v>361200</v>
+      </c>
+      <c r="K76" s="3">
         <v>376600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>433100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1384700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1206700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1007600</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>16</v>
       </c>
@@ -3850,8 +4036,11 @@
       <c r="R76" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-360800</v>
+        <v>21800</v>
       </c>
       <c r="E81" s="3">
-        <v>-155600</v>
+        <v>-377900</v>
       </c>
       <c r="F81" s="3">
-        <v>-38800</v>
+        <v>-163000</v>
       </c>
       <c r="G81" s="3">
-        <v>-53100</v>
+        <v>-40600</v>
       </c>
       <c r="H81" s="3">
-        <v>-41300</v>
+        <v>-55600</v>
       </c>
       <c r="I81" s="3">
-        <v>-346600</v>
+        <v>-43300</v>
       </c>
       <c r="J81" s="3">
+        <v>-363000</v>
+      </c>
+      <c r="K81" s="3">
         <v>-86100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>7600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-220100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-201000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-167600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-103700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-85900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-55300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-46300</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4045,38 +4244,41 @@
       <c r="H83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I83" s="3">
-        <v>13700</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>16</v>
+      <c r="I83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J83" s="3">
+        <v>14400</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M83" s="3">
         <v>2800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>3200</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P83" s="3">
+      <c r="P83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q83" s="3">
         <v>2400</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R83" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,8 +4539,11 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4345,38 +4562,41 @@
       <c r="H89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I89" s="3">
-        <v>-331300</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>16</v>
+      <c r="I89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-347000</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L89" s="3">
+      <c r="L89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M89" s="3">
         <v>-53400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-121700</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P89" s="3">
+      <c r="P89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-70300</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R89" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,8 +4615,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4415,38 +4636,41 @@
       <c r="H91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I91" s="3">
-        <v>-19400</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>16</v>
+      <c r="I91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-20400</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L91" s="3">
+      <c r="L91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M91" s="3">
         <v>-5900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-3400</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P91" s="3">
+      <c r="P91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R91" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,8 +4772,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4565,38 +4795,41 @@
       <c r="H94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I94" s="3">
-        <v>-156600</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>16</v>
+      <c r="I94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-164100</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M94" s="3">
         <v>-43800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-36000</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P94" s="3">
+      <c r="P94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-88700</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R94" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,8 +5058,11 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4835,38 +5081,41 @@
       <c r="H100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I100" s="3">
-        <v>620700</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>16</v>
+      <c r="I100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J100" s="3">
+        <v>650200</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M100" s="3">
         <v>230400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>110900</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P100" s="3">
+      <c r="P100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q100" s="3">
         <v>181900</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R100" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4885,38 +5134,41 @@
       <c r="H101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I101" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>16</v>
+      <c r="I101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-1400</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L101" s="3">
+      <c r="L101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M101" s="3">
         <v>-100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-200</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P101" s="3">
+      <c r="P101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q101" s="3">
         <v>200</v>
       </c>
-      <c r="Q101" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R101" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4935,34 +5187,37 @@
       <c r="H102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I102" s="3">
-        <v>131400</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>16</v>
+      <c r="I102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J102" s="3">
+        <v>137600</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L102" s="3">
+      <c r="L102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M102" s="3">
         <v>133100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-47000</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P102" s="3">
+      <c r="P102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q102" s="3">
         <v>23200</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>16</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/UXIN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/UXIN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="92">
   <si>
     <t>UXIN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E8" s="3">
         <v>9500</v>
       </c>
-      <c r="E8" s="3">
-        <v>15800</v>
-      </c>
       <c r="F8" s="3">
-        <v>45500</v>
+        <v>15900</v>
       </c>
       <c r="G8" s="3">
-        <v>70200</v>
+        <v>45700</v>
       </c>
       <c r="H8" s="3">
-        <v>59200</v>
+        <v>70500</v>
       </c>
       <c r="I8" s="3">
-        <v>51100</v>
+        <v>67100</v>
       </c>
       <c r="J8" s="3">
+        <v>51300</v>
+      </c>
+      <c r="K8" s="3">
         <v>100300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>50200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>38800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>28800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>104400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>80300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>55000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>48900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>51000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>34800</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>14300</v>
+      </c>
+      <c r="E9" s="3">
         <v>12200</v>
       </c>
-      <c r="E9" s="3">
-        <v>16800</v>
-      </c>
       <c r="F9" s="3">
-        <v>14200</v>
+        <v>16900</v>
       </c>
       <c r="G9" s="3">
-        <v>31400</v>
+        <v>14300</v>
       </c>
       <c r="H9" s="3">
-        <v>57300</v>
+        <v>31600</v>
       </c>
       <c r="I9" s="3">
-        <v>51800</v>
+        <v>31300</v>
       </c>
       <c r="J9" s="3">
+        <v>52100</v>
+      </c>
+      <c r="K9" s="3">
         <v>63700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>71500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>58800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>51100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>36700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>29000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>24300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>20600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>23500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>19700</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E10" s="3">
         <v>-2700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>-1000</v>
       </c>
-      <c r="F10" s="3">
-        <v>31300</v>
-      </c>
       <c r="G10" s="3">
-        <v>38800</v>
+        <v>31500</v>
       </c>
       <c r="H10" s="3">
-        <v>1900</v>
+        <v>38900</v>
       </c>
       <c r="I10" s="3">
+        <v>35800</v>
+      </c>
+      <c r="J10" s="3">
         <v>-800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>36500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-21200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-19900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-22300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>67700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>51300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>30700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>28300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>27500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>15100</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,61 +935,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E12" s="3">
         <v>3500</v>
       </c>
-      <c r="E12" s="3">
-        <v>4700</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" s="3">
+      <c r="F12" s="3">
+        <v>4800</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="3">
         <v>8200</v>
       </c>
-      <c r="H12" s="3">
-        <v>4900</v>
-      </c>
       <c r="I12" s="3">
-        <v>17100</v>
+        <v>8600</v>
       </c>
       <c r="J12" s="3">
+        <v>17200</v>
+      </c>
+      <c r="K12" s="3">
         <v>18900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>16900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>17600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>13300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>11600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>7300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>7500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>7000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>7200</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1037,23 +1057,23 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>-27200</v>
+        <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
+        <v>-27400</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>5700</v>
+        <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>5800</v>
+      </c>
+      <c r="J14" s="3">
         <v>1400</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>29000</v>
+        <v>36500</v>
       </c>
       <c r="E17" s="3">
-        <v>321100</v>
+        <v>29100</v>
       </c>
       <c r="F17" s="3">
-        <v>93500</v>
+        <v>322500</v>
       </c>
       <c r="G17" s="3">
-        <v>108700</v>
+        <v>93900</v>
       </c>
       <c r="H17" s="3">
-        <v>98900</v>
+        <v>109200</v>
       </c>
       <c r="I17" s="3">
-        <v>96000</v>
+        <v>125200</v>
       </c>
       <c r="J17" s="3">
+        <v>96400</v>
+      </c>
+      <c r="K17" s="3">
         <v>478800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>121400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>214800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>91800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>176100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>157900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>112600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>111300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>78500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>64500</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-19500</v>
+        <v>-24800</v>
       </c>
       <c r="E18" s="3">
-        <v>-305300</v>
+        <v>-19600</v>
       </c>
       <c r="F18" s="3">
-        <v>-47900</v>
+        <v>-306600</v>
       </c>
       <c r="G18" s="3">
-        <v>-38500</v>
+        <v>-48100</v>
       </c>
       <c r="H18" s="3">
-        <v>-39700</v>
+        <v>-38700</v>
       </c>
       <c r="I18" s="3">
-        <v>-44900</v>
+        <v>-58100</v>
       </c>
       <c r="J18" s="3">
+        <v>-45100</v>
+      </c>
+      <c r="K18" s="3">
         <v>-378500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-71100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-176000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-63000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-71700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-77600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-57600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-62400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-27500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-29700</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1279,61 +1312,65 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-15400</v>
+      </c>
+      <c r="E20" s="3">
         <v>-4500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-5200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-3700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>172800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-3800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>215900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-50900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-62400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-35900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-27700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-11400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-12400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1355,38 +1392,41 @@
       <c r="I21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K21" s="3">
         <v>-191400</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N21" s="3">
         <v>-111100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-130900</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R21" s="3">
         <v>-71500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-32200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-25700</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1438,61 +1478,67 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-24100</v>
+        <v>-40300</v>
       </c>
       <c r="E23" s="3">
-        <v>-310500</v>
+        <v>-24200</v>
       </c>
       <c r="F23" s="3">
-        <v>-48600</v>
+        <v>-311800</v>
       </c>
       <c r="G23" s="3">
-        <v>-42200</v>
+        <v>-48800</v>
       </c>
       <c r="H23" s="3">
-        <v>-38700</v>
+        <v>-42400</v>
       </c>
       <c r="I23" s="3">
-        <v>-45600</v>
+        <v>-57100</v>
       </c>
       <c r="J23" s="3">
+        <v>-45800</v>
+      </c>
+      <c r="K23" s="3">
         <v>-205800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-74900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>39900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-113900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-134100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-113500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-85300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-73900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-39800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-31500</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1503,49 +1549,52 @@
         <v>0</v>
       </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>100</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>300</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
       <c r="Q24" s="3">
         <v>0</v>
       </c>
       <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
         <v>300</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-24100</v>
+        <v>-40300</v>
       </c>
       <c r="E26" s="3">
-        <v>-310500</v>
+        <v>-24200</v>
       </c>
       <c r="F26" s="3">
-        <v>-48800</v>
+        <v>-311900</v>
       </c>
       <c r="G26" s="3">
-        <v>-42200</v>
+        <v>-49100</v>
       </c>
       <c r="H26" s="3">
-        <v>-37900</v>
+        <v>-42300</v>
       </c>
       <c r="I26" s="3">
-        <v>-45900</v>
+        <v>-56200</v>
       </c>
       <c r="J26" s="3">
+        <v>-46100</v>
+      </c>
+      <c r="K26" s="3">
         <v>-206000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-75100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>39900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-114000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-133800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-113900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-85300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-73900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-40100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-31500</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-23200</v>
+        <v>-39600</v>
       </c>
       <c r="E27" s="3">
-        <v>-308700</v>
+        <v>-23300</v>
       </c>
       <c r="F27" s="3">
-        <v>-47900</v>
+        <v>-310000</v>
       </c>
       <c r="G27" s="3">
-        <v>-40600</v>
+        <v>-48100</v>
       </c>
       <c r="H27" s="3">
-        <v>-36600</v>
+        <v>-40800</v>
       </c>
       <c r="I27" s="3">
-        <v>-44900</v>
+        <v>-54900</v>
       </c>
       <c r="J27" s="3">
+        <v>-45100</v>
+      </c>
+      <c r="K27" s="3">
         <v>-334600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-74800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>18100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-213700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-201000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-167600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-103700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-85900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-55300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-46300</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,44 +1814,47 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>45000</v>
+        <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>-69200</v>
+        <v>45200</v>
       </c>
       <c r="F29" s="3">
-        <v>-115200</v>
+        <v>-69500</v>
       </c>
       <c r="G29" s="3">
-        <v>0</v>
+        <v>-115700</v>
       </c>
       <c r="H29" s="3">
-        <v>-19000</v>
+        <v>0</v>
       </c>
       <c r="I29" s="3">
+        <v>-900</v>
+      </c>
+      <c r="J29" s="3">
         <v>1600</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-28400</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-11200</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-10500</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-6400</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
       <c r="O29" s="3">
         <v>0</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>15400</v>
+      </c>
+      <c r="E32" s="3">
         <v>4500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>5200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>3700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-172800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>3800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-215900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>50900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>62400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>35900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>27700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>11400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>12400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>21800</v>
+        <v>-39600</v>
       </c>
       <c r="E33" s="3">
-        <v>-377900</v>
+        <v>21900</v>
       </c>
       <c r="F33" s="3">
-        <v>-163000</v>
+        <v>-379500</v>
       </c>
       <c r="G33" s="3">
-        <v>-40600</v>
+        <v>-163700</v>
       </c>
       <c r="H33" s="3">
-        <v>-55600</v>
+        <v>-40800</v>
       </c>
       <c r="I33" s="3">
-        <v>-43300</v>
+        <v>-55900</v>
       </c>
       <c r="J33" s="3">
+        <v>-43500</v>
+      </c>
+      <c r="K33" s="3">
         <v>-363000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-86100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>7600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-220100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-201000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-167600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-103700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-85900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-55300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-46300</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>21800</v>
+        <v>-39600</v>
       </c>
       <c r="E35" s="3">
-        <v>-377900</v>
+        <v>21900</v>
       </c>
       <c r="F35" s="3">
-        <v>-163000</v>
+        <v>-379500</v>
       </c>
       <c r="G35" s="3">
-        <v>-40600</v>
+        <v>-163700</v>
       </c>
       <c r="H35" s="3">
-        <v>-55600</v>
+        <v>-40800</v>
       </c>
       <c r="I35" s="3">
-        <v>-43300</v>
+        <v>-55900</v>
       </c>
       <c r="J35" s="3">
+        <v>-43500</v>
+      </c>
+      <c r="K35" s="3">
         <v>-363000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-86100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>7600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-220100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-201000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-167600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-103700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-85900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-55300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-46300</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,50 +2313,51 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>36600</v>
+        <v>33500</v>
       </c>
       <c r="E41" s="3">
-        <v>52100</v>
+        <v>36800</v>
       </c>
       <c r="F41" s="3">
-        <v>72700</v>
+        <v>52300</v>
       </c>
       <c r="G41" s="3">
-        <v>95400</v>
+        <v>73100</v>
       </c>
       <c r="H41" s="3">
-        <v>119100</v>
+        <v>95800</v>
       </c>
       <c r="I41" s="3">
-        <v>69200</v>
+        <v>119600</v>
       </c>
       <c r="J41" s="3">
+        <v>69500</v>
+      </c>
+      <c r="K41" s="3">
         <v>121800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>98300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>116100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>175000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>43300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>90300</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>16</v>
       </c>
@@ -2280,50 +2367,53 @@
       <c r="S41" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
         <v>1200</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>2300</v>
       </c>
-      <c r="F42" s="3">
-        <v>18500</v>
-      </c>
       <c r="G42" s="3">
-        <v>21200</v>
+        <v>18600</v>
       </c>
       <c r="H42" s="3">
-        <v>29000</v>
+        <v>21300</v>
       </c>
       <c r="I42" s="3">
-        <v>116300</v>
+        <v>29100</v>
       </c>
       <c r="J42" s="3">
+        <v>116800</v>
+      </c>
+      <c r="K42" s="3">
         <v>99300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>152900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>54500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>50500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>65300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>59400</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q42" s="3" t="s">
         <v>16</v>
       </c>
@@ -2333,50 +2423,53 @@
       <c r="S42" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>124500</v>
+        <v>93100</v>
       </c>
       <c r="E43" s="3">
-        <v>110500</v>
+        <v>125100</v>
       </c>
       <c r="F43" s="3">
-        <v>322000</v>
+        <v>111000</v>
       </c>
       <c r="G43" s="3">
-        <v>73300</v>
+        <v>323400</v>
       </c>
       <c r="H43" s="3">
-        <v>39200</v>
+        <v>73600</v>
       </c>
       <c r="I43" s="3">
-        <v>238200</v>
+        <v>39400</v>
       </c>
       <c r="J43" s="3">
+        <v>239200</v>
+      </c>
+      <c r="K43" s="3">
         <v>230800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>179400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>355100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>206500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>171000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>125600</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q43" s="3" t="s">
         <v>16</v>
       </c>
@@ -2386,50 +2479,53 @@
       <c r="S43" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E44" s="3">
         <v>1800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>2100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>2000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>2500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>2400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>2900</v>
-      </c>
-      <c r="K44" s="3">
-        <v>2600</v>
       </c>
       <c r="L44" s="3">
         <v>2600</v>
       </c>
       <c r="M44" s="3">
+        <v>2600</v>
+      </c>
+      <c r="N44" s="3">
         <v>6400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>11600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>18200</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q44" s="3" t="s">
         <v>16</v>
       </c>
@@ -2439,50 +2535,53 @@
       <c r="S44" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>84600</v>
+        <v>32300</v>
       </c>
       <c r="E45" s="3">
-        <v>174100</v>
+        <v>84900</v>
       </c>
       <c r="F45" s="3">
-        <v>336800</v>
+        <v>174900</v>
       </c>
       <c r="G45" s="3">
-        <v>758000</v>
+        <v>338300</v>
       </c>
       <c r="H45" s="3">
-        <v>741600</v>
+        <v>761200</v>
       </c>
       <c r="I45" s="3">
-        <v>511900</v>
+        <v>744800</v>
       </c>
       <c r="J45" s="3">
+        <v>514100</v>
+      </c>
+      <c r="K45" s="3">
         <v>894200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>538400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>437800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>443800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>436500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>309300</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q45" s="3" t="s">
         <v>16</v>
       </c>
@@ -2492,50 +2591,53 @@
       <c r="S45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>248700</v>
+        <v>163800</v>
       </c>
       <c r="E46" s="3">
-        <v>340600</v>
+        <v>249700</v>
       </c>
       <c r="F46" s="3">
-        <v>752200</v>
+        <v>342100</v>
       </c>
       <c r="G46" s="3">
-        <v>949900</v>
+        <v>755500</v>
       </c>
       <c r="H46" s="3">
-        <v>931300</v>
+        <v>954000</v>
       </c>
       <c r="I46" s="3">
-        <v>937900</v>
+        <v>935400</v>
       </c>
       <c r="J46" s="3">
+        <v>942000</v>
+      </c>
+      <c r="K46" s="3">
         <v>1014400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>971700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>966000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>882200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>727600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>602800</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q46" s="3" t="s">
         <v>16</v>
       </c>
@@ -2545,50 +2647,53 @@
       <c r="S46" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>42400</v>
+        <v>43300</v>
       </c>
       <c r="E47" s="3">
-        <v>42100</v>
+        <v>42600</v>
       </c>
       <c r="F47" s="3">
-        <v>41500</v>
+        <v>42300</v>
       </c>
       <c r="G47" s="3">
-        <v>40600</v>
+        <v>41700</v>
       </c>
       <c r="H47" s="3">
-        <v>39700</v>
+        <v>40800</v>
       </c>
       <c r="I47" s="3">
-        <v>53900</v>
+        <v>39900</v>
       </c>
       <c r="J47" s="3">
+        <v>54200</v>
+      </c>
+      <c r="K47" s="3">
         <v>106400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>50500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>7700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>5600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>6000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>6100</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q47" s="3" t="s">
         <v>16</v>
       </c>
@@ -2598,50 +2703,53 @@
       <c r="S47" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>18800</v>
+        <v>17200</v>
       </c>
       <c r="E48" s="3">
+        <v>18900</v>
+      </c>
+      <c r="F48" s="3">
         <v>18600</v>
       </c>
-      <c r="F48" s="3">
-        <v>23700</v>
-      </c>
       <c r="G48" s="3">
-        <v>49900</v>
+        <v>23800</v>
       </c>
       <c r="H48" s="3">
-        <v>57700</v>
+        <v>50100</v>
       </c>
       <c r="I48" s="3">
-        <v>68400</v>
+        <v>58000</v>
       </c>
       <c r="J48" s="3">
+        <v>68700</v>
+      </c>
+      <c r="K48" s="3">
         <v>60600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>29400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>27000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>25400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>23200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>22600</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q48" s="3" t="s">
         <v>16</v>
       </c>
@@ -2651,8 +2759,11 @@
       <c r="S48" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2660,41 +2771,41 @@
         <v>0</v>
       </c>
       <c r="E49" s="3">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="F49" s="3">
         <v>1500</v>
       </c>
       <c r="G49" s="3">
-        <v>18900</v>
+        <v>1500</v>
       </c>
       <c r="H49" s="3">
+        <v>19000</v>
+      </c>
+      <c r="I49" s="3">
+        <v>19500</v>
+      </c>
+      <c r="J49" s="3">
+        <v>19800</v>
+      </c>
+      <c r="K49" s="3">
+        <v>23200</v>
+      </c>
+      <c r="L49" s="3">
+        <v>19900</v>
+      </c>
+      <c r="M49" s="3">
         <v>19400</v>
       </c>
-      <c r="I49" s="3">
-        <v>19700</v>
-      </c>
-      <c r="J49" s="3">
-        <v>23200</v>
-      </c>
-      <c r="K49" s="3">
-        <v>19900</v>
-      </c>
-      <c r="L49" s="3">
-        <v>19400</v>
-      </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>12200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>12700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>12900</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q49" s="3" t="s">
         <v>16</v>
       </c>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,16 +2927,19 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>6800</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>16</v>
+        <v>6400</v>
+      </c>
+      <c r="E52" s="3">
+        <v>6900</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>16</v>
@@ -2833,26 +2953,26 @@
       <c r="I52" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J52" s="3">
-        <v>0</v>
+      <c r="J52" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
       </c>
       <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
         <v>15800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>16200</v>
-      </c>
-      <c r="N52" s="3">
-        <v>16800</v>
       </c>
       <c r="O52" s="3">
         <v>16800</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>16</v>
+      <c r="P52" s="3">
+        <v>16800</v>
       </c>
       <c r="Q52" s="3" t="s">
         <v>16</v>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,50 +3039,53 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>316700</v>
+        <v>230700</v>
       </c>
       <c r="E54" s="3">
-        <v>402700</v>
+        <v>318100</v>
       </c>
       <c r="F54" s="3">
-        <v>818900</v>
+        <v>404500</v>
       </c>
       <c r="G54" s="3">
-        <v>1059300</v>
+        <v>822400</v>
       </c>
       <c r="H54" s="3">
-        <v>1048200</v>
+        <v>1063900</v>
       </c>
       <c r="I54" s="3">
-        <v>1079900</v>
+        <v>1052700</v>
       </c>
       <c r="J54" s="3">
+        <v>1084600</v>
+      </c>
+      <c r="K54" s="3">
         <v>1118000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1071500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1036000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>941600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>786400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>661100</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>16</v>
       </c>
@@ -2969,8 +3095,11 @@
       <c r="S54" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,50 +3141,51 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>151100</v>
+        <v>150100</v>
       </c>
       <c r="E57" s="3">
-        <v>199000</v>
+        <v>151700</v>
       </c>
       <c r="F57" s="3">
-        <v>94400</v>
+        <v>199900</v>
       </c>
       <c r="G57" s="3">
-        <v>233700</v>
+        <v>94800</v>
       </c>
       <c r="H57" s="3">
-        <v>227000</v>
+        <v>234700</v>
       </c>
       <c r="I57" s="3">
-        <v>236300</v>
+        <v>228000</v>
       </c>
       <c r="J57" s="3">
+        <v>237300</v>
+      </c>
+      <c r="K57" s="3">
         <v>221700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>174300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>153100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>15800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>18900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>15700</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q57" s="3" t="s">
         <v>16</v>
       </c>
@@ -3064,50 +3195,53 @@
       <c r="S57" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>66500</v>
+        <v>3900</v>
       </c>
       <c r="E58" s="3">
-        <v>75200</v>
+        <v>66800</v>
       </c>
       <c r="F58" s="3">
-        <v>89500</v>
+        <v>75600</v>
       </c>
       <c r="G58" s="3">
-        <v>18500</v>
+        <v>89800</v>
       </c>
       <c r="H58" s="3">
-        <v>279100</v>
+        <v>18600</v>
       </c>
       <c r="I58" s="3">
-        <v>255700</v>
+        <v>280300</v>
       </c>
       <c r="J58" s="3">
+        <v>256800</v>
+      </c>
+      <c r="K58" s="3">
         <v>297500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>260800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>160400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>71500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>63300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>70800</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q58" s="3" t="s">
         <v>16</v>
       </c>
@@ -3117,50 +3251,53 @@
       <c r="S58" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>97900</v>
+        <v>34900</v>
       </c>
       <c r="E59" s="3">
-        <v>193700</v>
+        <v>98300</v>
       </c>
       <c r="F59" s="3">
-        <v>271500</v>
+        <v>194600</v>
       </c>
       <c r="G59" s="3">
-        <v>257500</v>
+        <v>272700</v>
       </c>
       <c r="H59" s="3">
-        <v>214400</v>
+        <v>258600</v>
       </c>
       <c r="I59" s="3">
-        <v>160700</v>
+        <v>215300</v>
       </c>
       <c r="J59" s="3">
+        <v>161400</v>
+      </c>
+      <c r="K59" s="3">
         <v>581800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>153600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>161200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>587300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>561900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>447600</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>16</v>
       </c>
@@ -3170,50 +3307,53 @@
       <c r="S59" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>315500</v>
+        <v>188900</v>
       </c>
       <c r="E60" s="3">
-        <v>468000</v>
+        <v>316800</v>
       </c>
       <c r="F60" s="3">
-        <v>455400</v>
+        <v>470000</v>
       </c>
       <c r="G60" s="3">
-        <v>509600</v>
+        <v>457400</v>
       </c>
       <c r="H60" s="3">
-        <v>720500</v>
+        <v>511800</v>
       </c>
       <c r="I60" s="3">
-        <v>652700</v>
+        <v>723600</v>
       </c>
       <c r="J60" s="3">
+        <v>655500</v>
+      </c>
+      <c r="K60" s="3">
         <v>701600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>588700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>474700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>674700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>644100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>534100</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q60" s="3" t="s">
         <v>16</v>
       </c>
@@ -3223,47 +3363,50 @@
       <c r="S60" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>293000</v>
+        <v>286700</v>
       </c>
       <c r="E61" s="3">
-        <v>291100</v>
+        <v>294300</v>
       </c>
       <c r="F61" s="3">
-        <v>291100</v>
+        <v>292400</v>
       </c>
       <c r="G61" s="3">
-        <v>310000</v>
+        <v>292400</v>
       </c>
       <c r="H61" s="3">
-        <v>44600</v>
+        <v>311400</v>
       </c>
       <c r="I61" s="3">
-        <v>68800</v>
+        <v>44800</v>
       </c>
       <c r="J61" s="3">
+        <v>69100</v>
+      </c>
+      <c r="K61" s="3">
         <v>54900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>90000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>95200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>74400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>55500</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -3276,50 +3419,53 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>43500</v>
+        <v>46600</v>
       </c>
       <c r="E62" s="3">
+        <v>43700</v>
+      </c>
+      <c r="F62" s="3">
         <v>300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>12000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>9800</v>
       </c>
-      <c r="I62" s="3">
-        <v>31900</v>
-      </c>
       <c r="J62" s="3">
+        <v>32000</v>
+      </c>
+      <c r="K62" s="3">
         <v>5200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>15500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>32200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>58300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>51300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>49400</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q62" s="3" t="s">
         <v>16</v>
       </c>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,50 +3643,53 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>652000</v>
+        <v>522100</v>
       </c>
       <c r="E66" s="3">
-        <v>759400</v>
+        <v>654800</v>
       </c>
       <c r="F66" s="3">
-        <v>747500</v>
+        <v>762700</v>
       </c>
       <c r="G66" s="3">
-        <v>831100</v>
+        <v>750700</v>
       </c>
       <c r="H66" s="3">
-        <v>774300</v>
+        <v>834700</v>
       </c>
       <c r="I66" s="3">
-        <v>753000</v>
+        <v>777700</v>
       </c>
       <c r="J66" s="3">
+        <v>756300</v>
+      </c>
+      <c r="K66" s="3">
         <v>756800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>694900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>602900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>804700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>749300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>582400</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>16</v>
       </c>
@@ -3541,8 +3699,11 @@
       <c r="S66" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3701,17 +3869,17 @@
         <v>0</v>
       </c>
       <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
         <v>1521600</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>1243800</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>1086400</v>
       </c>
-      <c r="P70" s="3">
-        <v>0</v>
-      </c>
       <c r="Q70" s="3">
         <v>0</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,50 +3945,53 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-2334400</v>
+        <v>-2384000</v>
       </c>
       <c r="E72" s="3">
-        <v>-2356200</v>
+        <v>-2344500</v>
       </c>
       <c r="F72" s="3">
-        <v>-1927200</v>
+        <v>-2366400</v>
       </c>
       <c r="G72" s="3">
-        <v>-1764200</v>
+        <v>-1935600</v>
       </c>
       <c r="H72" s="3">
-        <v>-1723600</v>
+        <v>-1771900</v>
       </c>
       <c r="I72" s="3">
-        <v>-1668000</v>
+        <v>-1731100</v>
       </c>
       <c r="J72" s="3">
+        <v>-1675200</v>
+      </c>
+      <c r="K72" s="3">
         <v>-1624700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1505500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1368000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1397400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-1218100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-1016300</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>16</v>
       </c>
@@ -3827,8 +4001,11 @@
       <c r="S72" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,50 +4169,53 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-335300</v>
+        <v>-291500</v>
       </c>
       <c r="E76" s="3">
-        <v>-356600</v>
+        <v>-336700</v>
       </c>
       <c r="F76" s="3">
-        <v>71400</v>
+        <v>-358200</v>
       </c>
       <c r="G76" s="3">
-        <v>228200</v>
+        <v>71700</v>
       </c>
       <c r="H76" s="3">
-        <v>273900</v>
+        <v>229200</v>
       </c>
       <c r="I76" s="3">
-        <v>327000</v>
+        <v>275000</v>
       </c>
       <c r="J76" s="3">
+        <v>328400</v>
+      </c>
+      <c r="K76" s="3">
         <v>361200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>376600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>433100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1384700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1206700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1007600</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>16</v>
       </c>
@@ -4039,8 +4225,11 @@
       <c r="S76" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>21800</v>
+        <v>-39600</v>
       </c>
       <c r="E81" s="3">
-        <v>-377900</v>
+        <v>21900</v>
       </c>
       <c r="F81" s="3">
-        <v>-163000</v>
+        <v>-379500</v>
       </c>
       <c r="G81" s="3">
-        <v>-40600</v>
+        <v>-163700</v>
       </c>
       <c r="H81" s="3">
-        <v>-55600</v>
+        <v>-40800</v>
       </c>
       <c r="I81" s="3">
-        <v>-43300</v>
+        <v>-55900</v>
       </c>
       <c r="J81" s="3">
+        <v>-43500</v>
+      </c>
+      <c r="K81" s="3">
         <v>-363000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-86100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>7600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-220100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-201000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-167600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-103700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-85900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-55300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-46300</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,61 +4422,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>16</v>
+      <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0</v>
       </c>
       <c r="J83" s="3">
+        <v>0</v>
+      </c>
+      <c r="K83" s="3">
         <v>14400</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M83" s="3">
+      <c r="M83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N83" s="3">
         <v>2800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>3200</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="Q83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R83" s="3">
         <v>2400</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S83" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>16</v>
+      <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
+        <v>0</v>
       </c>
       <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>-347000</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M89" s="3">
+      <c r="M89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N89" s="3">
         <v>-53400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-121700</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="Q89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R89" s="3">
         <v>-70300</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S89" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +4836,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>16</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
       </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-20400</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M91" s="3">
+      <c r="M91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N91" s="3">
         <v>-5900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-3400</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="Q91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R91" s="3">
         <v>-3300</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S91" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>16</v>
+      <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-164100</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M94" s="3">
+      <c r="M94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N94" s="3">
         <v>-43800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-36000</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="Q94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R94" s="3">
         <v>-88700</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S94" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,163 +5304,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>16</v>
+      <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>650200</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N100" s="3">
         <v>230400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>110900</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="Q100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R100" s="3">
         <v>181900</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S100" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>16</v>
+      <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
+        <v>0</v>
       </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>-1400</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M101" s="3">
+      <c r="M101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N101" s="3">
         <v>-100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-200</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="Q101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R101" s="3">
         <v>200</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S101" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>16</v>
+      <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
+        <v>0</v>
       </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>137600</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M102" s="3">
+      <c r="M102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N102" s="3">
         <v>133100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-47000</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="Q102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R102" s="3">
         <v>23200</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>16</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/UXIN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/UXIN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="92">
   <si>
     <t>UXIN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,269 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>11700</v>
+        <v>50400</v>
       </c>
       <c r="E8" s="3">
-        <v>9500</v>
+        <v>11900</v>
       </c>
       <c r="F8" s="3">
-        <v>15900</v>
+        <v>9700</v>
       </c>
       <c r="G8" s="3">
-        <v>45700</v>
+        <v>16200</v>
       </c>
       <c r="H8" s="3">
-        <v>70500</v>
+        <v>46700</v>
       </c>
       <c r="I8" s="3">
-        <v>67100</v>
+        <v>72000</v>
       </c>
       <c r="J8" s="3">
+        <v>68500</v>
+      </c>
+      <c r="K8" s="3">
         <v>51300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>100300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>50200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>38800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>28800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>104400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>80300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>55000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>48900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>51000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>34800</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>14300</v>
+        <v>48900</v>
       </c>
       <c r="E9" s="3">
-        <v>12200</v>
+        <v>14600</v>
       </c>
       <c r="F9" s="3">
-        <v>16900</v>
+        <v>12500</v>
       </c>
       <c r="G9" s="3">
-        <v>14300</v>
+        <v>17300</v>
       </c>
       <c r="H9" s="3">
-        <v>31600</v>
+        <v>14600</v>
       </c>
       <c r="I9" s="3">
-        <v>31300</v>
+        <v>32200</v>
       </c>
       <c r="J9" s="3">
+        <v>32000</v>
+      </c>
+      <c r="K9" s="3">
         <v>52100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>63700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>71500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>58800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>51100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>36700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>29000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>24300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>20600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>23500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>19700</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>-2600</v>
+        <v>1500</v>
       </c>
       <c r="E10" s="3">
         <v>-2700</v>
       </c>
       <c r="F10" s="3">
-        <v>-1000</v>
+        <v>-2800</v>
       </c>
       <c r="G10" s="3">
-        <v>31500</v>
+        <v>-1100</v>
       </c>
       <c r="H10" s="3">
-        <v>38900</v>
+        <v>32100</v>
       </c>
       <c r="I10" s="3">
-        <v>35800</v>
+        <v>39800</v>
       </c>
       <c r="J10" s="3">
+        <v>36600</v>
+      </c>
+      <c r="K10" s="3">
         <v>-800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>36500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-21200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-19900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>-22300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>67700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>51300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>30700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>28300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>27500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>15100</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,64 +948,68 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="E12" s="3">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="F12" s="3">
-        <v>4800</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" s="3">
-        <v>8200</v>
+        <v>3600</v>
+      </c>
+      <c r="G12" s="3">
+        <v>4900</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="I12" s="3">
-        <v>8600</v>
+        <v>8400</v>
       </c>
       <c r="J12" s="3">
+        <v>8800</v>
+      </c>
+      <c r="K12" s="3">
         <v>17200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>18900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>16900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>17600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>13300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>11600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>7300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>7500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>7000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>7200</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1048,35 +1064,38 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>-27400</v>
+        <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>0</v>
+        <v>-27900</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>5800</v>
+        <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>5900</v>
+      </c>
+      <c r="K14" s="3">
         <v>1400</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
@@ -1104,8 +1123,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1160,8 +1182,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1204,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>36500</v>
+        <v>76000</v>
       </c>
       <c r="E17" s="3">
-        <v>29100</v>
+        <v>37300</v>
       </c>
       <c r="F17" s="3">
-        <v>322500</v>
+        <v>29700</v>
       </c>
       <c r="G17" s="3">
-        <v>93900</v>
+        <v>329300</v>
       </c>
       <c r="H17" s="3">
-        <v>109200</v>
+        <v>95900</v>
       </c>
       <c r="I17" s="3">
-        <v>125200</v>
+        <v>111500</v>
       </c>
       <c r="J17" s="3">
+        <v>127800</v>
+      </c>
+      <c r="K17" s="3">
         <v>96400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>478800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>121400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>214800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>91800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>176100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>157900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>112600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>111300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>78500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>64500</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-24800</v>
+        <v>-25600</v>
       </c>
       <c r="E18" s="3">
-        <v>-19600</v>
+        <v>-25400</v>
       </c>
       <c r="F18" s="3">
-        <v>-306600</v>
+        <v>-20000</v>
       </c>
       <c r="G18" s="3">
-        <v>-48100</v>
+        <v>-313100</v>
       </c>
       <c r="H18" s="3">
-        <v>-38700</v>
+        <v>-49200</v>
       </c>
       <c r="I18" s="3">
-        <v>-58100</v>
+        <v>-39500</v>
       </c>
       <c r="J18" s="3">
+        <v>-59300</v>
+      </c>
+      <c r="K18" s="3">
         <v>-45100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-378500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-71100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-176000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-63000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-71700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-77600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-57600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-62400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-27500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-29700</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1313,64 +1345,68 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-15400</v>
+        <v>-2100</v>
       </c>
       <c r="E20" s="3">
-        <v>-4500</v>
+        <v>-15800</v>
       </c>
       <c r="F20" s="3">
-        <v>-5200</v>
+        <v>-4600</v>
       </c>
       <c r="G20" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="H20" s="3">
         <v>-600</v>
       </c>
-      <c r="H20" s="3">
-        <v>-3700</v>
-      </c>
       <c r="I20" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="J20" s="3">
         <v>1000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>172800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-3800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>215900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-50900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-62400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-35900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-27700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-11400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-12400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1395,38 +1431,41 @@
       <c r="J21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L21" s="3">
         <v>-191400</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O21" s="3">
         <v>-111100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-130900</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S21" s="3">
         <v>-71500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-32200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-25700</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1481,64 +1520,70 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-40300</v>
+        <v>-27800</v>
       </c>
       <c r="E23" s="3">
-        <v>-24200</v>
+        <v>-41100</v>
       </c>
       <c r="F23" s="3">
-        <v>-311800</v>
+        <v>-24700</v>
       </c>
       <c r="G23" s="3">
-        <v>-48800</v>
+        <v>-318400</v>
       </c>
       <c r="H23" s="3">
-        <v>-42400</v>
+        <v>-49800</v>
       </c>
       <c r="I23" s="3">
-        <v>-57100</v>
+        <v>-43300</v>
       </c>
       <c r="J23" s="3">
+        <v>-58300</v>
+      </c>
+      <c r="K23" s="3">
         <v>-45800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-205800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-74900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>39900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-113900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-134100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-113500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-85300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-73900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-39800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-31500</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1552,49 +1597,52 @@
         <v>0</v>
       </c>
       <c r="G24" s="3">
+        <v>100</v>
+      </c>
+      <c r="H24" s="3">
         <v>300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>100</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>300</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
       <c r="R24" s="3">
         <v>0</v>
       </c>
       <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
         <v>300</v>
       </c>
-      <c r="T24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-40300</v>
+        <v>-27800</v>
       </c>
       <c r="E26" s="3">
-        <v>-24200</v>
+        <v>-41100</v>
       </c>
       <c r="F26" s="3">
-        <v>-311900</v>
+        <v>-24700</v>
       </c>
       <c r="G26" s="3">
-        <v>-49100</v>
+        <v>-318500</v>
       </c>
       <c r="H26" s="3">
-        <v>-42300</v>
+        <v>-50100</v>
       </c>
       <c r="I26" s="3">
-        <v>-56200</v>
+        <v>-43200</v>
       </c>
       <c r="J26" s="3">
+        <v>-57400</v>
+      </c>
+      <c r="K26" s="3">
         <v>-46100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-206000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-75100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>39900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-114000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-133800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-113900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-85300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-73900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-40100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-31500</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-39600</v>
+        <v>-27000</v>
       </c>
       <c r="E27" s="3">
-        <v>-23300</v>
+        <v>-40400</v>
       </c>
       <c r="F27" s="3">
-        <v>-310000</v>
+        <v>-23800</v>
       </c>
       <c r="G27" s="3">
-        <v>-48100</v>
+        <v>-316500</v>
       </c>
       <c r="H27" s="3">
-        <v>-40800</v>
+        <v>-49100</v>
       </c>
       <c r="I27" s="3">
-        <v>-54900</v>
+        <v>-41600</v>
       </c>
       <c r="J27" s="3">
+        <v>-56100</v>
+      </c>
+      <c r="K27" s="3">
         <v>-45100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-334600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-74800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>18100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-213700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-201000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-167600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-103700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-85900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-55300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-46300</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1826,38 +1886,38 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>45200</v>
+        <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>-69500</v>
+        <v>46100</v>
       </c>
       <c r="G29" s="3">
-        <v>-115700</v>
+        <v>-71000</v>
       </c>
       <c r="H29" s="3">
-        <v>0</v>
+        <v>-118100</v>
       </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>-900</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>1600</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-28400</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-11200</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-10500</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-6400</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
       <c r="P29" s="3">
         <v>0</v>
       </c>
@@ -1873,8 +1933,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2051,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>15400</v>
+        <v>2100</v>
       </c>
       <c r="E32" s="3">
-        <v>4500</v>
+        <v>15800</v>
       </c>
       <c r="F32" s="3">
-        <v>5200</v>
+        <v>4600</v>
       </c>
       <c r="G32" s="3">
+        <v>5300</v>
+      </c>
+      <c r="H32" s="3">
         <v>600</v>
       </c>
-      <c r="H32" s="3">
-        <v>3700</v>
-      </c>
       <c r="I32" s="3">
+        <v>3800</v>
+      </c>
+      <c r="J32" s="3">
         <v>-1000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-172800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>3800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-215900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>50900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>62400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>35900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>27700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>11400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>12400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-39600</v>
+        <v>-27000</v>
       </c>
       <c r="E33" s="3">
-        <v>21900</v>
+        <v>-40400</v>
       </c>
       <c r="F33" s="3">
-        <v>-379500</v>
+        <v>22400</v>
       </c>
       <c r="G33" s="3">
-        <v>-163700</v>
+        <v>-387600</v>
       </c>
       <c r="H33" s="3">
-        <v>-40800</v>
+        <v>-167200</v>
       </c>
       <c r="I33" s="3">
-        <v>-55900</v>
+        <v>-41600</v>
       </c>
       <c r="J33" s="3">
+        <v>-57000</v>
+      </c>
+      <c r="K33" s="3">
         <v>-43500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-363000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-86100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>7600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-220100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-201000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-167600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-103700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-85900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-55300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-46300</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-39600</v>
+        <v>-27000</v>
       </c>
       <c r="E35" s="3">
-        <v>21900</v>
+        <v>-40400</v>
       </c>
       <c r="F35" s="3">
-        <v>-379500</v>
+        <v>22400</v>
       </c>
       <c r="G35" s="3">
-        <v>-163700</v>
+        <v>-387600</v>
       </c>
       <c r="H35" s="3">
-        <v>-40800</v>
+        <v>-167200</v>
       </c>
       <c r="I35" s="3">
-        <v>-55900</v>
+        <v>-41600</v>
       </c>
       <c r="J35" s="3">
+        <v>-57000</v>
+      </c>
+      <c r="K35" s="3">
         <v>-43500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-363000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-86100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>7600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-220100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-201000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-167600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-103700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-85900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-55300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-46300</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,53 +2399,54 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>33500</v>
+        <v>44900</v>
       </c>
       <c r="E41" s="3">
-        <v>36800</v>
+        <v>34200</v>
       </c>
       <c r="F41" s="3">
-        <v>52300</v>
+        <v>37600</v>
       </c>
       <c r="G41" s="3">
-        <v>73100</v>
+        <v>53400</v>
       </c>
       <c r="H41" s="3">
-        <v>95800</v>
+        <v>74600</v>
       </c>
       <c r="I41" s="3">
-        <v>119600</v>
+        <v>97800</v>
       </c>
       <c r="J41" s="3">
+        <v>122100</v>
+      </c>
+      <c r="K41" s="3">
         <v>69500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>121800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>98300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>116100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>175000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>43300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>90300</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R41" s="3" t="s">
         <v>16</v>
       </c>
@@ -2370,8 +2456,11 @@
       <c r="T41" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2379,44 +2468,44 @@
         <v>0</v>
       </c>
       <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
         <v>1200</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>2300</v>
       </c>
-      <c r="G42" s="3">
-        <v>18600</v>
-      </c>
       <c r="H42" s="3">
-        <v>21300</v>
+        <v>19000</v>
       </c>
       <c r="I42" s="3">
-        <v>29100</v>
+        <v>21700</v>
       </c>
       <c r="J42" s="3">
+        <v>29700</v>
+      </c>
+      <c r="K42" s="3">
         <v>116800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>99300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>152900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>54500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>50500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>65300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>59400</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R42" s="3" t="s">
         <v>16</v>
       </c>
@@ -2426,53 +2515,56 @@
       <c r="T42" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>93100</v>
+        <v>77500</v>
       </c>
       <c r="E43" s="3">
-        <v>125100</v>
+        <v>95000</v>
       </c>
       <c r="F43" s="3">
-        <v>111000</v>
+        <v>127700</v>
       </c>
       <c r="G43" s="3">
-        <v>323400</v>
+        <v>113300</v>
       </c>
       <c r="H43" s="3">
-        <v>73600</v>
+        <v>330200</v>
       </c>
       <c r="I43" s="3">
-        <v>39400</v>
+        <v>75200</v>
       </c>
       <c r="J43" s="3">
+        <v>40300</v>
+      </c>
+      <c r="K43" s="3">
         <v>239200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>230800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>179400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>355100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>206500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>171000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>125600</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R43" s="3" t="s">
         <v>16</v>
       </c>
@@ -2482,53 +2574,56 @@
       <c r="T43" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>4900</v>
+        <v>8700</v>
       </c>
       <c r="E44" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F44" s="3">
         <v>1800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
+        <v>2200</v>
+      </c>
+      <c r="I44" s="3">
         <v>2100</v>
       </c>
-      <c r="H44" s="3">
-        <v>2000</v>
-      </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>2500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>2400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2900</v>
-      </c>
-      <c r="L44" s="3">
-        <v>2600</v>
       </c>
       <c r="M44" s="3">
         <v>2600</v>
       </c>
       <c r="N44" s="3">
+        <v>2600</v>
+      </c>
+      <c r="O44" s="3">
         <v>6400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>11600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>18200</v>
       </c>
-      <c r="Q44" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R44" s="3" t="s">
         <v>16</v>
       </c>
@@ -2538,53 +2633,56 @@
       <c r="T44" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>32300</v>
+        <v>29900</v>
       </c>
       <c r="E45" s="3">
-        <v>84900</v>
+        <v>33000</v>
       </c>
       <c r="F45" s="3">
-        <v>174900</v>
+        <v>86700</v>
       </c>
       <c r="G45" s="3">
-        <v>338300</v>
+        <v>178600</v>
       </c>
       <c r="H45" s="3">
-        <v>761200</v>
+        <v>345500</v>
       </c>
       <c r="I45" s="3">
-        <v>744800</v>
+        <v>777300</v>
       </c>
       <c r="J45" s="3">
+        <v>760500</v>
+      </c>
+      <c r="K45" s="3">
         <v>514100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>894200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>538400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>437800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>443800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>436500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>309300</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R45" s="3" t="s">
         <v>16</v>
       </c>
@@ -2594,53 +2692,56 @@
       <c r="T45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>163800</v>
+        <v>160900</v>
       </c>
       <c r="E46" s="3">
-        <v>249700</v>
+        <v>167200</v>
       </c>
       <c r="F46" s="3">
-        <v>342100</v>
+        <v>255000</v>
       </c>
       <c r="G46" s="3">
-        <v>755500</v>
+        <v>349300</v>
       </c>
       <c r="H46" s="3">
-        <v>954000</v>
+        <v>771400</v>
       </c>
       <c r="I46" s="3">
-        <v>935400</v>
+        <v>974100</v>
       </c>
       <c r="J46" s="3">
+        <v>955100</v>
+      </c>
+      <c r="K46" s="3">
         <v>942000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1014400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>971700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>966000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>882200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>727600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>602800</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R46" s="3" t="s">
         <v>16</v>
       </c>
@@ -2650,53 +2751,56 @@
       <c r="T46" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>43300</v>
+        <v>45000</v>
       </c>
       <c r="E47" s="3">
+        <v>44200</v>
+      </c>
+      <c r="F47" s="3">
+        <v>43500</v>
+      </c>
+      <c r="G47" s="3">
+        <v>43200</v>
+      </c>
+      <c r="H47" s="3">
         <v>42600</v>
       </c>
-      <c r="F47" s="3">
-        <v>42300</v>
-      </c>
-      <c r="G47" s="3">
-        <v>41700</v>
-      </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
+        <v>41600</v>
+      </c>
+      <c r="J47" s="3">
         <v>40800</v>
       </c>
-      <c r="I47" s="3">
-        <v>39900</v>
-      </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>54200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>106400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>50500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>7700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>5600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>6000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>6100</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R47" s="3" t="s">
         <v>16</v>
       </c>
@@ -2706,53 +2810,56 @@
       <c r="T47" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>17200</v>
+        <v>15000</v>
       </c>
       <c r="E48" s="3">
-        <v>18900</v>
+        <v>17500</v>
       </c>
       <c r="F48" s="3">
-        <v>18600</v>
+        <v>19300</v>
       </c>
       <c r="G48" s="3">
-        <v>23800</v>
+        <v>19000</v>
       </c>
       <c r="H48" s="3">
-        <v>50100</v>
+        <v>24300</v>
       </c>
       <c r="I48" s="3">
-        <v>58000</v>
+        <v>51200</v>
       </c>
       <c r="J48" s="3">
+        <v>59200</v>
+      </c>
+      <c r="K48" s="3">
         <v>68700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>60600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>29400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>27000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>25400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>23200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>22600</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R48" s="3" t="s">
         <v>16</v>
       </c>
@@ -2762,8 +2869,11 @@
       <c r="T48" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2774,41 +2884,41 @@
         <v>0</v>
       </c>
       <c r="F49" s="3">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G49" s="3">
         <v>1500</v>
       </c>
       <c r="H49" s="3">
-        <v>19000</v>
+        <v>1500</v>
       </c>
       <c r="I49" s="3">
-        <v>19500</v>
+        <v>19400</v>
       </c>
       <c r="J49" s="3">
+        <v>19900</v>
+      </c>
+      <c r="K49" s="3">
         <v>19800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>23200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>19900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>19400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>12200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>12700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>12900</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R49" s="3" t="s">
         <v>16</v>
       </c>
@@ -2818,8 +2928,11 @@
       <c r="T49" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,19 +3046,22 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>6400</v>
+        <v>6100</v>
       </c>
       <c r="E52" s="3">
-        <v>6900</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>16</v>
+        <v>6600</v>
+      </c>
+      <c r="F52" s="3">
+        <v>7000</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>16</v>
@@ -2956,26 +3075,26 @@
       <c r="J52" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
+      <c r="K52" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="L52" s="3">
         <v>0</v>
       </c>
       <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3">
         <v>15800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>16200</v>
-      </c>
-      <c r="O52" s="3">
-        <v>16800</v>
       </c>
       <c r="P52" s="3">
         <v>16800</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>16</v>
+      <c r="Q52" s="3">
+        <v>16800</v>
       </c>
       <c r="R52" s="3" t="s">
         <v>16</v>
@@ -2986,8 +3105,11 @@
       <c r="T52" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,53 +3164,56 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>230700</v>
+        <v>227000</v>
       </c>
       <c r="E54" s="3">
-        <v>318100</v>
+        <v>235500</v>
       </c>
       <c r="F54" s="3">
-        <v>404500</v>
+        <v>324800</v>
       </c>
       <c r="G54" s="3">
-        <v>822400</v>
+        <v>413000</v>
       </c>
       <c r="H54" s="3">
-        <v>1063900</v>
+        <v>839800</v>
       </c>
       <c r="I54" s="3">
-        <v>1052700</v>
+        <v>1086400</v>
       </c>
       <c r="J54" s="3">
+        <v>1075000</v>
+      </c>
+      <c r="K54" s="3">
         <v>1084600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1118000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1071500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1036000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>941600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>786400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>661100</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R54" s="3" t="s">
         <v>16</v>
       </c>
@@ -3098,8 +3223,11 @@
       <c r="T54" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,53 +3271,54 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>150100</v>
+        <v>153200</v>
       </c>
       <c r="E57" s="3">
-        <v>151700</v>
+        <v>153200</v>
       </c>
       <c r="F57" s="3">
-        <v>199900</v>
+        <v>154900</v>
       </c>
       <c r="G57" s="3">
-        <v>94800</v>
+        <v>204100</v>
       </c>
       <c r="H57" s="3">
-        <v>234700</v>
+        <v>96800</v>
       </c>
       <c r="I57" s="3">
-        <v>228000</v>
+        <v>239700</v>
       </c>
       <c r="J57" s="3">
+        <v>232800</v>
+      </c>
+      <c r="K57" s="3">
         <v>237300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>221700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>174300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>153100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>15800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>18900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>15700</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R57" s="3" t="s">
         <v>16</v>
       </c>
@@ -3198,53 +3328,56 @@
       <c r="T57" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3900</v>
+        <v>8100</v>
       </c>
       <c r="E58" s="3">
-        <v>66800</v>
+        <v>4000</v>
       </c>
       <c r="F58" s="3">
-        <v>75600</v>
+        <v>68200</v>
       </c>
       <c r="G58" s="3">
-        <v>89800</v>
+        <v>77100</v>
       </c>
       <c r="H58" s="3">
-        <v>18600</v>
+        <v>91700</v>
       </c>
       <c r="I58" s="3">
-        <v>280300</v>
+        <v>18900</v>
       </c>
       <c r="J58" s="3">
+        <v>286200</v>
+      </c>
+      <c r="K58" s="3">
         <v>256800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>297500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>260800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>160400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>71500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>63300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>70800</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R58" s="3" t="s">
         <v>16</v>
       </c>
@@ -3254,53 +3387,56 @@
       <c r="T58" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>34900</v>
+        <v>31000</v>
       </c>
       <c r="E59" s="3">
-        <v>98300</v>
+        <v>35600</v>
       </c>
       <c r="F59" s="3">
-        <v>194600</v>
+        <v>100400</v>
       </c>
       <c r="G59" s="3">
-        <v>272700</v>
+        <v>198700</v>
       </c>
       <c r="H59" s="3">
-        <v>258600</v>
+        <v>278500</v>
       </c>
       <c r="I59" s="3">
-        <v>215300</v>
+        <v>264000</v>
       </c>
       <c r="J59" s="3">
+        <v>219900</v>
+      </c>
+      <c r="K59" s="3">
         <v>161400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>581800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>153600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>161200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>587300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>561900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>447600</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>16</v>
       </c>
@@ -3310,53 +3446,56 @@
       <c r="T59" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>188900</v>
+        <v>192300</v>
       </c>
       <c r="E60" s="3">
-        <v>316800</v>
+        <v>192800</v>
       </c>
       <c r="F60" s="3">
-        <v>470000</v>
+        <v>323500</v>
       </c>
       <c r="G60" s="3">
-        <v>457400</v>
+        <v>479900</v>
       </c>
       <c r="H60" s="3">
-        <v>511800</v>
+        <v>467100</v>
       </c>
       <c r="I60" s="3">
-        <v>723600</v>
+        <v>522700</v>
       </c>
       <c r="J60" s="3">
+        <v>738900</v>
+      </c>
+      <c r="K60" s="3">
         <v>655500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>701600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>588700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>474700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>674700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>644100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>534100</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R60" s="3" t="s">
         <v>16</v>
       </c>
@@ -3366,50 +3505,53 @@
       <c r="T60" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>286700</v>
+        <v>284200</v>
       </c>
       <c r="E61" s="3">
-        <v>294300</v>
+        <v>292700</v>
       </c>
       <c r="F61" s="3">
-        <v>292400</v>
+        <v>300500</v>
       </c>
       <c r="G61" s="3">
-        <v>292400</v>
+        <v>298600</v>
       </c>
       <c r="H61" s="3">
-        <v>311400</v>
+        <v>298600</v>
       </c>
       <c r="I61" s="3">
-        <v>44800</v>
+        <v>317900</v>
       </c>
       <c r="J61" s="3">
+        <v>45700</v>
+      </c>
+      <c r="K61" s="3">
         <v>69100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>54900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>90000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>95200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>74400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>55500</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
@@ -3422,53 +3564,56 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>46600</v>
+        <v>39500</v>
       </c>
       <c r="E62" s="3">
-        <v>43700</v>
+        <v>47600</v>
       </c>
       <c r="F62" s="3">
+        <v>44700</v>
+      </c>
+      <c r="G62" s="3">
         <v>300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1600</v>
       </c>
-      <c r="H62" s="3">
-        <v>12000</v>
-      </c>
       <c r="I62" s="3">
-        <v>9800</v>
+        <v>12300</v>
       </c>
       <c r="J62" s="3">
+        <v>10000</v>
+      </c>
+      <c r="K62" s="3">
         <v>32000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>5200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>15500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>32200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>58300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>51300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>49400</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R62" s="3" t="s">
         <v>16</v>
       </c>
@@ -3478,8 +3623,11 @@
       <c r="T62" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,53 +3800,56 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>522100</v>
+        <v>516000</v>
       </c>
       <c r="E66" s="3">
-        <v>654800</v>
+        <v>533200</v>
       </c>
       <c r="F66" s="3">
-        <v>762700</v>
+        <v>668600</v>
       </c>
       <c r="G66" s="3">
-        <v>750700</v>
+        <v>778800</v>
       </c>
       <c r="H66" s="3">
-        <v>834700</v>
+        <v>766600</v>
       </c>
       <c r="I66" s="3">
-        <v>777700</v>
+        <v>852300</v>
       </c>
       <c r="J66" s="3">
+        <v>794100</v>
+      </c>
+      <c r="K66" s="3">
         <v>756300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>756800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>694900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>602900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>804700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>749300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>582400</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R66" s="3" t="s">
         <v>16</v>
       </c>
@@ -3702,8 +3859,11 @@
       <c r="T66" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3872,17 +4039,17 @@
         <v>0</v>
       </c>
       <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
         <v>1521600</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>1243800</v>
       </c>
-      <c r="P70" s="3">
+      <c r="Q70" s="3">
         <v>1086400</v>
       </c>
-      <c r="Q70" s="3">
-        <v>0</v>
-      </c>
       <c r="R70" s="3">
         <v>0</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,53 +4118,56 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-2384000</v>
+        <v>-2461400</v>
       </c>
       <c r="E72" s="3">
-        <v>-2344500</v>
+        <v>-2434400</v>
       </c>
       <c r="F72" s="3">
-        <v>-2366400</v>
+        <v>-2394000</v>
       </c>
       <c r="G72" s="3">
-        <v>-1935600</v>
+        <v>-2416400</v>
       </c>
       <c r="H72" s="3">
-        <v>-1771900</v>
+        <v>-1976500</v>
       </c>
       <c r="I72" s="3">
-        <v>-1731100</v>
+        <v>-1809300</v>
       </c>
       <c r="J72" s="3">
+        <v>-1767700</v>
+      </c>
+      <c r="K72" s="3">
         <v>-1675200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1624700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1505500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1368000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-1397400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-1218100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-1016300</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R72" s="3" t="s">
         <v>16</v>
       </c>
@@ -4004,8 +4177,11 @@
       <c r="T72" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,53 +4354,56 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-291500</v>
+        <v>-288900</v>
       </c>
       <c r="E76" s="3">
-        <v>-336700</v>
+        <v>-297600</v>
       </c>
       <c r="F76" s="3">
-        <v>-358200</v>
+        <v>-343900</v>
       </c>
       <c r="G76" s="3">
-        <v>71700</v>
+        <v>-365800</v>
       </c>
       <c r="H76" s="3">
-        <v>229200</v>
+        <v>73200</v>
       </c>
       <c r="I76" s="3">
-        <v>275000</v>
+        <v>234000</v>
       </c>
       <c r="J76" s="3">
+        <v>280900</v>
+      </c>
+      <c r="K76" s="3">
         <v>328400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>361200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>376600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>433100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1384700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1206700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-1007600</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R76" s="3" t="s">
         <v>16</v>
       </c>
@@ -4228,8 +4413,11 @@
       <c r="T76" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-39600</v>
+        <v>-27000</v>
       </c>
       <c r="E81" s="3">
-        <v>21900</v>
+        <v>-40400</v>
       </c>
       <c r="F81" s="3">
-        <v>-379500</v>
+        <v>22400</v>
       </c>
       <c r="G81" s="3">
-        <v>-163700</v>
+        <v>-387600</v>
       </c>
       <c r="H81" s="3">
-        <v>-40800</v>
+        <v>-167200</v>
       </c>
       <c r="I81" s="3">
-        <v>-55900</v>
+        <v>-41600</v>
       </c>
       <c r="J81" s="3">
+        <v>-57000</v>
+      </c>
+      <c r="K81" s="3">
         <v>-43500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-363000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-86100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>7600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-220100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-201000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-167600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-103700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-85900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-55300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-46300</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4620,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4450,37 +4648,40 @@
         <v>0</v>
       </c>
       <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3">
         <v>14400</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N83" s="3">
+      <c r="N83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O83" s="3">
         <v>2800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>3200</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R83" s="3">
+      <c r="R83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S83" s="3">
         <v>2400</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T83" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,8 +4972,11 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4786,37 +5002,40 @@
         <v>0</v>
       </c>
       <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>-347000</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N89" s="3">
+      <c r="N89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O89" s="3">
         <v>-53400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-121700</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R89" s="3">
+      <c r="R89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S89" s="3">
         <v>-70300</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T89" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5056,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4864,37 +5084,40 @@
         <v>0</v>
       </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-20400</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N91" s="3">
+      <c r="N91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O91" s="3">
         <v>-5900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3400</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R91" s="3">
+      <c r="R91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S91" s="3">
         <v>-3300</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T91" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5231,11 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5032,37 +5261,40 @@
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-164100</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N94" s="3">
+      <c r="N94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O94" s="3">
         <v>-43800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-36000</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R94" s="3">
+      <c r="R94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S94" s="3">
         <v>-88700</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T94" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5372,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,8 +5549,11 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5334,37 +5579,40 @@
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>650200</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N100" s="3">
+      <c r="N100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O100" s="3">
         <v>230400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>110900</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R100" s="3">
+      <c r="R100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S100" s="3">
         <v>181900</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T100" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5390,37 +5638,40 @@
         <v>0</v>
       </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>-1400</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N101" s="3">
+      <c r="N101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O101" s="3">
         <v>-100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-200</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R101" s="3">
+      <c r="R101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S101" s="3">
         <v>200</v>
       </c>
-      <c r="S101" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T101" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5446,33 +5697,36 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>137600</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N102" s="3">
+      <c r="N102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O102" s="3">
         <v>133100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-47000</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R102" s="3">
+      <c r="R102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S102" s="3">
         <v>23200</v>
       </c>
-      <c r="S102" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U102" s="3" t="s">
         <v>16</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/UXIN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/UXIN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="92">
   <si>
     <t>UXIN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,269 +665,282 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>50400</v>
+        <v>30200</v>
       </c>
       <c r="E8" s="3">
-        <v>11900</v>
+        <v>49700</v>
       </c>
       <c r="F8" s="3">
-        <v>9700</v>
+        <v>11800</v>
       </c>
       <c r="G8" s="3">
-        <v>16200</v>
+        <v>9600</v>
       </c>
       <c r="H8" s="3">
-        <v>46700</v>
+        <v>16000</v>
       </c>
       <c r="I8" s="3">
-        <v>72000</v>
+        <v>46100</v>
       </c>
       <c r="J8" s="3">
+        <v>71000</v>
+      </c>
+      <c r="K8" s="3">
         <v>68500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>51300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>100300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>50200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>38800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>28800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>104400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>80300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>55000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>48900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>51000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>34800</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>48900</v>
+        <v>28800</v>
       </c>
       <c r="E9" s="3">
-        <v>14600</v>
+        <v>48300</v>
       </c>
       <c r="F9" s="3">
-        <v>12500</v>
+        <v>14400</v>
       </c>
       <c r="G9" s="3">
-        <v>17300</v>
+        <v>12300</v>
       </c>
       <c r="H9" s="3">
-        <v>14600</v>
+        <v>17000</v>
       </c>
       <c r="I9" s="3">
-        <v>32200</v>
+        <v>14400</v>
       </c>
       <c r="J9" s="3">
+        <v>31800</v>
+      </c>
+      <c r="K9" s="3">
         <v>32000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>52100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>63700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>71500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>58800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>51100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>36700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>29000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>24300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>20600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>23500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>19700</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E10" s="3">
         <v>1500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="G10" s="3">
         <v>-2700</v>
       </c>
-      <c r="F10" s="3">
-        <v>-2800</v>
-      </c>
-      <c r="G10" s="3">
-        <v>-1100</v>
-      </c>
       <c r="H10" s="3">
-        <v>32100</v>
+        <v>-1000</v>
       </c>
       <c r="I10" s="3">
-        <v>39800</v>
+        <v>31700</v>
       </c>
       <c r="J10" s="3">
+        <v>39200</v>
+      </c>
+      <c r="K10" s="3">
         <v>36600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>36500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-21200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>-19900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>-22300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>67700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>51300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>30700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>28300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>27500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>15100</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -949,67 +962,71 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E12" s="3">
         <v>2800</v>
       </c>
-      <c r="E12" s="3">
-        <v>3000</v>
-      </c>
       <c r="F12" s="3">
-        <v>3600</v>
+        <v>2900</v>
       </c>
       <c r="G12" s="3">
-        <v>4900</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12" s="3">
-        <v>8400</v>
+        <v>3500</v>
+      </c>
+      <c r="H12" s="3">
+        <v>4800</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="J12" s="3">
+        <v>8300</v>
+      </c>
+      <c r="K12" s="3">
         <v>8800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>17200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>18900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>16900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>17600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>13300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>11600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>7300</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>7500</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>7000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>7200</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1067,38 +1084,41 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>-27900</v>
+        <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>0</v>
+        <v>-27600</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>5900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1400</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
@@ -1126,8 +1146,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1185,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>76000</v>
+        <v>45200</v>
       </c>
       <c r="E17" s="3">
-        <v>37300</v>
+        <v>75000</v>
       </c>
       <c r="F17" s="3">
-        <v>29700</v>
+        <v>36800</v>
       </c>
       <c r="G17" s="3">
-        <v>329300</v>
+        <v>29300</v>
       </c>
       <c r="H17" s="3">
-        <v>95900</v>
+        <v>325000</v>
       </c>
       <c r="I17" s="3">
-        <v>111500</v>
+        <v>94600</v>
       </c>
       <c r="J17" s="3">
+        <v>110000</v>
+      </c>
+      <c r="K17" s="3">
         <v>127800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>96400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>478800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>121400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>214800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>91800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>176100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>157900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>112600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>111300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>78500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>64500</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-25600</v>
+        <v>-15000</v>
       </c>
       <c r="E18" s="3">
-        <v>-25400</v>
+        <v>-25300</v>
       </c>
       <c r="F18" s="3">
-        <v>-20000</v>
+        <v>-25000</v>
       </c>
       <c r="G18" s="3">
-        <v>-313100</v>
+        <v>-19800</v>
       </c>
       <c r="H18" s="3">
-        <v>-49200</v>
+        <v>-309000</v>
       </c>
       <c r="I18" s="3">
-        <v>-39500</v>
+        <v>-48500</v>
       </c>
       <c r="J18" s="3">
+        <v>-39000</v>
+      </c>
+      <c r="K18" s="3">
         <v>-59300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-45100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-378500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-71100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-176000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-63000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-71700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-77600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-57600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-62400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-27500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-29700</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1346,67 +1379,71 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2100</v>
       </c>
-      <c r="E20" s="3">
-        <v>-15800</v>
-      </c>
       <c r="F20" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="G20" s="3">
         <v>-4600</v>
       </c>
-      <c r="G20" s="3">
-        <v>-5300</v>
-      </c>
       <c r="H20" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="I20" s="3">
         <v>-600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-3800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>172800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-3800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>215900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-50900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-62400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-35900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-27700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-11400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-12400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1434,38 +1471,41 @@
       <c r="K21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M21" s="3">
         <v>-191400</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P21" s="3">
         <v>-111100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-130900</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T21" s="3">
         <v>-71500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-32200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-25700</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1523,67 +1563,73 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-27800</v>
+        <v>-20400</v>
       </c>
       <c r="E23" s="3">
-        <v>-41100</v>
+        <v>-27400</v>
       </c>
       <c r="F23" s="3">
-        <v>-24700</v>
+        <v>-40600</v>
       </c>
       <c r="G23" s="3">
-        <v>-318400</v>
+        <v>-24300</v>
       </c>
       <c r="H23" s="3">
-        <v>-49800</v>
+        <v>-314300</v>
       </c>
       <c r="I23" s="3">
-        <v>-43300</v>
+        <v>-49100</v>
       </c>
       <c r="J23" s="3">
+        <v>-42700</v>
+      </c>
+      <c r="K23" s="3">
         <v>-58300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-45800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-205800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-74900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>39900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-113900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-134100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-113500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-85300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-73900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-39800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-31500</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1597,52 +1643,55 @@
         <v>0</v>
       </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>100</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>300</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
       <c r="S24" s="3">
         <v>0</v>
       </c>
       <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
         <v>300</v>
       </c>
-      <c r="U24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-27800</v>
+        <v>-20400</v>
       </c>
       <c r="E26" s="3">
-        <v>-41100</v>
+        <v>-27400</v>
       </c>
       <c r="F26" s="3">
-        <v>-24700</v>
+        <v>-40600</v>
       </c>
       <c r="G26" s="3">
-        <v>-318500</v>
+        <v>-24400</v>
       </c>
       <c r="H26" s="3">
-        <v>-50100</v>
+        <v>-314300</v>
       </c>
       <c r="I26" s="3">
-        <v>-43200</v>
+        <v>-49400</v>
       </c>
       <c r="J26" s="3">
+        <v>-42700</v>
+      </c>
+      <c r="K26" s="3">
         <v>-57400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-46100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-206000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-75100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>39900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-114000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-133800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-113900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-85300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-73900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-40100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-31500</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-27000</v>
+        <v>-20500</v>
       </c>
       <c r="E27" s="3">
-        <v>-40400</v>
+        <v>-26600</v>
       </c>
       <c r="F27" s="3">
-        <v>-23800</v>
+        <v>-39900</v>
       </c>
       <c r="G27" s="3">
-        <v>-316500</v>
+        <v>-23500</v>
       </c>
       <c r="H27" s="3">
-        <v>-49100</v>
+        <v>-312400</v>
       </c>
       <c r="I27" s="3">
-        <v>-41600</v>
+        <v>-48400</v>
       </c>
       <c r="J27" s="3">
+        <v>-41100</v>
+      </c>
+      <c r="K27" s="3">
         <v>-56100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-45100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-334600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-74800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>18100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-213700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-201000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-167600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-103700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-85900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-55300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-46300</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1889,38 +1950,38 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>46100</v>
+        <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>-71000</v>
+        <v>45500</v>
       </c>
       <c r="H29" s="3">
-        <v>-118100</v>
+        <v>-70100</v>
       </c>
       <c r="I29" s="3">
-        <v>0</v>
+        <v>-116600</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>-900</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>1600</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-28400</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-11200</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-10500</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-6400</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
       <c r="Q29" s="3">
         <v>0</v>
       </c>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,126 +2121,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E32" s="3">
         <v>2100</v>
       </c>
-      <c r="E32" s="3">
-        <v>15800</v>
-      </c>
       <c r="F32" s="3">
+        <v>15600</v>
+      </c>
+      <c r="G32" s="3">
         <v>4600</v>
       </c>
-      <c r="G32" s="3">
-        <v>5300</v>
-      </c>
       <c r="H32" s="3">
+        <v>5200</v>
+      </c>
+      <c r="I32" s="3">
         <v>600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>3800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-172800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>3800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-215900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>50900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>62400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>35900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>27700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>11400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>12400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-27000</v>
+        <v>-20500</v>
       </c>
       <c r="E33" s="3">
-        <v>-40400</v>
+        <v>-26600</v>
       </c>
       <c r="F33" s="3">
-        <v>22400</v>
+        <v>-39900</v>
       </c>
       <c r="G33" s="3">
-        <v>-387600</v>
+        <v>22100</v>
       </c>
       <c r="H33" s="3">
-        <v>-167200</v>
+        <v>-382500</v>
       </c>
       <c r="I33" s="3">
-        <v>-41600</v>
+        <v>-165000</v>
       </c>
       <c r="J33" s="3">
+        <v>-41100</v>
+      </c>
+      <c r="K33" s="3">
         <v>-57000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-43500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-363000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-86100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>7600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-220100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-201000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-167600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-103700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-85900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-55300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-46300</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-27000</v>
+        <v>-20500</v>
       </c>
       <c r="E35" s="3">
-        <v>-40400</v>
+        <v>-26600</v>
       </c>
       <c r="F35" s="3">
-        <v>22400</v>
+        <v>-39900</v>
       </c>
       <c r="G35" s="3">
-        <v>-387600</v>
+        <v>22100</v>
       </c>
       <c r="H35" s="3">
-        <v>-167200</v>
+        <v>-382500</v>
       </c>
       <c r="I35" s="3">
-        <v>-41600</v>
+        <v>-165000</v>
       </c>
       <c r="J35" s="3">
+        <v>-41100</v>
+      </c>
+      <c r="K35" s="3">
         <v>-57000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-43500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-363000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-86100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>7600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-220100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-201000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-167600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-103700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-85900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-55300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-46300</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,56 +2486,57 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>44900</v>
+        <v>29700</v>
       </c>
       <c r="E41" s="3">
-        <v>34200</v>
+        <v>44300</v>
       </c>
       <c r="F41" s="3">
-        <v>37600</v>
+        <v>33800</v>
       </c>
       <c r="G41" s="3">
-        <v>53400</v>
+        <v>37100</v>
       </c>
       <c r="H41" s="3">
-        <v>74600</v>
+        <v>52700</v>
       </c>
       <c r="I41" s="3">
-        <v>97800</v>
+        <v>73600</v>
       </c>
       <c r="J41" s="3">
+        <v>96600</v>
+      </c>
+      <c r="K41" s="3">
         <v>122100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>69500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>121800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>98300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>116100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>175000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>43300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>90300</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S41" s="3" t="s">
         <v>16</v>
       </c>
@@ -2459,56 +2546,59 @@
       <c r="U41" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
-        <v>0</v>
+      <c r="D42" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="E42" s="3">
         <v>0</v>
       </c>
       <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
         <v>1200</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>2300</v>
       </c>
-      <c r="H42" s="3">
-        <v>19000</v>
-      </c>
       <c r="I42" s="3">
-        <v>21700</v>
+        <v>18800</v>
       </c>
       <c r="J42" s="3">
+        <v>21500</v>
+      </c>
+      <c r="K42" s="3">
         <v>29700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>116800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>99300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>152900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>54500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>50500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>65300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>59400</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S42" s="3" t="s">
         <v>16</v>
       </c>
@@ -2518,56 +2608,59 @@
       <c r="U42" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>77500</v>
+        <v>64900</v>
       </c>
       <c r="E43" s="3">
-        <v>95000</v>
+        <v>76500</v>
       </c>
       <c r="F43" s="3">
-        <v>127700</v>
+        <v>93800</v>
       </c>
       <c r="G43" s="3">
-        <v>113300</v>
+        <v>126100</v>
       </c>
       <c r="H43" s="3">
-        <v>330200</v>
+        <v>111900</v>
       </c>
       <c r="I43" s="3">
-        <v>75200</v>
+        <v>325900</v>
       </c>
       <c r="J43" s="3">
+        <v>74200</v>
+      </c>
+      <c r="K43" s="3">
         <v>40300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>239200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>230800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>179400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>355100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>206500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>171000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>125600</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S43" s="3" t="s">
         <v>16</v>
       </c>
@@ -2577,56 +2670,59 @@
       <c r="U43" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>8700</v>
+        <v>10700</v>
       </c>
       <c r="E44" s="3">
+        <v>8500</v>
+      </c>
+      <c r="F44" s="3">
         <v>5000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1600</v>
-      </c>
-      <c r="H44" s="3">
-        <v>2200</v>
       </c>
       <c r="I44" s="3">
         <v>2100</v>
       </c>
       <c r="J44" s="3">
+        <v>2100</v>
+      </c>
+      <c r="K44" s="3">
         <v>2500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2900</v>
-      </c>
-      <c r="M44" s="3">
-        <v>2600</v>
       </c>
       <c r="N44" s="3">
         <v>2600</v>
       </c>
       <c r="O44" s="3">
+        <v>2600</v>
+      </c>
+      <c r="P44" s="3">
         <v>6400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>11600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>18200</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S44" s="3" t="s">
         <v>16</v>
       </c>
@@ -2636,56 +2732,59 @@
       <c r="U44" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>29900</v>
+        <v>22900</v>
       </c>
       <c r="E45" s="3">
-        <v>33000</v>
+        <v>29500</v>
       </c>
       <c r="F45" s="3">
-        <v>86700</v>
+        <v>32500</v>
       </c>
       <c r="G45" s="3">
-        <v>178600</v>
+        <v>85600</v>
       </c>
       <c r="H45" s="3">
-        <v>345500</v>
+        <v>176200</v>
       </c>
       <c r="I45" s="3">
-        <v>777300</v>
+        <v>341000</v>
       </c>
       <c r="J45" s="3">
+        <v>767200</v>
+      </c>
+      <c r="K45" s="3">
         <v>760500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>514100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>894200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>538400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>437800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>443800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>436500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>309300</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S45" s="3" t="s">
         <v>16</v>
       </c>
@@ -2695,56 +2794,59 @@
       <c r="U45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>160900</v>
+        <v>128300</v>
       </c>
       <c r="E46" s="3">
-        <v>167200</v>
+        <v>158800</v>
       </c>
       <c r="F46" s="3">
-        <v>255000</v>
+        <v>165100</v>
       </c>
       <c r="G46" s="3">
-        <v>349300</v>
+        <v>251700</v>
       </c>
       <c r="H46" s="3">
-        <v>771400</v>
+        <v>344700</v>
       </c>
       <c r="I46" s="3">
-        <v>974100</v>
+        <v>761400</v>
       </c>
       <c r="J46" s="3">
+        <v>961500</v>
+      </c>
+      <c r="K46" s="3">
         <v>955100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>942000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1014400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>971700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>966000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>882200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>727600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>602800</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S46" s="3" t="s">
         <v>16</v>
       </c>
@@ -2754,56 +2856,59 @@
       <c r="U46" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>45000</v>
+        <v>44400</v>
       </c>
       <c r="E47" s="3">
-        <v>44200</v>
+        <v>44400</v>
       </c>
       <c r="F47" s="3">
-        <v>43500</v>
+        <v>43600</v>
       </c>
       <c r="G47" s="3">
-        <v>43200</v>
+        <v>42900</v>
       </c>
       <c r="H47" s="3">
         <v>42600</v>
       </c>
       <c r="I47" s="3">
-        <v>41600</v>
+        <v>42000</v>
       </c>
       <c r="J47" s="3">
+        <v>41100</v>
+      </c>
+      <c r="K47" s="3">
         <v>40800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>54200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>106400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>50500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>7700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>5600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>6000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>6100</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S47" s="3" t="s">
         <v>16</v>
       </c>
@@ -2813,56 +2918,59 @@
       <c r="U47" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>15000</v>
+        <v>11700</v>
       </c>
       <c r="E48" s="3">
-        <v>17500</v>
+        <v>14800</v>
       </c>
       <c r="F48" s="3">
-        <v>19300</v>
+        <v>17300</v>
       </c>
       <c r="G48" s="3">
         <v>19000</v>
       </c>
       <c r="H48" s="3">
-        <v>24300</v>
+        <v>18800</v>
       </c>
       <c r="I48" s="3">
-        <v>51200</v>
+        <v>24000</v>
       </c>
       <c r="J48" s="3">
+        <v>50500</v>
+      </c>
+      <c r="K48" s="3">
         <v>59200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>68700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>60600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>29400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>27000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>25400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>23200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>22600</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S48" s="3" t="s">
         <v>16</v>
       </c>
@@ -2872,8 +2980,11 @@
       <c r="U48" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2887,41 +2998,41 @@
         <v>0</v>
       </c>
       <c r="G49" s="3">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="H49" s="3">
         <v>1500</v>
       </c>
       <c r="I49" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J49" s="3">
+        <v>19200</v>
+      </c>
+      <c r="K49" s="3">
+        <v>19900</v>
+      </c>
+      <c r="L49" s="3">
+        <v>19800</v>
+      </c>
+      <c r="M49" s="3">
+        <v>23200</v>
+      </c>
+      <c r="N49" s="3">
+        <v>19900</v>
+      </c>
+      <c r="O49" s="3">
         <v>19400</v>
       </c>
-      <c r="J49" s="3">
-        <v>19900</v>
-      </c>
-      <c r="K49" s="3">
-        <v>19800</v>
-      </c>
-      <c r="L49" s="3">
-        <v>23200</v>
-      </c>
-      <c r="M49" s="3">
-        <v>19900</v>
-      </c>
-      <c r="N49" s="3">
-        <v>19400</v>
-      </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>12200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>12700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>12900</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S49" s="3" t="s">
         <v>16</v>
       </c>
@@ -2931,8 +3042,11 @@
       <c r="U49" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,22 +3166,25 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>6100</v>
+        <v>5500</v>
       </c>
       <c r="E52" s="3">
-        <v>6600</v>
+        <v>6000</v>
       </c>
       <c r="F52" s="3">
-        <v>7000</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>16</v>
+        <v>6500</v>
+      </c>
+      <c r="G52" s="3">
+        <v>6900</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>16</v>
@@ -3078,26 +3198,26 @@
       <c r="K52" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
+      <c r="L52" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M52" s="3">
         <v>0</v>
       </c>
       <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3">
         <v>15800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>16200</v>
-      </c>
-      <c r="P52" s="3">
-        <v>16800</v>
       </c>
       <c r="Q52" s="3">
         <v>16800</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>16</v>
+      <c r="R52" s="3">
+        <v>16800</v>
       </c>
       <c r="S52" s="3" t="s">
         <v>16</v>
@@ -3108,8 +3228,11 @@
       <c r="U52" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,56 +3290,59 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>227000</v>
+        <v>189900</v>
       </c>
       <c r="E54" s="3">
-        <v>235500</v>
+        <v>224100</v>
       </c>
       <c r="F54" s="3">
-        <v>324800</v>
+        <v>232500</v>
       </c>
       <c r="G54" s="3">
-        <v>413000</v>
+        <v>320600</v>
       </c>
       <c r="H54" s="3">
-        <v>839800</v>
+        <v>407600</v>
       </c>
       <c r="I54" s="3">
-        <v>1086400</v>
+        <v>828900</v>
       </c>
       <c r="J54" s="3">
+        <v>1072200</v>
+      </c>
+      <c r="K54" s="3">
         <v>1075000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1084600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1118000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1071500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1036000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>941600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>786400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>661100</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S54" s="3" t="s">
         <v>16</v>
       </c>
@@ -3226,8 +3352,11 @@
       <c r="U54" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,56 +3402,57 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>153200</v>
+        <v>137000</v>
       </c>
       <c r="E57" s="3">
-        <v>153200</v>
+        <v>151200</v>
       </c>
       <c r="F57" s="3">
-        <v>154900</v>
+        <v>151200</v>
       </c>
       <c r="G57" s="3">
-        <v>204100</v>
+        <v>152900</v>
       </c>
       <c r="H57" s="3">
-        <v>96800</v>
+        <v>201400</v>
       </c>
       <c r="I57" s="3">
-        <v>239700</v>
+        <v>95600</v>
       </c>
       <c r="J57" s="3">
+        <v>236600</v>
+      </c>
+      <c r="K57" s="3">
         <v>232800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>237300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>221700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>174300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>153100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>15800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>18900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>15700</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S57" s="3" t="s">
         <v>16</v>
       </c>
@@ -3331,56 +3462,59 @@
       <c r="U57" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>8100</v>
+        <v>23200</v>
       </c>
       <c r="E58" s="3">
+        <v>8000</v>
+      </c>
+      <c r="F58" s="3">
         <v>4000</v>
       </c>
-      <c r="F58" s="3">
-        <v>68200</v>
-      </c>
       <c r="G58" s="3">
-        <v>77100</v>
+        <v>67300</v>
       </c>
       <c r="H58" s="3">
-        <v>91700</v>
+        <v>76100</v>
       </c>
       <c r="I58" s="3">
-        <v>18900</v>
+        <v>90600</v>
       </c>
       <c r="J58" s="3">
+        <v>18700</v>
+      </c>
+      <c r="K58" s="3">
         <v>286200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>256800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>297500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>260800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>160400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>71500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>63300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>70800</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S58" s="3" t="s">
         <v>16</v>
       </c>
@@ -3390,56 +3524,59 @@
       <c r="U58" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>31000</v>
+        <v>16400</v>
       </c>
       <c r="E59" s="3">
-        <v>35600</v>
+        <v>30600</v>
       </c>
       <c r="F59" s="3">
-        <v>100400</v>
+        <v>35200</v>
       </c>
       <c r="G59" s="3">
-        <v>198700</v>
+        <v>99100</v>
       </c>
       <c r="H59" s="3">
-        <v>278500</v>
+        <v>196100</v>
       </c>
       <c r="I59" s="3">
-        <v>264000</v>
+        <v>274900</v>
       </c>
       <c r="J59" s="3">
+        <v>260600</v>
+      </c>
+      <c r="K59" s="3">
         <v>219900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>161400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>581800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>153600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>161200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>587300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>561900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>447600</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S59" s="3" t="s">
         <v>16</v>
       </c>
@@ -3449,56 +3586,59 @@
       <c r="U59" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>192300</v>
+        <v>176600</v>
       </c>
       <c r="E60" s="3">
-        <v>192800</v>
+        <v>189800</v>
       </c>
       <c r="F60" s="3">
-        <v>323500</v>
+        <v>190300</v>
       </c>
       <c r="G60" s="3">
-        <v>479900</v>
+        <v>319300</v>
       </c>
       <c r="H60" s="3">
-        <v>467100</v>
+        <v>473700</v>
       </c>
       <c r="I60" s="3">
-        <v>522700</v>
+        <v>461000</v>
       </c>
       <c r="J60" s="3">
+        <v>515900</v>
+      </c>
+      <c r="K60" s="3">
         <v>738900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>655500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>701600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>588700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>474700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>674700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>644100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>534100</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S60" s="3" t="s">
         <v>16</v>
       </c>
@@ -3508,53 +3648,56 @@
       <c r="U60" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>284200</v>
+        <v>315300</v>
       </c>
       <c r="E61" s="3">
-        <v>292700</v>
+        <v>280500</v>
       </c>
       <c r="F61" s="3">
-        <v>300500</v>
+        <v>288900</v>
       </c>
       <c r="G61" s="3">
-        <v>298600</v>
+        <v>296600</v>
       </c>
       <c r="H61" s="3">
-        <v>298600</v>
+        <v>294700</v>
       </c>
       <c r="I61" s="3">
-        <v>317900</v>
+        <v>294700</v>
       </c>
       <c r="J61" s="3">
+        <v>313800</v>
+      </c>
+      <c r="K61" s="3">
         <v>45700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>69100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>54900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>90000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>95200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>74400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>55500</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
@@ -3567,56 +3710,59 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>39500</v>
+        <v>5300</v>
       </c>
       <c r="E62" s="3">
-        <v>47600</v>
+        <v>39000</v>
       </c>
       <c r="F62" s="3">
-        <v>44700</v>
+        <v>47000</v>
       </c>
       <c r="G62" s="3">
+        <v>44100</v>
+      </c>
+      <c r="H62" s="3">
         <v>300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1600</v>
       </c>
-      <c r="I62" s="3">
-        <v>12300</v>
-      </c>
       <c r="J62" s="3">
+        <v>12100</v>
+      </c>
+      <c r="K62" s="3">
         <v>10000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>32000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>5200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>15500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>32200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>58300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>51300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>49400</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S62" s="3" t="s">
         <v>16</v>
       </c>
@@ -3626,8 +3772,11 @@
       <c r="U62" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,56 +3958,59 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>516000</v>
+        <v>497200</v>
       </c>
       <c r="E66" s="3">
-        <v>533200</v>
+        <v>509300</v>
       </c>
       <c r="F66" s="3">
-        <v>668600</v>
+        <v>526200</v>
       </c>
       <c r="G66" s="3">
-        <v>778800</v>
+        <v>659900</v>
       </c>
       <c r="H66" s="3">
-        <v>766600</v>
+        <v>768600</v>
       </c>
       <c r="I66" s="3">
-        <v>852300</v>
+        <v>756600</v>
       </c>
       <c r="J66" s="3">
+        <v>841200</v>
+      </c>
+      <c r="K66" s="3">
         <v>794100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>756300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>756800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>694900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>602900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>804700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>749300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>582400</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S66" s="3" t="s">
         <v>16</v>
       </c>
@@ -3862,8 +4020,11 @@
       <c r="U66" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4042,17 +4210,17 @@
         <v>0</v>
       </c>
       <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
         <v>1521600</v>
       </c>
-      <c r="P70" s="3">
+      <c r="Q70" s="3">
         <v>1243800</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="R70" s="3">
         <v>1086400</v>
       </c>
-      <c r="R70" s="3">
-        <v>0</v>
-      </c>
       <c r="S70" s="3">
         <v>0</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,56 +4292,59 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-2461400</v>
+        <v>-2449800</v>
       </c>
       <c r="E72" s="3">
-        <v>-2434400</v>
+        <v>-2429400</v>
       </c>
       <c r="F72" s="3">
-        <v>-2394000</v>
+        <v>-2402800</v>
       </c>
       <c r="G72" s="3">
-        <v>-2416400</v>
+        <v>-2362900</v>
       </c>
       <c r="H72" s="3">
-        <v>-1976500</v>
+        <v>-2385000</v>
       </c>
       <c r="I72" s="3">
-        <v>-1809300</v>
+        <v>-1950800</v>
       </c>
       <c r="J72" s="3">
+        <v>-1785800</v>
+      </c>
+      <c r="K72" s="3">
         <v>-1767700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1675200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1624700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1505500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-1368000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-1397400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-1218100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-1016300</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S72" s="3" t="s">
         <v>16</v>
       </c>
@@ -4180,8 +4354,11 @@
       <c r="U72" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,56 +4540,59 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-288900</v>
+        <v>-307300</v>
       </c>
       <c r="E76" s="3">
-        <v>-297600</v>
+        <v>-285200</v>
       </c>
       <c r="F76" s="3">
-        <v>-343900</v>
+        <v>-293800</v>
       </c>
       <c r="G76" s="3">
-        <v>-365800</v>
+        <v>-339400</v>
       </c>
       <c r="H76" s="3">
-        <v>73200</v>
+        <v>-361000</v>
       </c>
       <c r="I76" s="3">
-        <v>234000</v>
+        <v>72200</v>
       </c>
       <c r="J76" s="3">
+        <v>231000</v>
+      </c>
+      <c r="K76" s="3">
         <v>280900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>328400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>361200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>376600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>433100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1384700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-1206700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-1007600</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S76" s="3" t="s">
         <v>16</v>
       </c>
@@ -4416,8 +4602,11 @@
       <c r="U76" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-27000</v>
+        <v>-20500</v>
       </c>
       <c r="E81" s="3">
-        <v>-40400</v>
+        <v>-26600</v>
       </c>
       <c r="F81" s="3">
-        <v>22400</v>
+        <v>-39900</v>
       </c>
       <c r="G81" s="3">
-        <v>-387600</v>
+        <v>22100</v>
       </c>
       <c r="H81" s="3">
-        <v>-167200</v>
+        <v>-382500</v>
       </c>
       <c r="I81" s="3">
-        <v>-41600</v>
+        <v>-165000</v>
       </c>
       <c r="J81" s="3">
+        <v>-41100</v>
+      </c>
+      <c r="K81" s="3">
         <v>-57000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-43500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-363000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-86100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>7600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-220100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-201000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-167600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-103700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-85900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-55300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-46300</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,8 +4819,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4651,37 +4850,40 @@
         <v>0</v>
       </c>
       <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
         <v>14400</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O83" s="3">
+      <c r="O83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P83" s="3">
         <v>2800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>3200</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S83" s="3">
+      <c r="S83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T83" s="3">
         <v>2400</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U83" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,8 +5189,11 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5005,37 +5222,40 @@
         <v>0</v>
       </c>
       <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
         <v>-347000</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O89" s="3">
+      <c r="O89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P89" s="3">
         <v>-53400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-121700</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S89" s="3">
+      <c r="S89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T89" s="3">
         <v>-70300</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U89" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,8 +5277,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5087,37 +5308,40 @@
         <v>0</v>
       </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-20400</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O91" s="3">
+      <c r="O91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P91" s="3">
         <v>-5900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S91" s="3">
+      <c r="S91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T91" s="3">
         <v>-3300</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U91" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,8 +5461,11 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5264,37 +5494,40 @@
         <v>0</v>
       </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-164100</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O94" s="3">
+      <c r="O94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P94" s="3">
         <v>-43800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-36000</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S94" s="3">
+      <c r="S94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T94" s="3">
         <v>-88700</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U94" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,8 +5795,11 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5582,37 +5828,40 @@
         <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>650200</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O100" s="3">
+      <c r="O100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P100" s="3">
         <v>230400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>110900</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S100" s="3">
+      <c r="S100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T100" s="3">
         <v>181900</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U100" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5641,37 +5890,40 @@
         <v>0</v>
       </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>-1400</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O101" s="3">
+      <c r="O101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P101" s="3">
         <v>-100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-200</v>
       </c>
-      <c r="Q101" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S101" s="3">
+      <c r="S101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T101" s="3">
         <v>200</v>
       </c>
-      <c r="T101" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U101" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5700,33 +5952,36 @@
         <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>137600</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O102" s="3">
+      <c r="O102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P102" s="3">
         <v>133100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-47000</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S102" s="3">
+      <c r="S102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T102" s="3">
         <v>23200</v>
       </c>
-      <c r="T102" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V102" s="3" t="s">
         <v>16</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/UXIN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/UXIN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="92">
   <si>
     <t>UXIN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,282 +665,295 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>30200</v>
+        <v>43500</v>
       </c>
       <c r="E8" s="3">
-        <v>49700</v>
+        <v>30700</v>
       </c>
       <c r="F8" s="3">
-        <v>11800</v>
+        <v>50600</v>
       </c>
       <c r="G8" s="3">
-        <v>9600</v>
+        <v>12000</v>
       </c>
       <c r="H8" s="3">
-        <v>16000</v>
+        <v>9700</v>
       </c>
       <c r="I8" s="3">
-        <v>46100</v>
+        <v>16300</v>
       </c>
       <c r="J8" s="3">
+        <v>46900</v>
+      </c>
+      <c r="K8" s="3">
         <v>71000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>68500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>51300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>100300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>50200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>38800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>28800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>104400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>80300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>55000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>48900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>51000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>34800</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>28800</v>
+        <v>41800</v>
       </c>
       <c r="E9" s="3">
-        <v>48300</v>
+        <v>29300</v>
       </c>
       <c r="F9" s="3">
-        <v>14400</v>
+        <v>49100</v>
       </c>
       <c r="G9" s="3">
-        <v>12300</v>
+        <v>14600</v>
       </c>
       <c r="H9" s="3">
-        <v>17000</v>
+        <v>12500</v>
       </c>
       <c r="I9" s="3">
-        <v>14400</v>
+        <v>17300</v>
       </c>
       <c r="J9" s="3">
+        <v>14600</v>
+      </c>
+      <c r="K9" s="3">
         <v>31800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>32000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>52100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>63700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>71500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>58800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>51100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>36700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>29000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>24300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>20600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>23500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>19700</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E10" s="3">
         <v>1400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1500</v>
-      </c>
-      <c r="F10" s="3">
-        <v>-2600</v>
       </c>
       <c r="G10" s="3">
         <v>-2700</v>
       </c>
       <c r="H10" s="3">
-        <v>-1000</v>
+        <v>-2800</v>
       </c>
       <c r="I10" s="3">
-        <v>31700</v>
+        <v>-1100</v>
       </c>
       <c r="J10" s="3">
+        <v>32200</v>
+      </c>
+      <c r="K10" s="3">
         <v>39200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>36600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>36500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>-21200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>-19900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>-22300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>67700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>51300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>30700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>28300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>27500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>15100</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,70 +976,74 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E12" s="3">
         <v>2200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>2800</v>
       </c>
-      <c r="F12" s="3">
-        <v>2900</v>
-      </c>
       <c r="G12" s="3">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="H12" s="3">
-        <v>4800</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J12" s="3">
+        <v>3600</v>
+      </c>
+      <c r="I12" s="3">
+        <v>4900</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12" s="3">
         <v>8300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>8800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>17200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>18900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>16900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>17600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>13300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>11600</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>7300</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>7500</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>7000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>7200</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1087,41 +1104,44 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>-27600</v>
+        <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>0</v>
+        <v>-28000</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>5900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1400</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
@@ -1149,8 +1169,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>45200</v>
+        <v>51400</v>
       </c>
       <c r="E17" s="3">
-        <v>75000</v>
+        <v>45900</v>
       </c>
       <c r="F17" s="3">
-        <v>36800</v>
+        <v>76300</v>
       </c>
       <c r="G17" s="3">
-        <v>29300</v>
+        <v>37400</v>
       </c>
       <c r="H17" s="3">
-        <v>325000</v>
+        <v>29800</v>
       </c>
       <c r="I17" s="3">
-        <v>94600</v>
+        <v>330500</v>
       </c>
       <c r="J17" s="3">
+        <v>96200</v>
+      </c>
+      <c r="K17" s="3">
         <v>110000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>127800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>96400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>478800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>121400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>214800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>91800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>176100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>157900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>112600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>111300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>78500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>64500</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-15000</v>
+        <v>-7900</v>
       </c>
       <c r="E18" s="3">
-        <v>-25300</v>
+        <v>-15200</v>
       </c>
       <c r="F18" s="3">
-        <v>-25000</v>
+        <v>-25700</v>
       </c>
       <c r="G18" s="3">
-        <v>-19800</v>
+        <v>-25500</v>
       </c>
       <c r="H18" s="3">
-        <v>-309000</v>
+        <v>-20100</v>
       </c>
       <c r="I18" s="3">
-        <v>-48500</v>
+        <v>-314200</v>
       </c>
       <c r="J18" s="3">
+        <v>-49300</v>
+      </c>
+      <c r="K18" s="3">
         <v>-39000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-59300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-45100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-378500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-71100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-176000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-63000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-71700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-77600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-57600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-62400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-27500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-29700</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1380,70 +1413,74 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-5500</v>
+        <v>-2900</v>
       </c>
       <c r="E20" s="3">
-        <v>-2100</v>
+        <v>-5600</v>
       </c>
       <c r="F20" s="3">
-        <v>-15600</v>
+        <v>-2200</v>
       </c>
       <c r="G20" s="3">
-        <v>-4600</v>
+        <v>-15800</v>
       </c>
       <c r="H20" s="3">
-        <v>-5200</v>
+        <v>-4700</v>
       </c>
       <c r="I20" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="J20" s="3">
         <v>-600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-3800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>172800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-3800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>215900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-50900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-62400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-35900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-27700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-11400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-12400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1474,38 +1511,41 @@
       <c r="L21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N21" s="3">
         <v>-191400</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-111100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-130900</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U21" s="3">
         <v>-71500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-32200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-25700</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1566,70 +1606,76 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-20400</v>
+        <v>-10900</v>
       </c>
       <c r="E23" s="3">
-        <v>-27400</v>
+        <v>-20800</v>
       </c>
       <c r="F23" s="3">
-        <v>-40600</v>
+        <v>-27900</v>
       </c>
       <c r="G23" s="3">
-        <v>-24300</v>
+        <v>-41300</v>
       </c>
       <c r="H23" s="3">
-        <v>-314300</v>
+        <v>-24800</v>
       </c>
       <c r="I23" s="3">
-        <v>-49100</v>
+        <v>-319500</v>
       </c>
       <c r="J23" s="3">
+        <v>-50000</v>
+      </c>
+      <c r="K23" s="3">
         <v>-42700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-58300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-45800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-205800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-74900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>39900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-113900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-134100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-113500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-85300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-73900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-39800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-31500</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1646,52 +1692,55 @@
         <v>0</v>
       </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>100</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>300</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
       <c r="T24" s="3">
         <v>0</v>
       </c>
       <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
         <v>300</v>
       </c>
-      <c r="V24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-20400</v>
+        <v>-10900</v>
       </c>
       <c r="E26" s="3">
-        <v>-27400</v>
+        <v>-20800</v>
       </c>
       <c r="F26" s="3">
-        <v>-40600</v>
+        <v>-27900</v>
       </c>
       <c r="G26" s="3">
-        <v>-24400</v>
+        <v>-41300</v>
       </c>
       <c r="H26" s="3">
-        <v>-314300</v>
+        <v>-24800</v>
       </c>
       <c r="I26" s="3">
-        <v>-49400</v>
+        <v>-319600</v>
       </c>
       <c r="J26" s="3">
+        <v>-50300</v>
+      </c>
+      <c r="K26" s="3">
         <v>-42700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-57400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-46100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-206000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-75100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>39900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-114000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-133800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-113900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-85300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-73900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-40100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-31500</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-20500</v>
+        <v>-10800</v>
       </c>
       <c r="E27" s="3">
-        <v>-26600</v>
+        <v>-20800</v>
       </c>
       <c r="F27" s="3">
-        <v>-39900</v>
+        <v>-27100</v>
       </c>
       <c r="G27" s="3">
-        <v>-23500</v>
+        <v>-40500</v>
       </c>
       <c r="H27" s="3">
-        <v>-312400</v>
+        <v>-23900</v>
       </c>
       <c r="I27" s="3">
-        <v>-48400</v>
+        <v>-317700</v>
       </c>
       <c r="J27" s="3">
+        <v>-49300</v>
+      </c>
+      <c r="K27" s="3">
         <v>-41100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-56100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-45100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-334600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-74800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>18100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-213700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-201000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-167600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-103700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-85900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-55300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-46300</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1953,38 +2014,38 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>45500</v>
+        <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>-70100</v>
+        <v>46300</v>
       </c>
       <c r="I29" s="3">
-        <v>-116600</v>
+        <v>-71300</v>
       </c>
       <c r="J29" s="3">
-        <v>0</v>
+        <v>-118500</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>-900</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>1600</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-28400</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-11200</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-10500</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-6400</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
       <c r="R29" s="3">
         <v>0</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,132 +2191,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>5500</v>
+        <v>2900</v>
       </c>
       <c r="E32" s="3">
-        <v>2100</v>
+        <v>5600</v>
       </c>
       <c r="F32" s="3">
-        <v>15600</v>
+        <v>2200</v>
       </c>
       <c r="G32" s="3">
-        <v>4600</v>
+        <v>15800</v>
       </c>
       <c r="H32" s="3">
-        <v>5200</v>
+        <v>4700</v>
       </c>
       <c r="I32" s="3">
+        <v>5300</v>
+      </c>
+      <c r="J32" s="3">
         <v>600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>3800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-172800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>3800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-215900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>50900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>62400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>35900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>27700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>11400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>12400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-20500</v>
+        <v>-10800</v>
       </c>
       <c r="E33" s="3">
-        <v>-26600</v>
+        <v>-20800</v>
       </c>
       <c r="F33" s="3">
-        <v>-39900</v>
+        <v>-27100</v>
       </c>
       <c r="G33" s="3">
-        <v>22100</v>
+        <v>-40500</v>
       </c>
       <c r="H33" s="3">
-        <v>-382500</v>
+        <v>22400</v>
       </c>
       <c r="I33" s="3">
-        <v>-165000</v>
+        <v>-388900</v>
       </c>
       <c r="J33" s="3">
+        <v>-167800</v>
+      </c>
+      <c r="K33" s="3">
         <v>-41100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-57000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-43500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-363000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-86100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>7600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-220100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-201000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-167600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-103700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-85900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-55300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-46300</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-20500</v>
+        <v>-10800</v>
       </c>
       <c r="E35" s="3">
-        <v>-26600</v>
+        <v>-20800</v>
       </c>
       <c r="F35" s="3">
-        <v>-39900</v>
+        <v>-27100</v>
       </c>
       <c r="G35" s="3">
-        <v>22100</v>
+        <v>-40500</v>
       </c>
       <c r="H35" s="3">
-        <v>-382500</v>
+        <v>22400</v>
       </c>
       <c r="I35" s="3">
-        <v>-165000</v>
+        <v>-388900</v>
       </c>
       <c r="J35" s="3">
+        <v>-167800</v>
+      </c>
+      <c r="K35" s="3">
         <v>-41100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-57000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-43500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-363000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-86100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>7600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-220100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-201000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-167600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-103700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-85900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-55300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-46300</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,59 +2573,60 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>29700</v>
+        <v>19400</v>
       </c>
       <c r="E41" s="3">
-        <v>44300</v>
+        <v>30200</v>
       </c>
       <c r="F41" s="3">
-        <v>33800</v>
+        <v>45000</v>
       </c>
       <c r="G41" s="3">
-        <v>37100</v>
+        <v>34300</v>
       </c>
       <c r="H41" s="3">
-        <v>52700</v>
+        <v>37700</v>
       </c>
       <c r="I41" s="3">
-        <v>73600</v>
+        <v>53600</v>
       </c>
       <c r="J41" s="3">
+        <v>74900</v>
+      </c>
+      <c r="K41" s="3">
         <v>96600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>122100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>69500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>121800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>98300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>116100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>175000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>43300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>90300</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T41" s="3" t="s">
         <v>16</v>
       </c>
@@ -2549,59 +2636,62 @@
       <c r="V41" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E42" s="3">
-        <v>0</v>
+      <c r="E42" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="F42" s="3">
         <v>0</v>
       </c>
       <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
         <v>1200</v>
       </c>
-      <c r="H42" s="3">
-        <v>2300</v>
-      </c>
       <c r="I42" s="3">
-        <v>18800</v>
+        <v>2400</v>
       </c>
       <c r="J42" s="3">
+        <v>19100</v>
+      </c>
+      <c r="K42" s="3">
         <v>21500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>29700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>116800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>99300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>152900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>54500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>50500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>65300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>59400</v>
       </c>
-      <c r="S42" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T42" s="3" t="s">
         <v>16</v>
       </c>
@@ -2611,59 +2701,62 @@
       <c r="V42" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>64900</v>
+        <v>60300</v>
       </c>
       <c r="E43" s="3">
-        <v>76500</v>
+        <v>66000</v>
       </c>
       <c r="F43" s="3">
-        <v>93800</v>
+        <v>77800</v>
       </c>
       <c r="G43" s="3">
-        <v>126100</v>
+        <v>95400</v>
       </c>
       <c r="H43" s="3">
-        <v>111900</v>
+        <v>128200</v>
       </c>
       <c r="I43" s="3">
-        <v>325900</v>
+        <v>113700</v>
       </c>
       <c r="J43" s="3">
+        <v>331400</v>
+      </c>
+      <c r="K43" s="3">
         <v>74200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>40300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>239200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>230800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>179400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>355100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>206500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>171000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>125600</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T43" s="3" t="s">
         <v>16</v>
       </c>
@@ -2673,59 +2766,62 @@
       <c r="V43" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>10700</v>
+        <v>15200</v>
       </c>
       <c r="E44" s="3">
-        <v>8500</v>
+        <v>10900</v>
       </c>
       <c r="F44" s="3">
+        <v>8700</v>
+      </c>
+      <c r="G44" s="3">
         <v>5000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
+        <v>2200</v>
+      </c>
+      <c r="K44" s="3">
         <v>2100</v>
       </c>
-      <c r="J44" s="3">
-        <v>2100</v>
-      </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2900</v>
-      </c>
-      <c r="N44" s="3">
-        <v>2600</v>
       </c>
       <c r="O44" s="3">
         <v>2600</v>
       </c>
       <c r="P44" s="3">
+        <v>2600</v>
+      </c>
+      <c r="Q44" s="3">
         <v>6400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>11600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>18200</v>
       </c>
-      <c r="S44" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T44" s="3" t="s">
         <v>16</v>
       </c>
@@ -2735,59 +2831,62 @@
       <c r="V44" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>22900</v>
+        <v>22700</v>
       </c>
       <c r="E45" s="3">
-        <v>29500</v>
+        <v>23300</v>
       </c>
       <c r="F45" s="3">
-        <v>32500</v>
+        <v>30000</v>
       </c>
       <c r="G45" s="3">
-        <v>85600</v>
+        <v>33100</v>
       </c>
       <c r="H45" s="3">
-        <v>176200</v>
+        <v>87000</v>
       </c>
       <c r="I45" s="3">
-        <v>341000</v>
+        <v>179200</v>
       </c>
       <c r="J45" s="3">
+        <v>346700</v>
+      </c>
+      <c r="K45" s="3">
         <v>767200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>760500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>514100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>894200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>538400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>437800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>443800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>436500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>309300</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T45" s="3" t="s">
         <v>16</v>
       </c>
@@ -2797,59 +2896,62 @@
       <c r="V45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>128300</v>
+        <v>117600</v>
       </c>
       <c r="E46" s="3">
-        <v>158800</v>
+        <v>130400</v>
       </c>
       <c r="F46" s="3">
-        <v>165100</v>
+        <v>161500</v>
       </c>
       <c r="G46" s="3">
-        <v>251700</v>
+        <v>167800</v>
       </c>
       <c r="H46" s="3">
-        <v>344700</v>
+        <v>255900</v>
       </c>
       <c r="I46" s="3">
-        <v>761400</v>
+        <v>350500</v>
       </c>
       <c r="J46" s="3">
+        <v>774200</v>
+      </c>
+      <c r="K46" s="3">
         <v>961500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>955100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>942000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1014400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>971700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>966000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>882200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>727600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>602800</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T46" s="3" t="s">
         <v>16</v>
       </c>
@@ -2859,59 +2961,62 @@
       <c r="V46" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>44400</v>
+        <v>45200</v>
       </c>
       <c r="E47" s="3">
-        <v>44400</v>
+        <v>45200</v>
       </c>
       <c r="F47" s="3">
+        <v>45200</v>
+      </c>
+      <c r="G47" s="3">
+        <v>44300</v>
+      </c>
+      <c r="H47" s="3">
         <v>43600</v>
       </c>
-      <c r="G47" s="3">
-        <v>42900</v>
-      </c>
-      <c r="H47" s="3">
-        <v>42600</v>
-      </c>
       <c r="I47" s="3">
-        <v>42000</v>
+        <v>43300</v>
       </c>
       <c r="J47" s="3">
+        <v>42700</v>
+      </c>
+      <c r="K47" s="3">
         <v>41100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>40800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>54200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>106400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>50500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>7700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>5600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>6000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>6100</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T47" s="3" t="s">
         <v>16</v>
       </c>
@@ -2921,59 +3026,62 @@
       <c r="V47" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>11700</v>
+        <v>11200</v>
       </c>
       <c r="E48" s="3">
-        <v>14800</v>
+        <v>11900</v>
       </c>
       <c r="F48" s="3">
-        <v>17300</v>
+        <v>15100</v>
       </c>
       <c r="G48" s="3">
-        <v>19000</v>
+        <v>17600</v>
       </c>
       <c r="H48" s="3">
-        <v>18800</v>
+        <v>19300</v>
       </c>
       <c r="I48" s="3">
-        <v>24000</v>
+        <v>19100</v>
       </c>
       <c r="J48" s="3">
+        <v>24400</v>
+      </c>
+      <c r="K48" s="3">
         <v>50500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>59200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>68700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>60600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>29400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>27000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>25400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>23200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>22600</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T48" s="3" t="s">
         <v>16</v>
       </c>
@@ -2983,8 +3091,11 @@
       <c r="V48" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3001,41 +3112,41 @@
         <v>0</v>
       </c>
       <c r="H49" s="3">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="I49" s="3">
         <v>1500</v>
       </c>
       <c r="J49" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K49" s="3">
         <v>19200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>19900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>19800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>23200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>19900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>19400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>12200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>12700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>12900</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T49" s="3" t="s">
         <v>16</v>
       </c>
@@ -3045,8 +3156,11 @@
       <c r="V49" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,25 +3286,28 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>5500</v>
+        <v>5200</v>
       </c>
       <c r="E52" s="3">
-        <v>6000</v>
+        <v>5600</v>
       </c>
       <c r="F52" s="3">
-        <v>6500</v>
+        <v>6100</v>
       </c>
       <c r="G52" s="3">
-        <v>6900</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>16</v>
+        <v>6600</v>
+      </c>
+      <c r="H52" s="3">
+        <v>7000</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>16</v>
@@ -3201,26 +3321,26 @@
       <c r="L52" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
+      <c r="M52" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="N52" s="3">
         <v>0</v>
       </c>
       <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3">
         <v>15800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>16200</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>16800</v>
       </c>
       <c r="R52" s="3">
         <v>16800</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>16</v>
+      <c r="S52" s="3">
+        <v>16800</v>
       </c>
       <c r="T52" s="3" t="s">
         <v>16</v>
@@ -3231,8 +3351,11 @@
       <c r="V52" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,59 +3416,62 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>189900</v>
+        <v>179200</v>
       </c>
       <c r="E54" s="3">
-        <v>224100</v>
+        <v>193100</v>
       </c>
       <c r="F54" s="3">
-        <v>232500</v>
+        <v>227800</v>
       </c>
       <c r="G54" s="3">
-        <v>320600</v>
+        <v>236400</v>
       </c>
       <c r="H54" s="3">
-        <v>407600</v>
+        <v>325900</v>
       </c>
       <c r="I54" s="3">
-        <v>828900</v>
+        <v>414500</v>
       </c>
       <c r="J54" s="3">
+        <v>842800</v>
+      </c>
+      <c r="K54" s="3">
         <v>1072200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1075000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1084600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1118000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1071500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1036000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>941600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>786400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>661100</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T54" s="3" t="s">
         <v>16</v>
       </c>
@@ -3355,8 +3481,11 @@
       <c r="V54" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,59 +3533,60 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>137000</v>
+        <v>123700</v>
       </c>
       <c r="E57" s="3">
-        <v>151200</v>
+        <v>139300</v>
       </c>
       <c r="F57" s="3">
-        <v>151200</v>
+        <v>153700</v>
       </c>
       <c r="G57" s="3">
-        <v>152900</v>
+        <v>153800</v>
       </c>
       <c r="H57" s="3">
-        <v>201400</v>
+        <v>155500</v>
       </c>
       <c r="I57" s="3">
-        <v>95600</v>
+        <v>204800</v>
       </c>
       <c r="J57" s="3">
+        <v>31500</v>
+      </c>
+      <c r="K57" s="3">
         <v>236600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>232800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>237300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>221700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>174300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>153100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>15800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>18900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>15700</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T57" s="3" t="s">
         <v>16</v>
       </c>
@@ -3465,59 +3596,62 @@
       <c r="V57" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>23200</v>
+        <v>272300</v>
       </c>
       <c r="E58" s="3">
-        <v>8000</v>
+        <v>23600</v>
       </c>
       <c r="F58" s="3">
-        <v>4000</v>
+        <v>19200</v>
       </c>
       <c r="G58" s="3">
-        <v>67300</v>
+        <v>13400</v>
       </c>
       <c r="H58" s="3">
-        <v>76100</v>
+        <v>68500</v>
       </c>
       <c r="I58" s="3">
-        <v>90600</v>
+        <v>77400</v>
       </c>
       <c r="J58" s="3">
+        <v>92100</v>
+      </c>
+      <c r="K58" s="3">
         <v>18700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>286200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>256800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>297500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>260800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>160400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>71500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>63300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>70800</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T58" s="3" t="s">
         <v>16</v>
       </c>
@@ -3527,59 +3661,62 @@
       <c r="V58" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>16400</v>
+        <v>16200</v>
       </c>
       <c r="E59" s="3">
-        <v>30600</v>
+        <v>16700</v>
       </c>
       <c r="F59" s="3">
-        <v>35200</v>
+        <v>20100</v>
       </c>
       <c r="G59" s="3">
-        <v>99100</v>
+        <v>26400</v>
       </c>
       <c r="H59" s="3">
-        <v>196100</v>
+        <v>100800</v>
       </c>
       <c r="I59" s="3">
-        <v>274900</v>
+        <v>199400</v>
       </c>
       <c r="J59" s="3">
+        <v>345200</v>
+      </c>
+      <c r="K59" s="3">
         <v>260600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>219900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>161400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>581800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>153600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>161200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>587300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>561900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>447600</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T59" s="3" t="s">
         <v>16</v>
       </c>
@@ -3589,59 +3726,62 @@
       <c r="V59" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>176600</v>
+        <v>412200</v>
       </c>
       <c r="E60" s="3">
-        <v>189800</v>
+        <v>179600</v>
       </c>
       <c r="F60" s="3">
-        <v>190300</v>
+        <v>193000</v>
       </c>
       <c r="G60" s="3">
-        <v>319300</v>
+        <v>193500</v>
       </c>
       <c r="H60" s="3">
-        <v>473700</v>
+        <v>324700</v>
       </c>
       <c r="I60" s="3">
-        <v>461000</v>
+        <v>481600</v>
       </c>
       <c r="J60" s="3">
+        <v>468700</v>
+      </c>
+      <c r="K60" s="3">
         <v>515900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>738900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>655500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>701600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>588700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>474700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>674700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>644100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>534100</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T60" s="3" t="s">
         <v>16</v>
       </c>
@@ -3651,56 +3791,59 @@
       <c r="V60" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>315300</v>
+        <v>61800</v>
       </c>
       <c r="E61" s="3">
-        <v>280500</v>
+        <v>320600</v>
       </c>
       <c r="F61" s="3">
-        <v>288900</v>
+        <v>285200</v>
       </c>
       <c r="G61" s="3">
-        <v>296600</v>
+        <v>293800</v>
       </c>
       <c r="H61" s="3">
-        <v>294700</v>
+        <v>301500</v>
       </c>
       <c r="I61" s="3">
-        <v>294700</v>
+        <v>299600</v>
       </c>
       <c r="J61" s="3">
+        <v>299600</v>
+      </c>
+      <c r="K61" s="3">
         <v>313800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>45700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>69100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>54900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>90000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>95200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>74400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>55500</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
@@ -3713,59 +3856,62 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>5300</v>
+        <v>21700</v>
       </c>
       <c r="E62" s="3">
-        <v>39000</v>
+        <v>5400</v>
       </c>
       <c r="F62" s="3">
-        <v>47000</v>
+        <v>39700</v>
       </c>
       <c r="G62" s="3">
-        <v>44100</v>
+        <v>47800</v>
       </c>
       <c r="H62" s="3">
+        <v>44800</v>
+      </c>
+      <c r="I62" s="3">
         <v>300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>12100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>10000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>32000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>5200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>15500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>32200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>58300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>51300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>49400</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T62" s="3" t="s">
         <v>16</v>
       </c>
@@ -3775,8 +3921,11 @@
       <c r="V62" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,59 +4116,62 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>497200</v>
+        <v>495700</v>
       </c>
       <c r="E66" s="3">
-        <v>509300</v>
+        <v>505600</v>
       </c>
       <c r="F66" s="3">
-        <v>526200</v>
+        <v>517800</v>
       </c>
       <c r="G66" s="3">
-        <v>659900</v>
+        <v>535100</v>
       </c>
       <c r="H66" s="3">
-        <v>768600</v>
+        <v>671000</v>
       </c>
       <c r="I66" s="3">
-        <v>756600</v>
+        <v>781500</v>
       </c>
       <c r="J66" s="3">
+        <v>769300</v>
+      </c>
+      <c r="K66" s="3">
         <v>841200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>794100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>756300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>756800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>694900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>602900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>804700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>749300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>582400</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T66" s="3" t="s">
         <v>16</v>
       </c>
@@ -4023,8 +4181,11 @@
       <c r="V66" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4213,17 +4381,17 @@
         <v>0</v>
       </c>
       <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
         <v>1521600</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="R70" s="3">
         <v>1243800</v>
       </c>
-      <c r="R70" s="3">
+      <c r="S70" s="3">
         <v>1086400</v>
       </c>
-      <c r="S70" s="3">
-        <v>0</v>
-      </c>
       <c r="T70" s="3">
         <v>0</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,59 +4466,62 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-2449800</v>
+        <v>-2501700</v>
       </c>
       <c r="E72" s="3">
-        <v>-2429400</v>
+        <v>-2490900</v>
       </c>
       <c r="F72" s="3">
-        <v>-2402800</v>
+        <v>-2470100</v>
       </c>
       <c r="G72" s="3">
-        <v>-2362900</v>
+        <v>-2443000</v>
       </c>
       <c r="H72" s="3">
-        <v>-2385000</v>
+        <v>-2402500</v>
       </c>
       <c r="I72" s="3">
-        <v>-1950800</v>
+        <v>-2424900</v>
       </c>
       <c r="J72" s="3">
+        <v>-1983500</v>
+      </c>
+      <c r="K72" s="3">
         <v>-1785800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1767700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1675200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1624700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-1505500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-1368000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-1397400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-1218100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-1016300</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T72" s="3" t="s">
         <v>16</v>
       </c>
@@ -4357,8 +4531,11 @@
       <c r="V72" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,59 +4726,62 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-307300</v>
+        <v>-316400</v>
       </c>
       <c r="E76" s="3">
-        <v>-285200</v>
+        <v>-312400</v>
       </c>
       <c r="F76" s="3">
-        <v>-293800</v>
+        <v>-290000</v>
       </c>
       <c r="G76" s="3">
-        <v>-339400</v>
+        <v>-298700</v>
       </c>
       <c r="H76" s="3">
-        <v>-361000</v>
+        <v>-345100</v>
       </c>
       <c r="I76" s="3">
-        <v>72200</v>
+        <v>-367100</v>
       </c>
       <c r="J76" s="3">
+        <v>73500</v>
+      </c>
+      <c r="K76" s="3">
         <v>231000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>280900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>328400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>361200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>376600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>433100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-1384700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-1206700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-1007600</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T76" s="3" t="s">
         <v>16</v>
       </c>
@@ -4605,8 +4791,11 @@
       <c r="V76" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-20500</v>
+        <v>-10800</v>
       </c>
       <c r="E81" s="3">
-        <v>-26600</v>
+        <v>-20800</v>
       </c>
       <c r="F81" s="3">
-        <v>-39900</v>
+        <v>-27100</v>
       </c>
       <c r="G81" s="3">
-        <v>22100</v>
+        <v>-40500</v>
       </c>
       <c r="H81" s="3">
-        <v>-382500</v>
+        <v>22400</v>
       </c>
       <c r="I81" s="3">
-        <v>-165000</v>
+        <v>-388900</v>
       </c>
       <c r="J81" s="3">
+        <v>-167800</v>
+      </c>
+      <c r="K81" s="3">
         <v>-41100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-57000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-43500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-363000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-86100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>7600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-220100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-201000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-167600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-103700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-85900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-55300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-46300</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4853,37 +5052,40 @@
         <v>0</v>
       </c>
       <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
         <v>14400</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P83" s="3">
+      <c r="P83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q83" s="3">
         <v>2800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>3200</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T83" s="3">
+      <c r="T83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U83" s="3">
         <v>2400</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V83" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,8 +5406,11 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5225,37 +5442,40 @@
         <v>0</v>
       </c>
       <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
         <v>-347000</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P89" s="3">
+      <c r="P89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-53400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-121700</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T89" s="3">
+      <c r="T89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U89" s="3">
         <v>-70300</v>
       </c>
-      <c r="U89" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V89" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,8 +5498,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5311,37 +5532,40 @@
         <v>0</v>
       </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-20400</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P91" s="3">
+      <c r="P91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-5900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-3400</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T91" s="3">
+      <c r="T91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U91" s="3">
         <v>-3300</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V91" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,8 +5691,11 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5497,37 +5727,40 @@
         <v>0</v>
       </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-164100</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P94" s="3">
+      <c r="P94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-43800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-36000</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T94" s="3">
+      <c r="T94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U94" s="3">
         <v>-88700</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V94" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,8 +6041,11 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5831,37 +6077,40 @@
         <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>650200</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P100" s="3">
+      <c r="P100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q100" s="3">
         <v>230400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>110900</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T100" s="3">
+      <c r="T100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U100" s="3">
         <v>181900</v>
       </c>
-      <c r="U100" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V100" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5893,37 +6142,40 @@
         <v>0</v>
       </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>-1400</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P101" s="3">
+      <c r="P101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-200</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T101" s="3">
+      <c r="T101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U101" s="3">
         <v>200</v>
       </c>
-      <c r="U101" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V101" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5955,33 +6207,36 @@
         <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>137600</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P102" s="3">
+      <c r="P102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q102" s="3">
         <v>133100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-47000</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T102" s="3">
+      <c r="T102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U102" s="3">
         <v>23200</v>
       </c>
-      <c r="U102" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W102" s="3" t="s">
         <v>16</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/UXIN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/UXIN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="92">
   <si>
     <t>UXIN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,308 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>43500</v>
+        <v>54600</v>
       </c>
       <c r="E8" s="3">
-        <v>30700</v>
+        <v>43800</v>
       </c>
       <c r="F8" s="3">
-        <v>50600</v>
+        <v>30900</v>
       </c>
       <c r="G8" s="3">
-        <v>12000</v>
+        <v>50900</v>
       </c>
       <c r="H8" s="3">
-        <v>9700</v>
+        <v>12100</v>
       </c>
       <c r="I8" s="3">
-        <v>16300</v>
+        <v>9800</v>
       </c>
       <c r="J8" s="3">
+        <v>16400</v>
+      </c>
+      <c r="K8" s="3">
         <v>46900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>71000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>68500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>51300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>100300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>50200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>38800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>28800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>104400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>80300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>55000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>48900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>51000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>34800</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>41800</v>
+        <v>52300</v>
       </c>
       <c r="E9" s="3">
-        <v>29300</v>
+        <v>42100</v>
       </c>
       <c r="F9" s="3">
-        <v>49100</v>
+        <v>29500</v>
       </c>
       <c r="G9" s="3">
+        <v>49400</v>
+      </c>
+      <c r="H9" s="3">
+        <v>14700</v>
+      </c>
+      <c r="I9" s="3">
+        <v>12600</v>
+      </c>
+      <c r="J9" s="3">
+        <v>17500</v>
+      </c>
+      <c r="K9" s="3">
         <v>14600</v>
       </c>
-      <c r="H9" s="3">
-        <v>12500</v>
-      </c>
-      <c r="I9" s="3">
-        <v>17300</v>
-      </c>
-      <c r="J9" s="3">
-        <v>14600</v>
-      </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>31800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>32000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>52100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>63700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>71500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>58800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>51100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>36700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>29000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>24300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>20600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>23500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>19700</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1700</v>
+        <v>2300</v>
       </c>
       <c r="E10" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F10" s="3">
         <v>1400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>-2700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>-2800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-1100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>32200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>39200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>36600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>36500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>-21200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>-19900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>-22300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>67700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>51300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>30700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>28300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>27500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>15100</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -986,64 +1000,67 @@
         <v>1300</v>
       </c>
       <c r="E12" s="3">
-        <v>2200</v>
+        <v>1300</v>
       </c>
       <c r="F12" s="3">
+        <v>2300</v>
+      </c>
+      <c r="G12" s="3">
         <v>2800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>3000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>3600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>4900</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K12" s="3">
+      <c r="K12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L12" s="3">
         <v>8300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>8800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>17200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>18900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>16900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>17600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>13300</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>11600</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>7300</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>7500</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>7000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>7200</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1107,44 +1124,47 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>-28000</v>
+        <v>0</v>
       </c>
       <c r="J14" s="3">
-        <v>0</v>
+        <v>-28200</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>5900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1400</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
@@ -1172,8 +1192,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>51400</v>
+        <v>61800</v>
       </c>
       <c r="E17" s="3">
-        <v>45900</v>
+        <v>51800</v>
       </c>
       <c r="F17" s="3">
-        <v>76300</v>
+        <v>46300</v>
       </c>
       <c r="G17" s="3">
-        <v>37400</v>
+        <v>76900</v>
       </c>
       <c r="H17" s="3">
-        <v>29800</v>
+        <v>37700</v>
       </c>
       <c r="I17" s="3">
-        <v>330500</v>
+        <v>30100</v>
       </c>
       <c r="J17" s="3">
+        <v>333000</v>
+      </c>
+      <c r="K17" s="3">
         <v>96200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>110000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>127800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>96400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>478800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>121400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>214800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>91800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>176100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>157900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>112600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>111300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>78500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>64500</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-7900</v>
+        <v>-7200</v>
       </c>
       <c r="E18" s="3">
-        <v>-15200</v>
+        <v>-8000</v>
       </c>
       <c r="F18" s="3">
-        <v>-25700</v>
+        <v>-15400</v>
       </c>
       <c r="G18" s="3">
-        <v>-25500</v>
+        <v>-25900</v>
       </c>
       <c r="H18" s="3">
-        <v>-20100</v>
+        <v>-25600</v>
       </c>
       <c r="I18" s="3">
-        <v>-314200</v>
+        <v>-20300</v>
       </c>
       <c r="J18" s="3">
+        <v>-316600</v>
+      </c>
+      <c r="K18" s="3">
         <v>-49300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-39000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-59300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-45100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-378500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-71100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-176000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-63000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-71700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-77600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-57600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-62400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-27500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-29700</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1414,73 +1447,77 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-2900</v>
+        <v>-261700</v>
       </c>
       <c r="E20" s="3">
-        <v>-5600</v>
+        <v>-3000</v>
       </c>
       <c r="F20" s="3">
-        <v>-2200</v>
+        <v>-2300</v>
       </c>
       <c r="G20" s="3">
-        <v>-15800</v>
+        <v>1300</v>
       </c>
       <c r="H20" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="I20" s="3">
         <v>-4700</v>
       </c>
-      <c r="I20" s="3">
-        <v>-5300</v>
-      </c>
       <c r="J20" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="K20" s="3">
         <v>-600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-3800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>172800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-3800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>215900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-50900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-62400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-35900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-27700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-11400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-12400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1514,61 +1551,64 @@
       <c r="M21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O21" s="3">
         <v>-191400</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R21" s="3">
         <v>-111100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-130900</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="U21" s="3">
+      <c r="U21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V21" s="3">
         <v>-71500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-32200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-25700</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
+        <v>1500</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="F22" s="3">
-        <v>0</v>
+        <v>3300</v>
       </c>
       <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+        <v>3500</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1609,73 +1649,79 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-10900</v>
+        <v>-270500</v>
       </c>
       <c r="E23" s="3">
-        <v>-20800</v>
+        <v>-11000</v>
       </c>
       <c r="F23" s="3">
-        <v>-27900</v>
+        <v>-21000</v>
       </c>
       <c r="G23" s="3">
-        <v>-41300</v>
+        <v>-28100</v>
       </c>
       <c r="H23" s="3">
-        <v>-24800</v>
+        <v>-41600</v>
       </c>
       <c r="I23" s="3">
-        <v>-319500</v>
+        <v>-24900</v>
       </c>
       <c r="J23" s="3">
+        <v>-322000</v>
+      </c>
+      <c r="K23" s="3">
         <v>-50000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-42700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-58300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-45800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-205800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-74900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>39900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-113900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-134100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-113500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-85300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-73900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-39800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-31500</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1695,52 +1741,55 @@
         <v>0</v>
       </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>100</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
       <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
         <v>100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>300</v>
       </c>
-      <c r="T24" s="3">
-        <v>0</v>
-      </c>
       <c r="U24" s="3">
         <v>0</v>
       </c>
       <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
         <v>300</v>
       </c>
-      <c r="W24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-10900</v>
+        <v>-270500</v>
       </c>
       <c r="E26" s="3">
-        <v>-20800</v>
+        <v>-11000</v>
       </c>
       <c r="F26" s="3">
-        <v>-27900</v>
+        <v>-21000</v>
       </c>
       <c r="G26" s="3">
-        <v>-41300</v>
+        <v>-28100</v>
       </c>
       <c r="H26" s="3">
-        <v>-24800</v>
+        <v>-41600</v>
       </c>
       <c r="I26" s="3">
-        <v>-319600</v>
+        <v>-25000</v>
       </c>
       <c r="J26" s="3">
+        <v>-322000</v>
+      </c>
+      <c r="K26" s="3">
         <v>-50300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-42700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-57400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-46100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-206000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-75100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>39900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-114000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-133800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-113900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-85300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-73900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-40100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-31500</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-10800</v>
+        <v>-270500</v>
       </c>
       <c r="E27" s="3">
-        <v>-20800</v>
+        <v>-10900</v>
       </c>
       <c r="F27" s="3">
-        <v>-27100</v>
+        <v>-21000</v>
       </c>
       <c r="G27" s="3">
-        <v>-40500</v>
+        <v>-27300</v>
       </c>
       <c r="H27" s="3">
-        <v>-23900</v>
+        <v>-40800</v>
       </c>
       <c r="I27" s="3">
-        <v>-317700</v>
+        <v>-24000</v>
       </c>
       <c r="J27" s="3">
+        <v>-320100</v>
+      </c>
+      <c r="K27" s="3">
         <v>-49300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-41100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-56100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-45100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-334600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-74800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>18100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-213700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-201000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-167600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-103700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-85900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-55300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-46300</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2017,38 +2078,38 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>46300</v>
+        <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>-71300</v>
+        <v>46700</v>
       </c>
       <c r="J29" s="3">
+        <v>-71800</v>
+      </c>
+      <c r="K29" s="3">
         <v>-118500</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>-900</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>1600</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-28400</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-11200</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-10500</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-6400</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
       <c r="S29" s="3">
         <v>0</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,138 +2261,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>2900</v>
+        <v>261700</v>
       </c>
       <c r="E32" s="3">
-        <v>5600</v>
+        <v>3000</v>
       </c>
       <c r="F32" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="G32" s="3">
-        <v>15800</v>
+        <v>-1300</v>
       </c>
       <c r="H32" s="3">
+        <v>15900</v>
+      </c>
+      <c r="I32" s="3">
         <v>4700</v>
       </c>
-      <c r="I32" s="3">
-        <v>5300</v>
-      </c>
       <c r="J32" s="3">
+        <v>5400</v>
+      </c>
+      <c r="K32" s="3">
         <v>600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>3800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-172800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>3800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-215900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>50900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>62400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>35900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>27700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>11400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>12400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-10800</v>
+        <v>-270500</v>
       </c>
       <c r="E33" s="3">
-        <v>-20800</v>
+        <v>-10900</v>
       </c>
       <c r="F33" s="3">
-        <v>-27100</v>
+        <v>-21000</v>
       </c>
       <c r="G33" s="3">
-        <v>-40500</v>
+        <v>-27300</v>
       </c>
       <c r="H33" s="3">
-        <v>22400</v>
+        <v>-40800</v>
       </c>
       <c r="I33" s="3">
-        <v>-388900</v>
+        <v>22600</v>
       </c>
       <c r="J33" s="3">
+        <v>-391900</v>
+      </c>
+      <c r="K33" s="3">
         <v>-167800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-41100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-57000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-43500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-363000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-86100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>7600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-220100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-201000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-167600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-103700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-85900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-55300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-46300</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-10800</v>
+        <v>-270500</v>
       </c>
       <c r="E35" s="3">
-        <v>-20800</v>
+        <v>-10900</v>
       </c>
       <c r="F35" s="3">
-        <v>-27100</v>
+        <v>-21000</v>
       </c>
       <c r="G35" s="3">
-        <v>-40500</v>
+        <v>-27300</v>
       </c>
       <c r="H35" s="3">
-        <v>22400</v>
+        <v>-40800</v>
       </c>
       <c r="I35" s="3">
-        <v>-388900</v>
+        <v>22600</v>
       </c>
       <c r="J35" s="3">
+        <v>-391900</v>
+      </c>
+      <c r="K35" s="3">
         <v>-167800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-41100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-57000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-43500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-363000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-86100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>7600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-220100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-201000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-167600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-103700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-85900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-55300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-46300</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,62 +2660,63 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>19400</v>
+        <v>34200</v>
       </c>
       <c r="E41" s="3">
-        <v>30200</v>
+        <v>19600</v>
       </c>
       <c r="F41" s="3">
-        <v>45000</v>
+        <v>30400</v>
       </c>
       <c r="G41" s="3">
-        <v>34300</v>
+        <v>45400</v>
       </c>
       <c r="H41" s="3">
-        <v>37700</v>
+        <v>34600</v>
       </c>
       <c r="I41" s="3">
-        <v>53600</v>
+        <v>38000</v>
       </c>
       <c r="J41" s="3">
+        <v>54000</v>
+      </c>
+      <c r="K41" s="3">
         <v>74900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>96600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>122100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>69500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>121800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>98300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>116100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>175000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>43300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>90300</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U41" s="3" t="s">
         <v>16</v>
       </c>
@@ -2639,8 +2726,11 @@
       <c r="W41" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2650,51 +2740,51 @@
       <c r="E42" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F42" s="3">
-        <v>0</v>
+      <c r="F42" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="G42" s="3">
         <v>0</v>
       </c>
       <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
         <v>1200</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>2400</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>19100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>21500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>29700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>116800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>99300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>152900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>54500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>50500</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>65300</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>59400</v>
       </c>
-      <c r="T42" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U42" s="3" t="s">
         <v>16</v>
       </c>
@@ -2704,62 +2794,65 @@
       <c r="W42" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>60300</v>
+        <v>51000</v>
       </c>
       <c r="E43" s="3">
-        <v>66000</v>
+        <v>60700</v>
       </c>
       <c r="F43" s="3">
-        <v>77800</v>
+        <v>66500</v>
       </c>
       <c r="G43" s="3">
-        <v>95400</v>
+        <v>78400</v>
       </c>
       <c r="H43" s="3">
-        <v>128200</v>
+        <v>96100</v>
       </c>
       <c r="I43" s="3">
-        <v>113700</v>
+        <v>129200</v>
       </c>
       <c r="J43" s="3">
+        <v>114600</v>
+      </c>
+      <c r="K43" s="3">
         <v>331400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>74200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>40300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>239200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>230800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>179400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>355100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>206500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>171000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>125600</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U43" s="3" t="s">
         <v>16</v>
       </c>
@@ -2769,62 +2862,65 @@
       <c r="W43" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>15200</v>
+        <v>46000</v>
       </c>
       <c r="E44" s="3">
-        <v>10900</v>
+        <v>15300</v>
       </c>
       <c r="F44" s="3">
-        <v>8700</v>
+        <v>11000</v>
       </c>
       <c r="G44" s="3">
-        <v>5000</v>
+        <v>8800</v>
       </c>
       <c r="H44" s="3">
+        <v>5100</v>
+      </c>
+      <c r="I44" s="3">
         <v>1800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>2200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2900</v>
-      </c>
-      <c r="O44" s="3">
-        <v>2600</v>
       </c>
       <c r="P44" s="3">
         <v>2600</v>
       </c>
       <c r="Q44" s="3">
+        <v>2600</v>
+      </c>
+      <c r="R44" s="3">
         <v>6400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>11600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>18200</v>
       </c>
-      <c r="T44" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U44" s="3" t="s">
         <v>16</v>
       </c>
@@ -2834,62 +2930,65 @@
       <c r="W44" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>22700</v>
+        <v>17300</v>
       </c>
       <c r="E45" s="3">
-        <v>23300</v>
+        <v>22900</v>
       </c>
       <c r="F45" s="3">
-        <v>30000</v>
+        <v>23500</v>
       </c>
       <c r="G45" s="3">
-        <v>33100</v>
+        <v>30200</v>
       </c>
       <c r="H45" s="3">
-        <v>87000</v>
+        <v>33300</v>
       </c>
       <c r="I45" s="3">
-        <v>179200</v>
+        <v>87700</v>
       </c>
       <c r="J45" s="3">
+        <v>180600</v>
+      </c>
+      <c r="K45" s="3">
         <v>346700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>767200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>760500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>514100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>894200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>538400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>437800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>443800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>436500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>309300</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U45" s="3" t="s">
         <v>16</v>
       </c>
@@ -2899,62 +2998,65 @@
       <c r="W45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>117600</v>
+        <v>148500</v>
       </c>
       <c r="E46" s="3">
-        <v>130400</v>
+        <v>118500</v>
       </c>
       <c r="F46" s="3">
-        <v>161500</v>
+        <v>131400</v>
       </c>
       <c r="G46" s="3">
-        <v>167800</v>
+        <v>162700</v>
       </c>
       <c r="H46" s="3">
-        <v>255900</v>
+        <v>169100</v>
       </c>
       <c r="I46" s="3">
-        <v>350500</v>
+        <v>257900</v>
       </c>
       <c r="J46" s="3">
+        <v>353200</v>
+      </c>
+      <c r="K46" s="3">
         <v>774200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>961500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>955100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>942000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1014400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>971700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>966000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>882200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>727600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>602800</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U46" s="3" t="s">
         <v>16</v>
       </c>
@@ -2964,62 +3066,65 @@
       <c r="W46" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>45200</v>
+        <v>45500</v>
       </c>
       <c r="E47" s="3">
-        <v>45200</v>
+        <v>45500</v>
       </c>
       <c r="F47" s="3">
-        <v>45200</v>
+        <v>45500</v>
       </c>
       <c r="G47" s="3">
-        <v>44300</v>
+        <v>45500</v>
       </c>
       <c r="H47" s="3">
-        <v>43600</v>
+        <v>44700</v>
       </c>
       <c r="I47" s="3">
-        <v>43300</v>
+        <v>43900</v>
       </c>
       <c r="J47" s="3">
+        <v>43700</v>
+      </c>
+      <c r="K47" s="3">
         <v>42700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>41100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>40800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>54200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>106400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>50500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>7700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>5600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>6000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>6100</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U47" s="3" t="s">
         <v>16</v>
       </c>
@@ -3029,62 +3134,65 @@
       <c r="W47" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>11200</v>
+        <v>10500</v>
       </c>
       <c r="E48" s="3">
-        <v>11900</v>
+        <v>11300</v>
       </c>
       <c r="F48" s="3">
-        <v>15100</v>
+        <v>12000</v>
       </c>
       <c r="G48" s="3">
-        <v>17600</v>
+        <v>15200</v>
       </c>
       <c r="H48" s="3">
+        <v>17700</v>
+      </c>
+      <c r="I48" s="3">
+        <v>19500</v>
+      </c>
+      <c r="J48" s="3">
         <v>19300</v>
       </c>
-      <c r="I48" s="3">
-        <v>19100</v>
-      </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>24400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>50500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>59200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>68700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>60600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>29400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>27000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>25400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>23200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>22600</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U48" s="3" t="s">
         <v>16</v>
       </c>
@@ -3094,8 +3202,11 @@
       <c r="W48" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3115,41 +3226,41 @@
         <v>0</v>
       </c>
       <c r="I49" s="3">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="J49" s="3">
         <v>1500</v>
       </c>
       <c r="K49" s="3">
+        <v>1500</v>
+      </c>
+      <c r="L49" s="3">
         <v>19200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>19900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>19800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>23200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>19900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>19400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>12200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>12700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>12900</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U49" s="3" t="s">
         <v>16</v>
       </c>
@@ -3159,8 +3270,11 @@
       <c r="W49" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,28 +3406,31 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E52" s="3">
         <v>5200</v>
       </c>
-      <c r="E52" s="3">
-        <v>5600</v>
-      </c>
       <c r="F52" s="3">
-        <v>6100</v>
+        <v>5700</v>
       </c>
       <c r="G52" s="3">
+        <v>6200</v>
+      </c>
+      <c r="H52" s="3">
         <v>6600</v>
       </c>
-      <c r="H52" s="3">
-        <v>7000</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>16</v>
+      <c r="I52" s="3">
+        <v>7100</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>16</v>
@@ -3324,26 +3444,26 @@
       <c r="M52" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
+      <c r="N52" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="O52" s="3">
         <v>0</v>
       </c>
       <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3">
         <v>15800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>16200</v>
-      </c>
-      <c r="R52" s="3">
-        <v>16800</v>
       </c>
       <c r="S52" s="3">
         <v>16800</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>16</v>
+      <c r="T52" s="3">
+        <v>16800</v>
       </c>
       <c r="U52" s="3" t="s">
         <v>16</v>
@@ -3354,8 +3474,11 @@
       <c r="W52" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,62 +3542,65 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>179200</v>
+        <v>209300</v>
       </c>
       <c r="E54" s="3">
-        <v>193100</v>
+        <v>180600</v>
       </c>
       <c r="F54" s="3">
-        <v>227800</v>
+        <v>194600</v>
       </c>
       <c r="G54" s="3">
-        <v>236400</v>
+        <v>229600</v>
       </c>
       <c r="H54" s="3">
-        <v>325900</v>
+        <v>238200</v>
       </c>
       <c r="I54" s="3">
-        <v>414500</v>
+        <v>328400</v>
       </c>
       <c r="J54" s="3">
+        <v>417600</v>
+      </c>
+      <c r="K54" s="3">
         <v>842800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1072200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1075000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1084600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1118000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1071500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1036000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>941600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>786400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>661100</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U54" s="3" t="s">
         <v>16</v>
       </c>
@@ -3484,8 +3610,11 @@
       <c r="W54" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,62 +3664,63 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>123700</v>
+        <v>21300</v>
       </c>
       <c r="E57" s="3">
-        <v>139300</v>
+        <v>124700</v>
       </c>
       <c r="F57" s="3">
-        <v>153700</v>
+        <v>140300</v>
       </c>
       <c r="G57" s="3">
-        <v>153800</v>
+        <v>154900</v>
       </c>
       <c r="H57" s="3">
-        <v>155500</v>
+        <v>154900</v>
       </c>
       <c r="I57" s="3">
-        <v>204800</v>
+        <v>156700</v>
       </c>
       <c r="J57" s="3">
+        <v>206400</v>
+      </c>
+      <c r="K57" s="3">
         <v>31500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>236600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>232800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>237300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>221700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>174300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>153100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>15800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>18900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>15700</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U57" s="3" t="s">
         <v>16</v>
       </c>
@@ -3599,62 +3730,65 @@
       <c r="W57" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>272300</v>
+        <v>12700</v>
       </c>
       <c r="E58" s="3">
-        <v>23600</v>
+        <v>274300</v>
       </c>
       <c r="F58" s="3">
-        <v>19200</v>
+        <v>23800</v>
       </c>
       <c r="G58" s="3">
-        <v>13400</v>
+        <v>19300</v>
       </c>
       <c r="H58" s="3">
-        <v>68500</v>
+        <v>13500</v>
       </c>
       <c r="I58" s="3">
-        <v>77400</v>
+        <v>69000</v>
       </c>
       <c r="J58" s="3">
+        <v>78000</v>
+      </c>
+      <c r="K58" s="3">
         <v>92100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>18700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>286200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>256800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>297500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>260800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>160400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>71500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>63300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>70800</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U58" s="3" t="s">
         <v>16</v>
       </c>
@@ -3664,62 +3798,65 @@
       <c r="W58" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>16200</v>
+        <v>459700</v>
       </c>
       <c r="E59" s="3">
-        <v>16700</v>
+        <v>16300</v>
       </c>
       <c r="F59" s="3">
-        <v>20100</v>
+        <v>16900</v>
       </c>
       <c r="G59" s="3">
-        <v>26400</v>
+        <v>20200</v>
       </c>
       <c r="H59" s="3">
-        <v>100800</v>
+        <v>26600</v>
       </c>
       <c r="I59" s="3">
-        <v>199400</v>
+        <v>101500</v>
       </c>
       <c r="J59" s="3">
+        <v>200900</v>
+      </c>
+      <c r="K59" s="3">
         <v>345200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>260600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>219900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>161400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>581800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>153600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>161200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>587300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>561900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>447600</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U59" s="3" t="s">
         <v>16</v>
       </c>
@@ -3729,62 +3866,65 @@
       <c r="W59" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>412200</v>
+        <v>493700</v>
       </c>
       <c r="E60" s="3">
-        <v>179600</v>
+        <v>415300</v>
       </c>
       <c r="F60" s="3">
-        <v>193000</v>
+        <v>181000</v>
       </c>
       <c r="G60" s="3">
-        <v>193500</v>
+        <v>194400</v>
       </c>
       <c r="H60" s="3">
-        <v>324700</v>
+        <v>195000</v>
       </c>
       <c r="I60" s="3">
-        <v>481600</v>
+        <v>327200</v>
       </c>
       <c r="J60" s="3">
+        <v>485300</v>
+      </c>
+      <c r="K60" s="3">
         <v>468700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>515900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>738900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>655500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>701600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>588700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>474700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>674700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>644100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>534100</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U60" s="3" t="s">
         <v>16</v>
       </c>
@@ -3794,59 +3934,62 @@
       <c r="W60" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>61800</v>
+        <v>59000</v>
       </c>
       <c r="E61" s="3">
-        <v>320600</v>
+        <v>62300</v>
       </c>
       <c r="F61" s="3">
-        <v>285200</v>
+        <v>323100</v>
       </c>
       <c r="G61" s="3">
-        <v>293800</v>
+        <v>287400</v>
       </c>
       <c r="H61" s="3">
-        <v>301500</v>
+        <v>296000</v>
       </c>
       <c r="I61" s="3">
+        <v>303800</v>
+      </c>
+      <c r="J61" s="3">
+        <v>301900</v>
+      </c>
+      <c r="K61" s="3">
         <v>299600</v>
       </c>
-      <c r="J61" s="3">
-        <v>299600</v>
-      </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>313800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>45700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>69100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>54900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>90000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>95200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>74400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>55500</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
         <v>0</v>
       </c>
@@ -3859,62 +4002,65 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>21700</v>
+        <v>166600</v>
       </c>
       <c r="E62" s="3">
+        <v>21800</v>
+      </c>
+      <c r="F62" s="3">
         <v>5400</v>
       </c>
-      <c r="F62" s="3">
-        <v>39700</v>
-      </c>
       <c r="G62" s="3">
-        <v>47800</v>
+        <v>40000</v>
       </c>
       <c r="H62" s="3">
-        <v>44800</v>
+        <v>48100</v>
       </c>
       <c r="I62" s="3">
+        <v>45200</v>
+      </c>
+      <c r="J62" s="3">
         <v>300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>12100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>10000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>32000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>5200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>15500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>32200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>58300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>51300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>49400</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U62" s="3" t="s">
         <v>16</v>
       </c>
@@ -3924,8 +4070,11 @@
       <c r="W62" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,62 +4274,65 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>495700</v>
+        <v>719300</v>
       </c>
       <c r="E66" s="3">
-        <v>505600</v>
+        <v>499500</v>
       </c>
       <c r="F66" s="3">
-        <v>517800</v>
+        <v>509400</v>
       </c>
       <c r="G66" s="3">
-        <v>535100</v>
+        <v>521800</v>
       </c>
       <c r="H66" s="3">
-        <v>671000</v>
+        <v>539200</v>
       </c>
       <c r="I66" s="3">
-        <v>781500</v>
+        <v>676200</v>
       </c>
       <c r="J66" s="3">
+        <v>787500</v>
+      </c>
+      <c r="K66" s="3">
         <v>769300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>841200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>794100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>756300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>756800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>694900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>602900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>804700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>749300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>582400</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U66" s="3" t="s">
         <v>16</v>
       </c>
@@ -4184,8 +4342,11 @@
       <c r="W66" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4384,17 +4552,17 @@
         <v>0</v>
       </c>
       <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
         <v>1521600</v>
       </c>
-      <c r="R70" s="3">
+      <c r="S70" s="3">
         <v>1243800</v>
       </c>
-      <c r="S70" s="3">
+      <c r="T70" s="3">
         <v>1086400</v>
       </c>
-      <c r="T70" s="3">
-        <v>0</v>
-      </c>
       <c r="U70" s="3">
         <v>0</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,62 +4640,65 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-2501700</v>
+        <v>-2791400</v>
       </c>
       <c r="E72" s="3">
-        <v>-2490900</v>
+        <v>-2520900</v>
       </c>
       <c r="F72" s="3">
-        <v>-2470100</v>
+        <v>-2510000</v>
       </c>
       <c r="G72" s="3">
-        <v>-2443000</v>
+        <v>-2489000</v>
       </c>
       <c r="H72" s="3">
-        <v>-2402500</v>
+        <v>-2461700</v>
       </c>
       <c r="I72" s="3">
-        <v>-2424900</v>
+        <v>-2420900</v>
       </c>
       <c r="J72" s="3">
+        <v>-2443500</v>
+      </c>
+      <c r="K72" s="3">
         <v>-1983500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1785800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1767700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1675200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-1624700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-1505500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-1368000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-1397400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-1218100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-1016300</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U72" s="3" t="s">
         <v>16</v>
       </c>
@@ -4534,8 +4708,11 @@
       <c r="W72" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,62 +4912,65 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-316400</v>
+        <v>-510000</v>
       </c>
       <c r="E76" s="3">
-        <v>-312400</v>
+        <v>-318900</v>
       </c>
       <c r="F76" s="3">
-        <v>-290000</v>
+        <v>-314800</v>
       </c>
       <c r="G76" s="3">
-        <v>-298700</v>
+        <v>-292200</v>
       </c>
       <c r="H76" s="3">
-        <v>-345100</v>
+        <v>-301000</v>
       </c>
       <c r="I76" s="3">
-        <v>-367100</v>
+        <v>-347700</v>
       </c>
       <c r="J76" s="3">
+        <v>-369900</v>
+      </c>
+      <c r="K76" s="3">
         <v>73500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>231000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>280900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>328400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>361200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>376600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>433100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-1384700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-1206700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-1007600</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U76" s="3" t="s">
         <v>16</v>
       </c>
@@ -4794,8 +4980,11 @@
       <c r="W76" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-10800</v>
+        <v>-270500</v>
       </c>
       <c r="E81" s="3">
-        <v>-20800</v>
+        <v>-10900</v>
       </c>
       <c r="F81" s="3">
-        <v>-27100</v>
+        <v>-21000</v>
       </c>
       <c r="G81" s="3">
-        <v>-40500</v>
+        <v>-27300</v>
       </c>
       <c r="H81" s="3">
-        <v>22400</v>
+        <v>-40800</v>
       </c>
       <c r="I81" s="3">
-        <v>-388900</v>
+        <v>22600</v>
       </c>
       <c r="J81" s="3">
+        <v>-391900</v>
+      </c>
+      <c r="K81" s="3">
         <v>-167800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-41100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-57000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-43500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-363000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-86100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>7600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-220100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-201000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-167600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-103700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-85900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-55300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-46300</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5055,37 +5254,40 @@
         <v>0</v>
       </c>
       <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3">
         <v>14400</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="Q83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R83" s="3">
         <v>2800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>3200</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="U83" s="3">
+      <c r="U83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V83" s="3">
         <v>2400</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W83" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,8 +5623,11 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5445,37 +5662,40 @@
         <v>0</v>
       </c>
       <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
         <v>-347000</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="Q89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R89" s="3">
         <v>-53400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-121700</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="U89" s="3">
+      <c r="U89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V89" s="3">
         <v>-70300</v>
       </c>
-      <c r="V89" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W89" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5719,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5535,37 +5756,40 @@
         <v>0</v>
       </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-20400</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="Q91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R91" s="3">
         <v>-5900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-3400</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="U91" s="3">
+      <c r="U91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V91" s="3">
         <v>-3300</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W91" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,8 +5921,11 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5730,37 +5960,40 @@
         <v>0</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-164100</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="Q94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R94" s="3">
         <v>-43800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-36000</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="U94" s="3">
+      <c r="U94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V94" s="3">
         <v>-88700</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W94" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,8 +6287,11 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6080,37 +6326,40 @@
         <v>0</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>650200</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="Q100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R100" s="3">
         <v>230400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>110900</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="U100" s="3">
+      <c r="U100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V100" s="3">
         <v>181900</v>
       </c>
-      <c r="V100" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W100" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6145,37 +6394,40 @@
         <v>0</v>
       </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>-1400</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="Q101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R101" s="3">
         <v>-100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-200</v>
       </c>
-      <c r="S101" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="U101" s="3">
+      <c r="U101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V101" s="3">
         <v>200</v>
       </c>
-      <c r="V101" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W101" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6210,33 +6462,36 @@
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>137600</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="Q102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R102" s="3">
         <v>133100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-47000</v>
       </c>
-      <c r="S102" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="U102" s="3">
+      <c r="U102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V102" s="3">
         <v>23200</v>
       </c>
-      <c r="V102" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X102" s="3" t="s">
         <v>16</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/UXIN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/UXIN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="92">
   <si>
     <t>UXIN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,308 +665,320 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>54600</v>
+        <v>74700</v>
       </c>
       <c r="E8" s="3">
-        <v>43800</v>
+        <v>51000</v>
       </c>
       <c r="F8" s="3">
-        <v>30900</v>
+        <v>40900</v>
       </c>
       <c r="G8" s="3">
-        <v>50900</v>
+        <v>28900</v>
       </c>
       <c r="H8" s="3">
-        <v>12100</v>
+        <v>47600</v>
       </c>
       <c r="I8" s="3">
-        <v>9800</v>
+        <v>11300</v>
       </c>
       <c r="J8" s="3">
+        <v>9200</v>
+      </c>
+      <c r="K8" s="3">
         <v>16400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>46900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>71000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>68500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>51300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>100300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>50200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>38800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>28800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>104400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>80300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>55000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>48900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>51000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>34800</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>52300</v>
+        <v>71600</v>
       </c>
       <c r="E9" s="3">
-        <v>42100</v>
+        <v>48800</v>
       </c>
       <c r="F9" s="3">
-        <v>29500</v>
+        <v>39300</v>
       </c>
       <c r="G9" s="3">
-        <v>49400</v>
+        <v>27500</v>
       </c>
       <c r="H9" s="3">
-        <v>14700</v>
+        <v>46200</v>
       </c>
       <c r="I9" s="3">
-        <v>12600</v>
+        <v>13800</v>
       </c>
       <c r="J9" s="3">
+        <v>11800</v>
+      </c>
+      <c r="K9" s="3">
         <v>17500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>14600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>31800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>32000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>52100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>63700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>71500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>58800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>51100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>36700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>29000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>24300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>20600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>23500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>19700</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2300</v>
+        <v>3100</v>
       </c>
       <c r="E10" s="3">
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="F10" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H10" s="3">
         <v>1400</v>
       </c>
-      <c r="G10" s="3">
-        <v>1500</v>
-      </c>
-      <c r="H10" s="3">
-        <v>-2700</v>
-      </c>
       <c r="I10" s="3">
-        <v>-2800</v>
+        <v>-2500</v>
       </c>
       <c r="J10" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="K10" s="3">
         <v>-1100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>32200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>39200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>36600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>-800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>36500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>-21200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>-19900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>-22300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>67700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>51300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>30700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>28300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>27500</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>15100</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,76 +1003,80 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="E12" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="F12" s="3">
-        <v>2300</v>
+        <v>1200</v>
       </c>
       <c r="G12" s="3">
+        <v>2100</v>
+      </c>
+      <c r="H12" s="3">
+        <v>2600</v>
+      </c>
+      <c r="I12" s="3">
         <v>2800</v>
       </c>
-      <c r="H12" s="3">
-        <v>3000</v>
-      </c>
-      <c r="I12" s="3">
-        <v>3600</v>
-      </c>
       <c r="J12" s="3">
+        <v>3400</v>
+      </c>
+      <c r="K12" s="3">
         <v>4900</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L12" s="3">
+      <c r="L12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M12" s="3">
         <v>8300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>8800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>17200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>18900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>16900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>17600</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>13300</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>11600</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>7300</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>7500</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>7000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>7200</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1127,8 +1143,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1138,36 +1157,36 @@
       <c r="E14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>-28200</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>5900</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>1400</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
@@ -1195,8 +1214,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1263,8 +1285,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1311,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>61800</v>
+        <v>85400</v>
       </c>
       <c r="E17" s="3">
-        <v>51800</v>
+        <v>57700</v>
       </c>
       <c r="F17" s="3">
-        <v>46300</v>
+        <v>48400</v>
       </c>
       <c r="G17" s="3">
-        <v>76900</v>
+        <v>43200</v>
       </c>
       <c r="H17" s="3">
-        <v>37700</v>
+        <v>71800</v>
       </c>
       <c r="I17" s="3">
-        <v>30100</v>
+        <v>35200</v>
       </c>
       <c r="J17" s="3">
+        <v>28100</v>
+      </c>
+      <c r="K17" s="3">
         <v>333000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>96200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>110000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>127800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>96400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>478800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>121400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>214800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>91800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>176100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>157900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>112600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>111300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>78500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>64500</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-7200</v>
+        <v>-10700</v>
       </c>
       <c r="E18" s="3">
-        <v>-8000</v>
+        <v>-6800</v>
       </c>
       <c r="F18" s="3">
-        <v>-15400</v>
+        <v>-7500</v>
       </c>
       <c r="G18" s="3">
-        <v>-25900</v>
+        <v>-14300</v>
       </c>
       <c r="H18" s="3">
-        <v>-25600</v>
+        <v>-24200</v>
       </c>
       <c r="I18" s="3">
-        <v>-20300</v>
+        <v>-24000</v>
       </c>
       <c r="J18" s="3">
+        <v>-18900</v>
+      </c>
+      <c r="K18" s="3">
         <v>-316600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-49300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-39000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-59300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-45100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-378500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-71100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-176000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-63000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-71700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-77600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-57600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-62400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-27500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-29700</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1448,84 +1480,88 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-261700</v>
+        <v>200400</v>
       </c>
       <c r="E20" s="3">
-        <v>-3000</v>
+        <v>-244500</v>
       </c>
       <c r="F20" s="3">
-        <v>-2300</v>
+        <v>-100</v>
       </c>
       <c r="G20" s="3">
-        <v>1300</v>
+        <v>-2100</v>
       </c>
       <c r="H20" s="3">
-        <v>-15900</v>
+        <v>1200</v>
       </c>
       <c r="I20" s="3">
-        <v>-4700</v>
+        <v>-14900</v>
       </c>
       <c r="J20" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="K20" s="3">
         <v>-5400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-3800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>172800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-3800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>215900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-50900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-62400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-35900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-27700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-11400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-12400</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>16</v>
+      <c r="E21" s="3">
+        <v>-249200</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>16</v>
@@ -1554,64 +1590,67 @@
       <c r="N21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P21" s="3">
         <v>-191400</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S21" s="3">
         <v>-111100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-130900</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="V21" s="3">
+      <c r="V21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W21" s="3">
         <v>-71500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-32200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-25700</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1500</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>16</v>
+        <v>1100</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1400</v>
       </c>
       <c r="F22" s="3">
+        <v>2700</v>
+      </c>
+      <c r="G22" s="3">
+        <v>3100</v>
+      </c>
+      <c r="H22" s="3">
         <v>3300</v>
       </c>
-      <c r="G22" s="3">
-        <v>3500</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="I22" s="3" t="s">
         <v>16</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1652,76 +1691,82 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-270500</v>
+        <v>188600</v>
       </c>
       <c r="E23" s="3">
-        <v>-11000</v>
+        <v>-252700</v>
       </c>
       <c r="F23" s="3">
-        <v>-21000</v>
+        <v>-10200</v>
       </c>
       <c r="G23" s="3">
-        <v>-28100</v>
+        <v>-19600</v>
       </c>
       <c r="H23" s="3">
-        <v>-41600</v>
+        <v>-26200</v>
       </c>
       <c r="I23" s="3">
-        <v>-24900</v>
+        <v>-38800</v>
       </c>
       <c r="J23" s="3">
+        <v>-23300</v>
+      </c>
+      <c r="K23" s="3">
         <v>-322000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-50000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-42700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-58300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-45800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-205800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-74900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>39900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-113900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-134100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-113500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-85300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-73900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-39800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-31500</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1744,52 +1789,55 @@
         <v>0</v>
       </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>100</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
       <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
         <v>100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>300</v>
       </c>
-      <c r="U24" s="3">
-        <v>0</v>
-      </c>
       <c r="V24" s="3">
         <v>0</v>
       </c>
       <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
         <v>300</v>
       </c>
-      <c r="X24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1904,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-270500</v>
+        <v>188600</v>
       </c>
       <c r="E26" s="3">
-        <v>-11000</v>
+        <v>-252700</v>
       </c>
       <c r="F26" s="3">
-        <v>-21000</v>
+        <v>-10200</v>
       </c>
       <c r="G26" s="3">
-        <v>-28100</v>
+        <v>-19600</v>
       </c>
       <c r="H26" s="3">
-        <v>-41600</v>
+        <v>-26200</v>
       </c>
       <c r="I26" s="3">
-        <v>-25000</v>
+        <v>-38800</v>
       </c>
       <c r="J26" s="3">
+        <v>-23300</v>
+      </c>
+      <c r="K26" s="3">
         <v>-322000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-50300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-42700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-57400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-46100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-206000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-75100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>39900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-114000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-133800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-113900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-85300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-73900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-40100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-31500</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-270500</v>
+        <v>188600</v>
       </c>
       <c r="E27" s="3">
-        <v>-10900</v>
+        <v>-252700</v>
       </c>
       <c r="F27" s="3">
-        <v>-21000</v>
+        <v>-10200</v>
       </c>
       <c r="G27" s="3">
-        <v>-27300</v>
+        <v>-19600</v>
       </c>
       <c r="H27" s="3">
-        <v>-40800</v>
+        <v>-25500</v>
       </c>
       <c r="I27" s="3">
-        <v>-24000</v>
+        <v>-38200</v>
       </c>
       <c r="J27" s="3">
+        <v>-22500</v>
+      </c>
+      <c r="K27" s="3">
         <v>-320100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-49300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-41100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-56100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-45100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-334600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-74800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>18100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-213700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-201000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-167600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-103700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-85900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-55300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-46300</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2081,38 +2141,38 @@
         <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>46700</v>
+        <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>43600</v>
+      </c>
+      <c r="K29" s="3">
         <v>-71800</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-118500</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>-900</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>1600</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-28400</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-11200</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-10500</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-6400</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
       <c r="T29" s="3">
         <v>0</v>
       </c>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2330,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>261700</v>
+        <v>-200400</v>
       </c>
       <c r="E32" s="3">
-        <v>3000</v>
+        <v>244500</v>
       </c>
       <c r="F32" s="3">
-        <v>2300</v>
+        <v>100</v>
       </c>
       <c r="G32" s="3">
-        <v>-1300</v>
+        <v>2100</v>
       </c>
       <c r="H32" s="3">
-        <v>15900</v>
+        <v>-1200</v>
       </c>
       <c r="I32" s="3">
-        <v>4700</v>
+        <v>14900</v>
       </c>
       <c r="J32" s="3">
+        <v>4400</v>
+      </c>
+      <c r="K32" s="3">
         <v>5400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>3800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-172800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>3800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-215900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>50900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>62400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>35900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>27700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>11400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>12400</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-270500</v>
+        <v>188600</v>
       </c>
       <c r="E33" s="3">
-        <v>-10900</v>
+        <v>-252700</v>
       </c>
       <c r="F33" s="3">
-        <v>-21000</v>
+        <v>-10200</v>
       </c>
       <c r="G33" s="3">
-        <v>-27300</v>
+        <v>-19600</v>
       </c>
       <c r="H33" s="3">
-        <v>-40800</v>
+        <v>-25500</v>
       </c>
       <c r="I33" s="3">
-        <v>22600</v>
+        <v>-38200</v>
       </c>
       <c r="J33" s="3">
+        <v>21100</v>
+      </c>
+      <c r="K33" s="3">
         <v>-391900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-167800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-41100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-57000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-43500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-363000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-86100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>7600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-220100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-201000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-167600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-103700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-85900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-55300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-46300</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2543,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-270500</v>
+        <v>188600</v>
       </c>
       <c r="E35" s="3">
-        <v>-10900</v>
+        <v>-252700</v>
       </c>
       <c r="F35" s="3">
-        <v>-21000</v>
+        <v>-10200</v>
       </c>
       <c r="G35" s="3">
-        <v>-27300</v>
+        <v>-19600</v>
       </c>
       <c r="H35" s="3">
-        <v>-40800</v>
+        <v>-25500</v>
       </c>
       <c r="I35" s="3">
-        <v>22600</v>
+        <v>-38200</v>
       </c>
       <c r="J35" s="3">
+        <v>21100</v>
+      </c>
+      <c r="K35" s="3">
         <v>-391900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-167800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-41100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-57000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-43500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-363000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-86100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>7600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-220100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-201000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-167600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-103700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-85900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-55300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-46300</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,65 +2746,66 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>34200</v>
+        <v>21900</v>
       </c>
       <c r="E41" s="3">
-        <v>19600</v>
+        <v>31900</v>
       </c>
       <c r="F41" s="3">
-        <v>30400</v>
+        <v>18300</v>
       </c>
       <c r="G41" s="3">
-        <v>45400</v>
+        <v>28400</v>
       </c>
       <c r="H41" s="3">
-        <v>34600</v>
+        <v>42400</v>
       </c>
       <c r="I41" s="3">
-        <v>38000</v>
+        <v>32300</v>
       </c>
       <c r="J41" s="3">
+        <v>35500</v>
+      </c>
+      <c r="K41" s="3">
         <v>54000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>74900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>96600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>122100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>69500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>121800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>98300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>116100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>175000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>43300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>90300</v>
       </c>
-      <c r="U41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V41" s="3" t="s">
         <v>16</v>
       </c>
@@ -2729,8 +2815,11 @@
       <c r="X41" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2743,51 +2832,51 @@
       <c r="F42" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G42" s="3">
-        <v>0</v>
+      <c r="G42" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="H42" s="3">
         <v>0</v>
       </c>
       <c r="I42" s="3">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="J42" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K42" s="3">
         <v>2400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>19100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>21500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>29700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>116800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>99300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>152900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>54500</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>50500</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>65300</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>59400</v>
       </c>
-      <c r="U42" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V42" s="3" t="s">
         <v>16</v>
       </c>
@@ -2797,65 +2886,68 @@
       <c r="X42" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>51000</v>
+        <v>34200</v>
       </c>
       <c r="E43" s="3">
-        <v>60700</v>
+        <v>47700</v>
       </c>
       <c r="F43" s="3">
-        <v>66500</v>
+        <v>56700</v>
       </c>
       <c r="G43" s="3">
-        <v>78400</v>
+        <v>62200</v>
       </c>
       <c r="H43" s="3">
-        <v>96100</v>
+        <v>73200</v>
       </c>
       <c r="I43" s="3">
-        <v>129200</v>
+        <v>89800</v>
       </c>
       <c r="J43" s="3">
+        <v>120700</v>
+      </c>
+      <c r="K43" s="3">
         <v>114600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>331400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>74200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>40300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>239200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>230800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>179400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>355100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>206500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>171000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>125600</v>
       </c>
-      <c r="U43" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V43" s="3" t="s">
         <v>16</v>
       </c>
@@ -2865,65 +2957,68 @@
       <c r="X43" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>46000</v>
+        <v>64300</v>
       </c>
       <c r="E44" s="3">
-        <v>15300</v>
+        <v>43000</v>
       </c>
       <c r="F44" s="3">
-        <v>11000</v>
+        <v>14300</v>
       </c>
       <c r="G44" s="3">
-        <v>8800</v>
+        <v>10300</v>
       </c>
       <c r="H44" s="3">
-        <v>5100</v>
+        <v>8200</v>
       </c>
       <c r="I44" s="3">
-        <v>1800</v>
+        <v>4700</v>
       </c>
       <c r="J44" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K44" s="3">
         <v>1600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2900</v>
-      </c>
-      <c r="P44" s="3">
-        <v>2600</v>
       </c>
       <c r="Q44" s="3">
         <v>2600</v>
       </c>
       <c r="R44" s="3">
+        <v>2600</v>
+      </c>
+      <c r="S44" s="3">
         <v>6400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>11600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>18200</v>
       </c>
-      <c r="U44" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V44" s="3" t="s">
         <v>16</v>
       </c>
@@ -2933,65 +3028,68 @@
       <c r="X44" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>17300</v>
+        <v>16100</v>
       </c>
       <c r="E45" s="3">
-        <v>22900</v>
+        <v>16100</v>
       </c>
       <c r="F45" s="3">
-        <v>23500</v>
+        <v>21400</v>
       </c>
       <c r="G45" s="3">
-        <v>30200</v>
+        <v>21900</v>
       </c>
       <c r="H45" s="3">
-        <v>33300</v>
+        <v>28200</v>
       </c>
       <c r="I45" s="3">
-        <v>87700</v>
+        <v>31100</v>
       </c>
       <c r="J45" s="3">
+        <v>81900</v>
+      </c>
+      <c r="K45" s="3">
         <v>180600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>346700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>767200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>760500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>514100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>894200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>538400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>437800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>443800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>436500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>309300</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V45" s="3" t="s">
         <v>16</v>
       </c>
@@ -3001,65 +3099,68 @@
       <c r="X45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>148500</v>
+        <v>136600</v>
       </c>
       <c r="E46" s="3">
-        <v>118500</v>
+        <v>138700</v>
       </c>
       <c r="F46" s="3">
-        <v>131400</v>
+        <v>110700</v>
       </c>
       <c r="G46" s="3">
-        <v>162700</v>
+        <v>122700</v>
       </c>
       <c r="H46" s="3">
-        <v>169100</v>
+        <v>152000</v>
       </c>
       <c r="I46" s="3">
-        <v>257900</v>
+        <v>158000</v>
       </c>
       <c r="J46" s="3">
+        <v>240900</v>
+      </c>
+      <c r="K46" s="3">
         <v>353200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>774200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>961500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>955100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>942000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1014400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>971700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>966000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>882200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>727600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>602800</v>
       </c>
-      <c r="U46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V46" s="3" t="s">
         <v>16</v>
       </c>
@@ -3069,65 +3170,68 @@
       <c r="X46" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>45500</v>
+        <v>42600</v>
       </c>
       <c r="E47" s="3">
-        <v>45500</v>
+        <v>42500</v>
       </c>
       <c r="F47" s="3">
-        <v>45500</v>
+        <v>42500</v>
       </c>
       <c r="G47" s="3">
-        <v>45500</v>
+        <v>42500</v>
       </c>
       <c r="H47" s="3">
-        <v>44700</v>
+        <v>42500</v>
       </c>
       <c r="I47" s="3">
-        <v>43900</v>
+        <v>41700</v>
       </c>
       <c r="J47" s="3">
+        <v>41000</v>
+      </c>
+      <c r="K47" s="3">
         <v>43700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>42700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>41100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>40800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>54200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>106400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>50500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>7700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>5600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>6000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>6100</v>
       </c>
-      <c r="U47" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V47" s="3" t="s">
         <v>16</v>
       </c>
@@ -3137,65 +3241,68 @@
       <c r="X47" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="E48" s="3">
-        <v>11300</v>
+        <v>9800</v>
       </c>
       <c r="F48" s="3">
-        <v>12000</v>
+        <v>10600</v>
       </c>
       <c r="G48" s="3">
-        <v>15200</v>
+        <v>11200</v>
       </c>
       <c r="H48" s="3">
-        <v>17700</v>
+        <v>14200</v>
       </c>
       <c r="I48" s="3">
-        <v>19500</v>
+        <v>16600</v>
       </c>
       <c r="J48" s="3">
+        <v>18200</v>
+      </c>
+      <c r="K48" s="3">
         <v>19300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>24400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>50500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>59200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>68700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>60600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>29400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>27000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>25400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>23200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>22600</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V48" s="3" t="s">
         <v>16</v>
       </c>
@@ -3205,8 +3312,11 @@
       <c r="X48" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3229,41 +3339,41 @@
         <v>0</v>
       </c>
       <c r="J49" s="3">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="K49" s="3">
         <v>1500</v>
       </c>
       <c r="L49" s="3">
+        <v>1500</v>
+      </c>
+      <c r="M49" s="3">
         <v>19200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>19900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>19800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>23200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>19900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>19400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>12200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>12700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>12900</v>
       </c>
-      <c r="U49" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V49" s="3" t="s">
         <v>16</v>
       </c>
@@ -3273,8 +3383,11 @@
       <c r="X49" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,32 +3525,35 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4700</v>
+        <v>4000</v>
       </c>
       <c r="E52" s="3">
-        <v>5200</v>
+        <v>4400</v>
       </c>
       <c r="F52" s="3">
+        <v>4900</v>
+      </c>
+      <c r="G52" s="3">
+        <v>5300</v>
+      </c>
+      <c r="H52" s="3">
         <v>5700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>6200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>6600</v>
       </c>
-      <c r="I52" s="3">
-        <v>7100</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>16</v>
       </c>
@@ -3447,26 +3566,26 @@
       <c r="N52" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O52" s="3">
-        <v>0</v>
+      <c r="O52" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="P52" s="3">
         <v>0</v>
       </c>
       <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
         <v>15800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>16200</v>
-      </c>
-      <c r="S52" s="3">
-        <v>16800</v>
       </c>
       <c r="T52" s="3">
         <v>16800</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>16</v>
+      <c r="U52" s="3">
+        <v>16800</v>
       </c>
       <c r="V52" s="3" t="s">
         <v>16</v>
@@ -3477,8 +3596,11 @@
       <c r="X52" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,65 +3667,68 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>209300</v>
+        <v>192600</v>
       </c>
       <c r="E54" s="3">
-        <v>180600</v>
+        <v>195500</v>
       </c>
       <c r="F54" s="3">
-        <v>194600</v>
+        <v>168700</v>
       </c>
       <c r="G54" s="3">
-        <v>229600</v>
+        <v>181800</v>
       </c>
       <c r="H54" s="3">
-        <v>238200</v>
+        <v>214500</v>
       </c>
       <c r="I54" s="3">
-        <v>328400</v>
+        <v>222500</v>
       </c>
       <c r="J54" s="3">
+        <v>306800</v>
+      </c>
+      <c r="K54" s="3">
         <v>417600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>842800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1072200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1075000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1084600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1118000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1071500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1036000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>941600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>786400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>661100</v>
       </c>
-      <c r="U54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V54" s="3" t="s">
         <v>16</v>
       </c>
@@ -3613,8 +3738,11 @@
       <c r="X54" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,65 +3794,66 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>21300</v>
+        <v>13700</v>
       </c>
       <c r="E57" s="3">
-        <v>124700</v>
+        <v>19900</v>
       </c>
       <c r="F57" s="3">
-        <v>140300</v>
+        <v>14200</v>
       </c>
       <c r="G57" s="3">
-        <v>154900</v>
+        <v>14900</v>
       </c>
       <c r="H57" s="3">
-        <v>154900</v>
+        <v>16700</v>
       </c>
       <c r="I57" s="3">
-        <v>156700</v>
+        <v>16800</v>
       </c>
       <c r="J57" s="3">
+        <v>16700</v>
+      </c>
+      <c r="K57" s="3">
         <v>206400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>31500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>236600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>232800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>237300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>221700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>174300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>153100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>15800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>18900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>15700</v>
       </c>
-      <c r="U57" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V57" s="3" t="s">
         <v>16</v>
       </c>
@@ -3733,65 +3863,68 @@
       <c r="X57" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>12700</v>
+        <v>57200</v>
       </c>
       <c r="E58" s="3">
-        <v>274300</v>
+        <v>11900</v>
       </c>
       <c r="F58" s="3">
-        <v>23800</v>
+        <v>256300</v>
       </c>
       <c r="G58" s="3">
-        <v>19300</v>
+        <v>22200</v>
       </c>
       <c r="H58" s="3">
-        <v>13500</v>
+        <v>18100</v>
       </c>
       <c r="I58" s="3">
-        <v>69000</v>
+        <v>12600</v>
       </c>
       <c r="J58" s="3">
+        <v>64400</v>
+      </c>
+      <c r="K58" s="3">
         <v>78000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>92100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>18700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>286200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>256800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>297500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>260800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>160400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>71500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>63300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>70800</v>
       </c>
-      <c r="U58" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V58" s="3" t="s">
         <v>16</v>
       </c>
@@ -3801,65 +3934,68 @@
       <c r="X58" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>459700</v>
+        <v>197700</v>
       </c>
       <c r="E59" s="3">
-        <v>16300</v>
+        <v>429400</v>
       </c>
       <c r="F59" s="3">
-        <v>16900</v>
+        <v>117400</v>
       </c>
       <c r="G59" s="3">
-        <v>20200</v>
+        <v>131900</v>
       </c>
       <c r="H59" s="3">
-        <v>26600</v>
+        <v>146900</v>
       </c>
       <c r="I59" s="3">
-        <v>101500</v>
+        <v>152800</v>
       </c>
       <c r="J59" s="3">
+        <v>224400</v>
+      </c>
+      <c r="K59" s="3">
         <v>200900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>345200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>260600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>219900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>161400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>581800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>153600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>161200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>587300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>561900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>447600</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V59" s="3" t="s">
         <v>16</v>
       </c>
@@ -3869,65 +4005,68 @@
       <c r="X59" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>493700</v>
+        <v>268600</v>
       </c>
       <c r="E60" s="3">
-        <v>415300</v>
+        <v>461100</v>
       </c>
       <c r="F60" s="3">
-        <v>181000</v>
+        <v>387900</v>
       </c>
       <c r="G60" s="3">
-        <v>194400</v>
+        <v>169100</v>
       </c>
       <c r="H60" s="3">
-        <v>195000</v>
+        <v>181600</v>
       </c>
       <c r="I60" s="3">
-        <v>327200</v>
+        <v>182200</v>
       </c>
       <c r="J60" s="3">
+        <v>305600</v>
+      </c>
+      <c r="K60" s="3">
         <v>485300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>468700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>515900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>738900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>655500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>701600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>588700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>474700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>674700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>644100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>534100</v>
       </c>
-      <c r="U60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V60" s="3" t="s">
         <v>16</v>
       </c>
@@ -3937,62 +4076,65 @@
       <c r="X60" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>59000</v>
+        <v>137400</v>
       </c>
       <c r="E61" s="3">
-        <v>62300</v>
+        <v>55100</v>
       </c>
       <c r="F61" s="3">
-        <v>323100</v>
+        <v>58200</v>
       </c>
       <c r="G61" s="3">
-        <v>287400</v>
+        <v>301800</v>
       </c>
       <c r="H61" s="3">
-        <v>296000</v>
+        <v>268500</v>
       </c>
       <c r="I61" s="3">
-        <v>303800</v>
+        <v>276500</v>
       </c>
       <c r="J61" s="3">
+        <v>283800</v>
+      </c>
+      <c r="K61" s="3">
         <v>301900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>299600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>313800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>45700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>69100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>54900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>90000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>95200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>74400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>55500</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
       <c r="U61" s="3">
         <v>0</v>
       </c>
@@ -4005,65 +4147,68 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>166600</v>
+        <v>1800</v>
       </c>
       <c r="E62" s="3">
-        <v>21800</v>
+        <v>155600</v>
       </c>
       <c r="F62" s="3">
-        <v>5400</v>
+        <v>20400</v>
       </c>
       <c r="G62" s="3">
-        <v>40000</v>
+        <v>5100</v>
       </c>
       <c r="H62" s="3">
-        <v>48100</v>
+        <v>37300</v>
       </c>
       <c r="I62" s="3">
-        <v>45200</v>
+        <v>45000</v>
       </c>
       <c r="J62" s="3">
+        <v>42200</v>
+      </c>
+      <c r="K62" s="3">
         <v>300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>12100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>10000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>32000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>5200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>15500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>32200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>58300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>51300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>49400</v>
       </c>
-      <c r="U62" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V62" s="3" t="s">
         <v>16</v>
       </c>
@@ -4073,8 +4218,11 @@
       <c r="X62" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,65 +4431,68 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>719300</v>
+        <v>407800</v>
       </c>
       <c r="E66" s="3">
-        <v>499500</v>
+        <v>671900</v>
       </c>
       <c r="F66" s="3">
-        <v>509400</v>
+        <v>466500</v>
       </c>
       <c r="G66" s="3">
-        <v>521800</v>
+        <v>475900</v>
       </c>
       <c r="H66" s="3">
-        <v>539200</v>
+        <v>487400</v>
       </c>
       <c r="I66" s="3">
-        <v>676200</v>
+        <v>503600</v>
       </c>
       <c r="J66" s="3">
+        <v>631600</v>
+      </c>
+      <c r="K66" s="3">
         <v>787500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>769300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>841200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>794100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>756300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>756800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>694900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>602900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>804700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>749300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>582400</v>
       </c>
-      <c r="U66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V66" s="3" t="s">
         <v>16</v>
       </c>
@@ -4345,8 +4502,11 @@
       <c r="X66" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,13 +4671,16 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>0</v>
+        <v>64400</v>
       </c>
       <c r="E70" s="3">
         <v>0</v>
@@ -4555,17 +4722,17 @@
         <v>0</v>
       </c>
       <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
         <v>1521600</v>
       </c>
-      <c r="S70" s="3">
+      <c r="T70" s="3">
         <v>1243800</v>
       </c>
-      <c r="T70" s="3">
+      <c r="U70" s="3">
         <v>1086400</v>
       </c>
-      <c r="U70" s="3">
-        <v>0</v>
-      </c>
       <c r="V70" s="3">
         <v>0</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,65 +4813,68 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-2791400</v>
+        <v>-2418800</v>
       </c>
       <c r="E72" s="3">
-        <v>-2520900</v>
+        <v>-2607400</v>
       </c>
       <c r="F72" s="3">
-        <v>-2510000</v>
+        <v>-2354700</v>
       </c>
       <c r="G72" s="3">
-        <v>-2489000</v>
+        <v>-2344500</v>
       </c>
       <c r="H72" s="3">
-        <v>-2461700</v>
+        <v>-2324900</v>
       </c>
       <c r="I72" s="3">
-        <v>-2420900</v>
+        <v>-2299500</v>
       </c>
       <c r="J72" s="3">
+        <v>-2261300</v>
+      </c>
+      <c r="K72" s="3">
         <v>-2443500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1983500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1785800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1767700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-1675200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-1624700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-1505500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-1368000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-1397400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-1218100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-1016300</v>
       </c>
-      <c r="U72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V72" s="3" t="s">
         <v>16</v>
       </c>
@@ -4711,8 +4884,11 @@
       <c r="X72" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,65 +5097,68 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-510000</v>
+        <v>-279600</v>
       </c>
       <c r="E76" s="3">
-        <v>-318900</v>
+        <v>-476300</v>
       </c>
       <c r="F76" s="3">
-        <v>-314800</v>
+        <v>-297800</v>
       </c>
       <c r="G76" s="3">
-        <v>-292200</v>
+        <v>-294100</v>
       </c>
       <c r="H76" s="3">
-        <v>-301000</v>
+        <v>-272900</v>
       </c>
       <c r="I76" s="3">
-        <v>-347700</v>
+        <v>-281100</v>
       </c>
       <c r="J76" s="3">
+        <v>-324800</v>
+      </c>
+      <c r="K76" s="3">
         <v>-369900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>73500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>231000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>280900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>328400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>361200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>376600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>433100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-1384700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-1206700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-1007600</v>
       </c>
-      <c r="U76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V76" s="3" t="s">
         <v>16</v>
       </c>
@@ -4983,8 +5168,11 @@
       <c r="X76" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5239,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-270500</v>
+        <v>188600</v>
       </c>
       <c r="E81" s="3">
-        <v>-10900</v>
+        <v>-252700</v>
       </c>
       <c r="F81" s="3">
-        <v>-21000</v>
+        <v>-10200</v>
       </c>
       <c r="G81" s="3">
-        <v>-27300</v>
+        <v>-19600</v>
       </c>
       <c r="H81" s="3">
-        <v>-40800</v>
+        <v>-25500</v>
       </c>
       <c r="I81" s="3">
-        <v>22600</v>
+        <v>-38200</v>
       </c>
       <c r="J81" s="3">
+        <v>21100</v>
+      </c>
+      <c r="K81" s="3">
         <v>-391900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-167800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-41100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-57000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-43500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-363000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-86100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>7600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-220100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-201000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-167600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-103700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-85900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-55300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-46300</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,31 +5415,32 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>0</v>
+      <c r="D83" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
+        <v>2000</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -5257,37 +5455,40 @@
         <v>0</v>
       </c>
       <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
         <v>14400</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R83" s="3">
+      <c r="R83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S83" s="3">
         <v>2800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>3200</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="V83" s="3">
+      <c r="V83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W83" s="3">
         <v>2400</v>
       </c>
-      <c r="W83" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="X83" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,31 +5839,34 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>0</v>
+      <c r="D89" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
-      </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
-      <c r="J89" s="3">
-        <v>0</v>
+        <v>-81100</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="K89" s="3">
         <v>0</v>
@@ -5665,37 +5881,40 @@
         <v>0</v>
       </c>
       <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
         <v>-347000</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R89" s="3">
+      <c r="R89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S89" s="3">
         <v>-53400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-121700</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="V89" s="3">
+      <c r="V89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W89" s="3">
         <v>-70300</v>
       </c>
-      <c r="W89" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="X89" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,31 +5939,32 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+        <v>-700</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -5759,37 +5979,40 @@
         <v>0</v>
       </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-20400</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R91" s="3">
+      <c r="R91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S91" s="3">
         <v>-5900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-3400</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="V91" s="3">
+      <c r="V91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W91" s="3">
         <v>-3300</v>
       </c>
-      <c r="W91" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="X91" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,31 +6150,34 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
+      <c r="D94" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
+        <v>-500</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
@@ -5963,37 +6192,40 @@
         <v>0</v>
       </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-164100</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R94" s="3">
+      <c r="R94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S94" s="3">
         <v>-43800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-36000</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="V94" s="3">
+      <c r="V94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W94" s="3">
         <v>-88700</v>
       </c>
-      <c r="W94" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="X94" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6319,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,31 +6532,34 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>0</v>
+      <c r="D100" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
+        <v>81300</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
@@ -6329,60 +6574,63 @@
         <v>0</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>650200</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R100" s="3">
+      <c r="R100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S100" s="3">
         <v>230400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>110900</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="V100" s="3">
+      <c r="V100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W100" s="3">
         <v>181900</v>
       </c>
-      <c r="W100" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="X100" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>0</v>
+      <c r="D101" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
+        <v>-200</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
@@ -6397,60 +6645,63 @@
         <v>0</v>
       </c>
       <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>-1400</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R101" s="3">
+      <c r="R101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S101" s="3">
         <v>-100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-200</v>
       </c>
-      <c r="T101" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="V101" s="3">
+      <c r="V101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W101" s="3">
         <v>200</v>
       </c>
-      <c r="W101" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="X101" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>0</v>
+      <c r="D102" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
-        <v>0</v>
+        <v>-500</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="K102" s="3">
         <v>0</v>
@@ -6465,33 +6716,36 @@
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>137600</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R102" s="3">
+      <c r="R102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S102" s="3">
         <v>133100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-47000</v>
       </c>
-      <c r="T102" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="V102" s="3">
+      <c r="V102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W102" s="3">
         <v>23200</v>
       </c>
-      <c r="W102" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="X102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y102" s="3" t="s">
         <v>16</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/UXIN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/UXIN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="92">
   <si>
     <t>UXIN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,320 +665,333 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>74700</v>
+        <v>73800</v>
       </c>
       <c r="E8" s="3">
+        <v>74000</v>
+      </c>
+      <c r="F8" s="3">
+        <v>50500</v>
+      </c>
+      <c r="G8" s="3">
+        <v>40600</v>
+      </c>
+      <c r="H8" s="3">
+        <v>28600</v>
+      </c>
+      <c r="I8" s="3">
+        <v>47200</v>
+      </c>
+      <c r="J8" s="3">
+        <v>11200</v>
+      </c>
+      <c r="K8" s="3">
+        <v>9200</v>
+      </c>
+      <c r="L8" s="3">
+        <v>16400</v>
+      </c>
+      <c r="M8" s="3">
+        <v>46900</v>
+      </c>
+      <c r="N8" s="3">
+        <v>71000</v>
+      </c>
+      <c r="O8" s="3">
+        <v>68500</v>
+      </c>
+      <c r="P8" s="3">
+        <v>51300</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>100300</v>
+      </c>
+      <c r="R8" s="3">
+        <v>50200</v>
+      </c>
+      <c r="S8" s="3">
+        <v>38800</v>
+      </c>
+      <c r="T8" s="3">
+        <v>28800</v>
+      </c>
+      <c r="U8" s="3">
+        <v>104400</v>
+      </c>
+      <c r="V8" s="3">
+        <v>80300</v>
+      </c>
+      <c r="W8" s="3">
+        <v>55000</v>
+      </c>
+      <c r="X8" s="3">
+        <v>48900</v>
+      </c>
+      <c r="Y8" s="3">
         <v>51000</v>
       </c>
-      <c r="F8" s="3">
-        <v>40900</v>
-      </c>
-      <c r="G8" s="3">
-        <v>28900</v>
-      </c>
-      <c r="H8" s="3">
-        <v>47600</v>
-      </c>
-      <c r="I8" s="3">
-        <v>11300</v>
-      </c>
-      <c r="J8" s="3">
-        <v>9200</v>
-      </c>
-      <c r="K8" s="3">
-        <v>16400</v>
-      </c>
-      <c r="L8" s="3">
-        <v>46900</v>
-      </c>
-      <c r="M8" s="3">
-        <v>71000</v>
-      </c>
-      <c r="N8" s="3">
-        <v>68500</v>
-      </c>
-      <c r="O8" s="3">
-        <v>51300</v>
-      </c>
-      <c r="P8" s="3">
-        <v>100300</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>50200</v>
-      </c>
-      <c r="R8" s="3">
-        <v>38800</v>
-      </c>
-      <c r="S8" s="3">
-        <v>28800</v>
-      </c>
-      <c r="T8" s="3">
-        <v>104400</v>
-      </c>
-      <c r="U8" s="3">
-        <v>80300</v>
-      </c>
-      <c r="V8" s="3">
-        <v>55000</v>
-      </c>
-      <c r="W8" s="3">
-        <v>48900</v>
-      </c>
-      <c r="X8" s="3">
-        <v>51000</v>
-      </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>34800</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>71600</v>
+        <v>73700</v>
       </c>
       <c r="E9" s="3">
-        <v>48800</v>
+        <v>70900</v>
       </c>
       <c r="F9" s="3">
-        <v>39300</v>
+        <v>48400</v>
       </c>
       <c r="G9" s="3">
-        <v>27500</v>
+        <v>38900</v>
       </c>
       <c r="H9" s="3">
-        <v>46200</v>
+        <v>27300</v>
       </c>
       <c r="I9" s="3">
-        <v>13800</v>
+        <v>45800</v>
       </c>
       <c r="J9" s="3">
+        <v>13700</v>
+      </c>
+      <c r="K9" s="3">
         <v>11800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>17500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>14600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>31800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>32000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>52100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>63700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>71500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>58800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>51100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>36700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>29000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>24300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>20600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>23500</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>19700</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3100</v>
+        <v>200</v>
       </c>
       <c r="E10" s="3">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="F10" s="3">
+        <v>2100</v>
+      </c>
+      <c r="G10" s="3">
         <v>1600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-2500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-2600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-1100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>32200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>39200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>36600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>-800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>36500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>-21200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>-19900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>-22300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>67700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>51300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>30700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>28300</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>27500</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>15100</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1004,79 +1017,83 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1700</v>
+        <v>1200</v>
       </c>
       <c r="E12" s="3">
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="F12" s="3">
         <v>1200</v>
       </c>
       <c r="G12" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H12" s="3">
         <v>2100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>2600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>2800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>3400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>4900</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M12" s="3">
+      <c r="M12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N12" s="3">
         <v>8300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>8800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>17200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>18900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>16900</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>17600</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>13300</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>11600</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>7300</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>7500</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>7000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>7200</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1146,13 +1163,16 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>16</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>16</v>
@@ -1160,36 +1180,36 @@
       <c r="F14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>-28200</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>5900</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>1400</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
@@ -1217,8 +1237,11 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1288,8 +1311,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,150 +1338,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>85400</v>
+        <v>89800</v>
       </c>
       <c r="E17" s="3">
-        <v>57700</v>
+        <v>84600</v>
       </c>
       <c r="F17" s="3">
-        <v>48400</v>
+        <v>57200</v>
       </c>
       <c r="G17" s="3">
-        <v>43200</v>
+        <v>48000</v>
       </c>
       <c r="H17" s="3">
-        <v>71800</v>
+        <v>42800</v>
       </c>
       <c r="I17" s="3">
-        <v>35200</v>
+        <v>71100</v>
       </c>
       <c r="J17" s="3">
+        <v>34900</v>
+      </c>
+      <c r="K17" s="3">
         <v>28100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>333000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>96200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>110000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>127800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>96400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>478800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>121400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>214800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>91800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>176100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>157900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>112600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>111300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>78500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>64500</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-10700</v>
+        <v>-16000</v>
       </c>
       <c r="E18" s="3">
-        <v>-6800</v>
+        <v>-10600</v>
       </c>
       <c r="F18" s="3">
-        <v>-7500</v>
+        <v>-6700</v>
       </c>
       <c r="G18" s="3">
-        <v>-14300</v>
+        <v>-7400</v>
       </c>
       <c r="H18" s="3">
-        <v>-24200</v>
+        <v>-14200</v>
       </c>
       <c r="I18" s="3">
         <v>-24000</v>
       </c>
       <c r="J18" s="3">
+        <v>-23700</v>
+      </c>
+      <c r="K18" s="3">
         <v>-18900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-316600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-49300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-39000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-59300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-45100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-378500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-71100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-176000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-63000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-71700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-77600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-57600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-62400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-27500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-29700</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1481,90 +1514,94 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>200400</v>
+        <v>69500</v>
       </c>
       <c r="E20" s="3">
-        <v>-244500</v>
+        <v>198600</v>
       </c>
       <c r="F20" s="3">
+        <v>-242300</v>
+      </c>
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-2100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1200</v>
       </c>
-      <c r="I20" s="3">
-        <v>-14900</v>
-      </c>
       <c r="J20" s="3">
+        <v>-14800</v>
+      </c>
+      <c r="K20" s="3">
         <v>-4400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-5400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-3800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>172800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-3800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>215900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-50900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-62400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-35900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-27700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-11400</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-12400</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E21" s="3">
-        <v>-249200</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>16</v>
+      <c r="E21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-247000</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>16</v>
@@ -1593,58 +1630,61 @@
       <c r="O21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-191400</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T21" s="3">
         <v>-111100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-130900</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="W21" s="3">
+      <c r="W21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X21" s="3">
         <v>-71500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-32200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-25700</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>800</v>
+      </c>
+      <c r="E22" s="3">
         <v>1100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>2700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>3100</v>
       </c>
-      <c r="H22" s="3">
-        <v>3300</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>16</v>
+      <c r="I22" s="3">
+        <v>3200</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>16</v>
@@ -1652,8 +1692,8 @@
       <c r="K22" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="L22" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1694,79 +1734,85 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>188600</v>
+        <v>52700</v>
       </c>
       <c r="E23" s="3">
-        <v>-252700</v>
+        <v>186900</v>
       </c>
       <c r="F23" s="3">
-        <v>-10200</v>
+        <v>-250400</v>
       </c>
       <c r="G23" s="3">
-        <v>-19600</v>
+        <v>-10100</v>
       </c>
       <c r="H23" s="3">
-        <v>-26200</v>
+        <v>-19400</v>
       </c>
       <c r="I23" s="3">
-        <v>-38800</v>
+        <v>-26000</v>
       </c>
       <c r="J23" s="3">
+        <v>-38500</v>
+      </c>
+      <c r="K23" s="3">
         <v>-23300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-322000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-50000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-42700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-58300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-45800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-205800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-74900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>39900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-113900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-134100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-113500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-85300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-73900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-39800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-31500</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1792,52 +1838,55 @@
         <v>0</v>
       </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>100</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
       <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
         <v>100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>300</v>
       </c>
-      <c r="V24" s="3">
-        <v>0</v>
-      </c>
       <c r="W24" s="3">
         <v>0</v>
       </c>
       <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3">
         <v>300</v>
       </c>
-      <c r="Y24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,150 +1956,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>188600</v>
+        <v>52700</v>
       </c>
       <c r="E26" s="3">
-        <v>-252700</v>
+        <v>186900</v>
       </c>
       <c r="F26" s="3">
-        <v>-10200</v>
+        <v>-250400</v>
       </c>
       <c r="G26" s="3">
-        <v>-19600</v>
+        <v>-10100</v>
       </c>
       <c r="H26" s="3">
-        <v>-26200</v>
+        <v>-19400</v>
       </c>
       <c r="I26" s="3">
-        <v>-38800</v>
+        <v>-26000</v>
       </c>
       <c r="J26" s="3">
+        <v>-38500</v>
+      </c>
+      <c r="K26" s="3">
         <v>-23300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-322000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-50300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-42700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-57400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-46100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-206000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-75100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>39900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-114000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-133800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-113900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-85300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-73900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-40100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-31500</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>188600</v>
+        <v>52700</v>
       </c>
       <c r="E27" s="3">
-        <v>-252700</v>
+        <v>186900</v>
       </c>
       <c r="F27" s="3">
-        <v>-10200</v>
+        <v>-250400</v>
       </c>
       <c r="G27" s="3">
-        <v>-19600</v>
+        <v>-10100</v>
       </c>
       <c r="H27" s="3">
-        <v>-25500</v>
+        <v>-19400</v>
       </c>
       <c r="I27" s="3">
-        <v>-38200</v>
+        <v>-25200</v>
       </c>
       <c r="J27" s="3">
+        <v>-37800</v>
+      </c>
+      <c r="K27" s="3">
         <v>-22500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-320100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-49300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-41100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-56100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-45100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-334600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-74800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>18100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-213700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-201000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-167600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-103700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-85900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-55300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-46300</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2178,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2144,38 +2205,38 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>43600</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-71800</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-118500</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>-900</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>1600</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-28400</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-11200</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-10500</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-6400</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
       <c r="U29" s="3">
         <v>0</v>
       </c>
@@ -2191,8 +2252,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,150 +2400,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-200400</v>
+        <v>-69500</v>
       </c>
       <c r="E32" s="3">
-        <v>244500</v>
+        <v>-198600</v>
       </c>
       <c r="F32" s="3">
+        <v>242300</v>
+      </c>
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>2100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1200</v>
       </c>
-      <c r="I32" s="3">
-        <v>14900</v>
-      </c>
       <c r="J32" s="3">
+        <v>14800</v>
+      </c>
+      <c r="K32" s="3">
         <v>4400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>5400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>3800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-172800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>3800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-215900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>50900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>62400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>35900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>27700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>11400</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>12400</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>188600</v>
+        <v>52700</v>
       </c>
       <c r="E33" s="3">
-        <v>-252700</v>
+        <v>186900</v>
       </c>
       <c r="F33" s="3">
-        <v>-10200</v>
+        <v>-250400</v>
       </c>
       <c r="G33" s="3">
-        <v>-19600</v>
+        <v>-10100</v>
       </c>
       <c r="H33" s="3">
-        <v>-25500</v>
+        <v>-19400</v>
       </c>
       <c r="I33" s="3">
-        <v>-38200</v>
+        <v>-25200</v>
       </c>
       <c r="J33" s="3">
+        <v>-37800</v>
+      </c>
+      <c r="K33" s="3">
         <v>21100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-391900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-167800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-41100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-57000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-43500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-363000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-86100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>7600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-220100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-201000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-167600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-103700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-85900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-55300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-46300</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,155 +2622,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>188600</v>
+        <v>52700</v>
       </c>
       <c r="E35" s="3">
-        <v>-252700</v>
+        <v>186900</v>
       </c>
       <c r="F35" s="3">
-        <v>-10200</v>
+        <v>-250400</v>
       </c>
       <c r="G35" s="3">
-        <v>-19600</v>
+        <v>-10100</v>
       </c>
       <c r="H35" s="3">
-        <v>-25500</v>
+        <v>-19400</v>
       </c>
       <c r="I35" s="3">
-        <v>-38200</v>
+        <v>-25200</v>
       </c>
       <c r="J35" s="3">
+        <v>-37800</v>
+      </c>
+      <c r="K35" s="3">
         <v>21100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-391900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-167800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-41100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-57000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-43500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-363000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-86100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>7600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-220100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-201000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-167600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-103700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-85900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-55300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-46300</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,68 +2833,69 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>21900</v>
+        <v>18700</v>
       </c>
       <c r="E41" s="3">
-        <v>31900</v>
+        <v>21700</v>
       </c>
       <c r="F41" s="3">
-        <v>18300</v>
+        <v>31700</v>
       </c>
       <c r="G41" s="3">
-        <v>28400</v>
+        <v>18100</v>
       </c>
       <c r="H41" s="3">
-        <v>42400</v>
+        <v>28100</v>
       </c>
       <c r="I41" s="3">
-        <v>32300</v>
+        <v>42000</v>
       </c>
       <c r="J41" s="3">
+        <v>32000</v>
+      </c>
+      <c r="K41" s="3">
         <v>35500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>54000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>74900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>96600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>122100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>69500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>121800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>98300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>116100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>175000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>43300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>90300</v>
       </c>
-      <c r="V41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W41" s="3" t="s">
         <v>16</v>
       </c>
@@ -2818,8 +2905,11 @@
       <c r="Y41" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2835,51 +2925,51 @@
       <c r="G42" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H42" s="3">
-        <v>0</v>
+      <c r="H42" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="I42" s="3">
         <v>0</v>
       </c>
       <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3">
         <v>1100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>2400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>19100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>21500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>29700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>116800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>99300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>152900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>54500</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>50500</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>65300</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>59400</v>
       </c>
-      <c r="V42" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W42" s="3" t="s">
         <v>16</v>
       </c>
@@ -2889,68 +2979,71 @@
       <c r="Y42" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>34200</v>
+        <v>32400</v>
       </c>
       <c r="E43" s="3">
-        <v>47700</v>
+        <v>33900</v>
       </c>
       <c r="F43" s="3">
-        <v>56700</v>
+        <v>47200</v>
       </c>
       <c r="G43" s="3">
-        <v>62200</v>
+        <v>56200</v>
       </c>
       <c r="H43" s="3">
-        <v>73200</v>
+        <v>61600</v>
       </c>
       <c r="I43" s="3">
-        <v>89800</v>
+        <v>72500</v>
       </c>
       <c r="J43" s="3">
+        <v>89000</v>
+      </c>
+      <c r="K43" s="3">
         <v>120700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>114600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>331400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>74200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>40300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>239200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>230800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>179400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>355100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>206500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>171000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>125600</v>
       </c>
-      <c r="V43" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W43" s="3" t="s">
         <v>16</v>
       </c>
@@ -2960,68 +3053,71 @@
       <c r="Y43" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>64300</v>
+        <v>62200</v>
       </c>
       <c r="E44" s="3">
-        <v>43000</v>
+        <v>63700</v>
       </c>
       <c r="F44" s="3">
-        <v>14300</v>
+        <v>42600</v>
       </c>
       <c r="G44" s="3">
-        <v>10300</v>
+        <v>14200</v>
       </c>
       <c r="H44" s="3">
-        <v>8200</v>
+        <v>10200</v>
       </c>
       <c r="I44" s="3">
+        <v>8100</v>
+      </c>
+      <c r="J44" s="3">
         <v>4700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2900</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>2600</v>
       </c>
       <c r="R44" s="3">
         <v>2600</v>
       </c>
       <c r="S44" s="3">
+        <v>2600</v>
+      </c>
+      <c r="T44" s="3">
         <v>6400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>11600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>18200</v>
       </c>
-      <c r="V44" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W44" s="3" t="s">
         <v>16</v>
       </c>
@@ -3031,68 +3127,71 @@
       <c r="Y44" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>16100</v>
+        <v>14400</v>
       </c>
       <c r="E45" s="3">
-        <v>16100</v>
+        <v>16000</v>
       </c>
       <c r="F45" s="3">
-        <v>21400</v>
+        <v>16000</v>
       </c>
       <c r="G45" s="3">
-        <v>21900</v>
+        <v>21200</v>
       </c>
       <c r="H45" s="3">
-        <v>28200</v>
+        <v>21800</v>
       </c>
       <c r="I45" s="3">
-        <v>31100</v>
+        <v>28000</v>
       </c>
       <c r="J45" s="3">
+        <v>30800</v>
+      </c>
+      <c r="K45" s="3">
         <v>81900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>180600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>346700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>767200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>760500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>514100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>894200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>538400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>437800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>443800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>436500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>309300</v>
       </c>
-      <c r="V45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W45" s="3" t="s">
         <v>16</v>
       </c>
@@ -3102,68 +3201,71 @@
       <c r="Y45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>136600</v>
+        <v>127700</v>
       </c>
       <c r="E46" s="3">
-        <v>138700</v>
+        <v>135400</v>
       </c>
       <c r="F46" s="3">
-        <v>110700</v>
+        <v>137500</v>
       </c>
       <c r="G46" s="3">
-        <v>122700</v>
+        <v>109700</v>
       </c>
       <c r="H46" s="3">
-        <v>152000</v>
+        <v>121600</v>
       </c>
       <c r="I46" s="3">
-        <v>158000</v>
+        <v>150600</v>
       </c>
       <c r="J46" s="3">
+        <v>156500</v>
+      </c>
+      <c r="K46" s="3">
         <v>240900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>353200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>774200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>961500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>955100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>942000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1014400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>971700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>966000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>882200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>727600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>602800</v>
       </c>
-      <c r="V46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W46" s="3" t="s">
         <v>16</v>
       </c>
@@ -3173,68 +3275,71 @@
       <c r="Y46" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>42600</v>
+        <v>42200</v>
       </c>
       <c r="E47" s="3">
-        <v>42500</v>
+        <v>42200</v>
       </c>
       <c r="F47" s="3">
-        <v>42500</v>
+        <v>42200</v>
       </c>
       <c r="G47" s="3">
-        <v>42500</v>
+        <v>42200</v>
       </c>
       <c r="H47" s="3">
-        <v>42500</v>
+        <v>42100</v>
       </c>
       <c r="I47" s="3">
-        <v>41700</v>
+        <v>42100</v>
       </c>
       <c r="J47" s="3">
+        <v>41400</v>
+      </c>
+      <c r="K47" s="3">
         <v>41000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>43700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>42700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>41100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>40800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>54200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>106400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>50500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>7700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>5600</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>6000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>6100</v>
       </c>
-      <c r="V47" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W47" s="3" t="s">
         <v>16</v>
       </c>
@@ -3244,68 +3349,71 @@
       <c r="Y47" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>9500</v>
+        <v>9400</v>
       </c>
       <c r="E48" s="3">
-        <v>9800</v>
+        <v>9400</v>
       </c>
       <c r="F48" s="3">
-        <v>10600</v>
+        <v>9700</v>
       </c>
       <c r="G48" s="3">
-        <v>11200</v>
+        <v>10500</v>
       </c>
       <c r="H48" s="3">
-        <v>14200</v>
+        <v>11100</v>
       </c>
       <c r="I48" s="3">
-        <v>16600</v>
+        <v>14100</v>
       </c>
       <c r="J48" s="3">
+        <v>16400</v>
+      </c>
+      <c r="K48" s="3">
         <v>18200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>19300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>24400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>50500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>59200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>68700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>60600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>29400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>27000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>25400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>23200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>22600</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W48" s="3" t="s">
         <v>16</v>
       </c>
@@ -3315,8 +3423,11 @@
       <c r="Y48" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3342,41 +3453,41 @@
         <v>0</v>
       </c>
       <c r="K49" s="3">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="L49" s="3">
         <v>1500</v>
       </c>
       <c r="M49" s="3">
+        <v>1500</v>
+      </c>
+      <c r="N49" s="3">
         <v>19200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>19900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>19800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>23200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>19900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>19400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>12200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>12700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>12900</v>
       </c>
-      <c r="V49" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W49" s="3" t="s">
         <v>16</v>
       </c>
@@ -3386,8 +3497,11 @@
       <c r="Y49" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,35 +3645,38 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="E52" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F52" s="3">
         <v>4400</v>
       </c>
-      <c r="F52" s="3">
-        <v>4900</v>
-      </c>
       <c r="G52" s="3">
+        <v>4800</v>
+      </c>
+      <c r="H52" s="3">
         <v>5300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>5700</v>
       </c>
-      <c r="I52" s="3">
-        <v>6200</v>
-      </c>
       <c r="J52" s="3">
+        <v>6100</v>
+      </c>
+      <c r="K52" s="3">
         <v>6600</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>16</v>
       </c>
@@ -3569,26 +3689,26 @@
       <c r="O52" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P52" s="3">
-        <v>0</v>
+      <c r="P52" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Q52" s="3">
         <v>0</v>
       </c>
       <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
         <v>15800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>16200</v>
-      </c>
-      <c r="T52" s="3">
-        <v>16800</v>
       </c>
       <c r="U52" s="3">
         <v>16800</v>
       </c>
-      <c r="V52" s="3" t="s">
-        <v>16</v>
+      <c r="V52" s="3">
+        <v>16800</v>
       </c>
       <c r="W52" s="3" t="s">
         <v>16</v>
@@ -3599,8 +3719,11 @@
       <c r="Y52" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,68 +3793,71 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>192600</v>
+        <v>182700</v>
       </c>
       <c r="E54" s="3">
-        <v>195500</v>
+        <v>190900</v>
       </c>
       <c r="F54" s="3">
-        <v>168700</v>
+        <v>193700</v>
       </c>
       <c r="G54" s="3">
-        <v>181800</v>
+        <v>167200</v>
       </c>
       <c r="H54" s="3">
-        <v>214500</v>
+        <v>180100</v>
       </c>
       <c r="I54" s="3">
-        <v>222500</v>
+        <v>212500</v>
       </c>
       <c r="J54" s="3">
+        <v>220500</v>
+      </c>
+      <c r="K54" s="3">
         <v>306800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>417600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>842800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1072200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1075000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1084600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1118000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1071500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1036000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>941600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>786400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>661100</v>
       </c>
-      <c r="V54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W54" s="3" t="s">
         <v>16</v>
       </c>
@@ -3741,8 +3867,11 @@
       <c r="Y54" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,68 +3925,69 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>13700</v>
+        <v>13500</v>
       </c>
       <c r="E57" s="3">
-        <v>19900</v>
+        <v>13600</v>
       </c>
       <c r="F57" s="3">
-        <v>14200</v>
+        <v>19700</v>
       </c>
       <c r="G57" s="3">
-        <v>14900</v>
+        <v>14100</v>
       </c>
       <c r="H57" s="3">
+        <v>14800</v>
+      </c>
+      <c r="I57" s="3">
+        <v>16600</v>
+      </c>
+      <c r="J57" s="3">
+        <v>16600</v>
+      </c>
+      <c r="K57" s="3">
         <v>16700</v>
       </c>
-      <c r="I57" s="3">
-        <v>16800</v>
-      </c>
-      <c r="J57" s="3">
-        <v>16700</v>
-      </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>206400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>31500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>236600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>232800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>237300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>221700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>174300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>153100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>15800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>18900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>15700</v>
       </c>
-      <c r="V57" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W57" s="3" t="s">
         <v>16</v>
       </c>
@@ -3866,68 +3997,71 @@
       <c r="Y57" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>57200</v>
+        <v>56700</v>
       </c>
       <c r="E58" s="3">
-        <v>11900</v>
+        <v>56700</v>
       </c>
       <c r="F58" s="3">
-        <v>256300</v>
+        <v>11700</v>
       </c>
       <c r="G58" s="3">
-        <v>22200</v>
+        <v>253900</v>
       </c>
       <c r="H58" s="3">
-        <v>18100</v>
+        <v>22000</v>
       </c>
       <c r="I58" s="3">
-        <v>12600</v>
+        <v>17900</v>
       </c>
       <c r="J58" s="3">
+        <v>12500</v>
+      </c>
+      <c r="K58" s="3">
         <v>64400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>78000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>92100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>18700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>286200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>256800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>297500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>260800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>160400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>71500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>63300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>70800</v>
       </c>
-      <c r="V58" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W58" s="3" t="s">
         <v>16</v>
       </c>
@@ -3937,68 +4071,71 @@
       <c r="Y58" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>197700</v>
+        <v>119400</v>
       </c>
       <c r="E59" s="3">
-        <v>429400</v>
+        <v>195900</v>
       </c>
       <c r="F59" s="3">
-        <v>117400</v>
+        <v>425500</v>
       </c>
       <c r="G59" s="3">
-        <v>131900</v>
+        <v>116400</v>
       </c>
       <c r="H59" s="3">
-        <v>146900</v>
+        <v>130700</v>
       </c>
       <c r="I59" s="3">
-        <v>152800</v>
+        <v>145500</v>
       </c>
       <c r="J59" s="3">
+        <v>151400</v>
+      </c>
+      <c r="K59" s="3">
         <v>224400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>200900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>345200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>260600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>219900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>161400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>581800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>153600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>161200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>587300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>561900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>447600</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W59" s="3" t="s">
         <v>16</v>
       </c>
@@ -4008,68 +4145,71 @@
       <c r="Y59" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>268600</v>
+        <v>189600</v>
       </c>
       <c r="E60" s="3">
-        <v>461100</v>
+        <v>266200</v>
       </c>
       <c r="F60" s="3">
-        <v>387900</v>
+        <v>457000</v>
       </c>
       <c r="G60" s="3">
-        <v>169100</v>
+        <v>384400</v>
       </c>
       <c r="H60" s="3">
-        <v>181600</v>
+        <v>167500</v>
       </c>
       <c r="I60" s="3">
-        <v>182200</v>
+        <v>180000</v>
       </c>
       <c r="J60" s="3">
+        <v>180500</v>
+      </c>
+      <c r="K60" s="3">
         <v>305600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>485300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>468700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>515900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>738900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>655500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>701600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>588700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>474700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>674700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>644100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>534100</v>
       </c>
-      <c r="V60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W60" s="3" t="s">
         <v>16</v>
       </c>
@@ -4079,65 +4219,68 @@
       <c r="Y60" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>137400</v>
+        <v>135100</v>
       </c>
       <c r="E61" s="3">
-        <v>55100</v>
+        <v>136200</v>
       </c>
       <c r="F61" s="3">
-        <v>58200</v>
+        <v>54600</v>
       </c>
       <c r="G61" s="3">
-        <v>301800</v>
+        <v>57700</v>
       </c>
       <c r="H61" s="3">
-        <v>268500</v>
+        <v>299000</v>
       </c>
       <c r="I61" s="3">
-        <v>276500</v>
+        <v>266000</v>
       </c>
       <c r="J61" s="3">
+        <v>274000</v>
+      </c>
+      <c r="K61" s="3">
         <v>283800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>301900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>299600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>313800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>45700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>69100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>54900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>90000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>95200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>74400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>55500</v>
       </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
       <c r="V61" s="3">
         <v>0</v>
       </c>
@@ -4150,68 +4293,71 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E62" s="3">
         <v>1800</v>
       </c>
-      <c r="E62" s="3">
-        <v>155600</v>
-      </c>
       <c r="F62" s="3">
-        <v>20400</v>
+        <v>154200</v>
       </c>
       <c r="G62" s="3">
-        <v>5100</v>
+        <v>20200</v>
       </c>
       <c r="H62" s="3">
-        <v>37300</v>
+        <v>5000</v>
       </c>
       <c r="I62" s="3">
-        <v>45000</v>
+        <v>37000</v>
       </c>
       <c r="J62" s="3">
+        <v>44600</v>
+      </c>
+      <c r="K62" s="3">
         <v>42200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>12100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>10000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>32000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>5200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>15500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>32200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>58300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>51300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>49400</v>
       </c>
-      <c r="V62" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W62" s="3" t="s">
         <v>16</v>
       </c>
@@ -4221,8 +4367,11 @@
       <c r="Y62" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,68 +4589,71 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>407800</v>
+        <v>326300</v>
       </c>
       <c r="E66" s="3">
-        <v>671900</v>
+        <v>404200</v>
       </c>
       <c r="F66" s="3">
-        <v>466500</v>
+        <v>665800</v>
       </c>
       <c r="G66" s="3">
-        <v>475900</v>
+        <v>462300</v>
       </c>
       <c r="H66" s="3">
-        <v>487400</v>
+        <v>471600</v>
       </c>
       <c r="I66" s="3">
-        <v>503600</v>
+        <v>483000</v>
       </c>
       <c r="J66" s="3">
+        <v>499100</v>
+      </c>
+      <c r="K66" s="3">
         <v>631600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>787500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>769300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>841200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>794100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>756300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>756800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>694900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>602900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>804700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>749300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>582400</v>
       </c>
-      <c r="V66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W66" s="3" t="s">
         <v>16</v>
       </c>
@@ -4505,8 +4663,11 @@
       <c r="Y66" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,16 +4839,19 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>64400</v>
+        <v>76900</v>
       </c>
       <c r="E70" s="3">
-        <v>0</v>
+        <v>63800</v>
       </c>
       <c r="F70" s="3">
         <v>0</v>
@@ -4725,17 +4893,17 @@
         <v>0</v>
       </c>
       <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
         <v>1521600</v>
       </c>
-      <c r="T70" s="3">
+      <c r="U70" s="3">
         <v>1243800</v>
       </c>
-      <c r="U70" s="3">
+      <c r="V70" s="3">
         <v>1086400</v>
       </c>
-      <c r="V70" s="3">
-        <v>0</v>
-      </c>
       <c r="W70" s="3">
         <v>0</v>
       </c>
@@ -4745,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,68 +4987,71 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-2418800</v>
+        <v>-2344300</v>
       </c>
       <c r="E72" s="3">
-        <v>-2607400</v>
+        <v>-2397000</v>
       </c>
       <c r="F72" s="3">
-        <v>-2354700</v>
+        <v>-2583800</v>
       </c>
       <c r="G72" s="3">
-        <v>-2344500</v>
+        <v>-2333400</v>
       </c>
       <c r="H72" s="3">
-        <v>-2324900</v>
+        <v>-2323300</v>
       </c>
       <c r="I72" s="3">
-        <v>-2299500</v>
+        <v>-2303900</v>
       </c>
       <c r="J72" s="3">
+        <v>-2278700</v>
+      </c>
+      <c r="K72" s="3">
         <v>-2261300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-2443500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1983500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1785800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-1767700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-1675200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-1624700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-1505500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-1368000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-1397400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-1218100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-1016300</v>
       </c>
-      <c r="V72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W72" s="3" t="s">
         <v>16</v>
       </c>
@@ -4887,8 +5061,11 @@
       <c r="Y72" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,68 +5283,71 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-279600</v>
+        <v>-220500</v>
       </c>
       <c r="E76" s="3">
-        <v>-476300</v>
+        <v>-277100</v>
       </c>
       <c r="F76" s="3">
-        <v>-297800</v>
+        <v>-472000</v>
       </c>
       <c r="G76" s="3">
-        <v>-294100</v>
+        <v>-295100</v>
       </c>
       <c r="H76" s="3">
-        <v>-272900</v>
+        <v>-291400</v>
       </c>
       <c r="I76" s="3">
-        <v>-281100</v>
+        <v>-270500</v>
       </c>
       <c r="J76" s="3">
+        <v>-278600</v>
+      </c>
+      <c r="K76" s="3">
         <v>-324800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-369900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>73500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>231000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>280900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>328400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>361200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>376600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>433100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-1384700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-1206700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-1007600</v>
       </c>
-      <c r="V76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W76" s="3" t="s">
         <v>16</v>
       </c>
@@ -5171,8 +5357,11 @@
       <c r="Y76" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5431,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>188600</v>
+        <v>52700</v>
       </c>
       <c r="E81" s="3">
-        <v>-252700</v>
+        <v>186900</v>
       </c>
       <c r="F81" s="3">
-        <v>-10200</v>
+        <v>-250400</v>
       </c>
       <c r="G81" s="3">
-        <v>-19600</v>
+        <v>-10100</v>
       </c>
       <c r="H81" s="3">
-        <v>-25500</v>
+        <v>-19400</v>
       </c>
       <c r="I81" s="3">
-        <v>-38200</v>
+        <v>-25200</v>
       </c>
       <c r="J81" s="3">
+        <v>-37800</v>
+      </c>
+      <c r="K81" s="3">
         <v>21100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-391900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-167800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-41100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-57000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-43500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-363000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-86100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>7600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-220100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-201000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-167600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-103700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-85900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-55300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-46300</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,20 +5614,21 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E83" s="3">
+      <c r="E83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F83" s="3">
         <v>2000</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="G83" s="3" t="s">
         <v>16</v>
       </c>
@@ -5442,8 +5641,8 @@
       <c r="J83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
+      <c r="K83" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
@@ -5458,37 +5657,40 @@
         <v>0</v>
       </c>
       <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
         <v>14400</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S83" s="3">
+      <c r="S83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T83" s="3">
         <v>2800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>3200</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="W83" s="3">
+      <c r="W83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X83" s="3">
         <v>2400</v>
       </c>
-      <c r="X83" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Y83" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,19 +6056,22 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E89" s="3">
-        <v>-81100</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>16</v>
+      <c r="E89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-80400</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>16</v>
@@ -5868,8 +6085,8 @@
       <c r="J89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
+      <c r="K89" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="L89" s="3">
         <v>0</v>
@@ -5884,37 +6101,40 @@
         <v>0</v>
       </c>
       <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-347000</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S89" s="3">
+      <c r="S89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T89" s="3">
         <v>-53400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-121700</v>
       </c>
-      <c r="U89" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="W89" s="3">
+      <c r="W89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X89" s="3">
         <v>-70300</v>
       </c>
-      <c r="X89" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Y89" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,20 +6160,21 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E91" s="3">
+      <c r="E91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F91" s="3">
         <v>-700</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="G91" s="3" t="s">
         <v>16</v>
       </c>
@@ -5966,8 +6187,8 @@
       <c r="J91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -5982,37 +6203,40 @@
         <v>0</v>
       </c>
       <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-20400</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S91" s="3">
+      <c r="S91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T91" s="3">
         <v>-5900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-3400</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="W91" s="3">
+      <c r="W91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X91" s="3">
         <v>-3300</v>
       </c>
-      <c r="X91" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Y91" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,20 +6380,23 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E94" s="3">
+      <c r="E94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F94" s="3">
         <v>-500</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="G94" s="3" t="s">
         <v>16</v>
       </c>
@@ -6179,8 +6409,8 @@
       <c r="J94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
+      <c r="K94" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="L94" s="3">
         <v>0</v>
@@ -6195,37 +6425,40 @@
         <v>0</v>
       </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-164100</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S94" s="3">
+      <c r="S94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T94" s="3">
         <v>-43800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-36000</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="W94" s="3">
+      <c r="W94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X94" s="3">
         <v>-88700</v>
       </c>
-      <c r="X94" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Y94" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6484,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6322,8 +6556,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,19 +6778,22 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E100" s="3">
-        <v>81300</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>16</v>
+      <c r="E100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F100" s="3">
+        <v>80600</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>16</v>
@@ -6561,8 +6807,8 @@
       <c r="J100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
+      <c r="K100" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="L100" s="3">
         <v>0</v>
@@ -6577,49 +6823,52 @@
         <v>0</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>650200</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S100" s="3">
+      <c r="S100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T100" s="3">
         <v>230400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>110900</v>
       </c>
-      <c r="U100" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="W100" s="3">
+      <c r="W100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X100" s="3">
         <v>181900</v>
       </c>
-      <c r="X100" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Y100" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E101" s="3">
+      <c r="E101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F101" s="3">
         <v>-200</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="G101" s="3" t="s">
         <v>16</v>
       </c>
@@ -6632,8 +6881,8 @@
       <c r="J101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
+      <c r="K101" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="L101" s="3">
         <v>0</v>
@@ -6648,49 +6897,52 @@
         <v>0</v>
       </c>
       <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q101" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S101" s="3">
+      <c r="S101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T101" s="3">
         <v>-100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-200</v>
       </c>
-      <c r="U101" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="W101" s="3">
+      <c r="W101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X101" s="3">
         <v>200</v>
       </c>
-      <c r="X101" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Y101" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E102" s="3">
+      <c r="E102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F102" s="3">
         <v>-500</v>
       </c>
-      <c r="F102" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="G102" s="3" t="s">
         <v>16</v>
       </c>
@@ -6703,8 +6955,8 @@
       <c r="J102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
+      <c r="K102" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="L102" s="3">
         <v>0</v>
@@ -6719,33 +6971,36 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>137600</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S102" s="3">
+      <c r="S102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T102" s="3">
         <v>133100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-47000</v>
       </c>
-      <c r="U102" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="W102" s="3">
+      <c r="W102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X102" s="3">
         <v>23200</v>
       </c>
-      <c r="X102" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Y102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z102" s="3" t="s">
         <v>16</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/UXIN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/UXIN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="92">
   <si>
     <t>UXIN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,333 +665,346 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>73800</v>
+        <v>87200</v>
       </c>
       <c r="E8" s="3">
-        <v>74000</v>
+        <v>70400</v>
       </c>
       <c r="F8" s="3">
-        <v>50500</v>
+        <v>70500</v>
       </c>
       <c r="G8" s="3">
-        <v>40600</v>
+        <v>48100</v>
       </c>
       <c r="H8" s="3">
-        <v>28600</v>
+        <v>38700</v>
       </c>
       <c r="I8" s="3">
-        <v>47200</v>
+        <v>27300</v>
       </c>
       <c r="J8" s="3">
+        <v>44900</v>
+      </c>
+      <c r="K8" s="3">
         <v>11200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>9200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>16400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>46900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>71000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>68500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>51300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>100300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>50200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>38800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>28800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>104400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>80300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>55000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>48900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>51000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>34800</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>73700</v>
+        <v>86200</v>
       </c>
       <c r="E9" s="3">
-        <v>70900</v>
+        <v>70200</v>
       </c>
       <c r="F9" s="3">
-        <v>48400</v>
+        <v>67600</v>
       </c>
       <c r="G9" s="3">
-        <v>38900</v>
+        <v>46100</v>
       </c>
       <c r="H9" s="3">
-        <v>27300</v>
+        <v>37100</v>
       </c>
       <c r="I9" s="3">
-        <v>45800</v>
+        <v>26000</v>
       </c>
       <c r="J9" s="3">
+        <v>43600</v>
+      </c>
+      <c r="K9" s="3">
         <v>13700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>11800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>17500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>14600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>31800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>32000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>52100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>63700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>71500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>58800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>51100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>36700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>29000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>24300</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>20600</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>23500</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>19700</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>200</v>
+        <v>900</v>
       </c>
       <c r="E10" s="3">
-        <v>3000</v>
+        <v>100</v>
       </c>
       <c r="F10" s="3">
-        <v>2100</v>
+        <v>2900</v>
       </c>
       <c r="G10" s="3">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="H10" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I10" s="3">
         <v>1300</v>
       </c>
-      <c r="I10" s="3">
-        <v>1400</v>
-      </c>
       <c r="J10" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K10" s="3">
         <v>-2500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-2600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-1100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>32200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>39200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>36600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>-800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>36500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>-21200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>-19900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>-22300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>67700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>51300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>30700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>28300</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>27500</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>15100</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1018,8 +1031,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1027,73 +1041,76 @@
         <v>1200</v>
       </c>
       <c r="E12" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F12" s="3">
         <v>1600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H12" s="3">
         <v>1200</v>
       </c>
-      <c r="G12" s="3">
-        <v>1200</v>
-      </c>
-      <c r="H12" s="3">
-        <v>2100</v>
-      </c>
       <c r="I12" s="3">
-        <v>2600</v>
+        <v>2000</v>
       </c>
       <c r="J12" s="3">
+        <v>2500</v>
+      </c>
+      <c r="K12" s="3">
         <v>2800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>3400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>4900</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N12" s="3">
+      <c r="N12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O12" s="3">
         <v>8300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>8800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>17200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>18900</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>16900</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>17600</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>13300</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>11600</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>7300</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>7500</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>7000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>7200</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1166,16 +1183,19 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>16</v>
+      <c r="D14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>16</v>
@@ -1183,36 +1203,36 @@
       <c r="G14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>-28200</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>5900</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>1400</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
@@ -1240,8 +1260,11 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1314,8 +1337,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,156 +1365,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>89800</v>
+        <v>100600</v>
       </c>
       <c r="E17" s="3">
-        <v>84600</v>
+        <v>85600</v>
       </c>
       <c r="F17" s="3">
-        <v>57200</v>
+        <v>80700</v>
       </c>
       <c r="G17" s="3">
-        <v>48000</v>
+        <v>54500</v>
       </c>
       <c r="H17" s="3">
-        <v>42800</v>
+        <v>45700</v>
       </c>
       <c r="I17" s="3">
-        <v>71100</v>
+        <v>40800</v>
       </c>
       <c r="J17" s="3">
+        <v>67800</v>
+      </c>
+      <c r="K17" s="3">
         <v>34900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>28100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>333000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>96200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>110000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>127800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>96400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>478800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>121400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>214800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>91800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>176100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>157900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>112600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>111300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>78500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>64500</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-16000</v>
+        <v>-13400</v>
       </c>
       <c r="E18" s="3">
-        <v>-10600</v>
+        <v>-15200</v>
       </c>
       <c r="F18" s="3">
-        <v>-6700</v>
+        <v>-10100</v>
       </c>
       <c r="G18" s="3">
-        <v>-7400</v>
+        <v>-6400</v>
       </c>
       <c r="H18" s="3">
-        <v>-14200</v>
+        <v>-7100</v>
       </c>
       <c r="I18" s="3">
-        <v>-24000</v>
+        <v>-13500</v>
       </c>
       <c r="J18" s="3">
+        <v>-22900</v>
+      </c>
+      <c r="K18" s="3">
         <v>-23700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-18900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-316600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-49300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-39000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-59300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-45100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-378500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-71100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-176000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-63000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-71700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-77600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-57600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-62400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-27500</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-29700</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1515,82 +1548,86 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>69500</v>
+        <v>36500</v>
       </c>
       <c r="E20" s="3">
-        <v>198600</v>
+        <v>66300</v>
       </c>
       <c r="F20" s="3">
-        <v>-242300</v>
+        <v>189300</v>
       </c>
       <c r="G20" s="3">
+        <v>-230900</v>
+      </c>
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
-        <v>-2100</v>
-      </c>
       <c r="I20" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="J20" s="3">
         <v>1200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-14800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-4400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-5400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-3800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>172800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-3800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>215900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-50900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-62400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-35900</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-27700</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-11400</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-12400</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1600,11 +1637,11 @@
       <c r="E21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="3">
-        <v>-247000</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>16</v>
+      <c r="F21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-235400</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>16</v>
@@ -1633,38 +1670,41 @@
       <c r="P21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R21" s="3">
         <v>-191400</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U21" s="3">
         <v>-111100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-130900</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="X21" s="3">
+      <c r="X21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y21" s="3">
         <v>-71500</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-32200</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-25700</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1672,31 +1712,31 @@
         <v>800</v>
       </c>
       <c r="E22" s="3">
+        <v>800</v>
+      </c>
+      <c r="F22" s="3">
         <v>1100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1400</v>
       </c>
-      <c r="G22" s="3">
-        <v>2700</v>
-      </c>
       <c r="H22" s="3">
+        <v>2600</v>
+      </c>
+      <c r="I22" s="3">
+        <v>2900</v>
+      </c>
+      <c r="J22" s="3">
         <v>3100</v>
       </c>
-      <c r="I22" s="3">
-        <v>3200</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="K22" s="3" t="s">
         <v>16</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="M22" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
@@ -1737,82 +1777,88 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>52700</v>
+        <v>22300</v>
       </c>
       <c r="E23" s="3">
-        <v>186900</v>
+        <v>50300</v>
       </c>
       <c r="F23" s="3">
-        <v>-250400</v>
+        <v>178100</v>
       </c>
       <c r="G23" s="3">
-        <v>-10100</v>
+        <v>-238700</v>
       </c>
       <c r="H23" s="3">
-        <v>-19400</v>
+        <v>-9700</v>
       </c>
       <c r="I23" s="3">
-        <v>-26000</v>
+        <v>-18500</v>
       </c>
       <c r="J23" s="3">
+        <v>-24800</v>
+      </c>
+      <c r="K23" s="3">
         <v>-38500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-23300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-322000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-50000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-42700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-58300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-45800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-205800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-74900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>39900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-113900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-134100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-113500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-85300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-73900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-39800</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-31500</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1841,52 +1887,55 @@
         <v>0</v>
       </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>100</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
       <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
         <v>100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>300</v>
       </c>
-      <c r="W24" s="3">
-        <v>0</v>
-      </c>
       <c r="X24" s="3">
         <v>0</v>
       </c>
       <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="3">
         <v>300</v>
       </c>
-      <c r="Z24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,156 +2008,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>52700</v>
+        <v>22300</v>
       </c>
       <c r="E26" s="3">
-        <v>186900</v>
+        <v>50200</v>
       </c>
       <c r="F26" s="3">
-        <v>-250400</v>
+        <v>178100</v>
       </c>
       <c r="G26" s="3">
-        <v>-10100</v>
+        <v>-238700</v>
       </c>
       <c r="H26" s="3">
-        <v>-19400</v>
+        <v>-9700</v>
       </c>
       <c r="I26" s="3">
-        <v>-26000</v>
+        <v>-18500</v>
       </c>
       <c r="J26" s="3">
+        <v>-24800</v>
+      </c>
+      <c r="K26" s="3">
         <v>-38500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-23300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-322000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-50300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-42700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-57400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-46100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-206000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-75100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>39900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-114000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-133800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-113900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-85300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-73900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-40100</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-31500</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>52700</v>
+        <v>22300</v>
       </c>
       <c r="E27" s="3">
-        <v>186900</v>
+        <v>50200</v>
       </c>
       <c r="F27" s="3">
-        <v>-250400</v>
+        <v>178100</v>
       </c>
       <c r="G27" s="3">
-        <v>-10100</v>
+        <v>-238700</v>
       </c>
       <c r="H27" s="3">
-        <v>-19400</v>
+        <v>-9600</v>
       </c>
       <c r="I27" s="3">
-        <v>-25200</v>
+        <v>-18500</v>
       </c>
       <c r="J27" s="3">
+        <v>-24100</v>
+      </c>
+      <c r="K27" s="3">
         <v>-37800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-22500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-320100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-49300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-41100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-56100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-45100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-334600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-74800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>18100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-213700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-201000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-167600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-103700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-85900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-55300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-46300</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,13 +2239,16 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
@@ -2208,38 +2269,38 @@
         <v>0</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>43600</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-71800</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-118500</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>-900</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>1600</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-28400</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-11200</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-10500</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-6400</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
-      </c>
       <c r="V29" s="3">
         <v>0</v>
       </c>
@@ -2255,8 +2316,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,156 +2470,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-69500</v>
+        <v>-36500</v>
       </c>
       <c r="E32" s="3">
-        <v>-198600</v>
+        <v>-66300</v>
       </c>
       <c r="F32" s="3">
-        <v>242300</v>
+        <v>-189300</v>
       </c>
       <c r="G32" s="3">
+        <v>230900</v>
+      </c>
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
-        <v>2100</v>
-      </c>
       <c r="I32" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J32" s="3">
         <v>-1200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>14800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>4400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>5400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>3800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-172800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>3800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-215900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>50900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>62400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>35900</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>27700</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>11400</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>12400</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>52700</v>
+        <v>22300</v>
       </c>
       <c r="E33" s="3">
-        <v>186900</v>
+        <v>50200</v>
       </c>
       <c r="F33" s="3">
-        <v>-250400</v>
+        <v>178100</v>
       </c>
       <c r="G33" s="3">
-        <v>-10100</v>
+        <v>-238700</v>
       </c>
       <c r="H33" s="3">
-        <v>-19400</v>
+        <v>-9600</v>
       </c>
       <c r="I33" s="3">
-        <v>-25200</v>
+        <v>-18500</v>
       </c>
       <c r="J33" s="3">
+        <v>-24100</v>
+      </c>
+      <c r="K33" s="3">
         <v>-37800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>21100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-391900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-167800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-41100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-57000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-43500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-363000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-86100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>7600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-220100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-201000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-167600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-103700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-85900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-55300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-46300</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,161 +2701,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>52700</v>
+        <v>22300</v>
       </c>
       <c r="E35" s="3">
-        <v>186900</v>
+        <v>50200</v>
       </c>
       <c r="F35" s="3">
-        <v>-250400</v>
+        <v>178100</v>
       </c>
       <c r="G35" s="3">
-        <v>-10100</v>
+        <v>-238700</v>
       </c>
       <c r="H35" s="3">
-        <v>-19400</v>
+        <v>-9600</v>
       </c>
       <c r="I35" s="3">
-        <v>-25200</v>
+        <v>-18500</v>
       </c>
       <c r="J35" s="3">
+        <v>-24100</v>
+      </c>
+      <c r="K35" s="3">
         <v>-37800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>21100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-391900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-167800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-41100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-57000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-43500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-363000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-86100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>7600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-220100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-201000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-167600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-103700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-85900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-55300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-46300</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,71 +2920,72 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>18700</v>
+        <v>12300</v>
       </c>
       <c r="E41" s="3">
-        <v>21700</v>
+        <v>17800</v>
       </c>
       <c r="F41" s="3">
-        <v>31700</v>
+        <v>20700</v>
       </c>
       <c r="G41" s="3">
-        <v>18100</v>
+        <v>30200</v>
       </c>
       <c r="H41" s="3">
-        <v>28100</v>
+        <v>17300</v>
       </c>
       <c r="I41" s="3">
-        <v>42000</v>
+        <v>26800</v>
       </c>
       <c r="J41" s="3">
+        <v>40100</v>
+      </c>
+      <c r="K41" s="3">
         <v>32000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>35500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>54000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>74900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>96600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>122100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>69500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>121800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>98300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>116100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>175000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>43300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>90300</v>
       </c>
-      <c r="W41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="X41" s="3" t="s">
         <v>16</v>
       </c>
@@ -2908,25 +2995,28 @@
       <c r="Z41" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>16</v>
+      <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0</v>
       </c>
       <c r="I42" s="3">
         <v>0</v>
@@ -2935,44 +3025,44 @@
         <v>0</v>
       </c>
       <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
         <v>1100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>2400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>19100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>21500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>29700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>116800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>99300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>152900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>54500</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>50500</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>65300</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>59400</v>
       </c>
-      <c r="W42" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="X42" s="3" t="s">
         <v>16</v>
       </c>
@@ -2982,71 +3072,74 @@
       <c r="Z42" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>32400</v>
+        <v>32900</v>
       </c>
       <c r="E43" s="3">
-        <v>33900</v>
+        <v>30900</v>
       </c>
       <c r="F43" s="3">
-        <v>47200</v>
+        <v>32300</v>
       </c>
       <c r="G43" s="3">
-        <v>56200</v>
+        <v>45000</v>
       </c>
       <c r="H43" s="3">
-        <v>61600</v>
+        <v>53600</v>
       </c>
       <c r="I43" s="3">
-        <v>72500</v>
+        <v>58700</v>
       </c>
       <c r="J43" s="3">
+        <v>69200</v>
+      </c>
+      <c r="K43" s="3">
         <v>89000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>120700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>114600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>331400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>74200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>40300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>239200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>230800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>179400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>355100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>206500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>171000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>125600</v>
       </c>
-      <c r="W43" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="X43" s="3" t="s">
         <v>16</v>
       </c>
@@ -3056,71 +3149,74 @@
       <c r="Z43" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>62200</v>
+        <v>52700</v>
       </c>
       <c r="E44" s="3">
-        <v>63700</v>
+        <v>59300</v>
       </c>
       <c r="F44" s="3">
-        <v>42600</v>
+        <v>60700</v>
       </c>
       <c r="G44" s="3">
-        <v>14200</v>
+        <v>40600</v>
       </c>
       <c r="H44" s="3">
-        <v>10200</v>
+        <v>13500</v>
       </c>
       <c r="I44" s="3">
-        <v>8100</v>
+        <v>9700</v>
       </c>
       <c r="J44" s="3">
+        <v>7700</v>
+      </c>
+      <c r="K44" s="3">
         <v>4700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2900</v>
-      </c>
-      <c r="R44" s="3">
-        <v>2600</v>
       </c>
       <c r="S44" s="3">
         <v>2600</v>
       </c>
       <c r="T44" s="3">
+        <v>2600</v>
+      </c>
+      <c r="U44" s="3">
         <v>6400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>11600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>18200</v>
       </c>
-      <c r="W44" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="X44" s="3" t="s">
         <v>16</v>
       </c>
@@ -3130,71 +3226,74 @@
       <c r="Z44" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>14400</v>
+        <v>9400</v>
       </c>
       <c r="E45" s="3">
-        <v>16000</v>
+        <v>13700</v>
       </c>
       <c r="F45" s="3">
-        <v>16000</v>
+        <v>15300</v>
       </c>
       <c r="G45" s="3">
-        <v>21200</v>
+        <v>15200</v>
       </c>
       <c r="H45" s="3">
-        <v>21800</v>
+        <v>20200</v>
       </c>
       <c r="I45" s="3">
-        <v>28000</v>
+        <v>20700</v>
       </c>
       <c r="J45" s="3">
+        <v>26700</v>
+      </c>
+      <c r="K45" s="3">
         <v>30800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>81900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>180600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>346700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>767200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>760500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>514100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>894200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>538400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>437800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>443800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>436500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>309300</v>
       </c>
-      <c r="W45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="X45" s="3" t="s">
         <v>16</v>
       </c>
@@ -3204,71 +3303,74 @@
       <c r="Z45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>127700</v>
+        <v>107400</v>
       </c>
       <c r="E46" s="3">
-        <v>135400</v>
+        <v>121700</v>
       </c>
       <c r="F46" s="3">
-        <v>137500</v>
+        <v>129000</v>
       </c>
       <c r="G46" s="3">
-        <v>109700</v>
+        <v>131100</v>
       </c>
       <c r="H46" s="3">
-        <v>121600</v>
+        <v>104600</v>
       </c>
       <c r="I46" s="3">
-        <v>150600</v>
+        <v>115900</v>
       </c>
       <c r="J46" s="3">
+        <v>143600</v>
+      </c>
+      <c r="K46" s="3">
         <v>156500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>240900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>353200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>774200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>961500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>955100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>942000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1014400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>971700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>966000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>882200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>727600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>602800</v>
       </c>
-      <c r="W46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="X46" s="3" t="s">
         <v>16</v>
       </c>
@@ -3278,71 +3380,74 @@
       <c r="Z46" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>42200</v>
+        <v>40200</v>
       </c>
       <c r="E47" s="3">
-        <v>42200</v>
+        <v>40200</v>
       </c>
       <c r="F47" s="3">
-        <v>42200</v>
+        <v>40200</v>
       </c>
       <c r="G47" s="3">
-        <v>42200</v>
+        <v>40200</v>
       </c>
       <c r="H47" s="3">
-        <v>42100</v>
+        <v>40200</v>
       </c>
       <c r="I47" s="3">
-        <v>42100</v>
+        <v>40100</v>
       </c>
       <c r="J47" s="3">
+        <v>40200</v>
+      </c>
+      <c r="K47" s="3">
         <v>41400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>41000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>43700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>42700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>41100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>40800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>54200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>106400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>50500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>7700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>5600</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>6000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>6100</v>
       </c>
-      <c r="W47" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="X47" s="3" t="s">
         <v>16</v>
       </c>
@@ -3352,71 +3457,74 @@
       <c r="Z47" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>9400</v>
+        <v>8400</v>
       </c>
       <c r="E48" s="3">
-        <v>9400</v>
+        <v>8900</v>
       </c>
       <c r="F48" s="3">
-        <v>9700</v>
+        <v>8900</v>
       </c>
       <c r="G48" s="3">
-        <v>10500</v>
+        <v>9300</v>
       </c>
       <c r="H48" s="3">
-        <v>11100</v>
+        <v>10000</v>
       </c>
       <c r="I48" s="3">
-        <v>14100</v>
+        <v>10600</v>
       </c>
       <c r="J48" s="3">
+        <v>13400</v>
+      </c>
+      <c r="K48" s="3">
         <v>16400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>18200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>19300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>24400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>50500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>59200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>68700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>60600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>29400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>27000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>25400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>23200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>22600</v>
       </c>
-      <c r="W48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="X48" s="3" t="s">
         <v>16</v>
       </c>
@@ -3426,13 +3534,16 @@
       <c r="Z48" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
-        <v>0</v>
+      <c r="D49" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="E49" s="3">
         <v>0</v>
@@ -3456,41 +3567,41 @@
         <v>0</v>
       </c>
       <c r="L49" s="3">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="M49" s="3">
         <v>1500</v>
       </c>
       <c r="N49" s="3">
+        <v>1500</v>
+      </c>
+      <c r="O49" s="3">
         <v>19200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>19900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>19800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>23200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>19900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>19400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>12200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>12700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>12900</v>
       </c>
-      <c r="W49" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="X49" s="3" t="s">
         <v>16</v>
       </c>
@@ -3500,8 +3611,11 @@
       <c r="Z49" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,38 +3765,41 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3500</v>
+        <v>2900</v>
       </c>
       <c r="E52" s="3">
-        <v>3900</v>
+        <v>3300</v>
       </c>
       <c r="F52" s="3">
-        <v>4400</v>
+        <v>3800</v>
       </c>
       <c r="G52" s="3">
-        <v>4800</v>
+        <v>4200</v>
       </c>
       <c r="H52" s="3">
-        <v>5300</v>
+        <v>4600</v>
       </c>
       <c r="I52" s="3">
-        <v>5700</v>
+        <v>5000</v>
       </c>
       <c r="J52" s="3">
+        <v>5400</v>
+      </c>
+      <c r="K52" s="3">
         <v>6100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>6600</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>16</v>
       </c>
@@ -3692,26 +3812,26 @@
       <c r="P52" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q52" s="3">
-        <v>0</v>
+      <c r="Q52" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="R52" s="3">
         <v>0</v>
       </c>
       <c r="S52" s="3">
+        <v>0</v>
+      </c>
+      <c r="T52" s="3">
         <v>15800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>16200</v>
-      </c>
-      <c r="U52" s="3">
-        <v>16800</v>
       </c>
       <c r="V52" s="3">
         <v>16800</v>
       </c>
-      <c r="W52" s="3" t="s">
-        <v>16</v>
+      <c r="W52" s="3">
+        <v>16800</v>
       </c>
       <c r="X52" s="3" t="s">
         <v>16</v>
@@ -3722,8 +3842,11 @@
       <c r="Z52" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,71 +3919,74 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>182700</v>
+        <v>158900</v>
       </c>
       <c r="E54" s="3">
-        <v>190900</v>
+        <v>174200</v>
       </c>
       <c r="F54" s="3">
-        <v>193700</v>
+        <v>181900</v>
       </c>
       <c r="G54" s="3">
-        <v>167200</v>
+        <v>184700</v>
       </c>
       <c r="H54" s="3">
-        <v>180100</v>
+        <v>159400</v>
       </c>
       <c r="I54" s="3">
-        <v>212500</v>
+        <v>171700</v>
       </c>
       <c r="J54" s="3">
+        <v>202600</v>
+      </c>
+      <c r="K54" s="3">
         <v>220500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>306800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>417600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>842800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1072200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1075000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1084600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1118000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1071500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1036000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>941600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>786400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>661100</v>
       </c>
-      <c r="W54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="X54" s="3" t="s">
         <v>16</v>
       </c>
@@ -3870,8 +3996,11 @@
       <c r="Z54" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,71 +4056,72 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E57" s="3">
+        <v>12900</v>
+      </c>
+      <c r="F57" s="3">
+        <v>12900</v>
+      </c>
+      <c r="G57" s="3">
+        <v>18800</v>
+      </c>
+      <c r="H57" s="3">
         <v>13500</v>
       </c>
-      <c r="E57" s="3">
-        <v>13600</v>
-      </c>
-      <c r="F57" s="3">
-        <v>19700</v>
-      </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>14100</v>
       </c>
-      <c r="H57" s="3">
-        <v>14800</v>
-      </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
+        <v>15800</v>
+      </c>
+      <c r="K57" s="3">
         <v>16600</v>
       </c>
-      <c r="J57" s="3">
-        <v>16600</v>
-      </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>16700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>206400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>31500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>236600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>232800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>237300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>221700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>174300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>153100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>15800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>18900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>15700</v>
       </c>
-      <c r="W57" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="X57" s="3" t="s">
         <v>16</v>
       </c>
@@ -4000,71 +4131,74 @@
       <c r="Z57" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>56700</v>
+        <v>47500</v>
       </c>
       <c r="E58" s="3">
-        <v>56700</v>
+        <v>54100</v>
       </c>
       <c r="F58" s="3">
-        <v>11700</v>
+        <v>54000</v>
       </c>
       <c r="G58" s="3">
-        <v>253900</v>
+        <v>11200</v>
       </c>
       <c r="H58" s="3">
-        <v>22000</v>
+        <v>242100</v>
       </c>
       <c r="I58" s="3">
-        <v>17900</v>
+        <v>21000</v>
       </c>
       <c r="J58" s="3">
+        <v>17100</v>
+      </c>
+      <c r="K58" s="3">
         <v>12500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>64400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>78000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>92100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>18700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>286200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>256800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>297500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>260800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>160400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>71500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>63300</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>70800</v>
       </c>
-      <c r="W58" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="X58" s="3" t="s">
         <v>16</v>
       </c>
@@ -4074,71 +4208,74 @@
       <c r="Z58" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>119400</v>
+        <v>85100</v>
       </c>
       <c r="E59" s="3">
-        <v>195900</v>
+        <v>113800</v>
       </c>
       <c r="F59" s="3">
-        <v>425500</v>
+        <v>186800</v>
       </c>
       <c r="G59" s="3">
-        <v>116400</v>
+        <v>405600</v>
       </c>
       <c r="H59" s="3">
-        <v>130700</v>
+        <v>110900</v>
       </c>
       <c r="I59" s="3">
-        <v>145500</v>
+        <v>124600</v>
       </c>
       <c r="J59" s="3">
+        <v>138700</v>
+      </c>
+      <c r="K59" s="3">
         <v>151400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>224400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>200900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>345200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>260600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>219900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>161400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>581800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>153600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>161200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>587300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>561900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>447600</v>
       </c>
-      <c r="W59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="X59" s="3" t="s">
         <v>16</v>
       </c>
@@ -4148,71 +4285,74 @@
       <c r="Z59" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>189600</v>
+        <v>144300</v>
       </c>
       <c r="E60" s="3">
-        <v>266200</v>
+        <v>180800</v>
       </c>
       <c r="F60" s="3">
-        <v>457000</v>
+        <v>253700</v>
       </c>
       <c r="G60" s="3">
-        <v>384400</v>
+        <v>435600</v>
       </c>
       <c r="H60" s="3">
-        <v>167500</v>
+        <v>366500</v>
       </c>
       <c r="I60" s="3">
-        <v>180000</v>
+        <v>159700</v>
       </c>
       <c r="J60" s="3">
+        <v>171600</v>
+      </c>
+      <c r="K60" s="3">
         <v>180500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>305600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>485300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>468700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>515900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>738900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>655500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>701600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>588700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>474700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>674700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>644100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>534100</v>
       </c>
-      <c r="W60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="X60" s="3" t="s">
         <v>16</v>
       </c>
@@ -4222,68 +4362,71 @@
       <c r="Z60" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>135100</v>
+        <v>131300</v>
       </c>
       <c r="E61" s="3">
-        <v>136200</v>
+        <v>128800</v>
       </c>
       <c r="F61" s="3">
-        <v>54600</v>
+        <v>129800</v>
       </c>
       <c r="G61" s="3">
-        <v>57700</v>
+        <v>52100</v>
       </c>
       <c r="H61" s="3">
-        <v>299000</v>
+        <v>55000</v>
       </c>
       <c r="I61" s="3">
-        <v>266000</v>
+        <v>285100</v>
       </c>
       <c r="J61" s="3">
+        <v>253600</v>
+      </c>
+      <c r="K61" s="3">
         <v>274000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>283800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>301900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>299600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>313800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>45700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>69100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>54900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>90000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>95200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>74400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>55500</v>
       </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
       <c r="W61" s="3">
         <v>0</v>
       </c>
@@ -4296,71 +4439,74 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F62" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G62" s="3">
+        <v>147000</v>
+      </c>
+      <c r="H62" s="3">
+        <v>19300</v>
+      </c>
+      <c r="I62" s="3">
+        <v>4800</v>
+      </c>
+      <c r="J62" s="3">
+        <v>35300</v>
+      </c>
+      <c r="K62" s="3">
+        <v>44600</v>
+      </c>
+      <c r="L62" s="3">
+        <v>42200</v>
+      </c>
+      <c r="M62" s="3">
+        <v>300</v>
+      </c>
+      <c r="N62" s="3">
         <v>1600</v>
       </c>
-      <c r="E62" s="3">
-        <v>1800</v>
-      </c>
-      <c r="F62" s="3">
-        <v>154200</v>
-      </c>
-      <c r="G62" s="3">
-        <v>20200</v>
-      </c>
-      <c r="H62" s="3">
-        <v>5000</v>
-      </c>
-      <c r="I62" s="3">
-        <v>37000</v>
-      </c>
-      <c r="J62" s="3">
-        <v>44600</v>
-      </c>
-      <c r="K62" s="3">
-        <v>42200</v>
-      </c>
-      <c r="L62" s="3">
-        <v>300</v>
-      </c>
-      <c r="M62" s="3">
-        <v>1600</v>
-      </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>12100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>10000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>32000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>5200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>15500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>32200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>58300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>51300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>49400</v>
       </c>
-      <c r="W62" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="X62" s="3" t="s">
         <v>16</v>
       </c>
@@ -4370,8 +4516,11 @@
       <c r="Z62" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,71 +4747,74 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>326300</v>
+        <v>277100</v>
       </c>
       <c r="E66" s="3">
-        <v>404200</v>
+        <v>311100</v>
       </c>
       <c r="F66" s="3">
-        <v>665800</v>
+        <v>385300</v>
       </c>
       <c r="G66" s="3">
-        <v>462300</v>
+        <v>634700</v>
       </c>
       <c r="H66" s="3">
-        <v>471600</v>
+        <v>440700</v>
       </c>
       <c r="I66" s="3">
-        <v>483000</v>
+        <v>449500</v>
       </c>
       <c r="J66" s="3">
+        <v>460400</v>
+      </c>
+      <c r="K66" s="3">
         <v>499100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>631600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>787500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>769300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>841200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>794100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>756300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>756800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>694900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>602900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>804700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>749300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>582400</v>
       </c>
-      <c r="W66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="X66" s="3" t="s">
         <v>16</v>
       </c>
@@ -4666,8 +4824,11 @@
       <c r="Z66" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,19 +5007,22 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>76900</v>
+        <v>76200</v>
       </c>
       <c r="E70" s="3">
-        <v>63800</v>
+        <v>73300</v>
       </c>
       <c r="F70" s="3">
-        <v>0</v>
+        <v>60800</v>
       </c>
       <c r="G70" s="3">
         <v>0</v>
@@ -4896,17 +5064,17 @@
         <v>0</v>
       </c>
       <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
         <v>1521600</v>
       </c>
-      <c r="U70" s="3">
+      <c r="V70" s="3">
         <v>1243800</v>
       </c>
-      <c r="V70" s="3">
+      <c r="W70" s="3">
         <v>1086400</v>
       </c>
-      <c r="W70" s="3">
-        <v>0</v>
-      </c>
       <c r="X70" s="3">
         <v>0</v>
       </c>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,71 +5161,74 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-2344300</v>
+        <v>-2212300</v>
       </c>
       <c r="E72" s="3">
-        <v>-2397000</v>
+        <v>-2234600</v>
       </c>
       <c r="F72" s="3">
-        <v>-2583800</v>
+        <v>-2284800</v>
       </c>
       <c r="G72" s="3">
-        <v>-2333400</v>
+        <v>-2463000</v>
       </c>
       <c r="H72" s="3">
-        <v>-2323300</v>
+        <v>-2224300</v>
       </c>
       <c r="I72" s="3">
-        <v>-2303900</v>
+        <v>-2214700</v>
       </c>
       <c r="J72" s="3">
+        <v>-2196200</v>
+      </c>
+      <c r="K72" s="3">
         <v>-2278700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-2261300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-2443500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1983500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-1785800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-1767700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-1675200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-1624700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-1505500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-1368000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-1397400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-1218100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-1016300</v>
       </c>
-      <c r="W72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="X72" s="3" t="s">
         <v>16</v>
       </c>
@@ -5064,8 +5238,11 @@
       <c r="Z72" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,71 +5469,74 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-220500</v>
+        <v>-194400</v>
       </c>
       <c r="E76" s="3">
-        <v>-277100</v>
+        <v>-210200</v>
       </c>
       <c r="F76" s="3">
-        <v>-472000</v>
+        <v>-264100</v>
       </c>
       <c r="G76" s="3">
-        <v>-295100</v>
+        <v>-450000</v>
       </c>
       <c r="H76" s="3">
-        <v>-291400</v>
+        <v>-281300</v>
       </c>
       <c r="I76" s="3">
-        <v>-270500</v>
+        <v>-277800</v>
       </c>
       <c r="J76" s="3">
+        <v>-257800</v>
+      </c>
+      <c r="K76" s="3">
         <v>-278600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-324800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-369900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>73500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>231000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>280900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>328400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>361200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>376600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>433100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-1384700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-1206700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-1007600</v>
       </c>
-      <c r="W76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="X76" s="3" t="s">
         <v>16</v>
       </c>
@@ -5360,8 +5546,11 @@
       <c r="Z76" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,161 +5623,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>52700</v>
+        <v>22300</v>
       </c>
       <c r="E81" s="3">
-        <v>186900</v>
+        <v>50200</v>
       </c>
       <c r="F81" s="3">
-        <v>-250400</v>
+        <v>178100</v>
       </c>
       <c r="G81" s="3">
-        <v>-10100</v>
+        <v>-238700</v>
       </c>
       <c r="H81" s="3">
-        <v>-19400</v>
+        <v>-9600</v>
       </c>
       <c r="I81" s="3">
-        <v>-25200</v>
+        <v>-18500</v>
       </c>
       <c r="J81" s="3">
+        <v>-24100</v>
+      </c>
+      <c r="K81" s="3">
         <v>-37800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>21100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-391900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-167800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-41100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-57000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-43500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-363000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-86100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>7600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-220100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-201000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-167600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-103700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-85900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-55300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-46300</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,8 +5813,9 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5626,11 +5825,11 @@
       <c r="E83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F83" s="3">
-        <v>2000</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>16</v>
+      <c r="F83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G83" s="3">
+        <v>1900</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>16</v>
@@ -5644,8 +5843,8 @@
       <c r="K83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L83" s="3">
-        <v>0</v>
+      <c r="L83" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
@@ -5660,37 +5859,40 @@
         <v>0</v>
       </c>
       <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
         <v>14400</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T83" s="3">
+      <c r="T83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U83" s="3">
         <v>2800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>3200</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="X83" s="3">
+      <c r="X83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y83" s="3">
         <v>2400</v>
       </c>
-      <c r="Y83" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Z83" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,8 +6273,11 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6070,11 +6287,11 @@
       <c r="E89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F89" s="3">
-        <v>-80400</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>16</v>
+      <c r="F89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G89" s="3">
+        <v>-76600</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>16</v>
@@ -6088,8 +6305,8 @@
       <c r="K89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
+      <c r="L89" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M89" s="3">
         <v>0</v>
@@ -6104,37 +6321,40 @@
         <v>0</v>
       </c>
       <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
         <v>-347000</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T89" s="3">
+      <c r="T89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U89" s="3">
         <v>-53400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-121700</v>
       </c>
-      <c r="V89" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="X89" s="3">
+      <c r="X89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y89" s="3">
         <v>-70300</v>
       </c>
-      <c r="Y89" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Z89" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA89" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,8 +6381,9 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6172,12 +6393,12 @@
       <c r="E91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F91" s="3">
+      <c r="F91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G91" s="3">
         <v>-700</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="H91" s="3" t="s">
         <v>16</v>
       </c>
@@ -6190,8 +6411,8 @@
       <c r="K91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="L91" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -6206,37 +6427,40 @@
         <v>0</v>
       </c>
       <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>-20400</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T91" s="3">
+      <c r="T91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U91" s="3">
         <v>-5900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-3400</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="X91" s="3">
+      <c r="X91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y91" s="3">
         <v>-3300</v>
       </c>
-      <c r="Y91" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Z91" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,8 +6610,11 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6394,12 +6624,12 @@
       <c r="E94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F94" s="3">
+      <c r="F94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G94" s="3">
         <v>-500</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="H94" s="3" t="s">
         <v>16</v>
       </c>
@@ -6412,8 +6642,8 @@
       <c r="K94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
+      <c r="L94" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
@@ -6428,37 +6658,40 @@
         <v>0</v>
       </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>-164100</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T94" s="3">
+      <c r="T94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U94" s="3">
         <v>-43800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-36000</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="X94" s="3">
+      <c r="X94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y94" s="3">
         <v>-88700</v>
       </c>
-      <c r="Y94" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Z94" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6559,8 +6793,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,8 +7024,11 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6792,11 +7038,11 @@
       <c r="E100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F100" s="3">
-        <v>80600</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>16</v>
+      <c r="F100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G100" s="3">
+        <v>76800</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>16</v>
@@ -6810,8 +7056,8 @@
       <c r="K100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
+      <c r="L100" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M100" s="3">
         <v>0</v>
@@ -6826,37 +7072,40 @@
         <v>0</v>
       </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>650200</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T100" s="3">
+      <c r="T100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U100" s="3">
         <v>230400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>110900</v>
       </c>
-      <c r="V100" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="X100" s="3">
+      <c r="X100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y100" s="3">
         <v>181900</v>
       </c>
-      <c r="Y100" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Z100" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA100" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6866,12 +7115,12 @@
       <c r="E101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F101" s="3">
+      <c r="F101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G101" s="3">
         <v>-200</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="H101" s="3" t="s">
         <v>16</v>
       </c>
@@ -6884,8 +7133,8 @@
       <c r="K101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
+      <c r="L101" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M101" s="3">
         <v>0</v>
@@ -6900,37 +7149,40 @@
         <v>0</v>
       </c>
       <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
         <v>-1400</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T101" s="3">
+      <c r="T101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U101" s="3">
         <v>-100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-200</v>
       </c>
-      <c r="V101" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="X101" s="3">
+      <c r="X101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y101" s="3">
         <v>200</v>
       </c>
-      <c r="Y101" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Z101" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6940,11 +7192,11 @@
       <c r="E102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F102" s="3">
-        <v>-500</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>16</v>
+      <c r="F102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G102" s="3">
+        <v>-400</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>16</v>
@@ -6958,8 +7210,8 @@
       <c r="K102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
+      <c r="L102" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M102" s="3">
         <v>0</v>
@@ -6974,33 +7226,36 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>137600</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T102" s="3">
+      <c r="T102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U102" s="3">
         <v>133100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-47000</v>
       </c>
-      <c r="V102" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="X102" s="3">
+      <c r="X102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y102" s="3">
         <v>23200</v>
       </c>
-      <c r="Y102" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Z102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA102" s="3" t="s">
         <v>16</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/UXIN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/UXIN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="92">
   <si>
     <t>UXIN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,346 +665,359 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>87200</v>
+        <v>88900</v>
       </c>
       <c r="E8" s="3">
-        <v>70400</v>
+        <v>89900</v>
       </c>
       <c r="F8" s="3">
-        <v>70500</v>
+        <v>72600</v>
       </c>
       <c r="G8" s="3">
-        <v>48100</v>
+        <v>72800</v>
       </c>
       <c r="H8" s="3">
-        <v>38700</v>
+        <v>49700</v>
       </c>
       <c r="I8" s="3">
-        <v>27300</v>
+        <v>39900</v>
       </c>
       <c r="J8" s="3">
+        <v>28100</v>
+      </c>
+      <c r="K8" s="3">
         <v>44900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>11200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>9200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>16400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>46900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>71000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>68500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>51300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>100300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>50200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>38800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>28800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>104400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>80300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>55000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>48900</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>51000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>34800</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>86200</v>
+        <v>87700</v>
       </c>
       <c r="E9" s="3">
-        <v>70200</v>
+        <v>89000</v>
       </c>
       <c r="F9" s="3">
-        <v>67600</v>
+        <v>72500</v>
       </c>
       <c r="G9" s="3">
-        <v>46100</v>
+        <v>69800</v>
       </c>
       <c r="H9" s="3">
-        <v>37100</v>
+        <v>47600</v>
       </c>
       <c r="I9" s="3">
-        <v>26000</v>
+        <v>38300</v>
       </c>
       <c r="J9" s="3">
+        <v>26900</v>
+      </c>
+      <c r="K9" s="3">
         <v>43600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>13700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>11800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>17500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>14600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>31800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>32000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>52100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>63700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>71500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>58800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>51100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>36700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>29000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>24300</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>20600</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>23500</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>19700</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="E10" s="3">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="F10" s="3">
-        <v>2900</v>
+        <v>200</v>
       </c>
       <c r="G10" s="3">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="H10" s="3">
-        <v>1500</v>
+        <v>2100</v>
       </c>
       <c r="I10" s="3">
-        <v>1300</v>
+        <v>1600</v>
       </c>
       <c r="J10" s="3">
         <v>1300</v>
       </c>
       <c r="K10" s="3">
+        <v>1300</v>
+      </c>
+      <c r="L10" s="3">
         <v>-2500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-2600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-1100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>32200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>39200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>36600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>-800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>36500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>-21200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>-19900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>-22300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>67700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>51300</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>30700</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>28300</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>27500</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>15100</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,85 +1045,89 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F12" s="3">
         <v>1200</v>
       </c>
-      <c r="E12" s="3">
-        <v>1200</v>
-      </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1600</v>
-      </c>
-      <c r="G12" s="3">
-        <v>1100</v>
       </c>
       <c r="H12" s="3">
         <v>1200</v>
       </c>
       <c r="I12" s="3">
-        <v>2000</v>
+        <v>1200</v>
       </c>
       <c r="J12" s="3">
+        <v>2100</v>
+      </c>
+      <c r="K12" s="3">
         <v>2500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>2800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>3400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>4900</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O12" s="3">
+      <c r="O12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P12" s="3">
         <v>8300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>8800</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>17200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>18900</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>16900</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>17600</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>13300</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>11600</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>7300</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>7500</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>7000</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>7200</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1186,19 +1203,22 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>16</v>
+      <c r="D14" s="3">
+        <v>400</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>16</v>
@@ -1206,36 +1226,36 @@
       <c r="H14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>-28200</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>5900</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>1400</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
@@ -1263,8 +1283,11 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1392,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>100600</v>
+        <v>104500</v>
       </c>
       <c r="E17" s="3">
-        <v>85600</v>
+        <v>103800</v>
       </c>
       <c r="F17" s="3">
-        <v>80700</v>
+        <v>88400</v>
       </c>
       <c r="G17" s="3">
-        <v>54500</v>
+        <v>83200</v>
       </c>
       <c r="H17" s="3">
-        <v>45700</v>
+        <v>56300</v>
       </c>
       <c r="I17" s="3">
-        <v>40800</v>
+        <v>47200</v>
       </c>
       <c r="J17" s="3">
+        <v>42100</v>
+      </c>
+      <c r="K17" s="3">
         <v>67800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>34900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>28100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>333000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>96200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>110000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>127800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>96400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>478800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>121400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>214800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>91800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>176100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>157900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>112600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>111300</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>78500</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>64500</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-13400</v>
+        <v>-15700</v>
       </c>
       <c r="E18" s="3">
-        <v>-15200</v>
+        <v>-13900</v>
       </c>
       <c r="F18" s="3">
-        <v>-10100</v>
+        <v>-15700</v>
       </c>
       <c r="G18" s="3">
-        <v>-6400</v>
+        <v>-10500</v>
       </c>
       <c r="H18" s="3">
-        <v>-7100</v>
+        <v>-6600</v>
       </c>
       <c r="I18" s="3">
-        <v>-13500</v>
+        <v>-7300</v>
       </c>
       <c r="J18" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="K18" s="3">
         <v>-22900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-23700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-18900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-316600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-49300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-39000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-59300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-45100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-378500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-71100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-176000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-63000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-71700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-77600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-57600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-62400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-27500</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-29700</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1549,85 +1582,89 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>36500</v>
+        <v>-1800</v>
       </c>
       <c r="E20" s="3">
-        <v>66300</v>
+        <v>37700</v>
       </c>
       <c r="F20" s="3">
-        <v>189300</v>
+        <v>68400</v>
       </c>
       <c r="G20" s="3">
-        <v>-230900</v>
+        <v>195400</v>
       </c>
       <c r="H20" s="3">
+        <v>-238300</v>
+      </c>
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
-        <v>-2000</v>
-      </c>
       <c r="J20" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="K20" s="3">
         <v>1200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-14800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-4400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-5400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-3800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>172800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-3800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>215900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-50900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-62400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-35900</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-27700</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-11400</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-12400</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1637,14 +1674,14 @@
       <c r="E21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-235400</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>16</v>
+      <c r="F21" s="3">
+        <v>56900</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-242900</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>16</v>
@@ -1673,73 +1710,76 @@
       <c r="Q21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S21" s="3">
         <v>-191400</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="U21" s="3">
+      <c r="U21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V21" s="3">
         <v>-111100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-130900</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="X21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Y21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z21" s="3">
         <v>-71500</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-32200</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-25700</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="E22" s="3">
         <v>800</v>
       </c>
       <c r="F22" s="3">
+        <v>800</v>
+      </c>
+      <c r="G22" s="3">
         <v>1100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>2600</v>
       </c>
-      <c r="I22" s="3">
-        <v>2900</v>
-      </c>
       <c r="J22" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K22" s="3">
         <v>3100</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L22" s="3" t="s">
         <v>16</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
+      <c r="N22" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -1780,85 +1820,91 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>22300</v>
+        <v>-18200</v>
       </c>
       <c r="E23" s="3">
-        <v>50300</v>
+        <v>23000</v>
       </c>
       <c r="F23" s="3">
-        <v>178100</v>
+        <v>51900</v>
       </c>
       <c r="G23" s="3">
-        <v>-238700</v>
+        <v>183800</v>
       </c>
       <c r="H23" s="3">
-        <v>-9700</v>
+        <v>-246200</v>
       </c>
       <c r="I23" s="3">
-        <v>-18500</v>
+        <v>-10000</v>
       </c>
       <c r="J23" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="K23" s="3">
         <v>-24800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-38500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-23300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-322000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-50000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-42700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-58300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-45800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-205800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-74900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>39900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-113900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-134100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-113500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-85300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-73900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-39800</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-31500</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1890,52 +1936,55 @@
         <v>0</v>
       </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>100</v>
       </c>
-      <c r="T24" s="3">
-        <v>0</v>
-      </c>
       <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
         <v>100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>300</v>
       </c>
-      <c r="X24" s="3">
-        <v>0</v>
-      </c>
       <c r="Y24" s="3">
         <v>0</v>
       </c>
       <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3">
         <v>300</v>
       </c>
-      <c r="AA24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2060,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>22300</v>
+        <v>-18200</v>
       </c>
       <c r="E26" s="3">
-        <v>50200</v>
+        <v>23000</v>
       </c>
       <c r="F26" s="3">
-        <v>178100</v>
+        <v>51800</v>
       </c>
       <c r="G26" s="3">
-        <v>-238700</v>
+        <v>183800</v>
       </c>
       <c r="H26" s="3">
-        <v>-9700</v>
+        <v>-246200</v>
       </c>
       <c r="I26" s="3">
-        <v>-18500</v>
+        <v>-10000</v>
       </c>
       <c r="J26" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="K26" s="3">
         <v>-24800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-38500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-23300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-322000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-50300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-42700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-57400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-46100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-206000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-75100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>39900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-114000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-133800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-113900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-85300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-73900</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-40100</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-31500</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>22300</v>
+        <v>-16700</v>
       </c>
       <c r="E27" s="3">
-        <v>50200</v>
+        <v>23000</v>
       </c>
       <c r="F27" s="3">
-        <v>178100</v>
+        <v>51800</v>
       </c>
       <c r="G27" s="3">
-        <v>-238700</v>
+        <v>183800</v>
       </c>
       <c r="H27" s="3">
-        <v>-9600</v>
+        <v>-246200</v>
       </c>
       <c r="I27" s="3">
-        <v>-18500</v>
+        <v>-9900</v>
       </c>
       <c r="J27" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="K27" s="3">
         <v>-24100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-37800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-22500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-320100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-49300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-41100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-56100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-45100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-334600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-74800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>18100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-213700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-201000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-167600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-103700</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-85900</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-55300</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-46300</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,16 +2300,19 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
@@ -2272,38 +2333,38 @@
         <v>0</v>
       </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>43600</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-71800</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-118500</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-900</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>1600</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-28400</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-11200</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-10500</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>-6400</v>
       </c>
-      <c r="V29" s="3">
-        <v>0</v>
-      </c>
       <c r="W29" s="3">
         <v>0</v>
       </c>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,162 +2540,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-36500</v>
+        <v>1800</v>
       </c>
       <c r="E32" s="3">
-        <v>-66300</v>
+        <v>-37700</v>
       </c>
       <c r="F32" s="3">
-        <v>-189300</v>
+        <v>-68400</v>
       </c>
       <c r="G32" s="3">
-        <v>230900</v>
+        <v>-195400</v>
       </c>
       <c r="H32" s="3">
+        <v>238300</v>
+      </c>
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
-        <v>2000</v>
-      </c>
       <c r="J32" s="3">
+        <v>2100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-1200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>14800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>4400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>5400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>3800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-172800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>3800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-215900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>50900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>62400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>35900</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>27700</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>11400</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>12400</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>22300</v>
+        <v>-16700</v>
       </c>
       <c r="E33" s="3">
-        <v>50200</v>
+        <v>23000</v>
       </c>
       <c r="F33" s="3">
-        <v>178100</v>
+        <v>51800</v>
       </c>
       <c r="G33" s="3">
-        <v>-238700</v>
+        <v>183800</v>
       </c>
       <c r="H33" s="3">
-        <v>-9600</v>
+        <v>-246200</v>
       </c>
       <c r="I33" s="3">
-        <v>-18500</v>
+        <v>-9900</v>
       </c>
       <c r="J33" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="K33" s="3">
         <v>-24100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-37800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>21100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-391900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-167800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-41100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-57000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-43500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-363000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-86100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>7600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-220100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-201000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-167600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-103700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-85900</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-55300</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-46300</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>22300</v>
+        <v>-16700</v>
       </c>
       <c r="E35" s="3">
-        <v>50200</v>
+        <v>23000</v>
       </c>
       <c r="F35" s="3">
-        <v>178100</v>
+        <v>51800</v>
       </c>
       <c r="G35" s="3">
-        <v>-238700</v>
+        <v>183800</v>
       </c>
       <c r="H35" s="3">
-        <v>-9600</v>
+        <v>-246200</v>
       </c>
       <c r="I35" s="3">
-        <v>-18500</v>
+        <v>-9900</v>
       </c>
       <c r="J35" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="K35" s="3">
         <v>-24100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-37800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>21100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-391900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-167800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-41100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-57000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-43500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-363000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-86100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>7600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-220100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-201000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-167600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-103700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-85900</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-55300</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-46300</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,74 +3007,75 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>12300</v>
+        <v>3500</v>
       </c>
       <c r="E41" s="3">
+        <v>12700</v>
+      </c>
+      <c r="F41" s="3">
+        <v>18400</v>
+      </c>
+      <c r="G41" s="3">
+        <v>21400</v>
+      </c>
+      <c r="H41" s="3">
+        <v>31100</v>
+      </c>
+      <c r="I41" s="3">
         <v>17800</v>
       </c>
-      <c r="F41" s="3">
-        <v>20700</v>
-      </c>
-      <c r="G41" s="3">
-        <v>30200</v>
-      </c>
-      <c r="H41" s="3">
-        <v>17300</v>
-      </c>
-      <c r="I41" s="3">
-        <v>26800</v>
-      </c>
       <c r="J41" s="3">
+        <v>27700</v>
+      </c>
+      <c r="K41" s="3">
         <v>40100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>32000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>35500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>54000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>74900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>96600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>122100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>69500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>121800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>98300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>116100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>175000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>43300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>90300</v>
       </c>
-      <c r="X41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Y41" s="3" t="s">
         <v>16</v>
       </c>
@@ -2998,8 +3085,11 @@
       <c r="AA41" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3028,44 +3118,44 @@
         <v>0</v>
       </c>
       <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
         <v>1100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>2400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>19100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>21500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>29700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>116800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>99300</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>152900</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>54500</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>50500</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>65300</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>59400</v>
       </c>
-      <c r="X42" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Y42" s="3" t="s">
         <v>16</v>
       </c>
@@ -3075,74 +3165,77 @@
       <c r="AA42" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>32900</v>
+        <v>12100</v>
       </c>
       <c r="E43" s="3">
-        <v>30900</v>
+        <v>34000</v>
       </c>
       <c r="F43" s="3">
-        <v>32300</v>
+        <v>31800</v>
       </c>
       <c r="G43" s="3">
-        <v>45000</v>
+        <v>33400</v>
       </c>
       <c r="H43" s="3">
-        <v>53600</v>
+        <v>46400</v>
       </c>
       <c r="I43" s="3">
-        <v>58700</v>
+        <v>55300</v>
       </c>
       <c r="J43" s="3">
+        <v>60600</v>
+      </c>
+      <c r="K43" s="3">
         <v>69200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>89000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>120700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>114600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>331400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>74200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>40300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>239200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>230800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>179400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>355100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>206500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>171000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>125600</v>
       </c>
-      <c r="X43" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Y43" s="3" t="s">
         <v>16</v>
       </c>
@@ -3152,74 +3245,77 @@
       <c r="AA43" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>52700</v>
+        <v>55600</v>
       </c>
       <c r="E44" s="3">
-        <v>59300</v>
+        <v>54400</v>
       </c>
       <c r="F44" s="3">
-        <v>60700</v>
+        <v>61200</v>
       </c>
       <c r="G44" s="3">
-        <v>40600</v>
+        <v>62600</v>
       </c>
       <c r="H44" s="3">
-        <v>13500</v>
+        <v>41900</v>
       </c>
       <c r="I44" s="3">
-        <v>9700</v>
+        <v>13900</v>
       </c>
       <c r="J44" s="3">
+        <v>10000</v>
+      </c>
+      <c r="K44" s="3">
         <v>7700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2900</v>
-      </c>
-      <c r="S44" s="3">
-        <v>2600</v>
       </c>
       <c r="T44" s="3">
         <v>2600</v>
       </c>
       <c r="U44" s="3">
+        <v>2600</v>
+      </c>
+      <c r="V44" s="3">
         <v>6400</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>11600</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>18200</v>
       </c>
-      <c r="X44" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Y44" s="3" t="s">
         <v>16</v>
       </c>
@@ -3229,74 +3325,77 @@
       <c r="AA44" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>9400</v>
+        <v>8600</v>
       </c>
       <c r="E45" s="3">
-        <v>13700</v>
+        <v>9700</v>
       </c>
       <c r="F45" s="3">
-        <v>15300</v>
+        <v>14100</v>
       </c>
       <c r="G45" s="3">
-        <v>15200</v>
+        <v>15700</v>
       </c>
       <c r="H45" s="3">
-        <v>20200</v>
+        <v>15700</v>
       </c>
       <c r="I45" s="3">
-        <v>20700</v>
+        <v>20900</v>
       </c>
       <c r="J45" s="3">
+        <v>21400</v>
+      </c>
+      <c r="K45" s="3">
         <v>26700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>30800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>81900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>180600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>346700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>767200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>760500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>514100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>894200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>538400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>437800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>443800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>436500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>309300</v>
       </c>
-      <c r="X45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Y45" s="3" t="s">
         <v>16</v>
       </c>
@@ -3306,74 +3405,77 @@
       <c r="AA45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>107400</v>
+        <v>79800</v>
       </c>
       <c r="E46" s="3">
-        <v>121700</v>
+        <v>110800</v>
       </c>
       <c r="F46" s="3">
-        <v>129000</v>
+        <v>125600</v>
       </c>
       <c r="G46" s="3">
-        <v>131100</v>
+        <v>133100</v>
       </c>
       <c r="H46" s="3">
-        <v>104600</v>
+        <v>135200</v>
       </c>
       <c r="I46" s="3">
-        <v>115900</v>
+        <v>107900</v>
       </c>
       <c r="J46" s="3">
+        <v>119600</v>
+      </c>
+      <c r="K46" s="3">
         <v>143600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>156500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>240900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>353200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>774200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>961500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>955100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>942000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1014400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>971700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>966000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>882200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>727600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>602800</v>
       </c>
-      <c r="X46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Y46" s="3" t="s">
         <v>16</v>
       </c>
@@ -3383,74 +3485,77 @@
       <c r="AA46" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>41500</v>
+      </c>
+      <c r="E47" s="3">
+        <v>41500</v>
+      </c>
+      <c r="F47" s="3">
+        <v>41500</v>
+      </c>
+      <c r="G47" s="3">
+        <v>41500</v>
+      </c>
+      <c r="H47" s="3">
+        <v>41500</v>
+      </c>
+      <c r="I47" s="3">
+        <v>41500</v>
+      </c>
+      <c r="J47" s="3">
+        <v>41400</v>
+      </c>
+      <c r="K47" s="3">
         <v>40200</v>
       </c>
-      <c r="E47" s="3">
-        <v>40200</v>
-      </c>
-      <c r="F47" s="3">
-        <v>40200</v>
-      </c>
-      <c r="G47" s="3">
-        <v>40200</v>
-      </c>
-      <c r="H47" s="3">
-        <v>40200</v>
-      </c>
-      <c r="I47" s="3">
-        <v>40100</v>
-      </c>
-      <c r="J47" s="3">
-        <v>40200</v>
-      </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>41400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>41000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>43700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>42700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>41100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>40800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>54200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>106400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>50500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>7700</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>5600</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>6000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>6100</v>
       </c>
-      <c r="X47" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Y47" s="3" t="s">
         <v>16</v>
       </c>
@@ -3460,74 +3565,77 @@
       <c r="AA47" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>8400</v>
+        <v>9300</v>
       </c>
       <c r="E48" s="3">
-        <v>8900</v>
+        <v>8700</v>
       </c>
       <c r="F48" s="3">
-        <v>8900</v>
+        <v>9200</v>
       </c>
       <c r="G48" s="3">
-        <v>9300</v>
+        <v>9200</v>
       </c>
       <c r="H48" s="3">
-        <v>10000</v>
+        <v>9600</v>
       </c>
       <c r="I48" s="3">
-        <v>10600</v>
+        <v>10300</v>
       </c>
       <c r="J48" s="3">
+        <v>10900</v>
+      </c>
+      <c r="K48" s="3">
         <v>13400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>16400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>18200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>19300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>24400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>50500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>59200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>68700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>60600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>29400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>27000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>25400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>23200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>22600</v>
       </c>
-      <c r="X48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Y48" s="3" t="s">
         <v>16</v>
       </c>
@@ -3537,16 +3645,19 @@
       <c r="AA48" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E49" s="3">
-        <v>0</v>
+      <c r="E49" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="F49" s="3">
         <v>0</v>
@@ -3570,41 +3681,41 @@
         <v>0</v>
       </c>
       <c r="M49" s="3">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="N49" s="3">
         <v>1500</v>
       </c>
       <c r="O49" s="3">
+        <v>1500</v>
+      </c>
+      <c r="P49" s="3">
         <v>19200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>19900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>19800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>23200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>19900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>19400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>12200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>12700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>12900</v>
       </c>
-      <c r="X49" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Y49" s="3" t="s">
         <v>16</v>
       </c>
@@ -3614,8 +3725,11 @@
       <c r="AA49" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,41 +3885,44 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2900</v>
+        <v>0</v>
       </c>
       <c r="E52" s="3">
-        <v>3300</v>
+        <v>3000</v>
       </c>
       <c r="F52" s="3">
-        <v>3800</v>
+        <v>3400</v>
       </c>
       <c r="G52" s="3">
-        <v>4200</v>
+        <v>3900</v>
       </c>
       <c r="H52" s="3">
-        <v>4600</v>
+        <v>4300</v>
       </c>
       <c r="I52" s="3">
-        <v>5000</v>
+        <v>4700</v>
       </c>
       <c r="J52" s="3">
+        <v>5200</v>
+      </c>
+      <c r="K52" s="3">
         <v>5400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>6100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>6600</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>16</v>
       </c>
@@ -3815,26 +3935,26 @@
       <c r="Q52" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R52" s="3">
-        <v>0</v>
+      <c r="R52" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="S52" s="3">
         <v>0</v>
       </c>
       <c r="T52" s="3">
+        <v>0</v>
+      </c>
+      <c r="U52" s="3">
         <v>15800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>16200</v>
-      </c>
-      <c r="V52" s="3">
-        <v>16800</v>
       </c>
       <c r="W52" s="3">
         <v>16800</v>
       </c>
-      <c r="X52" s="3" t="s">
-        <v>16</v>
+      <c r="X52" s="3">
+        <v>16800</v>
       </c>
       <c r="Y52" s="3" t="s">
         <v>16</v>
@@ -3845,8 +3965,11 @@
       <c r="AA52" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,74 +4045,77 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>158900</v>
+        <v>130500</v>
       </c>
       <c r="E54" s="3">
-        <v>174200</v>
+        <v>164000</v>
       </c>
       <c r="F54" s="3">
-        <v>181900</v>
+        <v>179700</v>
       </c>
       <c r="G54" s="3">
-        <v>184700</v>
+        <v>187700</v>
       </c>
       <c r="H54" s="3">
-        <v>159400</v>
+        <v>190500</v>
       </c>
       <c r="I54" s="3">
-        <v>171700</v>
+        <v>164400</v>
       </c>
       <c r="J54" s="3">
+        <v>177200</v>
+      </c>
+      <c r="K54" s="3">
         <v>202600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>220500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>306800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>417600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>842800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1072200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1075000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1084600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1118000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1071500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1036000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>941600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>786400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>661100</v>
       </c>
-      <c r="X54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Y54" s="3" t="s">
         <v>16</v>
       </c>
@@ -3999,8 +4125,11 @@
       <c r="AA54" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,74 +4187,75 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>11700</v>
+        <v>11800</v>
       </c>
       <c r="E57" s="3">
-        <v>12900</v>
+        <v>12000</v>
       </c>
       <c r="F57" s="3">
-        <v>12900</v>
+        <v>13300</v>
       </c>
       <c r="G57" s="3">
-        <v>18800</v>
+        <v>13300</v>
       </c>
       <c r="H57" s="3">
-        <v>13500</v>
+        <v>19400</v>
       </c>
       <c r="I57" s="3">
-        <v>14100</v>
+        <v>13900</v>
       </c>
       <c r="J57" s="3">
+        <v>14500</v>
+      </c>
+      <c r="K57" s="3">
         <v>15800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>16600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>16700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>206400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>31500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>236600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>232800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>237300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>221700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>174300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>153100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>15800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>18900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>15700</v>
       </c>
-      <c r="X57" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Y57" s="3" t="s">
         <v>16</v>
       </c>
@@ -4134,74 +4265,77 @@
       <c r="AA57" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>47500</v>
+        <v>41300</v>
       </c>
       <c r="E58" s="3">
-        <v>54100</v>
+        <v>49000</v>
       </c>
       <c r="F58" s="3">
-        <v>54000</v>
+        <v>55800</v>
       </c>
       <c r="G58" s="3">
-        <v>11200</v>
+        <v>55800</v>
       </c>
       <c r="H58" s="3">
-        <v>242100</v>
+        <v>11500</v>
       </c>
       <c r="I58" s="3">
-        <v>21000</v>
+        <v>249800</v>
       </c>
       <c r="J58" s="3">
+        <v>21700</v>
+      </c>
+      <c r="K58" s="3">
         <v>17100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>12500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>64400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>78000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>92100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>18700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>286200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>256800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>297500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>260800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>160400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>71500</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>63300</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>70800</v>
       </c>
-      <c r="X58" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Y58" s="3" t="s">
         <v>16</v>
       </c>
@@ -4211,74 +4345,77 @@
       <c r="AA58" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>85100</v>
+        <v>77900</v>
       </c>
       <c r="E59" s="3">
-        <v>113800</v>
+        <v>87800</v>
       </c>
       <c r="F59" s="3">
-        <v>186800</v>
+        <v>117400</v>
       </c>
       <c r="G59" s="3">
-        <v>405600</v>
+        <v>192700</v>
       </c>
       <c r="H59" s="3">
-        <v>110900</v>
+        <v>418500</v>
       </c>
       <c r="I59" s="3">
-        <v>124600</v>
+        <v>114500</v>
       </c>
       <c r="J59" s="3">
+        <v>128600</v>
+      </c>
+      <c r="K59" s="3">
         <v>138700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>151400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>224400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>200900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>345200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>260600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>219900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>161400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>581800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>153600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>161200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>587300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>561900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>447600</v>
       </c>
-      <c r="X59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Y59" s="3" t="s">
         <v>16</v>
       </c>
@@ -4288,74 +4425,77 @@
       <c r="AA59" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>144300</v>
+        <v>131000</v>
       </c>
       <c r="E60" s="3">
-        <v>180800</v>
+        <v>148900</v>
       </c>
       <c r="F60" s="3">
-        <v>253700</v>
+        <v>186500</v>
       </c>
       <c r="G60" s="3">
-        <v>435600</v>
+        <v>261800</v>
       </c>
       <c r="H60" s="3">
-        <v>366500</v>
+        <v>449400</v>
       </c>
       <c r="I60" s="3">
-        <v>159700</v>
+        <v>378100</v>
       </c>
       <c r="J60" s="3">
+        <v>164800</v>
+      </c>
+      <c r="K60" s="3">
         <v>171600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>180500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>305600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>485300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>468700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>515900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>738900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>655500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>701600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>588700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>474700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>674700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>644100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>534100</v>
       </c>
-      <c r="X60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Y60" s="3" t="s">
         <v>16</v>
       </c>
@@ -4365,71 +4505,74 @@
       <c r="AA60" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>131300</v>
+        <v>74300</v>
       </c>
       <c r="E61" s="3">
-        <v>128800</v>
+        <v>135500</v>
       </c>
       <c r="F61" s="3">
-        <v>129800</v>
+        <v>132900</v>
       </c>
       <c r="G61" s="3">
-        <v>52100</v>
+        <v>133900</v>
       </c>
       <c r="H61" s="3">
-        <v>55000</v>
+        <v>53700</v>
       </c>
       <c r="I61" s="3">
-        <v>285100</v>
+        <v>56700</v>
       </c>
       <c r="J61" s="3">
+        <v>294100</v>
+      </c>
+      <c r="K61" s="3">
         <v>253600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>274000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>283800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>301900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>299600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>313800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>45700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>69100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>54900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>90000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>95200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>74400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>55500</v>
       </c>
-      <c r="W61" s="3">
-        <v>0</v>
-      </c>
       <c r="X61" s="3">
         <v>0</v>
       </c>
@@ -4442,74 +4585,77 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="E62" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="F62" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="G62" s="3">
-        <v>147000</v>
+        <v>1800</v>
       </c>
       <c r="H62" s="3">
-        <v>19300</v>
+        <v>151600</v>
       </c>
       <c r="I62" s="3">
-        <v>4800</v>
+        <v>19900</v>
       </c>
       <c r="J62" s="3">
+        <v>4900</v>
+      </c>
+      <c r="K62" s="3">
         <v>35300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>44600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>42200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>12100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>10000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>32000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>5200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>15500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>32200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>58300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>51300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>49400</v>
       </c>
-      <c r="X62" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Y62" s="3" t="s">
         <v>16</v>
       </c>
@@ -4519,8 +4665,11 @@
       <c r="AA62" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,74 +4905,77 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>277100</v>
+        <v>206100</v>
       </c>
       <c r="E66" s="3">
-        <v>311100</v>
+        <v>285900</v>
       </c>
       <c r="F66" s="3">
-        <v>385300</v>
+        <v>320900</v>
       </c>
       <c r="G66" s="3">
-        <v>634700</v>
+        <v>397500</v>
       </c>
       <c r="H66" s="3">
-        <v>440700</v>
+        <v>654800</v>
       </c>
       <c r="I66" s="3">
-        <v>449500</v>
+        <v>454700</v>
       </c>
       <c r="J66" s="3">
+        <v>463800</v>
+      </c>
+      <c r="K66" s="3">
         <v>460400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>499100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>631600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>787500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>769300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>841200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>794100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>756300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>756800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>694900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>602900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>804700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>749300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>582400</v>
       </c>
-      <c r="X66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Y66" s="3" t="s">
         <v>16</v>
       </c>
@@ -4827,8 +4985,11 @@
       <c r="AA66" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,22 +5175,25 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>76200</v>
+        <v>87600</v>
       </c>
       <c r="E70" s="3">
-        <v>73300</v>
+        <v>78700</v>
       </c>
       <c r="F70" s="3">
-        <v>60800</v>
+        <v>75600</v>
       </c>
       <c r="G70" s="3">
-        <v>0</v>
+        <v>62700</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -5067,17 +5235,17 @@
         <v>0</v>
       </c>
       <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
         <v>1521600</v>
       </c>
-      <c r="V70" s="3">
+      <c r="W70" s="3">
         <v>1243800</v>
       </c>
-      <c r="W70" s="3">
+      <c r="X70" s="3">
         <v>1086400</v>
       </c>
-      <c r="X70" s="3">
-        <v>0</v>
-      </c>
       <c r="Y70" s="3">
         <v>0</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,74 +5335,77 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-2212300</v>
+        <v>-2299300</v>
       </c>
       <c r="E72" s="3">
-        <v>-2234600</v>
+        <v>-2282600</v>
       </c>
       <c r="F72" s="3">
-        <v>-2284800</v>
+        <v>-2305600</v>
       </c>
       <c r="G72" s="3">
-        <v>-2463000</v>
+        <v>-2357400</v>
       </c>
       <c r="H72" s="3">
-        <v>-2224300</v>
+        <v>-2541200</v>
       </c>
       <c r="I72" s="3">
-        <v>-2214700</v>
+        <v>-2294900</v>
       </c>
       <c r="J72" s="3">
+        <v>-2285000</v>
+      </c>
+      <c r="K72" s="3">
         <v>-2196200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-2278700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-2261300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-2443500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-1983500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-1785800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-1767700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-1675200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-1624700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-1505500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-1368000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-1397400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-1218100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-1016300</v>
       </c>
-      <c r="X72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Y72" s="3" t="s">
         <v>16</v>
       </c>
@@ -5241,8 +5415,11 @@
       <c r="AA72" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,74 +5655,77 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-194400</v>
+        <v>-163200</v>
       </c>
       <c r="E76" s="3">
-        <v>-210200</v>
+        <v>-200600</v>
       </c>
       <c r="F76" s="3">
-        <v>-264100</v>
+        <v>-216900</v>
       </c>
       <c r="G76" s="3">
-        <v>-450000</v>
+        <v>-272500</v>
       </c>
       <c r="H76" s="3">
-        <v>-281300</v>
+        <v>-464300</v>
       </c>
       <c r="I76" s="3">
-        <v>-277800</v>
+        <v>-290300</v>
       </c>
       <c r="J76" s="3">
+        <v>-286600</v>
+      </c>
+      <c r="K76" s="3">
         <v>-257800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-278600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-324800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-369900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>73500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>231000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>280900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>328400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>361200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>376600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>433100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-1384700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-1206700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-1007600</v>
       </c>
-      <c r="X76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Y76" s="3" t="s">
         <v>16</v>
       </c>
@@ -5549,8 +5735,11 @@
       <c r="AA76" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>22300</v>
+        <v>-16700</v>
       </c>
       <c r="E81" s="3">
-        <v>50200</v>
+        <v>23000</v>
       </c>
       <c r="F81" s="3">
-        <v>178100</v>
+        <v>51800</v>
       </c>
       <c r="G81" s="3">
-        <v>-238700</v>
+        <v>183800</v>
       </c>
       <c r="H81" s="3">
-        <v>-9600</v>
+        <v>-246200</v>
       </c>
       <c r="I81" s="3">
-        <v>-18500</v>
+        <v>-9900</v>
       </c>
       <c r="J81" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="K81" s="3">
         <v>-24100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-37800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>21100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-391900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-167800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-41100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-57000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-43500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-363000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-86100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>7600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-220100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-201000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-167600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-103700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-85900</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-55300</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-46300</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6012,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5825,14 +6024,14 @@
       <c r="E83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G83" s="3">
-        <v>1900</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>16</v>
+      <c r="F83" s="3">
+        <v>4300</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H83" s="3">
+        <v>2000</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>16</v>
@@ -5846,8 +6045,8 @@
       <c r="L83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
+      <c r="M83" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
@@ -5862,37 +6061,40 @@
         <v>0</v>
       </c>
       <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
         <v>14400</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="U83" s="3">
+      <c r="U83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V83" s="3">
         <v>2800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>3200</v>
       </c>
-      <c r="W83" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="X83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Y83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z83" s="3">
         <v>2400</v>
       </c>
-      <c r="Z83" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="AA83" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,8 +6490,11 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6287,14 +6504,14 @@
       <c r="E89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F89" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-76600</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>16</v>
+      <c r="F89" s="3">
+        <v>-121400</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-79000</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>16</v>
@@ -6308,8 +6525,8 @@
       <c r="L89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
+      <c r="M89" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="N89" s="3">
         <v>0</v>
@@ -6324,37 +6541,40 @@
         <v>0</v>
       </c>
       <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
         <v>-347000</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="U89" s="3">
+      <c r="U89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V89" s="3">
         <v>-53400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-121700</v>
       </c>
-      <c r="W89" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="X89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Y89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z89" s="3">
         <v>-70300</v>
       </c>
-      <c r="Z89" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="AA89" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB89" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,8 +6602,9 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6393,15 +6614,15 @@
       <c r="E91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G91" s="3">
+      <c r="F91" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H91" s="3">
         <v>-700</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="I91" s="3" t="s">
         <v>16</v>
       </c>
@@ -6414,8 +6635,8 @@
       <c r="L91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -6430,37 +6651,40 @@
         <v>0</v>
       </c>
       <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
         <v>-20400</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="U91" s="3">
+      <c r="U91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V91" s="3">
         <v>-5900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-3400</v>
       </c>
-      <c r="W91" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="X91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Y91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z91" s="3">
         <v>-3300</v>
       </c>
-      <c r="Z91" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="AA91" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,8 +6840,11 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6624,15 +6854,15 @@
       <c r="E94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G94" s="3">
+      <c r="F94" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H94" s="3">
         <v>-500</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="I94" s="3" t="s">
         <v>16</v>
       </c>
@@ -6645,8 +6875,8 @@
       <c r="L94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
+      <c r="M94" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
@@ -6661,37 +6891,40 @@
         <v>0</v>
       </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>-164100</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="U94" s="3">
+      <c r="U94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V94" s="3">
         <v>-43800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-36000</v>
       </c>
-      <c r="W94" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="X94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Y94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z94" s="3">
         <v>-88700</v>
       </c>
-      <c r="Z94" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="AA94" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,8 +7270,11 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7038,14 +7284,14 @@
       <c r="E100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G100" s="3">
-        <v>76800</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>16</v>
+      <c r="F100" s="3">
+        <v>109800</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H100" s="3">
+        <v>79300</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>16</v>
@@ -7059,8 +7305,8 @@
       <c r="L100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
+      <c r="M100" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="N100" s="3">
         <v>0</v>
@@ -7075,37 +7321,40 @@
         <v>0</v>
       </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>650200</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="U100" s="3">
+      <c r="U100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V100" s="3">
         <v>230400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>110900</v>
       </c>
-      <c r="W100" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="X100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Y100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z100" s="3">
         <v>181900</v>
       </c>
-      <c r="Z100" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="AA100" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7115,15 +7364,15 @@
       <c r="E101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G101" s="3">
+      <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H101" s="3">
         <v>-200</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="I101" s="3" t="s">
         <v>16</v>
       </c>
@@ -7136,8 +7385,8 @@
       <c r="L101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
+      <c r="M101" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="N101" s="3">
         <v>0</v>
@@ -7152,37 +7401,40 @@
         <v>0</v>
       </c>
       <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
         <v>-1400</v>
       </c>
-      <c r="S101" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="U101" s="3">
+      <c r="U101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V101" s="3">
         <v>-100</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-200</v>
       </c>
-      <c r="W101" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="X101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Y101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z101" s="3">
         <v>200</v>
       </c>
-      <c r="Z101" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="AA101" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7192,15 +7444,15 @@
       <c r="E102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F102" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G102" s="3">
+      <c r="F102" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H102" s="3">
         <v>-400</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="I102" s="3" t="s">
         <v>16</v>
       </c>
@@ -7213,8 +7465,8 @@
       <c r="L102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
+      <c r="M102" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="N102" s="3">
         <v>0</v>
@@ -7229,33 +7481,36 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>137600</v>
       </c>
-      <c r="S102" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="U102" s="3">
+      <c r="U102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V102" s="3">
         <v>133100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-47000</v>
       </c>
-      <c r="W102" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="X102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Y102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z102" s="3">
         <v>23200</v>
       </c>
-      <c r="Z102" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="AA102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB102" s="3" t="s">
         <v>16</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/UXIN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/UXIN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="92">
   <si>
     <t>UXIN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,359 +665,371 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>88900</v>
+        <v>66900</v>
       </c>
       <c r="E8" s="3">
-        <v>89900</v>
+        <v>88000</v>
       </c>
       <c r="F8" s="3">
-        <v>72600</v>
+        <v>89000</v>
       </c>
       <c r="G8" s="3">
-        <v>72800</v>
+        <v>71900</v>
       </c>
       <c r="H8" s="3">
-        <v>49700</v>
+        <v>72000</v>
       </c>
       <c r="I8" s="3">
-        <v>39900</v>
+        <v>49200</v>
       </c>
       <c r="J8" s="3">
+        <v>39500</v>
+      </c>
+      <c r="K8" s="3">
         <v>28100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>44900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>11200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>9200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>16400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>46900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>71000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>68500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>51300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>100300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>50200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>38800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>28800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>104400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>80300</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>55000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>48900</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>51000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>34800</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>87700</v>
+        <v>66500</v>
       </c>
       <c r="E9" s="3">
-        <v>89000</v>
+        <v>86800</v>
       </c>
       <c r="F9" s="3">
-        <v>72500</v>
+        <v>88000</v>
       </c>
       <c r="G9" s="3">
-        <v>69800</v>
+        <v>71700</v>
       </c>
       <c r="H9" s="3">
-        <v>47600</v>
+        <v>69100</v>
       </c>
       <c r="I9" s="3">
-        <v>38300</v>
+        <v>47100</v>
       </c>
       <c r="J9" s="3">
+        <v>37900</v>
+      </c>
+      <c r="K9" s="3">
         <v>26900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>43600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>13700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>11800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>17500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>14600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>31800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>32000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>52100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>63700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>71500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>58800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>51100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>36700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>29000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>24300</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>20600</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>23500</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>19700</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="E10" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F10" s="3">
         <v>1000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>3000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1600</v>
-      </c>
-      <c r="J10" s="3">
-        <v>1300</v>
       </c>
       <c r="K10" s="3">
         <v>1300</v>
       </c>
       <c r="L10" s="3">
+        <v>1300</v>
+      </c>
+      <c r="M10" s="3">
         <v>-2500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-2600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>-1100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>32200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>39200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>36600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>-800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>36500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>-21200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>-19900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>-22300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>67700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>51300</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>30700</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>28300</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>27500</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>15100</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1046,88 +1058,92 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E12" s="3">
         <v>1400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1600</v>
-      </c>
-      <c r="H12" s="3">
-        <v>1200</v>
       </c>
       <c r="I12" s="3">
         <v>1200</v>
       </c>
       <c r="J12" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K12" s="3">
         <v>2100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>2500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>2800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>3400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>4900</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P12" s="3">
+      <c r="P12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q12" s="3">
         <v>8300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>8800</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>17200</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>18900</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>16900</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>17600</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>13300</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>11600</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>7300</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>7500</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>7000</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>7200</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1206,22 +1222,25 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>400</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>16</v>
+      <c r="F14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>16</v>
@@ -1229,36 +1248,36 @@
       <c r="I14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>-28200</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>5900</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>1400</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
       <c r="T14" s="3">
         <v>0</v>
       </c>
@@ -1286,8 +1305,11 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1366,8 +1388,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,168 +1418,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>104500</v>
+        <v>80600</v>
       </c>
       <c r="E17" s="3">
-        <v>103800</v>
+        <v>103500</v>
       </c>
       <c r="F17" s="3">
-        <v>88400</v>
+        <v>102700</v>
       </c>
       <c r="G17" s="3">
-        <v>83200</v>
+        <v>87500</v>
       </c>
       <c r="H17" s="3">
-        <v>56300</v>
+        <v>82400</v>
       </c>
       <c r="I17" s="3">
-        <v>47200</v>
+        <v>55700</v>
       </c>
       <c r="J17" s="3">
+        <v>46700</v>
+      </c>
+      <c r="K17" s="3">
         <v>42100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>67800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>34900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>28100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>333000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>96200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>110000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>127800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>96400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>478800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>121400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>214800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>91800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>176100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>157900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>112600</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>111300</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>78500</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>64500</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-15700</v>
+        <v>-13700</v>
       </c>
       <c r="E18" s="3">
-        <v>-13900</v>
+        <v>-15500</v>
       </c>
       <c r="F18" s="3">
-        <v>-15700</v>
+        <v>-13700</v>
       </c>
       <c r="G18" s="3">
-        <v>-10500</v>
+        <v>-15600</v>
       </c>
       <c r="H18" s="3">
-        <v>-6600</v>
+        <v>-10400</v>
       </c>
       <c r="I18" s="3">
-        <v>-7300</v>
+        <v>-6500</v>
       </c>
       <c r="J18" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="K18" s="3">
         <v>-14000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-22900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-23700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-18900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-316600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-49300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-39000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-59300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-45100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-378500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-71100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-176000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-63000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-71700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-77600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-57600</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-62400</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-27500</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-29700</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1583,88 +1615,92 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>100</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1800</v>
       </c>
-      <c r="E20" s="3">
-        <v>37700</v>
-      </c>
       <c r="F20" s="3">
-        <v>68400</v>
+        <v>37300</v>
       </c>
       <c r="G20" s="3">
-        <v>195400</v>
+        <v>67700</v>
       </c>
       <c r="H20" s="3">
-        <v>-238300</v>
+        <v>193400</v>
       </c>
       <c r="I20" s="3">
+        <v>-235800</v>
+      </c>
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-2100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-14800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-4400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-5400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-3800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>172800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-3800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>215900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-50900</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-62400</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-35900</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-27700</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-11400</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-12400</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1674,17 +1710,17 @@
       <c r="E21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="3">
-        <v>56900</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-242900</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>16</v>
+      <c r="F21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="3">
+        <v>56300</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-240400</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>16</v>
@@ -1713,38 +1749,41 @@
       <c r="R21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T21" s="3">
         <v>-191400</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="V21" s="3">
+      <c r="V21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W21" s="3">
         <v>-111100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-130900</v>
       </c>
-      <c r="X21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Y21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="Z21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA21" s="3">
         <v>-71500</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-32200</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>-25700</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1752,37 +1791,37 @@
         <v>700</v>
       </c>
       <c r="E22" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="F22" s="3">
         <v>800</v>
       </c>
       <c r="G22" s="3">
+        <v>800</v>
+      </c>
+      <c r="H22" s="3">
         <v>1100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>2600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>3000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>3100</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M22" s="3" t="s">
         <v>16</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
+      <c r="O22" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -1823,88 +1862,94 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-18200</v>
+        <v>-14300</v>
       </c>
       <c r="E23" s="3">
-        <v>23000</v>
+        <v>-18000</v>
       </c>
       <c r="F23" s="3">
-        <v>51900</v>
+        <v>22800</v>
       </c>
       <c r="G23" s="3">
-        <v>183800</v>
+        <v>51300</v>
       </c>
       <c r="H23" s="3">
-        <v>-246200</v>
+        <v>181900</v>
       </c>
       <c r="I23" s="3">
-        <v>-10000</v>
+        <v>-243700</v>
       </c>
       <c r="J23" s="3">
+        <v>-9900</v>
+      </c>
+      <c r="K23" s="3">
         <v>-19100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-24800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-38500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-23300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-322000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-50000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-42700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-58300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-45800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-205800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-74900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>39900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-113900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-134100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-113500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-85300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-73900</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-39800</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-31500</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1939,52 +1984,55 @@
         <v>0</v>
       </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>100</v>
       </c>
-      <c r="U24" s="3">
-        <v>0</v>
-      </c>
       <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
         <v>100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>300</v>
       </c>
-      <c r="Y24" s="3">
-        <v>0</v>
-      </c>
       <c r="Z24" s="3">
         <v>0</v>
       </c>
       <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="3">
         <v>300</v>
       </c>
-      <c r="AB24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2111,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-18200</v>
+        <v>-14300</v>
       </c>
       <c r="E26" s="3">
-        <v>23000</v>
+        <v>-18000</v>
       </c>
       <c r="F26" s="3">
-        <v>51800</v>
+        <v>22700</v>
       </c>
       <c r="G26" s="3">
-        <v>183800</v>
+        <v>51300</v>
       </c>
       <c r="H26" s="3">
-        <v>-246200</v>
+        <v>181900</v>
       </c>
       <c r="I26" s="3">
-        <v>-10000</v>
+        <v>-243700</v>
       </c>
       <c r="J26" s="3">
+        <v>-9900</v>
+      </c>
+      <c r="K26" s="3">
         <v>-19100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-24800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-38500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-23300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-322000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-50300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-42700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-57400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-46100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-206000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-75100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>39900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-114000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-133800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-113900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-85300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-73900</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-40100</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-31500</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-16700</v>
+        <v>-14300</v>
       </c>
       <c r="E27" s="3">
-        <v>23000</v>
+        <v>-16600</v>
       </c>
       <c r="F27" s="3">
-        <v>51800</v>
+        <v>22700</v>
       </c>
       <c r="G27" s="3">
-        <v>183800</v>
+        <v>51300</v>
       </c>
       <c r="H27" s="3">
-        <v>-246200</v>
+        <v>181900</v>
       </c>
       <c r="I27" s="3">
-        <v>-9900</v>
+        <v>-243700</v>
       </c>
       <c r="J27" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="K27" s="3">
         <v>-19100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-24100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-37800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-22500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-320100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-49300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-41100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-56100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-45100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-334600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-74800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>18100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-213700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-201000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-167600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-103700</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-85900</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-55300</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-46300</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2360,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2314,8 +2374,8 @@
       <c r="E29" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="F29" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
@@ -2336,38 +2396,38 @@
         <v>0</v>
       </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>43600</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-71800</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-118500</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>-900</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>1600</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-28400</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-11200</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>-10500</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>-6400</v>
       </c>
-      <c r="W29" s="3">
-        <v>0</v>
-      </c>
       <c r="X29" s="3">
         <v>0</v>
       </c>
@@ -2383,8 +2443,11 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2526,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,168 +2609,177 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E32" s="3">
         <v>1800</v>
       </c>
-      <c r="E32" s="3">
-        <v>-37700</v>
-      </c>
       <c r="F32" s="3">
-        <v>-68400</v>
+        <v>-37300</v>
       </c>
       <c r="G32" s="3">
-        <v>-195400</v>
+        <v>-67700</v>
       </c>
       <c r="H32" s="3">
-        <v>238300</v>
+        <v>-193400</v>
       </c>
       <c r="I32" s="3">
+        <v>235800</v>
+      </c>
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>2100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>14800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>4400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>5400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>3800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-172800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>3800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-215900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>50900</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>62400</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>35900</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>27700</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>11400</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>12400</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-16700</v>
+        <v>-14300</v>
       </c>
       <c r="E33" s="3">
-        <v>23000</v>
+        <v>-16600</v>
       </c>
       <c r="F33" s="3">
-        <v>51800</v>
+        <v>22700</v>
       </c>
       <c r="G33" s="3">
-        <v>183800</v>
+        <v>51300</v>
       </c>
       <c r="H33" s="3">
-        <v>-246200</v>
+        <v>181900</v>
       </c>
       <c r="I33" s="3">
-        <v>-9900</v>
+        <v>-243700</v>
       </c>
       <c r="J33" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="K33" s="3">
         <v>-19100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-24100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-37800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>21100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-391900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-167800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-41100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-57000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-43500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-363000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-86100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>7600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-220100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-201000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-167600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-103700</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-85900</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-55300</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-46300</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2858,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-16700</v>
+        <v>-14300</v>
       </c>
       <c r="E35" s="3">
-        <v>23000</v>
+        <v>-16600</v>
       </c>
       <c r="F35" s="3">
-        <v>51800</v>
+        <v>22700</v>
       </c>
       <c r="G35" s="3">
-        <v>183800</v>
+        <v>51300</v>
       </c>
       <c r="H35" s="3">
-        <v>-246200</v>
+        <v>181900</v>
       </c>
       <c r="I35" s="3">
-        <v>-9900</v>
+        <v>-243700</v>
       </c>
       <c r="J35" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="K35" s="3">
         <v>-19100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-24100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-37800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>21100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-391900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-167800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-41100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-57000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-43500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-363000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-86100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>7600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-220100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-201000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-167600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-103700</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-85900</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-55300</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-46300</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3062,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,77 +3093,78 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>14800</v>
+      </c>
+      <c r="E41" s="3">
         <v>3500</v>
       </c>
-      <c r="E41" s="3">
-        <v>12700</v>
-      </c>
       <c r="F41" s="3">
-        <v>18400</v>
+        <v>12500</v>
       </c>
       <c r="G41" s="3">
-        <v>21400</v>
+        <v>18200</v>
       </c>
       <c r="H41" s="3">
-        <v>31100</v>
+        <v>21200</v>
       </c>
       <c r="I41" s="3">
-        <v>17800</v>
+        <v>30800</v>
       </c>
       <c r="J41" s="3">
+        <v>17600</v>
+      </c>
+      <c r="K41" s="3">
         <v>27700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>40100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>32000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>35500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>54000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>74900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>96600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>122100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>69500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>121800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>98300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>116100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>175000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>43300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>90300</v>
       </c>
-      <c r="Y41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Z41" s="3" t="s">
         <v>16</v>
       </c>
@@ -3088,8 +3174,11 @@
       <c r="AB41" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3121,44 +3210,44 @@
         <v>0</v>
       </c>
       <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
         <v>1100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>2400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>19100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>21500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>29700</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>116800</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>99300</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>152900</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>54500</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>50500</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>65300</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>59400</v>
       </c>
-      <c r="Y42" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Z42" s="3" t="s">
         <v>16</v>
       </c>
@@ -3168,77 +3257,80 @@
       <c r="AB42" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>12100</v>
+        <v>5900</v>
       </c>
       <c r="E43" s="3">
-        <v>34000</v>
+        <v>12000</v>
       </c>
       <c r="F43" s="3">
-        <v>31800</v>
+        <v>33600</v>
       </c>
       <c r="G43" s="3">
-        <v>33400</v>
+        <v>31500</v>
       </c>
       <c r="H43" s="3">
-        <v>46400</v>
+        <v>33000</v>
       </c>
       <c r="I43" s="3">
-        <v>55300</v>
+        <v>46000</v>
       </c>
       <c r="J43" s="3">
+        <v>54700</v>
+      </c>
+      <c r="K43" s="3">
         <v>60600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>69200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>89000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>120700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>114600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>331400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>74200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>40300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>239200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>230800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>179400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>355100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>206500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>171000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>125600</v>
       </c>
-      <c r="Y43" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Z43" s="3" t="s">
         <v>16</v>
       </c>
@@ -3248,77 +3340,80 @@
       <c r="AB43" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>55600</v>
+        <v>39200</v>
       </c>
       <c r="E44" s="3">
-        <v>54400</v>
+        <v>55000</v>
       </c>
       <c r="F44" s="3">
-        <v>61200</v>
+        <v>53900</v>
       </c>
       <c r="G44" s="3">
-        <v>62600</v>
+        <v>60600</v>
       </c>
       <c r="H44" s="3">
-        <v>41900</v>
+        <v>62000</v>
       </c>
       <c r="I44" s="3">
-        <v>13900</v>
+        <v>41500</v>
       </c>
       <c r="J44" s="3">
+        <v>13800</v>
+      </c>
+      <c r="K44" s="3">
         <v>10000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>7700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>2900</v>
-      </c>
-      <c r="T44" s="3">
-        <v>2600</v>
       </c>
       <c r="U44" s="3">
         <v>2600</v>
       </c>
       <c r="V44" s="3">
+        <v>2600</v>
+      </c>
+      <c r="W44" s="3">
         <v>6400</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>11600</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>18200</v>
       </c>
-      <c r="Y44" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Z44" s="3" t="s">
         <v>16</v>
       </c>
@@ -3328,77 +3423,80 @@
       <c r="AB44" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>8600</v>
+        <v>9500</v>
       </c>
       <c r="E45" s="3">
-        <v>9700</v>
+        <v>8500</v>
       </c>
       <c r="F45" s="3">
-        <v>14100</v>
+        <v>9600</v>
       </c>
       <c r="G45" s="3">
-        <v>15700</v>
+        <v>14000</v>
       </c>
       <c r="H45" s="3">
-        <v>15700</v>
+        <v>15600</v>
       </c>
       <c r="I45" s="3">
-        <v>20900</v>
+        <v>15600</v>
       </c>
       <c r="J45" s="3">
+        <v>20600</v>
+      </c>
+      <c r="K45" s="3">
         <v>21400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>26700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>30800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>81900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>180600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>346700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>767200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>760500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>514100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>894200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>538400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>437800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>443800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>436500</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>309300</v>
       </c>
-      <c r="Y45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Z45" s="3" t="s">
         <v>16</v>
       </c>
@@ -3408,77 +3506,80 @@
       <c r="AB45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>79800</v>
+        <v>69300</v>
       </c>
       <c r="E46" s="3">
-        <v>110800</v>
+        <v>78900</v>
       </c>
       <c r="F46" s="3">
-        <v>125600</v>
+        <v>109600</v>
       </c>
       <c r="G46" s="3">
-        <v>133100</v>
+        <v>124300</v>
       </c>
       <c r="H46" s="3">
-        <v>135200</v>
+        <v>131800</v>
       </c>
       <c r="I46" s="3">
-        <v>107900</v>
+        <v>133800</v>
       </c>
       <c r="J46" s="3">
+        <v>106800</v>
+      </c>
+      <c r="K46" s="3">
         <v>119600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>143600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>156500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>240900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>353200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>774200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>961500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>955100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>942000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1014400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>971700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>966000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>882200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>727600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>602800</v>
       </c>
-      <c r="Y46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Z46" s="3" t="s">
         <v>16</v>
       </c>
@@ -3488,77 +3589,80 @@
       <c r="AB46" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>41500</v>
+        <v>41000</v>
       </c>
       <c r="E47" s="3">
-        <v>41500</v>
+        <v>41000</v>
       </c>
       <c r="F47" s="3">
-        <v>41500</v>
+        <v>41000</v>
       </c>
       <c r="G47" s="3">
-        <v>41500</v>
+        <v>41000</v>
       </c>
       <c r="H47" s="3">
-        <v>41500</v>
+        <v>41000</v>
       </c>
       <c r="I47" s="3">
-        <v>41500</v>
+        <v>41000</v>
       </c>
       <c r="J47" s="3">
+        <v>41000</v>
+      </c>
+      <c r="K47" s="3">
         <v>41400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>40200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>41400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>41000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>43700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>42700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>41100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>40800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>54200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>106400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>50500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>7700</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>5600</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>6000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>6100</v>
       </c>
-      <c r="Y47" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Z47" s="3" t="s">
         <v>16</v>
       </c>
@@ -3568,77 +3672,80 @@
       <c r="AB47" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>9300</v>
+        <v>9400</v>
       </c>
       <c r="E48" s="3">
-        <v>8700</v>
+        <v>9200</v>
       </c>
       <c r="F48" s="3">
-        <v>9200</v>
+        <v>8600</v>
       </c>
       <c r="G48" s="3">
-        <v>9200</v>
+        <v>9100</v>
       </c>
       <c r="H48" s="3">
-        <v>9600</v>
+        <v>9100</v>
       </c>
       <c r="I48" s="3">
-        <v>10300</v>
+        <v>9500</v>
       </c>
       <c r="J48" s="3">
+        <v>10200</v>
+      </c>
+      <c r="K48" s="3">
         <v>10900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>13400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>16400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>18200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>19300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>24400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>50500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>59200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>68700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>60600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>29400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>27000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>25400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>23200</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>22600</v>
       </c>
-      <c r="Y48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Z48" s="3" t="s">
         <v>16</v>
       </c>
@@ -3648,8 +3755,11 @@
       <c r="AB48" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3659,8 +3769,8 @@
       <c r="E49" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F49" s="3">
-        <v>0</v>
+      <c r="F49" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="G49" s="3">
         <v>0</v>
@@ -3684,41 +3794,41 @@
         <v>0</v>
       </c>
       <c r="N49" s="3">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="O49" s="3">
         <v>1500</v>
       </c>
       <c r="P49" s="3">
+        <v>1500</v>
+      </c>
+      <c r="Q49" s="3">
         <v>19200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>19900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>19800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>23200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>19900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>19400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>12200</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>12700</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>12900</v>
       </c>
-      <c r="Y49" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Z49" s="3" t="s">
         <v>16</v>
       </c>
@@ -3728,8 +3838,11 @@
       <c r="AB49" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +3921,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,8 +4004,11 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3897,35 +4016,35 @@
         <v>0</v>
       </c>
       <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
         <v>3000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>3400</v>
       </c>
-      <c r="G52" s="3">
-        <v>3900</v>
-      </c>
       <c r="H52" s="3">
+        <v>3800</v>
+      </c>
+      <c r="I52" s="3">
         <v>4300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>4700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>5200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>5400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>6100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>6600</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>16</v>
       </c>
@@ -3938,26 +4057,26 @@
       <c r="R52" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S52" s="3">
-        <v>0</v>
+      <c r="S52" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="T52" s="3">
         <v>0</v>
       </c>
       <c r="U52" s="3">
+        <v>0</v>
+      </c>
+      <c r="V52" s="3">
         <v>15800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>16200</v>
-      </c>
-      <c r="W52" s="3">
-        <v>16800</v>
       </c>
       <c r="X52" s="3">
         <v>16800</v>
       </c>
-      <c r="Y52" s="3" t="s">
-        <v>16</v>
+      <c r="Y52" s="3">
+        <v>16800</v>
       </c>
       <c r="Z52" s="3" t="s">
         <v>16</v>
@@ -3968,8 +4087,11 @@
       <c r="AB52" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,77 +4170,80 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>130500</v>
+        <v>119700</v>
       </c>
       <c r="E54" s="3">
-        <v>164000</v>
+        <v>129200</v>
       </c>
       <c r="F54" s="3">
-        <v>179700</v>
+        <v>162300</v>
       </c>
       <c r="G54" s="3">
-        <v>187700</v>
+        <v>177900</v>
       </c>
       <c r="H54" s="3">
-        <v>190500</v>
+        <v>185800</v>
       </c>
       <c r="I54" s="3">
-        <v>164400</v>
+        <v>188600</v>
       </c>
       <c r="J54" s="3">
+        <v>162700</v>
+      </c>
+      <c r="K54" s="3">
         <v>177200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>202600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>220500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>306800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>417600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>842800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1072200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1075000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1084600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1118000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1071500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1036000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>941600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>786400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>661100</v>
       </c>
-      <c r="Y54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Z54" s="3" t="s">
         <v>16</v>
       </c>
@@ -4128,8 +4253,11 @@
       <c r="AB54" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4286,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,77 +4317,78 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>11800</v>
+        <v>11300</v>
       </c>
       <c r="E57" s="3">
-        <v>12000</v>
+        <v>11600</v>
       </c>
       <c r="F57" s="3">
-        <v>13300</v>
+        <v>11900</v>
       </c>
       <c r="G57" s="3">
-        <v>13300</v>
+        <v>13200</v>
       </c>
       <c r="H57" s="3">
-        <v>19400</v>
+        <v>13200</v>
       </c>
       <c r="I57" s="3">
-        <v>13900</v>
+        <v>19200</v>
       </c>
       <c r="J57" s="3">
+        <v>13700</v>
+      </c>
+      <c r="K57" s="3">
         <v>14500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>15800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>16600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>16700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>206400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>31500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>236600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>232800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>237300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>221700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>174300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>153100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>15800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>18900</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>15700</v>
       </c>
-      <c r="Y57" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Z57" s="3" t="s">
         <v>16</v>
       </c>
@@ -4268,77 +4398,80 @@
       <c r="AB57" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>41300</v>
+        <v>32800</v>
       </c>
       <c r="E58" s="3">
-        <v>49000</v>
+        <v>40900</v>
       </c>
       <c r="F58" s="3">
-        <v>55800</v>
+        <v>48500</v>
       </c>
       <c r="G58" s="3">
-        <v>55800</v>
+        <v>55200</v>
       </c>
       <c r="H58" s="3">
-        <v>11500</v>
+        <v>55200</v>
       </c>
       <c r="I58" s="3">
-        <v>249800</v>
+        <v>11400</v>
       </c>
       <c r="J58" s="3">
+        <v>247200</v>
+      </c>
+      <c r="K58" s="3">
         <v>21700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>17100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>12500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>64400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>78000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>92100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>18700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>286200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>256800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>297500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>260800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>160400</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>71500</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>63300</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>70800</v>
       </c>
-      <c r="Y58" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Z58" s="3" t="s">
         <v>16</v>
       </c>
@@ -4348,77 +4481,80 @@
       <c r="AB58" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>77900</v>
+        <v>69400</v>
       </c>
       <c r="E59" s="3">
-        <v>87800</v>
+        <v>77100</v>
       </c>
       <c r="F59" s="3">
-        <v>117400</v>
+        <v>86900</v>
       </c>
       <c r="G59" s="3">
-        <v>192700</v>
+        <v>116200</v>
       </c>
       <c r="H59" s="3">
-        <v>418500</v>
+        <v>190700</v>
       </c>
       <c r="I59" s="3">
-        <v>114500</v>
+        <v>414200</v>
       </c>
       <c r="J59" s="3">
+        <v>113300</v>
+      </c>
+      <c r="K59" s="3">
         <v>128600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>138700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>151400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>224400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>200900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>345200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>260600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>219900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>161400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>581800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>153600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>161200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>587300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>561900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>447600</v>
       </c>
-      <c r="Y59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Z59" s="3" t="s">
         <v>16</v>
       </c>
@@ -4428,77 +4564,80 @@
       <c r="AB59" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>131000</v>
+        <v>113500</v>
       </c>
       <c r="E60" s="3">
-        <v>148900</v>
+        <v>129600</v>
       </c>
       <c r="F60" s="3">
-        <v>186500</v>
+        <v>147300</v>
       </c>
       <c r="G60" s="3">
-        <v>261800</v>
+        <v>184600</v>
       </c>
       <c r="H60" s="3">
-        <v>449400</v>
+        <v>259100</v>
       </c>
       <c r="I60" s="3">
-        <v>378100</v>
+        <v>444800</v>
       </c>
       <c r="J60" s="3">
+        <v>374200</v>
+      </c>
+      <c r="K60" s="3">
         <v>164800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>171600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>180500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>305600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>485300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>468700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>515900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>738900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>655500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>701600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>588700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>474700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>674700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>644100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>534100</v>
       </c>
-      <c r="Y60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Z60" s="3" t="s">
         <v>16</v>
       </c>
@@ -4508,74 +4647,77 @@
       <c r="AB60" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>74300</v>
+        <v>87000</v>
       </c>
       <c r="E61" s="3">
-        <v>135500</v>
+        <v>73600</v>
       </c>
       <c r="F61" s="3">
-        <v>132900</v>
+        <v>134100</v>
       </c>
       <c r="G61" s="3">
-        <v>133900</v>
+        <v>131500</v>
       </c>
       <c r="H61" s="3">
-        <v>53700</v>
+        <v>132600</v>
       </c>
       <c r="I61" s="3">
-        <v>56700</v>
+        <v>53200</v>
       </c>
       <c r="J61" s="3">
+        <v>56200</v>
+      </c>
+      <c r="K61" s="3">
         <v>294100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>253600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>274000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>283800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>301900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>299600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>313800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>45700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>69100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>54900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>90000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>95200</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>74400</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>55500</v>
       </c>
-      <c r="X61" s="3">
-        <v>0</v>
-      </c>
       <c r="Y61" s="3">
         <v>0</v>
       </c>
@@ -4588,8 +4730,11 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4597,68 +4742,68 @@
         <v>800</v>
       </c>
       <c r="E62" s="3">
-        <v>1600</v>
+        <v>800</v>
       </c>
       <c r="F62" s="3">
         <v>1600</v>
       </c>
       <c r="G62" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H62" s="3">
         <v>1800</v>
       </c>
-      <c r="H62" s="3">
-        <v>151600</v>
-      </c>
       <c r="I62" s="3">
-        <v>19900</v>
+        <v>150100</v>
       </c>
       <c r="J62" s="3">
+        <v>19700</v>
+      </c>
+      <c r="K62" s="3">
         <v>4900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>35300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>44600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>42200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>12100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>10000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>32000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>5200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>15500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>32200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>58300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>51300</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>49400</v>
       </c>
-      <c r="Y62" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Z62" s="3" t="s">
         <v>16</v>
       </c>
@@ -4668,8 +4813,11 @@
       <c r="AB62" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +4896,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +4979,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,77 +5062,80 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>206100</v>
+        <v>201300</v>
       </c>
       <c r="E66" s="3">
-        <v>285900</v>
+        <v>204000</v>
       </c>
       <c r="F66" s="3">
-        <v>320900</v>
+        <v>283000</v>
       </c>
       <c r="G66" s="3">
-        <v>397500</v>
+        <v>317700</v>
       </c>
       <c r="H66" s="3">
-        <v>654800</v>
+        <v>393400</v>
       </c>
       <c r="I66" s="3">
-        <v>454700</v>
+        <v>648100</v>
       </c>
       <c r="J66" s="3">
+        <v>450000</v>
+      </c>
+      <c r="K66" s="3">
         <v>463800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>460400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>499100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>631600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>787500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>769300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>841200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>794100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>756300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>756800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>694900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>602900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>804700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>749300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>582400</v>
       </c>
-      <c r="Y66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Z66" s="3" t="s">
         <v>16</v>
       </c>
@@ -4988,8 +5145,11 @@
       <c r="AB66" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5178,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5259,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,25 +5342,28 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>87600</v>
+        <v>91300</v>
       </c>
       <c r="E70" s="3">
-        <v>78700</v>
+        <v>86700</v>
       </c>
       <c r="F70" s="3">
-        <v>75600</v>
+        <v>77900</v>
       </c>
       <c r="G70" s="3">
-        <v>62700</v>
+        <v>74800</v>
       </c>
       <c r="H70" s="3">
-        <v>0</v>
+        <v>62100</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -5238,17 +5405,17 @@
         <v>0</v>
       </c>
       <c r="V70" s="3">
+        <v>0</v>
+      </c>
+      <c r="W70" s="3">
         <v>1521600</v>
       </c>
-      <c r="W70" s="3">
+      <c r="X70" s="3">
         <v>1243800</v>
       </c>
-      <c r="X70" s="3">
+      <c r="Y70" s="3">
         <v>1086400</v>
       </c>
-      <c r="Y70" s="3">
-        <v>0</v>
-      </c>
       <c r="Z70" s="3">
         <v>0</v>
       </c>
@@ -5258,8 +5425,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,77 +5508,80 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-2299300</v>
+        <v>-2290100</v>
       </c>
       <c r="E72" s="3">
-        <v>-2282600</v>
+        <v>-2275800</v>
       </c>
       <c r="F72" s="3">
-        <v>-2305600</v>
+        <v>-2259200</v>
       </c>
       <c r="G72" s="3">
-        <v>-2357400</v>
+        <v>-2282000</v>
       </c>
       <c r="H72" s="3">
-        <v>-2541200</v>
+        <v>-2333300</v>
       </c>
       <c r="I72" s="3">
-        <v>-2294900</v>
+        <v>-2515200</v>
       </c>
       <c r="J72" s="3">
+        <v>-2271400</v>
+      </c>
+      <c r="K72" s="3">
         <v>-2285000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-2196200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-2278700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-2261300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-2443500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-1983500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-1785800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-1767700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-1675200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-1624700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-1505500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-1368000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-1397400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-1218100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-1016300</v>
       </c>
-      <c r="Y72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Z72" s="3" t="s">
         <v>16</v>
       </c>
@@ -5418,8 +5591,11 @@
       <c r="AB72" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5674,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5757,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,77 +5840,80 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-163200</v>
+        <v>-172900</v>
       </c>
       <c r="E76" s="3">
-        <v>-200600</v>
+        <v>-161500</v>
       </c>
       <c r="F76" s="3">
-        <v>-216900</v>
+        <v>-198600</v>
       </c>
       <c r="G76" s="3">
-        <v>-272500</v>
+        <v>-214600</v>
       </c>
       <c r="H76" s="3">
-        <v>-464300</v>
+        <v>-269700</v>
       </c>
       <c r="I76" s="3">
-        <v>-290300</v>
+        <v>-459500</v>
       </c>
       <c r="J76" s="3">
+        <v>-287300</v>
+      </c>
+      <c r="K76" s="3">
         <v>-286600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-257800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-278600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-324800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-369900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>73500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>231000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>280900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>328400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>361200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>376600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>433100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-1384700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-1206700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-1007600</v>
       </c>
-      <c r="Y76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Z76" s="3" t="s">
         <v>16</v>
       </c>
@@ -5738,8 +5923,11 @@
       <c r="AB76" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6006,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-16700</v>
+        <v>-14300</v>
       </c>
       <c r="E81" s="3">
-        <v>23000</v>
+        <v>-16600</v>
       </c>
       <c r="F81" s="3">
-        <v>51800</v>
+        <v>22700</v>
       </c>
       <c r="G81" s="3">
-        <v>183800</v>
+        <v>51300</v>
       </c>
       <c r="H81" s="3">
-        <v>-246200</v>
+        <v>181900</v>
       </c>
       <c r="I81" s="3">
-        <v>-9900</v>
+        <v>-243700</v>
       </c>
       <c r="J81" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="K81" s="3">
         <v>-19100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-24100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-37800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>21100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-391900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-167800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-41100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-57000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-43500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-363000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-86100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>7600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-220100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-201000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-167600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-103700</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-85900</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-55300</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-46300</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,8 +6210,9 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6024,17 +6222,17 @@
       <c r="E83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F83" s="3">
-        <v>4300</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H83" s="3">
-        <v>2000</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>16</v>
+      <c r="F83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G83" s="3">
+        <v>4200</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I83" s="3">
+        <v>1900</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>16</v>
@@ -6048,8 +6246,8 @@
       <c r="M83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
+      <c r="N83" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
@@ -6064,37 +6262,40 @@
         <v>0</v>
       </c>
       <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3">
         <v>14400</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="V83" s="3">
+      <c r="V83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W83" s="3">
         <v>2800</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>3200</v>
       </c>
-      <c r="X83" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Y83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="Z83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA83" s="3">
         <v>2400</v>
       </c>
-      <c r="AA83" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="AB83" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6374,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6457,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6540,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6623,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,8 +6706,11 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6504,17 +6720,17 @@
       <c r="E89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F89" s="3">
-        <v>-121400</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-79000</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>16</v>
+      <c r="F89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G89" s="3">
+        <v>-120100</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-78200</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>16</v>
@@ -6528,8 +6744,8 @@
       <c r="M89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
+      <c r="N89" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="O89" s="3">
         <v>0</v>
@@ -6544,37 +6760,40 @@
         <v>0</v>
       </c>
       <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
         <v>-347000</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="V89" s="3">
+      <c r="V89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W89" s="3">
         <v>-53400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-121700</v>
       </c>
-      <c r="X89" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Y89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="Z89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA89" s="3">
         <v>-70300</v>
       </c>
-      <c r="AA89" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="AB89" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC89" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,31 +6822,32 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>16</v>
+      <c r="D91" s="3">
+        <v>-13700</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
       </c>
       <c r="F91" s="3">
-        <v>-2700</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
       </c>
       <c r="H91" s="3">
-        <v>-700</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>16</v>
@@ -6638,8 +6858,8 @@
       <c r="M91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -6654,37 +6874,40 @@
         <v>0</v>
       </c>
       <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
         <v>-20400</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="V91" s="3">
+      <c r="V91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W91" s="3">
         <v>-5900</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-3400</v>
       </c>
-      <c r="X91" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Y91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="Z91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA91" s="3">
         <v>-3300</v>
       </c>
-      <c r="AA91" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="AB91" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +6986,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,8 +7069,11 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6854,18 +7083,18 @@
       <c r="E94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F94" s="3">
+      <c r="F94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G94" s="3">
         <v>-2400</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H94" s="3">
+      <c r="H94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I94" s="3">
         <v>-500</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>16</v>
       </c>
@@ -6878,8 +7107,8 @@
       <c r="M94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
+      <c r="N94" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
@@ -6894,37 +7123,40 @@
         <v>0</v>
       </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>-164100</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="V94" s="3">
+      <c r="V94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W94" s="3">
         <v>-43800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-36000</v>
       </c>
-      <c r="X94" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Y94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="Z94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA94" s="3">
         <v>-88700</v>
       </c>
-      <c r="AA94" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="AB94" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7185,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7266,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7349,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7432,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,8 +7515,11 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7284,17 +7529,17 @@
       <c r="E100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F100" s="3">
-        <v>109800</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H100" s="3">
-        <v>79300</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>16</v>
+      <c r="F100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G100" s="3">
+        <v>108700</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I100" s="3">
+        <v>78500</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>16</v>
@@ -7308,8 +7553,8 @@
       <c r="M100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
+      <c r="N100" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="O100" s="3">
         <v>0</v>
@@ -7324,37 +7569,40 @@
         <v>0</v>
       </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>650200</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="V100" s="3">
+      <c r="V100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W100" s="3">
         <v>230400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>110900</v>
       </c>
-      <c r="X100" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Y100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="Z100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA100" s="3">
         <v>181900</v>
       </c>
-      <c r="AA100" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="AB100" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC100" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7364,18 +7612,18 @@
       <c r="E101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H101" s="3">
+      <c r="F101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I101" s="3">
         <v>-200</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J101" s="3" t="s">
         <v>16</v>
       </c>
@@ -7388,8 +7636,8 @@
       <c r="M101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
+      <c r="N101" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="O101" s="3">
         <v>0</v>
@@ -7404,37 +7652,40 @@
         <v>0</v>
       </c>
       <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
         <v>-1400</v>
       </c>
-      <c r="T101" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="V101" s="3">
+      <c r="V101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W101" s="3">
         <v>-100</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-200</v>
       </c>
-      <c r="X101" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Y101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="Z101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA101" s="3">
         <v>200</v>
       </c>
-      <c r="AA101" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="AB101" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7444,18 +7695,18 @@
       <c r="E102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F102" s="3">
-        <v>-14000</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H102" s="3">
+      <c r="F102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G102" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I102" s="3">
         <v>-400</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J102" s="3" t="s">
         <v>16</v>
       </c>
@@ -7468,8 +7719,8 @@
       <c r="M102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
+      <c r="N102" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="O102" s="3">
         <v>0</v>
@@ -7484,33 +7735,36 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>137600</v>
       </c>
-      <c r="T102" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="V102" s="3">
+      <c r="V102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W102" s="3">
         <v>133100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-47000</v>
       </c>
-      <c r="X102" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Y102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="Z102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA102" s="3">
         <v>23200</v>
       </c>
-      <c r="AA102" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="AB102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC102" s="3" t="s">
         <v>16</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/UXIN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/UXIN_QTR_FIN.xlsx
@@ -785,25 +785,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>66900</v>
+        <v>64800</v>
       </c>
       <c r="E8" s="3">
-        <v>88000</v>
+        <v>85300</v>
       </c>
       <c r="F8" s="3">
-        <v>89000</v>
+        <v>86300</v>
       </c>
       <c r="G8" s="3">
-        <v>71900</v>
+        <v>69700</v>
       </c>
       <c r="H8" s="3">
-        <v>72000</v>
+        <v>69800</v>
       </c>
       <c r="I8" s="3">
-        <v>49200</v>
+        <v>47700</v>
       </c>
       <c r="J8" s="3">
-        <v>39500</v>
+        <v>38300</v>
       </c>
       <c r="K8" s="3">
         <v>28100</v>
@@ -868,25 +868,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>66500</v>
+        <v>64400</v>
       </c>
       <c r="E9" s="3">
-        <v>86800</v>
+        <v>84100</v>
       </c>
       <c r="F9" s="3">
-        <v>88000</v>
+        <v>85300</v>
       </c>
       <c r="G9" s="3">
-        <v>71700</v>
+        <v>69500</v>
       </c>
       <c r="H9" s="3">
-        <v>69100</v>
+        <v>66900</v>
       </c>
       <c r="I9" s="3">
-        <v>47100</v>
+        <v>45600</v>
       </c>
       <c r="J9" s="3">
-        <v>37900</v>
+        <v>36700</v>
       </c>
       <c r="K9" s="3">
         <v>26900</v>
@@ -957,19 +957,19 @@
         <v>1100</v>
       </c>
       <c r="F10" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="G10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H10" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="I10" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="J10" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="K10" s="3">
         <v>1300</v>
@@ -1071,7 +1071,7 @@
         <v>1400</v>
       </c>
       <c r="F12" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="G12" s="3">
         <v>1200</v>
@@ -1080,10 +1080,10 @@
         <v>1600</v>
       </c>
       <c r="I12" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="J12" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="K12" s="3">
         <v>2100</v>
@@ -1425,25 +1425,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>80600</v>
+        <v>78100</v>
       </c>
       <c r="E17" s="3">
-        <v>103500</v>
+        <v>100300</v>
       </c>
       <c r="F17" s="3">
-        <v>102700</v>
+        <v>99600</v>
       </c>
       <c r="G17" s="3">
-        <v>87500</v>
+        <v>84800</v>
       </c>
       <c r="H17" s="3">
-        <v>82400</v>
+        <v>79800</v>
       </c>
       <c r="I17" s="3">
-        <v>55700</v>
+        <v>54000</v>
       </c>
       <c r="J17" s="3">
-        <v>46700</v>
+        <v>45300</v>
       </c>
       <c r="K17" s="3">
         <v>42100</v>
@@ -1508,25 +1508,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-13700</v>
+        <v>-13300</v>
       </c>
       <c r="E18" s="3">
-        <v>-15500</v>
+        <v>-15000</v>
       </c>
       <c r="F18" s="3">
-        <v>-13700</v>
+        <v>-13300</v>
       </c>
       <c r="G18" s="3">
-        <v>-15600</v>
+        <v>-15100</v>
       </c>
       <c r="H18" s="3">
-        <v>-10400</v>
+        <v>-10000</v>
       </c>
       <c r="I18" s="3">
-        <v>-6500</v>
+        <v>-6300</v>
       </c>
       <c r="J18" s="3">
-        <v>-7200</v>
+        <v>-7000</v>
       </c>
       <c r="K18" s="3">
         <v>-14000</v>
@@ -1625,19 +1625,19 @@
         <v>100</v>
       </c>
       <c r="E20" s="3">
-        <v>-1800</v>
+        <v>-1700</v>
       </c>
       <c r="F20" s="3">
-        <v>37300</v>
+        <v>36100</v>
       </c>
       <c r="G20" s="3">
-        <v>67700</v>
+        <v>65600</v>
       </c>
       <c r="H20" s="3">
-        <v>193400</v>
+        <v>187400</v>
       </c>
       <c r="I20" s="3">
-        <v>-235800</v>
+        <v>-228600</v>
       </c>
       <c r="J20" s="3">
         <v>-100</v>
@@ -1714,13 +1714,13 @@
         <v>16</v>
       </c>
       <c r="G21" s="3">
-        <v>56300</v>
+        <v>54600</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>16</v>
       </c>
       <c r="I21" s="3">
-        <v>-240400</v>
+        <v>-233000</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>16</v>
@@ -1797,16 +1797,16 @@
         <v>800</v>
       </c>
       <c r="G22" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="H22" s="3">
         <v>1100</v>
       </c>
       <c r="I22" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="J22" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="K22" s="3">
         <v>3000</v>
@@ -1871,25 +1871,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-14300</v>
+        <v>-13900</v>
       </c>
       <c r="E23" s="3">
-        <v>-18000</v>
+        <v>-17500</v>
       </c>
       <c r="F23" s="3">
-        <v>22800</v>
+        <v>22100</v>
       </c>
       <c r="G23" s="3">
-        <v>51300</v>
+        <v>49700</v>
       </c>
       <c r="H23" s="3">
-        <v>181900</v>
+        <v>176300</v>
       </c>
       <c r="I23" s="3">
-        <v>-243700</v>
+        <v>-236200</v>
       </c>
       <c r="J23" s="3">
-        <v>-9900</v>
+        <v>-9600</v>
       </c>
       <c r="K23" s="3">
         <v>-19100</v>
@@ -2120,25 +2120,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-14300</v>
+        <v>-13900</v>
       </c>
       <c r="E26" s="3">
-        <v>-18000</v>
+        <v>-17500</v>
       </c>
       <c r="F26" s="3">
-        <v>22700</v>
+        <v>22000</v>
       </c>
       <c r="G26" s="3">
-        <v>51300</v>
+        <v>49700</v>
       </c>
       <c r="H26" s="3">
-        <v>181900</v>
+        <v>176300</v>
       </c>
       <c r="I26" s="3">
-        <v>-243700</v>
+        <v>-236200</v>
       </c>
       <c r="J26" s="3">
-        <v>-9900</v>
+        <v>-9600</v>
       </c>
       <c r="K26" s="3">
         <v>-19100</v>
@@ -2203,25 +2203,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-14300</v>
+        <v>-13900</v>
       </c>
       <c r="E27" s="3">
-        <v>-16600</v>
+        <v>-16100</v>
       </c>
       <c r="F27" s="3">
-        <v>22700</v>
+        <v>22000</v>
       </c>
       <c r="G27" s="3">
-        <v>51300</v>
+        <v>49700</v>
       </c>
       <c r="H27" s="3">
-        <v>181900</v>
+        <v>176300</v>
       </c>
       <c r="I27" s="3">
-        <v>-243700</v>
+        <v>-236200</v>
       </c>
       <c r="J27" s="3">
-        <v>-9800</v>
+        <v>-9500</v>
       </c>
       <c r="K27" s="3">
         <v>-19100</v>
@@ -2621,19 +2621,19 @@
         <v>-100</v>
       </c>
       <c r="E32" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="F32" s="3">
-        <v>-37300</v>
+        <v>-36100</v>
       </c>
       <c r="G32" s="3">
-        <v>-67700</v>
+        <v>-65600</v>
       </c>
       <c r="H32" s="3">
-        <v>-193400</v>
+        <v>-187400</v>
       </c>
       <c r="I32" s="3">
-        <v>235800</v>
+        <v>228600</v>
       </c>
       <c r="J32" s="3">
         <v>100</v>
@@ -2701,25 +2701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-14300</v>
+        <v>-13900</v>
       </c>
       <c r="E33" s="3">
-        <v>-16600</v>
+        <v>-16100</v>
       </c>
       <c r="F33" s="3">
-        <v>22700</v>
+        <v>22000</v>
       </c>
       <c r="G33" s="3">
-        <v>51300</v>
+        <v>49700</v>
       </c>
       <c r="H33" s="3">
-        <v>181900</v>
+        <v>176300</v>
       </c>
       <c r="I33" s="3">
-        <v>-243700</v>
+        <v>-236200</v>
       </c>
       <c r="J33" s="3">
-        <v>-9800</v>
+        <v>-9500</v>
       </c>
       <c r="K33" s="3">
         <v>-19100</v>
@@ -2867,25 +2867,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-14300</v>
+        <v>-13900</v>
       </c>
       <c r="E35" s="3">
-        <v>-16600</v>
+        <v>-16100</v>
       </c>
       <c r="F35" s="3">
-        <v>22700</v>
+        <v>22000</v>
       </c>
       <c r="G35" s="3">
-        <v>51300</v>
+        <v>49700</v>
       </c>
       <c r="H35" s="3">
-        <v>181900</v>
+        <v>176300</v>
       </c>
       <c r="I35" s="3">
-        <v>-243700</v>
+        <v>-236200</v>
       </c>
       <c r="J35" s="3">
-        <v>-9800</v>
+        <v>-9500</v>
       </c>
       <c r="K35" s="3">
         <v>-19100</v>
@@ -3100,25 +3100,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>14800</v>
+        <v>14300</v>
       </c>
       <c r="E41" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="F41" s="3">
-        <v>12500</v>
+        <v>12200</v>
       </c>
       <c r="G41" s="3">
-        <v>18200</v>
+        <v>17600</v>
       </c>
       <c r="H41" s="3">
-        <v>21200</v>
+        <v>20500</v>
       </c>
       <c r="I41" s="3">
-        <v>30800</v>
+        <v>29900</v>
       </c>
       <c r="J41" s="3">
-        <v>17600</v>
+        <v>17100</v>
       </c>
       <c r="K41" s="3">
         <v>27700</v>
@@ -3266,25 +3266,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5900</v>
+        <v>5700</v>
       </c>
       <c r="E43" s="3">
-        <v>12000</v>
+        <v>11600</v>
       </c>
       <c r="F43" s="3">
-        <v>33600</v>
+        <v>32600</v>
       </c>
       <c r="G43" s="3">
-        <v>31500</v>
+        <v>30600</v>
       </c>
       <c r="H43" s="3">
-        <v>33000</v>
+        <v>32000</v>
       </c>
       <c r="I43" s="3">
-        <v>46000</v>
+        <v>44600</v>
       </c>
       <c r="J43" s="3">
-        <v>54700</v>
+        <v>53000</v>
       </c>
       <c r="K43" s="3">
         <v>60600</v>
@@ -3349,25 +3349,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>39200</v>
+        <v>38000</v>
       </c>
       <c r="E44" s="3">
-        <v>55000</v>
+        <v>53300</v>
       </c>
       <c r="F44" s="3">
-        <v>53900</v>
+        <v>52200</v>
       </c>
       <c r="G44" s="3">
-        <v>60600</v>
+        <v>58700</v>
       </c>
       <c r="H44" s="3">
-        <v>62000</v>
+        <v>60100</v>
       </c>
       <c r="I44" s="3">
-        <v>41500</v>
+        <v>40200</v>
       </c>
       <c r="J44" s="3">
-        <v>13800</v>
+        <v>13400</v>
       </c>
       <c r="K44" s="3">
         <v>10000</v>
@@ -3432,25 +3432,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>9500</v>
+        <v>9200</v>
       </c>
       <c r="E45" s="3">
-        <v>8500</v>
+        <v>8300</v>
       </c>
       <c r="F45" s="3">
-        <v>9600</v>
+        <v>9300</v>
       </c>
       <c r="G45" s="3">
-        <v>14000</v>
+        <v>13500</v>
       </c>
       <c r="H45" s="3">
-        <v>15600</v>
+        <v>15100</v>
       </c>
       <c r="I45" s="3">
-        <v>15600</v>
+        <v>15100</v>
       </c>
       <c r="J45" s="3">
-        <v>20600</v>
+        <v>20000</v>
       </c>
       <c r="K45" s="3">
         <v>21400</v>
@@ -3515,25 +3515,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>69300</v>
+        <v>67200</v>
       </c>
       <c r="E46" s="3">
-        <v>78900</v>
+        <v>76500</v>
       </c>
       <c r="F46" s="3">
-        <v>109600</v>
+        <v>106300</v>
       </c>
       <c r="G46" s="3">
-        <v>124300</v>
+        <v>120500</v>
       </c>
       <c r="H46" s="3">
-        <v>131800</v>
+        <v>127700</v>
       </c>
       <c r="I46" s="3">
-        <v>133800</v>
+        <v>129700</v>
       </c>
       <c r="J46" s="3">
-        <v>106800</v>
+        <v>103500</v>
       </c>
       <c r="K46" s="3">
         <v>119600</v>
@@ -3598,25 +3598,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>41000</v>
+        <v>39800</v>
       </c>
       <c r="E47" s="3">
-        <v>41000</v>
+        <v>39800</v>
       </c>
       <c r="F47" s="3">
-        <v>41000</v>
+        <v>39800</v>
       </c>
       <c r="G47" s="3">
-        <v>41000</v>
+        <v>39800</v>
       </c>
       <c r="H47" s="3">
-        <v>41000</v>
+        <v>39800</v>
       </c>
       <c r="I47" s="3">
-        <v>41000</v>
+        <v>39800</v>
       </c>
       <c r="J47" s="3">
-        <v>41000</v>
+        <v>39800</v>
       </c>
       <c r="K47" s="3">
         <v>41400</v>
@@ -3681,25 +3681,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>9400</v>
+        <v>9100</v>
       </c>
       <c r="E48" s="3">
+        <v>8900</v>
+      </c>
+      <c r="F48" s="3">
+        <v>8400</v>
+      </c>
+      <c r="G48" s="3">
+        <v>8800</v>
+      </c>
+      <c r="H48" s="3">
+        <v>8900</v>
+      </c>
+      <c r="I48" s="3">
         <v>9200</v>
       </c>
-      <c r="F48" s="3">
-        <v>8600</v>
-      </c>
-      <c r="G48" s="3">
-        <v>9100</v>
-      </c>
-      <c r="H48" s="3">
-        <v>9100</v>
-      </c>
-      <c r="I48" s="3">
-        <v>9500</v>
-      </c>
       <c r="J48" s="3">
-        <v>10200</v>
+        <v>9900</v>
       </c>
       <c r="K48" s="3">
         <v>10900</v>
@@ -4019,19 +4019,19 @@
         <v>0</v>
       </c>
       <c r="F52" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="G52" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="H52" s="3">
-        <v>3800</v>
+        <v>3700</v>
       </c>
       <c r="I52" s="3">
-        <v>4300</v>
+        <v>4100</v>
       </c>
       <c r="J52" s="3">
-        <v>4700</v>
+        <v>4500</v>
       </c>
       <c r="K52" s="3">
         <v>5200</v>
@@ -4179,25 +4179,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>119700</v>
+        <v>116100</v>
       </c>
       <c r="E54" s="3">
-        <v>129200</v>
+        <v>125200</v>
       </c>
       <c r="F54" s="3">
-        <v>162300</v>
+        <v>157300</v>
       </c>
       <c r="G54" s="3">
-        <v>177900</v>
+        <v>172400</v>
       </c>
       <c r="H54" s="3">
-        <v>185800</v>
+        <v>180100</v>
       </c>
       <c r="I54" s="3">
-        <v>188600</v>
+        <v>182800</v>
       </c>
       <c r="J54" s="3">
-        <v>162700</v>
+        <v>157700</v>
       </c>
       <c r="K54" s="3">
         <v>177200</v>
@@ -4324,25 +4324,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E57" s="3">
         <v>11300</v>
       </c>
-      <c r="E57" s="3">
-        <v>11600</v>
-      </c>
       <c r="F57" s="3">
-        <v>11900</v>
+        <v>11500</v>
       </c>
       <c r="G57" s="3">
-        <v>13200</v>
+        <v>12700</v>
       </c>
       <c r="H57" s="3">
-        <v>13200</v>
+        <v>12800</v>
       </c>
       <c r="I57" s="3">
-        <v>19200</v>
+        <v>18600</v>
       </c>
       <c r="J57" s="3">
-        <v>13700</v>
+        <v>13300</v>
       </c>
       <c r="K57" s="3">
         <v>14500</v>
@@ -4407,25 +4407,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>32800</v>
+        <v>31800</v>
       </c>
       <c r="E58" s="3">
-        <v>40900</v>
+        <v>39600</v>
       </c>
       <c r="F58" s="3">
-        <v>48500</v>
+        <v>47000</v>
       </c>
       <c r="G58" s="3">
-        <v>55200</v>
+        <v>53500</v>
       </c>
       <c r="H58" s="3">
-        <v>55200</v>
+        <v>53500</v>
       </c>
       <c r="I58" s="3">
-        <v>11400</v>
+        <v>11100</v>
       </c>
       <c r="J58" s="3">
-        <v>247200</v>
+        <v>239600</v>
       </c>
       <c r="K58" s="3">
         <v>21700</v>
@@ -4490,25 +4490,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>69400</v>
+        <v>67300</v>
       </c>
       <c r="E59" s="3">
-        <v>77100</v>
+        <v>74700</v>
       </c>
       <c r="F59" s="3">
-        <v>86900</v>
+        <v>84300</v>
       </c>
       <c r="G59" s="3">
-        <v>116200</v>
+        <v>112700</v>
       </c>
       <c r="H59" s="3">
-        <v>190700</v>
+        <v>184900</v>
       </c>
       <c r="I59" s="3">
-        <v>414200</v>
+        <v>401500</v>
       </c>
       <c r="J59" s="3">
-        <v>113300</v>
+        <v>109800</v>
       </c>
       <c r="K59" s="3">
         <v>128600</v>
@@ -4573,25 +4573,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>113500</v>
+        <v>110000</v>
       </c>
       <c r="E60" s="3">
-        <v>129600</v>
+        <v>125600</v>
       </c>
       <c r="F60" s="3">
-        <v>147300</v>
+        <v>142800</v>
       </c>
       <c r="G60" s="3">
-        <v>184600</v>
+        <v>178900</v>
       </c>
       <c r="H60" s="3">
-        <v>259100</v>
+        <v>251200</v>
       </c>
       <c r="I60" s="3">
-        <v>444800</v>
+        <v>431200</v>
       </c>
       <c r="J60" s="3">
-        <v>374200</v>
+        <v>362700</v>
       </c>
       <c r="K60" s="3">
         <v>164800</v>
@@ -4656,25 +4656,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>87000</v>
+        <v>84400</v>
       </c>
       <c r="E61" s="3">
-        <v>73600</v>
+        <v>71300</v>
       </c>
       <c r="F61" s="3">
-        <v>134100</v>
+        <v>130000</v>
       </c>
       <c r="G61" s="3">
-        <v>131500</v>
+        <v>127500</v>
       </c>
       <c r="H61" s="3">
-        <v>132600</v>
+        <v>128500</v>
       </c>
       <c r="I61" s="3">
-        <v>53200</v>
+        <v>51600</v>
       </c>
       <c r="J61" s="3">
-        <v>56200</v>
+        <v>54400</v>
       </c>
       <c r="K61" s="3">
         <v>294100</v>
@@ -4745,19 +4745,19 @@
         <v>800</v>
       </c>
       <c r="F62" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="G62" s="3">
         <v>1500</v>
       </c>
       <c r="H62" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="I62" s="3">
-        <v>150100</v>
+        <v>145500</v>
       </c>
       <c r="J62" s="3">
-        <v>19700</v>
+        <v>19100</v>
       </c>
       <c r="K62" s="3">
         <v>4900</v>
@@ -5071,25 +5071,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>201300</v>
+        <v>195100</v>
       </c>
       <c r="E66" s="3">
-        <v>204000</v>
+        <v>197700</v>
       </c>
       <c r="F66" s="3">
-        <v>283000</v>
+        <v>274300</v>
       </c>
       <c r="G66" s="3">
-        <v>317700</v>
+        <v>307900</v>
       </c>
       <c r="H66" s="3">
-        <v>393400</v>
+        <v>381300</v>
       </c>
       <c r="I66" s="3">
-        <v>648100</v>
+        <v>628200</v>
       </c>
       <c r="J66" s="3">
-        <v>450000</v>
+        <v>436200</v>
       </c>
       <c r="K66" s="3">
         <v>463800</v>
@@ -5351,19 +5351,19 @@
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>91300</v>
+        <v>88500</v>
       </c>
       <c r="E70" s="3">
-        <v>86700</v>
+        <v>84100</v>
       </c>
       <c r="F70" s="3">
-        <v>77900</v>
+        <v>75500</v>
       </c>
       <c r="G70" s="3">
-        <v>74800</v>
+        <v>72500</v>
       </c>
       <c r="H70" s="3">
-        <v>62100</v>
+        <v>60200</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -5517,25 +5517,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-2290100</v>
+        <v>-2219700</v>
       </c>
       <c r="E72" s="3">
-        <v>-2275800</v>
+        <v>-2205800</v>
       </c>
       <c r="F72" s="3">
-        <v>-2259200</v>
+        <v>-2189800</v>
       </c>
       <c r="G72" s="3">
-        <v>-2282000</v>
+        <v>-2211800</v>
       </c>
       <c r="H72" s="3">
-        <v>-2333300</v>
+        <v>-2261500</v>
       </c>
       <c r="I72" s="3">
-        <v>-2515200</v>
+        <v>-2437900</v>
       </c>
       <c r="J72" s="3">
-        <v>-2271400</v>
+        <v>-2201600</v>
       </c>
       <c r="K72" s="3">
         <v>-2285000</v>
@@ -5849,25 +5849,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-172900</v>
+        <v>-167600</v>
       </c>
       <c r="E76" s="3">
-        <v>-161500</v>
+        <v>-156600</v>
       </c>
       <c r="F76" s="3">
-        <v>-198600</v>
+        <v>-192500</v>
       </c>
       <c r="G76" s="3">
-        <v>-214600</v>
+        <v>-208000</v>
       </c>
       <c r="H76" s="3">
-        <v>-269700</v>
+        <v>-261400</v>
       </c>
       <c r="I76" s="3">
-        <v>-459500</v>
+        <v>-445400</v>
       </c>
       <c r="J76" s="3">
-        <v>-287300</v>
+        <v>-278500</v>
       </c>
       <c r="K76" s="3">
         <v>-286600</v>
@@ -6103,25 +6103,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-14300</v>
+        <v>-13900</v>
       </c>
       <c r="E81" s="3">
-        <v>-16600</v>
+        <v>-16100</v>
       </c>
       <c r="F81" s="3">
-        <v>22700</v>
+        <v>22000</v>
       </c>
       <c r="G81" s="3">
-        <v>51300</v>
+        <v>49700</v>
       </c>
       <c r="H81" s="3">
-        <v>181900</v>
+        <v>176300</v>
       </c>
       <c r="I81" s="3">
-        <v>-243700</v>
+        <v>-236200</v>
       </c>
       <c r="J81" s="3">
-        <v>-9800</v>
+        <v>-9500</v>
       </c>
       <c r="K81" s="3">
         <v>-19100</v>
@@ -6226,7 +6226,7 @@
         <v>16</v>
       </c>
       <c r="G83" s="3">
-        <v>4200</v>
+        <v>4100</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>16</v>
@@ -6724,13 +6724,13 @@
         <v>16</v>
       </c>
       <c r="G89" s="3">
-        <v>-120100</v>
+        <v>-116400</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>16</v>
       </c>
       <c r="I89" s="3">
-        <v>-78200</v>
+        <v>-75800</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>16</v>
@@ -7087,7 +7087,7 @@
         <v>16</v>
       </c>
       <c r="G94" s="3">
-        <v>-2400</v>
+        <v>-2300</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>16</v>
@@ -7533,13 +7533,13 @@
         <v>16</v>
       </c>
       <c r="G100" s="3">
-        <v>108700</v>
+        <v>105300</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>16</v>
       </c>
       <c r="I100" s="3">
-        <v>78500</v>
+        <v>76000</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>16</v>
@@ -7699,7 +7699,7 @@
         <v>16</v>
       </c>
       <c r="G102" s="3">
-        <v>-13800</v>
+        <v>-13400</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>16</v>

--- a/AAII_Financials/Quarterly/UXIN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/UXIN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="92">
   <si>
     <t>UXIN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,371 +665,384 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>64800</v>
+        <v>47500</v>
       </c>
       <c r="E8" s="3">
-        <v>85300</v>
+        <v>65000</v>
       </c>
       <c r="F8" s="3">
-        <v>86300</v>
+        <v>85400</v>
       </c>
       <c r="G8" s="3">
-        <v>69700</v>
+        <v>86500</v>
       </c>
       <c r="H8" s="3">
         <v>69800</v>
       </c>
       <c r="I8" s="3">
-        <v>47700</v>
+        <v>70000</v>
       </c>
       <c r="J8" s="3">
+        <v>47800</v>
+      </c>
+      <c r="K8" s="3">
         <v>38300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>28100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>44900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>11200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>9200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>16400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>46900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>71000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>68500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>51300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>100300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>50200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>38800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>28800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>104400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>80300</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>55000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>48900</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>51000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>34800</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>64400</v>
+        <v>46400</v>
       </c>
       <c r="E9" s="3">
-        <v>84100</v>
+        <v>64600</v>
       </c>
       <c r="F9" s="3">
-        <v>85300</v>
+        <v>84300</v>
       </c>
       <c r="G9" s="3">
-        <v>69500</v>
+        <v>85500</v>
       </c>
       <c r="H9" s="3">
-        <v>66900</v>
+        <v>69700</v>
       </c>
       <c r="I9" s="3">
-        <v>45600</v>
+        <v>67100</v>
       </c>
       <c r="J9" s="3">
+        <v>45700</v>
+      </c>
+      <c r="K9" s="3">
         <v>36700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>26900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>43600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>13700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>11800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>17500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>14600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>31800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>32000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>52100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>63700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>71500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>58800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>51100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>36700</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>29000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>24300</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>20600</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>23500</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>19700</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E10" s="3">
         <v>400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1500</v>
-      </c>
-      <c r="K10" s="3">
-        <v>1300</v>
       </c>
       <c r="L10" s="3">
         <v>1300</v>
       </c>
       <c r="M10" s="3">
+        <v>1300</v>
+      </c>
+      <c r="N10" s="3">
         <v>-2500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>-2600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>-1100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>32200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>39200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>36600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>-800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>36500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>-21200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>-19900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>-22300</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>67700</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>51300</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>30700</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>28300</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>27500</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>15100</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1059,8 +1072,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1068,82 +1082,85 @@
         <v>1300</v>
       </c>
       <c r="E12" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F12" s="3">
         <v>1400</v>
-      </c>
-      <c r="F12" s="3">
-        <v>1200</v>
       </c>
       <c r="G12" s="3">
         <v>1200</v>
       </c>
       <c r="H12" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I12" s="3">
         <v>1600</v>
-      </c>
-      <c r="I12" s="3">
-        <v>1100</v>
       </c>
       <c r="J12" s="3">
         <v>1100</v>
       </c>
       <c r="K12" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L12" s="3">
         <v>2100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>2500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>2800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>3400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>4900</v>
       </c>
-      <c r="P12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q12" s="3">
+      <c r="Q12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R12" s="3">
         <v>8300</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>8800</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>17200</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>18900</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>16900</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>17600</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>13300</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>11600</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>7300</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>7500</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>7000</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>7200</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1225,8 +1242,11 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1234,16 +1254,16 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>400</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>16</v>
+      <c r="G14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>16</v>
@@ -1251,36 +1271,36 @@
       <c r="J14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>-28200</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>5900</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>1400</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
       <c r="U14" s="3">
         <v>0</v>
       </c>
@@ -1308,8 +1328,11 @@
       <c r="AC14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1391,8 +1414,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1419,174 +1445,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>78100</v>
+        <v>55400</v>
       </c>
       <c r="E17" s="3">
-        <v>100300</v>
+        <v>78300</v>
       </c>
       <c r="F17" s="3">
-        <v>99600</v>
+        <v>100500</v>
       </c>
       <c r="G17" s="3">
-        <v>84800</v>
+        <v>99800</v>
       </c>
       <c r="H17" s="3">
-        <v>79800</v>
+        <v>85000</v>
       </c>
       <c r="I17" s="3">
-        <v>54000</v>
+        <v>80000</v>
       </c>
       <c r="J17" s="3">
+        <v>54100</v>
+      </c>
+      <c r="K17" s="3">
         <v>45300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>42100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>67800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>34900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>28100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>333000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>96200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>110000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>127800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>96400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>478800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>121400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>214800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>91800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>176100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>157900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>112600</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>111300</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>78500</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>64500</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="E18" s="3">
         <v>-13300</v>
       </c>
-      <c r="E18" s="3">
-        <v>-15000</v>
-      </c>
       <c r="F18" s="3">
+        <v>-15100</v>
+      </c>
+      <c r="G18" s="3">
         <v>-13300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-15100</v>
       </c>
-      <c r="H18" s="3">
-        <v>-10000</v>
-      </c>
       <c r="I18" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="J18" s="3">
         <v>-6300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-7000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-14000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-22900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-23700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-18900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-316600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-49300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-39000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-59300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-45100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-378500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-71100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-176000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-63000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-71700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-77600</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-57600</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-62400</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-27500</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>-29700</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1616,91 +1649,95 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1700</v>
       </c>
-      <c r="F20" s="3">
-        <v>36100</v>
-      </c>
       <c r="G20" s="3">
-        <v>65600</v>
+        <v>36200</v>
       </c>
       <c r="H20" s="3">
-        <v>187400</v>
+        <v>65700</v>
       </c>
       <c r="I20" s="3">
-        <v>-228600</v>
+        <v>187800</v>
       </c>
       <c r="J20" s="3">
+        <v>-229100</v>
+      </c>
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-14800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-4400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-5400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-3800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>172800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-3800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>215900</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-50900</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-62400</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-35900</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-27700</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-11400</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-12400</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1713,17 +1750,17 @@
       <c r="F21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G21" s="3">
-        <v>54600</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-233000</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>16</v>
+      <c r="G21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" s="3">
+        <v>54700</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-233500</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>16</v>
@@ -1752,79 +1789,82 @@
       <c r="S21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U21" s="3">
         <v>-191400</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="W21" s="3">
+      <c r="W21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X21" s="3">
         <v>-111100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-130900</v>
       </c>
-      <c r="Y21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Z21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AA21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB21" s="3">
         <v>-71500</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>-32200</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>-25700</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E22" s="3">
         <v>700</v>
       </c>
       <c r="F22" s="3">
+        <v>700</v>
+      </c>
+      <c r="G22" s="3">
         <v>800</v>
       </c>
-      <c r="G22" s="3">
-        <v>700</v>
-      </c>
       <c r="H22" s="3">
+        <v>800</v>
+      </c>
+      <c r="I22" s="3">
         <v>1100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>1300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>2500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>3000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>3100</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N22" s="3" t="s">
         <v>16</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
+      <c r="P22" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
@@ -1865,91 +1905,97 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-13900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-17500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>22100</v>
       </c>
-      <c r="G23" s="3">
-        <v>49700</v>
-      </c>
       <c r="H23" s="3">
-        <v>176300</v>
+        <v>49900</v>
       </c>
       <c r="I23" s="3">
-        <v>-236200</v>
+        <v>176700</v>
       </c>
       <c r="J23" s="3">
+        <v>-236800</v>
+      </c>
+      <c r="K23" s="3">
         <v>-9600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-19100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-24800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-38500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-23300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-322000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-50000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-42700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-58300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-45800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-205800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-74900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>39900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-113900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-134100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-113500</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-85300</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-73900</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-39800</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-31500</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1987,52 +2033,55 @@
         <v>0</v>
       </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>100</v>
       </c>
-      <c r="V24" s="3">
-        <v>0</v>
-      </c>
       <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
         <v>100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-300</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>300</v>
       </c>
-      <c r="Z24" s="3">
-        <v>0</v>
-      </c>
       <c r="AA24" s="3">
         <v>0</v>
       </c>
       <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="3">
         <v>300</v>
       </c>
-      <c r="AC24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2114,174 +2163,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-13900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-17500</v>
       </c>
-      <c r="F26" s="3">
-        <v>22000</v>
-      </c>
       <c r="G26" s="3">
-        <v>49700</v>
+        <v>22100</v>
       </c>
       <c r="H26" s="3">
-        <v>176300</v>
+        <v>49800</v>
       </c>
       <c r="I26" s="3">
-        <v>-236200</v>
+        <v>176700</v>
       </c>
       <c r="J26" s="3">
+        <v>-236800</v>
+      </c>
+      <c r="K26" s="3">
         <v>-9600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-19100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-24800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-38500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-23300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-322000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-50300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-42700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-57400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-46100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-206000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-75100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>39900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-114000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-133800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-113900</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-85300</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-73900</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-40100</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-31500</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-115400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-13900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-16100</v>
       </c>
-      <c r="F27" s="3">
-        <v>22000</v>
-      </c>
       <c r="G27" s="3">
-        <v>49700</v>
+        <v>22100</v>
       </c>
       <c r="H27" s="3">
-        <v>176300</v>
+        <v>49800</v>
       </c>
       <c r="I27" s="3">
-        <v>-236200</v>
+        <v>176700</v>
       </c>
       <c r="J27" s="3">
+        <v>-236800</v>
+      </c>
+      <c r="K27" s="3">
         <v>-9500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-19100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-24100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-37800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-22500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-320100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-49300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-41100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-56100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-45100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-334600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-74800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>18100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-213700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-201000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-167600</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-103700</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-85900</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-55300</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-46300</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2363,8 +2421,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2377,8 +2438,8 @@
       <c r="F29" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
@@ -2399,38 +2460,38 @@
         <v>0</v>
       </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>43600</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-71800</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-118500</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
       <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <v>-900</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>1600</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-28400</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>-11200</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>-10500</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>-6400</v>
       </c>
-      <c r="X29" s="3">
-        <v>0</v>
-      </c>
       <c r="Y29" s="3">
         <v>0</v>
       </c>
@@ -2446,8 +2507,11 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2529,8 +2593,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2612,174 +2679,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1700</v>
       </c>
-      <c r="F32" s="3">
-        <v>-36100</v>
-      </c>
       <c r="G32" s="3">
-        <v>-65600</v>
+        <v>-36200</v>
       </c>
       <c r="H32" s="3">
-        <v>-187400</v>
+        <v>-65700</v>
       </c>
       <c r="I32" s="3">
-        <v>228600</v>
+        <v>-187800</v>
       </c>
       <c r="J32" s="3">
+        <v>229100</v>
+      </c>
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>14800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>4400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>5400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>3800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-172800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>3800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-215900</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>50900</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>62400</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>35900</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>27700</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>11400</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>12400</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-115400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-13900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-16100</v>
       </c>
-      <c r="F33" s="3">
-        <v>22000</v>
-      </c>
       <c r="G33" s="3">
-        <v>49700</v>
+        <v>22100</v>
       </c>
       <c r="H33" s="3">
-        <v>176300</v>
+        <v>49800</v>
       </c>
       <c r="I33" s="3">
-        <v>-236200</v>
+        <v>176700</v>
       </c>
       <c r="J33" s="3">
+        <v>-236800</v>
+      </c>
+      <c r="K33" s="3">
         <v>-9500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-19100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-24100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-37800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>21100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-391900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-167800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-41100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-57000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-43500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-363000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-86100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>7600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-220100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-201000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-167600</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-103700</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-85900</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-55300</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-46300</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2861,179 +2937,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-115400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-13900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-16100</v>
       </c>
-      <c r="F35" s="3">
-        <v>22000</v>
-      </c>
       <c r="G35" s="3">
-        <v>49700</v>
+        <v>22100</v>
       </c>
       <c r="H35" s="3">
-        <v>176300</v>
+        <v>49800</v>
       </c>
       <c r="I35" s="3">
-        <v>-236200</v>
+        <v>176700</v>
       </c>
       <c r="J35" s="3">
+        <v>-236800</v>
+      </c>
+      <c r="K35" s="3">
         <v>-9500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-19100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-24100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-37800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>21100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-391900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-167800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-41100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-57000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-43500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-363000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-86100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>7600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-220100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-201000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-167600</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-103700</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-85900</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-55300</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-46300</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3063,8 +3148,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3094,80 +3180,81 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>14300</v>
+        <v>12800</v>
       </c>
       <c r="E41" s="3">
+        <v>14400</v>
+      </c>
+      <c r="F41" s="3">
         <v>3400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>12200</v>
       </c>
-      <c r="G41" s="3">
-        <v>17600</v>
-      </c>
       <c r="H41" s="3">
-        <v>20500</v>
+        <v>17700</v>
       </c>
       <c r="I41" s="3">
+        <v>20600</v>
+      </c>
+      <c r="J41" s="3">
         <v>29900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>17100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>27700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>40100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>32000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>35500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>54000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>74900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>96600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>122100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>69500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>121800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>98300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>116100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>175000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>43300</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>90300</v>
       </c>
-      <c r="Z41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="AA41" s="3" t="s">
         <v>16</v>
       </c>
@@ -3177,8 +3264,11 @@
       <c r="AC41" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3213,44 +3303,44 @@
         <v>0</v>
       </c>
       <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
         <v>1100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>2400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>19100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>21500</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>29700</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>116800</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>99300</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>152900</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>54500</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>50500</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>65300</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>59400</v>
       </c>
-      <c r="Z42" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="AA42" s="3" t="s">
         <v>16</v>
       </c>
@@ -3260,80 +3350,83 @@
       <c r="AC42" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E43" s="3">
         <v>5700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>11600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>32600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>30600</v>
       </c>
-      <c r="H43" s="3">
-        <v>32000</v>
-      </c>
       <c r="I43" s="3">
-        <v>44600</v>
+        <v>32100</v>
       </c>
       <c r="J43" s="3">
+        <v>44700</v>
+      </c>
+      <c r="K43" s="3">
         <v>53000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>60600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>69200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>89000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>120700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>114600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>331400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>74200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>40300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>239200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>230800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>179400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>355100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>206500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>171000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>125600</v>
       </c>
-      <c r="Z43" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="AA43" s="3" t="s">
         <v>16</v>
       </c>
@@ -3343,80 +3436,83 @@
       <c r="AC43" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>38000</v>
+        <v>15300</v>
       </c>
       <c r="E44" s="3">
-        <v>53300</v>
+        <v>38100</v>
       </c>
       <c r="F44" s="3">
-        <v>52200</v>
+        <v>53400</v>
       </c>
       <c r="G44" s="3">
-        <v>58700</v>
+        <v>52300</v>
       </c>
       <c r="H44" s="3">
-        <v>60100</v>
+        <v>58900</v>
       </c>
       <c r="I44" s="3">
-        <v>40200</v>
+        <v>60200</v>
       </c>
       <c r="J44" s="3">
+        <v>40300</v>
+      </c>
+      <c r="K44" s="3">
         <v>13400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>10000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>7700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>4700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>2400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>2900</v>
-      </c>
-      <c r="U44" s="3">
-        <v>2600</v>
       </c>
       <c r="V44" s="3">
         <v>2600</v>
       </c>
       <c r="W44" s="3">
+        <v>2600</v>
+      </c>
+      <c r="X44" s="3">
         <v>6400</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>11600</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>18200</v>
       </c>
-      <c r="Z44" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="AA44" s="3" t="s">
         <v>16</v>
       </c>
@@ -3426,80 +3522,83 @@
       <c r="AC44" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E45" s="3">
         <v>9200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>8300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>9300</v>
       </c>
-      <c r="G45" s="3">
-        <v>13500</v>
-      </c>
       <c r="H45" s="3">
-        <v>15100</v>
+        <v>13600</v>
       </c>
       <c r="I45" s="3">
         <v>15100</v>
       </c>
       <c r="J45" s="3">
+        <v>15100</v>
+      </c>
+      <c r="K45" s="3">
         <v>20000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>21400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>26700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>30800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>81900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>180600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>346700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>767200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>760500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>514100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>894200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>538400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>437800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>443800</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>436500</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>309300</v>
       </c>
-      <c r="Z45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="AA45" s="3" t="s">
         <v>16</v>
       </c>
@@ -3509,80 +3608,83 @@
       <c r="AC45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>67200</v>
+        <v>38900</v>
       </c>
       <c r="E46" s="3">
-        <v>76500</v>
+        <v>67300</v>
       </c>
       <c r="F46" s="3">
-        <v>106300</v>
+        <v>76700</v>
       </c>
       <c r="G46" s="3">
-        <v>120500</v>
+        <v>106500</v>
       </c>
       <c r="H46" s="3">
-        <v>127700</v>
+        <v>120700</v>
       </c>
       <c r="I46" s="3">
-        <v>129700</v>
+        <v>128000</v>
       </c>
       <c r="J46" s="3">
+        <v>130000</v>
+      </c>
+      <c r="K46" s="3">
         <v>103500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>119600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>143600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>156500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>240900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>353200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>774200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>961500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>955100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>942000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1014400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>971700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>966000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>882200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>727600</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>602800</v>
       </c>
-      <c r="Z46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="AA46" s="3" t="s">
         <v>16</v>
       </c>
@@ -3592,80 +3694,83 @@
       <c r="AC46" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>39900</v>
+      </c>
+      <c r="E47" s="3">
+        <v>39900</v>
+      </c>
+      <c r="F47" s="3">
+        <v>39900</v>
+      </c>
+      <c r="G47" s="3">
+        <v>39900</v>
+      </c>
+      <c r="H47" s="3">
+        <v>39900</v>
+      </c>
+      <c r="I47" s="3">
+        <v>39900</v>
+      </c>
+      <c r="J47" s="3">
+        <v>39900</v>
+      </c>
+      <c r="K47" s="3">
         <v>39800</v>
       </c>
-      <c r="E47" s="3">
-        <v>39800</v>
-      </c>
-      <c r="F47" s="3">
-        <v>39800</v>
-      </c>
-      <c r="G47" s="3">
-        <v>39800</v>
-      </c>
-      <c r="H47" s="3">
-        <v>39800</v>
-      </c>
-      <c r="I47" s="3">
-        <v>39800</v>
-      </c>
-      <c r="J47" s="3">
-        <v>39800</v>
-      </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>41400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>40200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>41400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>41000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>43700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>42700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>41100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>40800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>54200</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>106400</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>50500</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>7700</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>5600</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>6000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>6100</v>
       </c>
-      <c r="Z47" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="AA47" s="3" t="s">
         <v>16</v>
       </c>
@@ -3675,80 +3780,83 @@
       <c r="AC47" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>20500</v>
+      </c>
+      <c r="E48" s="3">
         <v>9100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>8900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>8400</v>
-      </c>
-      <c r="G48" s="3">
-        <v>8800</v>
       </c>
       <c r="H48" s="3">
         <v>8900</v>
       </c>
       <c r="I48" s="3">
+        <v>8900</v>
+      </c>
+      <c r="J48" s="3">
         <v>9200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>9900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>10900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>13400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>16400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>18200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>19300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>24400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>50500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>59200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>68700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>60600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>29400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>27000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>25400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>23200</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>22600</v>
       </c>
-      <c r="Z48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="AA48" s="3" t="s">
         <v>16</v>
       </c>
@@ -3758,8 +3866,11 @@
       <c r="AC48" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3772,8 +3883,8 @@
       <c r="F49" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G49" s="3">
-        <v>0</v>
+      <c r="G49" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="H49" s="3">
         <v>0</v>
@@ -3797,41 +3908,41 @@
         <v>0</v>
       </c>
       <c r="O49" s="3">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="P49" s="3">
         <v>1500</v>
       </c>
       <c r="Q49" s="3">
+        <v>1500</v>
+      </c>
+      <c r="R49" s="3">
         <v>19200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>19900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>19800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>23200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>19900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>19400</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>12200</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>12700</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>12900</v>
       </c>
-      <c r="Z49" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="AA49" s="3" t="s">
         <v>16</v>
       </c>
@@ -3841,8 +3952,11 @@
       <c r="AC49" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3924,8 +4038,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4007,8 +4124,11 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4019,35 +4139,35 @@
         <v>0</v>
       </c>
       <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
         <v>2900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>3300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>3700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>4100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>4500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>5200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>5400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>6100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>6600</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>16</v>
       </c>
@@ -4060,26 +4180,26 @@
       <c r="S52" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T52" s="3">
-        <v>0</v>
+      <c r="T52" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="U52" s="3">
         <v>0</v>
       </c>
       <c r="V52" s="3">
+        <v>0</v>
+      </c>
+      <c r="W52" s="3">
         <v>15800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>16200</v>
-      </c>
-      <c r="X52" s="3">
-        <v>16800</v>
       </c>
       <c r="Y52" s="3">
         <v>16800</v>
       </c>
-      <c r="Z52" s="3" t="s">
-        <v>16</v>
+      <c r="Z52" s="3">
+        <v>16800</v>
       </c>
       <c r="AA52" s="3" t="s">
         <v>16</v>
@@ -4090,8 +4210,11 @@
       <c r="AC52" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4173,80 +4296,83 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>116100</v>
+        <v>99200</v>
       </c>
       <c r="E54" s="3">
-        <v>125200</v>
+        <v>116300</v>
       </c>
       <c r="F54" s="3">
-        <v>157300</v>
+        <v>125500</v>
       </c>
       <c r="G54" s="3">
-        <v>172400</v>
+        <v>157600</v>
       </c>
       <c r="H54" s="3">
-        <v>180100</v>
+        <v>172800</v>
       </c>
       <c r="I54" s="3">
-        <v>182800</v>
+        <v>180500</v>
       </c>
       <c r="J54" s="3">
+        <v>183200</v>
+      </c>
+      <c r="K54" s="3">
         <v>157700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>177200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>202600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>220500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>306800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>417600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>842800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1072200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1075000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1084600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1118000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1071500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1036000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>941600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>786400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>661100</v>
       </c>
-      <c r="Z54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="AA54" s="3" t="s">
         <v>16</v>
       </c>
@@ -4256,8 +4382,11 @@
       <c r="AC54" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4287,8 +4416,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4318,80 +4448,81 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E57" s="3">
         <v>10900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>11300</v>
       </c>
-      <c r="F57" s="3">
-        <v>11500</v>
-      </c>
       <c r="G57" s="3">
-        <v>12700</v>
+        <v>11600</v>
       </c>
       <c r="H57" s="3">
         <v>12800</v>
       </c>
       <c r="I57" s="3">
+        <v>12800</v>
+      </c>
+      <c r="J57" s="3">
         <v>18600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>13300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>14500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>15800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>16600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>16700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>206400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>31500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>236600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>232800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>237300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>221700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>174300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>153100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>15800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>18900</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>15700</v>
       </c>
-      <c r="Z57" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="AA57" s="3" t="s">
         <v>16</v>
       </c>
@@ -4401,80 +4532,83 @@
       <c r="AC57" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>32400</v>
+      </c>
+      <c r="E58" s="3">
         <v>31800</v>
       </c>
-      <c r="E58" s="3">
-        <v>39600</v>
-      </c>
       <c r="F58" s="3">
-        <v>47000</v>
+        <v>39700</v>
       </c>
       <c r="G58" s="3">
-        <v>53500</v>
+        <v>47100</v>
       </c>
       <c r="H58" s="3">
-        <v>53500</v>
+        <v>53600</v>
       </c>
       <c r="I58" s="3">
+        <v>53600</v>
+      </c>
+      <c r="J58" s="3">
         <v>11100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>239600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>21700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>17100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>12500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>64400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>78000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>92100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>18700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>286200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>256800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>297500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>260800</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>160400</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>71500</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>63300</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>70800</v>
       </c>
-      <c r="Z58" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="AA58" s="3" t="s">
         <v>16</v>
       </c>
@@ -4484,80 +4618,83 @@
       <c r="AC58" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>67300</v>
+        <v>39900</v>
       </c>
       <c r="E59" s="3">
-        <v>74700</v>
+        <v>67400</v>
       </c>
       <c r="F59" s="3">
-        <v>84300</v>
+        <v>74900</v>
       </c>
       <c r="G59" s="3">
-        <v>112700</v>
+        <v>84500</v>
       </c>
       <c r="H59" s="3">
-        <v>184900</v>
+        <v>112900</v>
       </c>
       <c r="I59" s="3">
-        <v>401500</v>
+        <v>185300</v>
       </c>
       <c r="J59" s="3">
+        <v>402400</v>
+      </c>
+      <c r="K59" s="3">
         <v>109800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>128600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>138700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>151400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>224400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>200900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>345200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>260600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>219900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>161400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>581800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>153600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>161200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>587300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>561900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>447600</v>
       </c>
-      <c r="Z59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="AA59" s="3" t="s">
         <v>16</v>
       </c>
@@ -4567,80 +4704,83 @@
       <c r="AC59" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>110000</v>
+        <v>83400</v>
       </c>
       <c r="E60" s="3">
-        <v>125600</v>
+        <v>110200</v>
       </c>
       <c r="F60" s="3">
-        <v>142800</v>
+        <v>125900</v>
       </c>
       <c r="G60" s="3">
-        <v>178900</v>
+        <v>143100</v>
       </c>
       <c r="H60" s="3">
-        <v>251200</v>
+        <v>179300</v>
       </c>
       <c r="I60" s="3">
-        <v>431200</v>
+        <v>251700</v>
       </c>
       <c r="J60" s="3">
+        <v>432100</v>
+      </c>
+      <c r="K60" s="3">
         <v>362700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>164800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>171600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>180500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>305600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>485300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>468700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>515900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>738900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>655500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>701600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>588700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>474700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>674700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>644100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>534100</v>
       </c>
-      <c r="Z60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="AA60" s="3" t="s">
         <v>16</v>
       </c>
@@ -4650,77 +4790,80 @@
       <c r="AC60" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>84400</v>
+        <v>84900</v>
       </c>
       <c r="E61" s="3">
-        <v>71300</v>
+        <v>84500</v>
       </c>
       <c r="F61" s="3">
-        <v>130000</v>
+        <v>71400</v>
       </c>
       <c r="G61" s="3">
-        <v>127500</v>
+        <v>130300</v>
       </c>
       <c r="H61" s="3">
-        <v>128500</v>
+        <v>127800</v>
       </c>
       <c r="I61" s="3">
-        <v>51600</v>
+        <v>128800</v>
       </c>
       <c r="J61" s="3">
+        <v>51700</v>
+      </c>
+      <c r="K61" s="3">
         <v>54400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>294100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>253600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>274000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>283800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>301900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>299600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>313800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>45700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>69100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>54900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>90000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>95200</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>74400</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>55500</v>
       </c>
-      <c r="Y61" s="3">
-        <v>0</v>
-      </c>
       <c r="Z61" s="3">
         <v>0</v>
       </c>
@@ -4733,80 +4876,83 @@
       <c r="AC61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>800</v>
+        <v>10700</v>
       </c>
       <c r="E62" s="3">
         <v>800</v>
       </c>
       <c r="F62" s="3">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="G62" s="3">
         <v>1500</v>
       </c>
       <c r="H62" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I62" s="3">
         <v>1700</v>
       </c>
-      <c r="I62" s="3">
-        <v>145500</v>
-      </c>
       <c r="J62" s="3">
+        <v>145800</v>
+      </c>
+      <c r="K62" s="3">
         <v>19100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>4900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>35300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>44600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>42200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>12100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>10000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>32000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>5200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>15500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>32200</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>58300</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>51300</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>49400</v>
       </c>
-      <c r="Z62" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="AA62" s="3" t="s">
         <v>16</v>
       </c>
@@ -4816,8 +4962,11 @@
       <c r="AC62" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4899,8 +5048,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4982,8 +5134,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5065,80 +5220,83 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>195100</v>
+        <v>179000</v>
       </c>
       <c r="E66" s="3">
-        <v>197700</v>
+        <v>195500</v>
       </c>
       <c r="F66" s="3">
-        <v>274300</v>
+        <v>198100</v>
       </c>
       <c r="G66" s="3">
-        <v>307900</v>
+        <v>274900</v>
       </c>
       <c r="H66" s="3">
-        <v>381300</v>
+        <v>308600</v>
       </c>
       <c r="I66" s="3">
-        <v>628200</v>
+        <v>382200</v>
       </c>
       <c r="J66" s="3">
+        <v>629500</v>
+      </c>
+      <c r="K66" s="3">
         <v>436200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>463800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>460400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>499100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>631600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>787500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>769300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>841200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>794100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>756300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>756800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>694900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>602900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>804700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>749300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>582400</v>
       </c>
-      <c r="Z66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="AA66" s="3" t="s">
         <v>16</v>
       </c>
@@ -5148,8 +5306,11 @@
       <c r="AC66" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5179,8 +5340,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5262,8 +5424,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5345,28 +5510,31 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>88500</v>
+        <v>96100</v>
       </c>
       <c r="E70" s="3">
-        <v>84100</v>
+        <v>88700</v>
       </c>
       <c r="F70" s="3">
-        <v>75500</v>
+        <v>84200</v>
       </c>
       <c r="G70" s="3">
-        <v>72500</v>
+        <v>75600</v>
       </c>
       <c r="H70" s="3">
-        <v>60200</v>
+        <v>72700</v>
       </c>
       <c r="I70" s="3">
-        <v>0</v>
+        <v>60300</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -5408,17 +5576,17 @@
         <v>0</v>
       </c>
       <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
         <v>1521600</v>
       </c>
-      <c r="X70" s="3">
+      <c r="Y70" s="3">
         <v>1243800</v>
       </c>
-      <c r="Y70" s="3">
+      <c r="Z70" s="3">
         <v>1086400</v>
       </c>
-      <c r="Z70" s="3">
-        <v>0</v>
-      </c>
       <c r="AA70" s="3">
         <v>0</v>
       </c>
@@ -5428,8 +5596,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5511,80 +5682,83 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-2219700</v>
+        <v>-2339900</v>
       </c>
       <c r="E72" s="3">
-        <v>-2205800</v>
+        <v>-2224600</v>
       </c>
       <c r="F72" s="3">
-        <v>-2189800</v>
+        <v>-2210600</v>
       </c>
       <c r="G72" s="3">
-        <v>-2211800</v>
+        <v>-2194500</v>
       </c>
       <c r="H72" s="3">
-        <v>-2261500</v>
+        <v>-2216600</v>
       </c>
       <c r="I72" s="3">
-        <v>-2437900</v>
+        <v>-2266500</v>
       </c>
       <c r="J72" s="3">
+        <v>-2443200</v>
+      </c>
+      <c r="K72" s="3">
         <v>-2201600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-2285000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-2196200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-2278700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-2261300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-2443500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-1983500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-1785800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-1767700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-1675200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-1624700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-1505500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-1368000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-1397400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-1218100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-1016300</v>
       </c>
-      <c r="Z72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="AA72" s="3" t="s">
         <v>16</v>
       </c>
@@ -5594,8 +5768,11 @@
       <c r="AC72" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5677,8 +5854,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5760,8 +5940,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5843,80 +6026,83 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-167600</v>
+        <v>-175800</v>
       </c>
       <c r="E76" s="3">
-        <v>-156600</v>
+        <v>-167900</v>
       </c>
       <c r="F76" s="3">
-        <v>-192500</v>
+        <v>-156900</v>
       </c>
       <c r="G76" s="3">
-        <v>-208000</v>
+        <v>-192900</v>
       </c>
       <c r="H76" s="3">
-        <v>-261400</v>
+        <v>-208500</v>
       </c>
       <c r="I76" s="3">
-        <v>-445400</v>
+        <v>-262000</v>
       </c>
       <c r="J76" s="3">
+        <v>-446400</v>
+      </c>
+      <c r="K76" s="3">
         <v>-278500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-286600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-257800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-278600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-324800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-369900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>73500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>231000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>280900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>328400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>361200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>376600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>433100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-1384700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-1206700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-1007600</v>
       </c>
-      <c r="Z76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="AA76" s="3" t="s">
         <v>16</v>
       </c>
@@ -5926,8 +6112,11 @@
       <c r="AC76" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6009,179 +6198,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-115400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-13900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-16100</v>
       </c>
-      <c r="F81" s="3">
-        <v>22000</v>
-      </c>
       <c r="G81" s="3">
-        <v>49700</v>
+        <v>22100</v>
       </c>
       <c r="H81" s="3">
-        <v>176300</v>
+        <v>49800</v>
       </c>
       <c r="I81" s="3">
-        <v>-236200</v>
+        <v>176700</v>
       </c>
       <c r="J81" s="3">
+        <v>-236800</v>
+      </c>
+      <c r="K81" s="3">
         <v>-9500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-19100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-24100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-37800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>21100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-391900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-167800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-41100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-57000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-43500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-363000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-86100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>7600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-220100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-201000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-167600</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-103700</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-85900</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-55300</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-46300</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6211,8 +6409,9 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6225,18 +6424,18 @@
       <c r="F83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G83" s="3">
+      <c r="G83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H83" s="3">
         <v>4100</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I83" s="3">
+      <c r="I83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J83" s="3">
         <v>1900</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="K83" s="3" t="s">
         <v>16</v>
       </c>
@@ -6249,8 +6448,8 @@
       <c r="N83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O83" s="3">
-        <v>0</v>
+      <c r="O83" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
@@ -6265,37 +6464,40 @@
         <v>0</v>
       </c>
       <c r="T83" s="3">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3">
         <v>14400</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="W83" s="3">
+      <c r="W83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X83" s="3">
         <v>2800</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>3200</v>
       </c>
-      <c r="Y83" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Z83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AA83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB83" s="3">
         <v>2400</v>
       </c>
-      <c r="AB83" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="AC83" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6377,8 +6579,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6460,8 +6665,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6543,8 +6751,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6626,8 +6837,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6709,8 +6923,11 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6723,17 +6940,17 @@
       <c r="F89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G89" s="3">
-        <v>-116400</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-75800</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>16</v>
+      <c r="G89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-116700</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-76000</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>16</v>
@@ -6747,8 +6964,8 @@
       <c r="N89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
+      <c r="O89" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="P89" s="3">
         <v>0</v>
@@ -6763,37 +6980,40 @@
         <v>0</v>
       </c>
       <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
         <v>-347000</v>
       </c>
-      <c r="U89" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="W89" s="3">
+      <c r="W89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X89" s="3">
         <v>-53400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-121700</v>
       </c>
-      <c r="Y89" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Z89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AA89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB89" s="3">
         <v>-70300</v>
       </c>
-      <c r="AB89" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="AC89" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD89" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6823,8 +7043,9 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6849,8 +7070,8 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>16</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>16</v>
@@ -6861,8 +7082,8 @@
       <c r="N91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
@@ -6877,37 +7098,40 @@
         <v>0</v>
       </c>
       <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
         <v>-20400</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="W91" s="3">
+      <c r="W91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X91" s="3">
         <v>-5900</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-3400</v>
       </c>
-      <c r="Y91" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Z91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AA91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB91" s="3">
         <v>-3300</v>
       </c>
-      <c r="AB91" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="AC91" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6989,8 +7213,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7072,8 +7299,11 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7086,18 +7316,18 @@
       <c r="F94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G94" s="3">
+      <c r="G94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H94" s="3">
         <v>-2300</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I94" s="3">
+      <c r="I94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J94" s="3">
         <v>-500</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>16</v>
       </c>
@@ -7110,8 +7340,8 @@
       <c r="N94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
+      <c r="O94" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="P94" s="3">
         <v>0</v>
@@ -7126,37 +7356,40 @@
         <v>0</v>
       </c>
       <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
         <v>-164100</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="W94" s="3">
+      <c r="W94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X94" s="3">
         <v>-43800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-36000</v>
       </c>
-      <c r="Y94" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Z94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AA94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB94" s="3">
         <v>-88700</v>
       </c>
-      <c r="AB94" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="AC94" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD94" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7186,8 +7419,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7269,8 +7503,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7352,8 +7589,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7435,8 +7675,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7518,8 +7761,11 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7532,17 +7778,17 @@
       <c r="F100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G100" s="3">
-        <v>105300</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I100" s="3">
-        <v>76000</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>16</v>
+      <c r="G100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H100" s="3">
+        <v>105600</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J100" s="3">
+        <v>76200</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>16</v>
@@ -7556,8 +7802,8 @@
       <c r="N100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
+      <c r="O100" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="P100" s="3">
         <v>0</v>
@@ -7572,37 +7818,40 @@
         <v>0</v>
       </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>650200</v>
       </c>
-      <c r="U100" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="W100" s="3">
+      <c r="W100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X100" s="3">
         <v>230400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>110900</v>
       </c>
-      <c r="Y100" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Z100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AA100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB100" s="3">
         <v>181900</v>
       </c>
-      <c r="AB100" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="AC100" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD100" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7615,18 +7864,18 @@
       <c r="F101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I101" s="3">
+      <c r="G101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J101" s="3">
         <v>-200</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="K101" s="3" t="s">
         <v>16</v>
       </c>
@@ -7639,8 +7888,8 @@
       <c r="N101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
+      <c r="O101" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="P101" s="3">
         <v>0</v>
@@ -7655,37 +7904,40 @@
         <v>0</v>
       </c>
       <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
         <v>-1400</v>
       </c>
-      <c r="U101" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="W101" s="3">
+      <c r="W101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X101" s="3">
         <v>-100</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-200</v>
       </c>
-      <c r="Y101" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Z101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AA101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB101" s="3">
         <v>200</v>
       </c>
-      <c r="AB101" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="AC101" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7698,18 +7950,18 @@
       <c r="F102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G102" s="3">
-        <v>-13400</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I102" s="3">
+      <c r="G102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H102" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J102" s="3">
         <v>-400</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="K102" s="3" t="s">
         <v>16</v>
       </c>
@@ -7722,8 +7974,8 @@
       <c r="N102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
+      <c r="O102" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="P102" s="3">
         <v>0</v>
@@ -7738,33 +7990,36 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>137600</v>
       </c>
-      <c r="U102" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="W102" s="3">
+      <c r="W102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X102" s="3">
         <v>133100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-47000</v>
       </c>
-      <c r="Y102" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Z102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AA102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB102" s="3">
         <v>23200</v>
       </c>
-      <c r="AB102" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="AC102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD102" s="3" t="s">
         <v>16</v>
       </c>
     </row>
